--- a/Tests/Autotrude.xlsx
+++ b/Tests/Autotrude.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10030" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="10040" firstSheet="5" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,10 @@
     <sheet name="T6" sheetId="13" r:id="rId11"/>
     <sheet name="T19" sheetId="14" r:id="rId12"/>
     <sheet name="T20" sheetId="16" r:id="rId13"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId14"/>
+    <sheet name="Flow" sheetId="17" r:id="rId14"/>
     <sheet name="Spielen" sheetId="2" r:id="rId15"/>
+    <sheet name="kWh" sheetId="18" r:id="rId16"/>
+    <sheet name="Drying" sheetId="19" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'T19'!$A$57:$F$1146</definedName>
@@ -76,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3694" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3763" uniqueCount="233">
   <si>
     <t>Let’s recycle those plastic bottles!</t>
   </si>
@@ -626,12 +628,189 @@
   <si>
     <t>Clean nozzle to see if it's the cause of breakage during priming.</t>
   </si>
+  <si>
+    <t>~200 mm sample</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>flow rate</t>
+  </si>
+  <si>
+    <t>min/max diameter</t>
+  </si>
+  <si>
+    <t>tested flow rate</t>
+  </si>
+  <si>
+    <t>measured wall size</t>
+  </si>
+  <si>
+    <t>mass (g)</t>
+  </si>
+  <si>
+    <t>min dia (mm)</t>
+  </si>
+  <si>
+    <t>max dia (mm)</t>
+  </si>
+  <si>
+    <t>tested flow factor</t>
+  </si>
+  <si>
+    <t>nozzle dia.</t>
+  </si>
+  <si>
+    <t>measured wall width (mm)</t>
+  </si>
+  <si>
+    <t>line width (mm)</t>
+  </si>
+  <si>
+    <t>adjusted flow</t>
+  </si>
+  <si>
+    <t>linear density (g/m)</t>
+  </si>
+  <si>
+    <t>layer thickness (mm)</t>
+  </si>
+  <si>
+    <t>Ribbon width (mm)</t>
+  </si>
+  <si>
+    <t>Ribbon thickness (mm)</t>
+  </si>
+  <si>
+    <t>Recreator Nozzle diameter (mm)</t>
+  </si>
+  <si>
+    <t>% void</t>
+  </si>
+  <si>
+    <t>Goal: correlate something with adjusted flow</t>
+  </si>
+  <si>
+    <t>Energy Usage Experiment</t>
+  </si>
+  <si>
+    <t>Test Equipment</t>
+  </si>
+  <si>
+    <t>Recreator 3D Straight Path configuration</t>
+  </si>
+  <si>
+    <t>Zooz ZEN15 smart switch for metering (kWh every 5 s)</t>
+  </si>
+  <si>
+    <t>First bottle: silver cap (Diet Coke?) 2L, 0.33 mm thickness</t>
+  </si>
+  <si>
+    <t>Drying Time Experiment</t>
+  </si>
+  <si>
+    <t>PrintDry filament dryer</t>
+  </si>
+  <si>
+    <t>Test Conditions</t>
+  </si>
+  <si>
+    <t>75 C</t>
+  </si>
+  <si>
+    <t>Check every hour</t>
+  </si>
+  <si>
+    <t>Clear w/Red cap: Regular Coke?</t>
+  </si>
+  <si>
+    <t>Clear w/Blue cap: Regular Pepsi?</t>
+  </si>
+  <si>
+    <t>Clear w/Black cap:</t>
+  </si>
+  <si>
+    <t>Green w/Red Cap:</t>
+  </si>
+  <si>
+    <t>Green w/White Cap: Regular Mtn Dew</t>
+  </si>
+  <si>
+    <t>Sample 1: Green w/Red cap, WHT/BRN ties</t>
+  </si>
+  <si>
+    <t>Sample 3: Pepsi, 2 GRN ties</t>
+  </si>
+  <si>
+    <t>Sample 4: Pepsi, 2 BLK ties</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Sample 2: Green w/red cap BLK/BRN ties</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>one hour</t>
+  </si>
+  <si>
+    <t>two hours</t>
+  </si>
+  <si>
+    <t>Material Under Test</t>
+  </si>
+  <si>
+    <t>pultruded PET from 2L beverage bottles</t>
+  </si>
+  <si>
+    <t>1Sigma Low</t>
+  </si>
+  <si>
+    <t>1Sigma High</t>
+  </si>
+  <si>
+    <t>Bottle #</t>
+  </si>
+  <si>
+    <t>Cumulative kWh</t>
+  </si>
+  <si>
+    <t>Individual kWh</t>
+  </si>
+  <si>
+    <t>average time (min)</t>
+  </si>
+  <si>
+    <t>average W</t>
+  </si>
+  <si>
+    <t>electricity cost</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>per bottle electricity cost</t>
+  </si>
+  <si>
+    <t>three hours</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -641,8 +820,9 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.000_);[Red]\(&quot;$&quot;#,##0.000\)"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.0000_);[Red]\(&quot;$&quot;#,##0.0000\)"/>
     <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,13 +994,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -830,8 +1003,9 @@
     </font>
     <font>
       <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1134,7 +1308,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1180,11 +1354,10 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1220,12 +1393,35 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="9" fillId="3" borderId="1" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="18" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="8" xfId="18" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="14" fillId="4" borderId="1" xfId="12" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="47">
     <cellStyle name="20% - Accent1" xfId="22" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="26" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="30" builtinId="38" customBuiltin="1"/>
@@ -1252,7 +1448,6 @@
     <cellStyle name="Accent6" xfId="41" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="13" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="6" builtinId="22"/>
-    <cellStyle name="Calculation 2" xfId="47"/>
     <cellStyle name="Check Cell" xfId="16" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1264,18 +1459,44 @@
     <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Input" xfId="4" builtinId="20"/>
-    <cellStyle name="Input 2" xfId="45"/>
     <cellStyle name="Linked Cell" xfId="15" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="14" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="18" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="5" builtinId="21"/>
-    <cellStyle name="Output 2" xfId="46"/>
+    <cellStyle name="Output 2" xfId="45"/>
+    <cellStyle name="Percent" xfId="46" builtinId="5"/>
     <cellStyle name="Title" xfId="7" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="20" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="17" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1487,11 +1708,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="526860160"/>
-        <c:axId val="526864864"/>
+        <c:axId val="486832392"/>
+        <c:axId val="486827688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="526860160"/>
+        <c:axId val="486832392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1548,12 +1769,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526864864"/>
+        <c:crossAx val="486827688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="526864864"/>
+        <c:axId val="486827688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1610,7 +1831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526860160"/>
+        <c:crossAx val="486832392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1674,7 +1895,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5012,11 +5232,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="548201200"/>
-        <c:axId val="548200808"/>
+        <c:axId val="486828080"/>
+        <c:axId val="486828472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="548201200"/>
+        <c:axId val="486828080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5058,7 +5278,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548200808"/>
+        <c:crossAx val="486828472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5066,7 +5286,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="548200808"/>
+        <c:axId val="486828472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5117,7 +5337,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548201200"/>
+        <c:crossAx val="486828080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5129,6 +5349,1336 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>rPET in hot air filament dryer, % mass loss over time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12826470624551267"/>
+          <c:y val="1.5393871431705711E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3969616009071527E-2"/>
+          <c:y val="0.10979352039199435"/>
+          <c:w val="0.85892250651225766"/>
+          <c:h val="0.59984885790205023"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Drying!$G$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sample 1: Green w/Red cap, WHT/BRN ties</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Drying!$B$12:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89236111111111116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Drying!$G$12:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-1.8038018593034412E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.8851116969612297E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.913833772720953E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Drying!$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sample 2: Green w/red cap BLK/BRN ties</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Drying!$B$12:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89236111111111116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Drying!$H$12:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-1.6871535309712397E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.3499638467101396E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.832007712701892E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Drying!$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sample 3: Pepsi, 2 GRN ties</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Drying!$B$12:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89236111111111116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Drying!$I$12:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-2.2858517805582445E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.5866217516842677E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.8272377285850003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Drying!$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Drying!$B$12:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89236111111111116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Drying!$K$12:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-1.925602390277642E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.9405657651185458E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.8576930713359486E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Drying!$L$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1Sigma Low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Drying!$B$12:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89236111111111116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Drying!$L$12:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-2.2429924114248639E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.7670807401898442E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.9063708070178702E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Drying!$M$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1Sigma High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Drying!$B$12:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89236111111111116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Drying!$M$12:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-1.6082123691304204E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.1140507900472474E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.8090153356540269E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="489568144"/>
+        <c:axId val="489573240"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Drying!$C$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Sample 1: Green w/Red cap, WHT/BRN ties</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Drying!$B$11:$B$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>0.76597222222222217</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.8125</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Drying!$C$11:$C$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>14.414</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>14.388</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Drying!$D$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Sample 2: Green w/red cap BLK/BRN ties</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Drying!$B$11:$B$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>0.76597222222222217</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.8125</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Drying!$D$11:$D$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>16.596</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>16.568000000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Drying!$E$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Sample 3: Pepsi, 2 GRN ties</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Drying!$B$11:$B$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>0.76597222222222217</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.8125</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Drying!$E$11:$E$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>16.623999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>16.585999999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Drying!$F$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Sample 4: Pepsi, 2 BLK ties</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Drying!$B$11:$B$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>0.76597222222222217</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.8125</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Drying!$F$11:$F$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="1">
+                        <c:v>18.026</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Drying!$J$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Sample 4: Pepsi, 2 BLK ties</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Drying!$B$11:$B$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>0.76597222222222217</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.8125</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Drying!$J$11:$J$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="489568144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (hh:mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4339449899692307"/>
+              <c:y val="0.64276931327856468"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489573240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="489573240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% change</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489568144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5207,6 +6757,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6278,6 +7868,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -6802,7 +8908,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:colOff>273050</xdr:colOff>
           <xdr:row>137</xdr:row>
           <xdr:rowOff>177800</xdr:rowOff>
         </xdr:to>
@@ -6849,7 +8955,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>279400</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>136</xdr:row>
           <xdr:rowOff>44450</xdr:rowOff>
         </xdr:to>
@@ -6896,7 +9002,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>279400</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>139</xdr:row>
           <xdr:rowOff>44450</xdr:rowOff>
         </xdr:to>
@@ -7966,7 +10072,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>508000</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>158750</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8023,7 +10129,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>508000</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>158750</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8080,7 +10186,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>508000</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>158750</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8379,6 +10485,54 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>126999</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C10:F17" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="3">
+  <autoFilter ref="C10:F17"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Bottle #"/>
+    <tableColumn id="2" name="Time"/>
+    <tableColumn id="3" name="Cumulative kWh" dataDxfId="2"/>
+    <tableColumn id="4" name="Individual kWh" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8644,19 +10798,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.90625" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" customWidth="1"/>
     <col min="2" max="2" width="3.54296875" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
     <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.35">
@@ -8765,23 +10919,23 @@
         <v>15</v>
       </c>
       <c r="C11" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ref="D11:E21" si="0">C11</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" ref="F11:G11" si="1">E11</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -9216,6 +11370,7 @@
         <f>G8</f>
         <v>0.05</v>
       </c>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
@@ -9248,23 +11403,23 @@
       </c>
       <c r="C28" s="4">
         <f>C11*C24</f>
-        <v>1.3416666666666666</v>
+        <v>2.6833333333333331</v>
       </c>
       <c r="D28" s="4">
         <f>D11*D24</f>
-        <v>1.0416666666666667</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="E28" s="4">
         <f>E11*E24</f>
-        <v>0.59166666666666667</v>
+        <v>1.1833333333333333</v>
       </c>
       <c r="F28" s="4">
         <f>F11*F24</f>
-        <v>0.21666666666666667</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="G28" s="4">
         <f>G11*G24</f>
-        <v>0.14166666666666666</v>
+        <v>0.28333333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -9304,23 +11459,23 @@
       </c>
       <c r="C31" s="6">
         <f>C30*SUM(C26:C28)</f>
-        <v>55.774000000000001</v>
+        <v>109.44066666666666</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" ref="D31:G31" si="9">D30*SUM(D26:D28)</f>
-        <v>43.75</v>
+        <v>85.416666666666686</v>
       </c>
       <c r="E31" s="6">
         <f t="shared" si="9"/>
-        <v>25.714000000000002</v>
+        <v>49.38066666666667</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="9"/>
-        <v>10.684000000000001</v>
+        <v>19.350666666666669</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" si="9"/>
-        <v>7.6780000000000008</v>
+        <v>13.344666666666667</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -9643,7 +11798,7 @@
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>508000</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>158750</xdr:rowOff>
+                <xdr:rowOff>165100</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -32087,8 +34242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32321,7 +34476,7 @@
       <c r="A26" t="s">
         <v>160</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="25">
         <v>1.8324238875878136</v>
       </c>
       <c r="H26" t="s">
@@ -32336,7 +34491,7 @@
       <c r="A27" t="s">
         <v>161</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="25">
         <v>3.0264224324542812E-2</v>
       </c>
       <c r="H27" t="s">
@@ -32360,7 +34515,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
         <v>173</v>
       </c>
@@ -32391,17 +34546,17 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
@@ -35708,12 +37863,527 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" customWidth="1"/>
+    <col min="14" max="16" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="25">
+        <f>3/8*25.4</f>
+        <v>9.5249999999999986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="17" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="D9" s="29">
+        <v>220</v>
+      </c>
+      <c r="E9" s="29">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="F9" s="29">
+        <v>1.73</v>
+      </c>
+      <c r="G9" s="29">
+        <v>1.84</v>
+      </c>
+      <c r="H9" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="L9" s="19">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M9" s="19">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N9" s="19">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O9" s="19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P9" s="18">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q9" s="27">
+        <f>J9/P9*H9</f>
+        <v>1.3157894736842106</v>
+      </c>
+      <c r="R9" s="27">
+        <f>E9/D9*1000</f>
+        <v>2.7545454545454544</v>
+      </c>
+      <c r="S9" s="28">
+        <f>1-1/Q9</f>
+        <v>0.2400000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="29">
+        <v>170</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="F10" s="29">
+        <v>1.68</v>
+      </c>
+      <c r="G10" s="29">
+        <v>1.72</v>
+      </c>
+      <c r="H10" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="L10" s="19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M10" s="19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N10" s="19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O10" s="19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P10" s="18">
+        <f>AVERAGE(L10:O10)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q10" s="27">
+        <f>J10/P10*H10</f>
+        <v>1.2931034482758621</v>
+      </c>
+      <c r="R10" s="27">
+        <f>E10/D10*1000</f>
+        <v>2.8058823529411763</v>
+      </c>
+      <c r="S10" s="28">
+        <f t="shared" ref="S10:S12" si="0">1-1/Q10</f>
+        <v>0.22666666666666668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="29">
+        <v>170</v>
+      </c>
+      <c r="E11" s="29">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="F11" s="29">
+        <v>1.68</v>
+      </c>
+      <c r="G11" s="29">
+        <v>1.72</v>
+      </c>
+      <c r="H11" s="30">
+        <f>AVERAGE(Q9:Q10)</f>
+        <v>1.3044464609800364</v>
+      </c>
+      <c r="I11" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="L11" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M11" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N11" s="19">
+        <v>0.54</v>
+      </c>
+      <c r="O11" s="19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P11" s="18">
+        <f>AVERAGE(L11:O11)</f>
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="Q11" s="31">
+        <f>J11/P11*H11</f>
+        <v>1.1751769918739066</v>
+      </c>
+      <c r="R11" s="27">
+        <f>E11/D11*1000</f>
+        <v>2.8058823529411763</v>
+      </c>
+      <c r="S11" s="28">
+        <f t="shared" si="0"/>
+        <v>0.14906434782608691</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="29">
+        <v>170</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="F12" s="29">
+        <v>1.68</v>
+      </c>
+      <c r="G12" s="29">
+        <v>1.72</v>
+      </c>
+      <c r="H12" s="30">
+        <v>1.2</v>
+      </c>
+      <c r="I12" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="L12" s="19">
+        <v>0.49</v>
+      </c>
+      <c r="M12" s="19">
+        <v>0.49</v>
+      </c>
+      <c r="N12" s="19">
+        <v>0.49</v>
+      </c>
+      <c r="O12" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="P12" s="18">
+        <f>AVERAGE(L12:O12)</f>
+        <v>0.49249999999999999</v>
+      </c>
+      <c r="Q12" s="31">
+        <f>J12/P12*H12</f>
+        <v>1.2182741116751268</v>
+      </c>
+      <c r="R12" s="27">
+        <f>E12/D12*1000</f>
+        <v>2.8058823529411763</v>
+      </c>
+      <c r="S12" s="28">
+        <f t="shared" si="0"/>
+        <v>0.17916666666666659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="B13" s="25">
+        <v>7.55</v>
+      </c>
+      <c r="C13" s="25">
+        <v>1.7</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="J13" s="29">
+        <v>0.45</v>
+      </c>
+      <c r="K13" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="28"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="J14" s="29">
+        <v>0.45</v>
+      </c>
+      <c r="K14" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="28"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="J15" s="29">
+        <v>0.45</v>
+      </c>
+      <c r="K15" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="28"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="28"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="28"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="28"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="28"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="28"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -35786,6 +38456,486 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="H4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="C10" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C11" s="39">
+        <v>1</v>
+      </c>
+      <c r="D11" s="40">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E11" s="41">
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="41">
+        <f>E11</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C12" s="39">
+        <v>2</v>
+      </c>
+      <c r="D12" s="40">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="E12" s="41">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F12" s="41">
+        <f>E12-E11</f>
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C13" s="39">
+        <v>3</v>
+      </c>
+      <c r="D13" s="40">
+        <v>0.83124999999999993</v>
+      </c>
+      <c r="E13" s="41">
+        <v>0.04</v>
+      </c>
+      <c r="F13" s="41">
+        <f t="shared" ref="F13:F15" si="0">E13-E12</f>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C14" s="39">
+        <v>4</v>
+      </c>
+      <c r="D14" s="40">
+        <v>0.85069444444444453</v>
+      </c>
+      <c r="E14" s="41">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F14" s="41">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C15" s="39">
+        <v>5</v>
+      </c>
+      <c r="D15" s="40">
+        <v>0.86944444444444446</v>
+      </c>
+      <c r="E15" s="41">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F15" s="41">
+        <f t="shared" si="0"/>
+        <v>1.3999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C16" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="39">
+        <f>(D15-D11)/5*24*60</f>
+        <v>22.400000000000016</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="41">
+        <f>AVERAGE(F11:F15)</f>
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="41">
+        <f>STDEV(F11:F16)</f>
+        <v>2.6532998322843209E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="E19" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" s="37">
+        <f>E15/((D15-D11)*24)</f>
+        <v>3.8571428571428541E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>229</v>
+      </c>
+      <c r="F20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
+        <v>231</v>
+      </c>
+      <c r="F21">
+        <f>E15/5*F20</f>
+        <v>1.008E-3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="8" width="7.1796875" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" customWidth="1"/>
+    <col min="10" max="10" width="8.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="34"/>
+    </row>
+    <row r="10" spans="1:13" s="17" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" s="32">
+        <v>0.76597222222222217</v>
+      </c>
+      <c r="C11">
+        <v>14.414</v>
+      </c>
+      <c r="D11">
+        <v>16.596</v>
+      </c>
+      <c r="E11">
+        <v>16.623999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="32">
+        <v>0.8125</v>
+      </c>
+      <c r="C12">
+        <v>14.388</v>
+      </c>
+      <c r="D12">
+        <v>16.568000000000001</v>
+      </c>
+      <c r="E12">
+        <v>16.585999999999999</v>
+      </c>
+      <c r="F12">
+        <v>18.026</v>
+      </c>
+      <c r="G12" s="33">
+        <f>(C12-C$11)/C$11</f>
+        <v>-1.8038018593034412E-3</v>
+      </c>
+      <c r="H12" s="33">
+        <f t="shared" ref="H12:J12" si="0">(D12-D$11)/D$11</f>
+        <v>-1.6871535309712397E-3</v>
+      </c>
+      <c r="I12" s="33">
+        <f t="shared" si="0"/>
+        <v>-2.2858517805582445E-3</v>
+      </c>
+      <c r="J12" s="33" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="33">
+        <f>AVERAGE(G12:I12)</f>
+        <v>-1.925602390277642E-3</v>
+      </c>
+      <c r="L12" s="33">
+        <f>K12-STDEV(G12:I12)</f>
+        <v>-2.2429924114248639E-3</v>
+      </c>
+      <c r="M12" s="35">
+        <f>K12+STDEV(G12:I12)</f>
+        <v>-1.6082123691304204E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="32">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C13">
+        <v>14.358000000000001</v>
+      </c>
+      <c r="D13">
+        <v>16.556999999999999</v>
+      </c>
+      <c r="E13">
+        <v>16.581</v>
+      </c>
+      <c r="F13">
+        <v>18.015999999999998</v>
+      </c>
+      <c r="G13" s="33">
+        <f>(C13-C$11)/C$11</f>
+        <v>-3.8851116969612297E-3</v>
+      </c>
+      <c r="H13" s="33">
+        <f t="shared" ref="H13" si="1">(D13-D$11)/D$11</f>
+        <v>-2.3499638467101396E-3</v>
+      </c>
+      <c r="I13" s="33">
+        <f t="shared" ref="I13" si="2">(E13-E$11)/E$11</f>
+        <v>-2.5866217516842677E-3</v>
+      </c>
+      <c r="J13" s="33" t="e">
+        <f t="shared" ref="J13" si="3">(F13-F$11)/F$11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="33">
+        <f>AVERAGE(G13:I13)</f>
+        <v>-2.9405657651185458E-3</v>
+      </c>
+      <c r="L13" s="33">
+        <f>K13-STDEV(G13:I13)</f>
+        <v>-3.7670807401898442E-3</v>
+      </c>
+      <c r="M13" s="35">
+        <f>K13+STDEV(G13:I13)</f>
+        <v>-2.1140507900472474E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="32">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="C14">
+        <v>14.372</v>
+      </c>
+      <c r="D14">
+        <v>16.548999999999999</v>
+      </c>
+      <c r="E14">
+        <v>16.577000000000002</v>
+      </c>
+      <c r="F14">
+        <v>18.021000000000001</v>
+      </c>
+      <c r="G14" s="33">
+        <f>(C14-C$11)/C$11</f>
+        <v>-2.913833772720953E-3</v>
+      </c>
+      <c r="H14" s="33">
+        <f t="shared" ref="H14" si="4">(D14-D$11)/D$11</f>
+        <v>-2.832007712701892E-3</v>
+      </c>
+      <c r="I14" s="33">
+        <f t="shared" ref="I14" si="5">(E14-E$11)/E$11</f>
+        <v>-2.8272377285850003E-3</v>
+      </c>
+      <c r="J14" s="33" t="e">
+        <f t="shared" ref="J14" si="6">(F14-F$11)/F$11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="33">
+        <f>AVERAGE(G14:I14)</f>
+        <v>-2.8576930713359486E-3</v>
+      </c>
+      <c r="L14" s="33">
+        <f>K14-STDEV(G14:I14)</f>
+        <v>-2.9063708070178702E-3</v>
+      </c>
+      <c r="M14" s="35">
+        <f>K14+STDEV(G14:I14)</f>
+        <v>-2.8090153356540269E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="300" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
@@ -35796,8 +38946,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -36557,7 +39707,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="7188" r:id="rId6" name="Control 20">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -36642,7 +39792,7 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>279400</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>139</xdr:row>
                 <xdr:rowOff>44450</xdr:rowOff>
               </to>
@@ -36667,7 +39817,7 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>279400</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>136</xdr:row>
                 <xdr:rowOff>44450</xdr:rowOff>
               </to>
@@ -36692,7 +39842,7 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
+                <xdr:colOff>273050</xdr:colOff>
                 <xdr:row>137</xdr:row>
                 <xdr:rowOff>177800</xdr:rowOff>
               </to>
@@ -37359,7 +40509,7 @@
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>508000</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>158750</xdr:rowOff>
+                <xdr:rowOff>165100</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -37377,8 +40527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="XEN68" workbookViewId="0">
+      <selection activeCell="XFD74" sqref="XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37646,7 +40796,7 @@
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>508000</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>158750</xdr:rowOff>
+                <xdr:rowOff>165100</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/Tests/Autotrude.xlsx
+++ b/Tests/Autotrude.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="10040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="10040" firstSheet="3" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,17 @@
     <sheet name="T6" sheetId="13" r:id="rId11"/>
     <sheet name="T19" sheetId="14" r:id="rId12"/>
     <sheet name="T20" sheetId="16" r:id="rId13"/>
-    <sheet name="Flow" sheetId="17" r:id="rId14"/>
-    <sheet name="Spielen" sheetId="2" r:id="rId15"/>
-    <sheet name="kWh" sheetId="18" r:id="rId16"/>
-    <sheet name="Cleaning" sheetId="20" r:id="rId17"/>
+    <sheet name="T21" sheetId="20" r:id="rId14"/>
+    <sheet name="Flow" sheetId="17" r:id="rId15"/>
+    <sheet name="Spielen" sheetId="2" r:id="rId16"/>
+    <sheet name="kWh" sheetId="18" r:id="rId17"/>
     <sheet name="Drying" sheetId="19" r:id="rId18"/>
+    <sheet name="Hot Wire Cutting" sheetId="21" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'T19'!$A$57:$F$1146</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'T20'!$A$58:$F$1147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'T21'!$A$44:$F$1133</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -78,8 +80,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>brian</author>
+  </authors>
+  <commentList>
+    <comment ref="B31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>brian:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+After weighing, hung filament on rods instead of tossing them in randomly</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3768" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3849" uniqueCount="264">
   <si>
     <t>Let’s recycle those plastic bottles!</t>
   </si>
@@ -804,15 +840,6 @@
     <t>Time (clock)</t>
   </si>
   <si>
-    <t>Soak seam in water at temp of 70-75C for 15s.</t>
-  </si>
-  <si>
-    <t>Cut label top to bottom opposite the glued seam.</t>
-  </si>
-  <si>
-    <t>Pull cut ends of label to same side and pull against itself slowly, allowing glue to release on its own.</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -820,6 +847,93 @@
   </si>
   <si>
     <t>Auto respool/ Join/ wash/ cut/ thread</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>15 minutes</t>
+  </si>
+  <si>
+    <t>3 bottles' worth in dryer</t>
+  </si>
+  <si>
+    <t>aqua</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>tiny white</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>delta t</t>
+  </si>
+  <si>
+    <t>delta %</t>
+  </si>
+  <si>
+    <t>average delta %</t>
+  </si>
+  <si>
+    <t>Speed unknown, Temp 225</t>
+  </si>
+  <si>
+    <t>New thermistor and new nozzle (steel, drilled with 1.6 mm bit to ~1.7 mm dia</t>
+  </si>
+  <si>
+    <t>thermistor Temperature (C)</t>
+  </si>
+  <si>
+    <t>center of wire temperature (C)</t>
+  </si>
+  <si>
+    <t>Power supply voltage (V)</t>
+  </si>
+  <si>
+    <t>Cutting strips</t>
+  </si>
+  <si>
+    <t>cuts slowly</t>
+  </si>
+  <si>
+    <t>residue smokes</t>
+  </si>
+  <si>
+    <t>much less smoke</t>
+  </si>
+  <si>
+    <t>slower. smoke is the same</t>
+  </si>
+  <si>
+    <t>minor smoke, but slow</t>
+  </si>
+  <si>
+    <t>smoke maybe less bad</t>
   </si>
 </sst>
 </file>
@@ -838,7 +952,7 @@
     <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1026,6 +1140,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1208,7 +1328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1323,6 +1443,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1373,7 +1508,7 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1433,9 +1568,6 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1450,6 +1582,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -1744,11 +1888,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466509112"/>
-        <c:axId val="466505584"/>
+        <c:axId val="460587808"/>
+        <c:axId val="460592512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="466509112"/>
+        <c:axId val="460587808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1805,12 +1949,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466505584"/>
+        <c:crossAx val="460592512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="466505584"/>
+        <c:axId val="460592512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1867,7 +2011,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466509112"/>
+        <c:crossAx val="460587808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5268,11 +5412,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="473001384"/>
-        <c:axId val="473001776"/>
+        <c:axId val="460593688"/>
+        <c:axId val="455754456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="473001384"/>
+        <c:axId val="460593688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5314,7 +5458,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473001776"/>
+        <c:crossAx val="455754456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5322,7 +5466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="473001776"/>
+        <c:axId val="455754456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5373,7 +5517,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473001384"/>
+        <c:crossAx val="460593688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5555,10 +5699,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Drying!$B$12:$B$18</c:f>
+              <c:f>Drying!$B$12:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.8125</c:v>
                 </c:pt>
@@ -5567,16 +5711,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.89236111111111116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62847222222222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Drying!$G$12:$G$18</c:f>
+              <c:f>Drying!$G$12:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>-1.8038018593034412E-3</c:v>
                 </c:pt>
@@ -5585,6 +5732,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-2.913833772720953E-3</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5631,10 +5781,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Drying!$B$12:$B$18</c:f>
+              <c:f>Drying!$B$12:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.8125</c:v>
                 </c:pt>
@@ -5643,16 +5793,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.89236111111111116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62847222222222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Drying!$H$12:$H$18</c:f>
+              <c:f>Drying!$H$12:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>-1.6871535309712397E-3</c:v>
                 </c:pt>
@@ -5661,6 +5814,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-2.832007712701892E-3</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5713,28 +5869,34 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Drying!$B$12:$B$18</c:f>
+              <c:f>Drying!$B$11:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.76597222222222217</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.8125</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.85416666666666663</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.89236111111111116</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62847222222222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Drying!$I$12:$I$18</c:f>
+              <c:f>Drying!$I$12:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>-2.2858517805582445E-3</c:v>
                 </c:pt>
@@ -5743,6 +5905,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-2.8272377285850003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5764,7 +5929,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
@@ -5795,36 +5960,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Drying!$B$12:$B$18</c:f>
+              <c:f>Drying!$B$11:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.76597222222222217</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.8125</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.85416666666666663</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.89236111111111116</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62847222222222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Drying!$K$12:$K$18</c:f>
+              <c:f>Drying!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-1.925602390277642E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.9405657651185458E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.8576930713359486E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5848,9 +6013,10 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5860,101 +6026,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Drying!$B$12:$B$18</c:f>
+              <c:f>Drying!$B$11:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.76597222222222217</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.8125</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.85416666666666663</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.89236111111111116</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62847222222222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Drying!$L$12:$L$18</c:f>
+              <c:f>Drying!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>-2.2429924114248639E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.7670807401898442E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.9063708070178702E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Drying!$M$10</c:f>
-              <c:strCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1Sigma High</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Drying!$B$12:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.8125</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.85416666666666663</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.89236111111111116</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Drying!$M$12:$M$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>-1.6082123691304204E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.1140507900472474E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.8090153356540269E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5969,8 +6070,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472998248"/>
-        <c:axId val="473000600"/>
+        <c:axId val="533891792"/>
+        <c:axId val="533892184"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -6427,7 +6528,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472998248"/>
+        <c:axId val="533891792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6547,12 +6648,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473000600"/>
+        <c:crossAx val="533892184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="473000600"/>
+        <c:axId val="533892184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6604,6 +6705,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6670,7 +6772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472998248"/>
+        <c:crossAx val="533891792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6684,6 +6786,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8942,7 +9045,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>273050</xdr:colOff>
+          <xdr:colOff>63500</xdr:colOff>
           <xdr:row>137</xdr:row>
           <xdr:rowOff>177800</xdr:rowOff>
         </xdr:to>
@@ -8989,7 +9092,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>136</xdr:row>
           <xdr:rowOff>44450</xdr:rowOff>
         </xdr:to>
@@ -9036,7 +9139,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>139</xdr:row>
           <xdr:rowOff>44450</xdr:rowOff>
         </xdr:to>
@@ -10524,15 +10627,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>126999</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>12699</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10549,6 +10652,95 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21505" name="AutoShape 1" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAABLAAAALWCAYAAABWXGqyAAAAAXNSR0IArs4c6QAAIABJREFUeF7snQfYHUXZ/ic9oSgtgEggAUIAISE0E4wUIUj/MIGAAYLUBCkK/CmiggjSi0ovAWkJJfQmJCi9Q4gCAgFJCL2DQEj/X/f47fvte3LO++45Z3fPnGd/e11eKu/uzDy/e+a4c/vMsx0WLFiwwHFBAAIQgAAEIAABCEAAAhCAAAQgAAEIQCBQAh0wsAJVhmFBAAIQgAAEIAABCEAAAhCAAAQgAAEIeAIYWEwECEAAAhCAAAQgAAEIQAACEIAABCAAgaAJYGAFLQ+DgwAEIAABCEAAAhCAAAQgAAEIQAACEMDAYg5AAAIQgAAEIAABCEAAAhCAAAQgAAEIBE0AAytoeRgcBCAAAQhAAAIQgAAEIAABCEAAAhCAAAYWcwACEIAABCAAAQhAAAIQgAAEIAABCEAgaAIYWEHLw+AgAAEIQAACEIAABCAAAQhAAAIQgAAEMLCYAxCAAAQgAAEIQAACEIAABCAAAQhAAAJBE8DACloeBgcBCEAAAhCAAAQgAAEIQAACEIAABCCAgcUcgAAEIAABCEAAAhCAAAQgAAEIQAACEAiaAAZW0PIwOAhAAAIQgAAEIAABCEAAAhCAAAQgAAEMLOYABCAAAQhAAAIQgAAEIAABCEAAAhCAQNAEMLCClofBQQACEIAABCAAAQhAAAIQgAAEIAABCGBgMQcgAAEIQAACEIAABCAAAQhAAAIQgAAEgiaAgRW0PAwOAhCAAAQgAAEIQAACEIAABCAAAQhAAAOLOQABCEAAAhCAAAQgAAEIQAACEIAABCAQNAEMrKDlYXAQgAAEIAABCEAAAhCAAAQgAAEIQAACGFjMAQhAAAIQgAAEIAABCEAAAhCAAAQgAIGgCWBgBS0Pg4MABCAAAQhAAAIQgAAEIAABCEAAAhDAwGIOQAACEIAABCAAAQhAAAIQgAAEIAABCARNAAMraHkYHAQgAAEIQAACEIAABCAAAQhAAAIQgAAGFnMAAhCAAAQgAAEIQAACEIAABCAAAQhAIGgCGFhBy8PgIAABCEAAAhCAAAQgAAEIQAACEIAABDCwmAMQgAAEIAABCEAAAhCAAAQgAAEIQAACQRPAwApaHgYHAQhAAAIQgAAEIAABCEAAAhCAAAQggIHFHIAABCAAAQhAAAIQgAAEIAABCEAAAhAImgAGVtDyMDgIQAACEIAABCAAAQhAAAIQgAAEIAABDCzmAAQgAAEIQAACEIAABCAAAQhAAAIQgEDQBDCwgpaHwUEAAhCAAAQgAAEIQAACEIAABCAAAQhgYDEHIAABCEAAAhCAAAQgAAEIQAACEIAABIImgIEVtDwMDgIQgAAEIAABCEAAAhCAAAQgAAEIQAADizkAAQhAAAIQgAAEIAABCEAAAhCAAAQgEDQBDKyg5WFwEIAABCAAAQhAAAIQgAAEIAABCEAAAhhYzAEIQAACEIAABCAAAQhAAAIQgAAEIACBoAlgYAUtD4ODAAQgAAEIQAACEIAABCAAAQhAAAIQwMBiDkAAAhCAAAQgAAEIQAACEIAABCAAAQgETQADK2h5GBwEIAABCEAAAhCAAAQgAAEIQAACEIAABhZzAAIQgAAEIAABCEAAAhCAAAQgAAEIQCBoAsEbWO+++6578skn3dZbb+26d+/eCuakSZPcfffd5//Znnvu6dZZZ52gYec9uG+++cZdfvnlbtq0aW6JJZZwBx10kPv2t7+d+jDa0ij1zgrc4D//+U939dVXewJbbbWV23LLLQtM4/9CL/r8U/x33XWXe+ONN9ycOXM8mMUWW8zttttubvXVV2/oHOE3uqH46RwCEIAABCAAAQhAAAKmCARrYGkjdscdd7innnrKrbTSSm6fffbBwKpy6mVtYCXRqMohc3sbBDCwWsNh/jk3ffp0d8UVV7ivv/66FZxFF13UjR492i2//PINXVMYWA3FT+cQgAAEIAABCEAAAhAwRSBYA+vzzz93559/vvvss89c7969MbBqmHZZG1hJNKph2DxSgQAGVmswRZ9/CxYscOPHj3fPP/+8B7PMMsu4wYMH++yrmTNnuoEDB7oePXo0dD1hYDUUP51DAAIQgAAEIAABCEDAFAEMLFNy5htM0Q2EfGk7h4GFgRUnEDeoZVqNGTPGLbvssnlPS/qDAAQgAAEIQAACEIAABCCQCwEMrFww2+wEAytfXTGwMLAqGVjf/e533f777+8WWWSRfCclvUEAAhCAAAQgAAEIQAACEMiJAAZWTqAtdoOBla+qGFgYWJUMrErHrPOdofQGAQhAAAIQgAAEIAABCEAgOwLBGVhvvvmmu+yyy5yOx5S7BgwY4HbffXf/p9L6KmussYZ77rnn3MMPP+w++ugjN3/+fF8DZtVVV3VDhw513/nOd9okqZoyKoqsdmfMmOHryOhafPHFXb9+/dymm27qlltuubJtxMetL8RttNFG7pZbbnGvvPKKH4fq02y22Wa+Ls1LL73kvyanryrut99+bsUVV/R1bP72t7+1jFt96quK+tKcjgfpUtHqxx57zP9LtcF06euCG2+8sf9Xly5dWo0tSQ0sjU1fKXzkkUfc66+/3hKzuCmrQ+2utdZarmPHji1tV6NR9JD6Udwa+9tvv+376dChg/vWt77l+vbt2ybbuFEm/XfeeWd39913u2eeecbNnTvXM/j+97/vfvjDHy7EoL2l8+GHH7rHH3/cj01MNU5dKoKt+H/0ox/5Gmzx+KM2o/kXfeFR2S9PPPGE/2pmLfNPekmHp59+uqy+L7/8cmpfIZw3b56P+cEHH3T6ip3mlmLUPF1vvfW87qVf/YyzjPR84IEHWp6XnmKheSstKn3xMjLi4vP/H//4h3vooYfce++95zXVXF555ZU9f61ftR1dtcw/Pat59Pe//929+OKL7osvvnBa71E/5eZ51F+W809t6/fqhRdeaJl/GpN+ZzQmzffSdR03MsvN74irPn7R1qV5duONN/pbKn3VsrTO1iabbOK23377ss3edNNNfu7HC8i3VQPr2muvdVOmTPFz5uc//7n797//7e655x6vk35/9Jurr88utdRSLf3V8xvd3m8Bf4cABCAAAQhAAAIQgAAEwiZgxsDSpmry5MneHCl3aXOuTdrmm2/eajMc3auveF1//fXuX//6V0XF1IY2ldttt53r1KlTq/vim2pt3jUObcjil0yt4cOH+81qZGCNGDHCmxal90bPLb300v5okPq+8sorK8a3yiqruL322qtV0eb2DCyZSIpZRkZbl4wcta2Npq5qDYSPP/7YjRs3zpuClS7FpwLU22677UIb9riBsPbaa7tu3bq5Z599tlVTq622mtt7770TG1gybGSCybyKTKtKY5OBt+uuuy5UEDtuYP30pz912sB/8MEHNc2/V1991V133XXuyy+/LPu8ahttsMEGfsy6KhkOSX5uZNKq+Pcnn3xS8XZpPWrUKG+ull7S85prrqk4F3W/TBeZD0OGDFlovcUNLJnRMtFee+21smORcbX++uv7dROtuWrnn/SVOXbfffd5c6zS1atXL7fnnnu2zPPovizmn8Yk40pj0lysdMm80dySmRddaRlYMgsvvvhi99VXX3kT+Wc/+9lC60e/i5deemmL1vqd0Rdhu3bt2mrI8fviazGpgaXf1VJ9ZAgfcMABboUVVvB91fsbnWRtcA8EIAABCEAAAhCAAAQgEC6B4AwsbVK0mdVGXhsa/fcoe0mb4iWXXNJnxOiKb44ixMpWWnfddZ02o2pDGQGRqdC5c2e/KVemVvySkSNzKDKRlMEgo0SZH1GmiTKpos2vNtTKAoqbWPFNtf65Mlz0CXuZMnpOmQYy2TT2aAOq+7QRVP/xcWu8MlYUuy6NQ23IeJCRoWwjbe6UkaNskmhcyvCSARRdbRlYymRQhpgyhnSpf8UcbZTVl7JiojGsvvrq3sSSBtVoJJNEG2CZHrribGfPnu25KAMsMpHKsY0bCDK6NHZl9/zgBz/w/DTODTfc0GcOJbmkjcwmZXBFY9Kc0CZec0RjVZvvv/++70tXOcMomn+KSXoo1riOyu5SRmBkFGmsMgm0wY9fYn3FFVe0sJZpoVh69uzpTT+1IebRvKo0niSxl/YVH6+ykjTvovFG5mk8A6ZUz/jzmm9xPWU+KfNxiy22aGViRfNfc0lGmTjF54ViVXZQxF/tyMCSAayrmvkn/e6//343ceJEr6Xmj9agMpvUp/gq+zEyDsvFnPb8Kx2T4lPGleaweJaOSXNL5my0NpUp+MYbb3jjSxlwyvaL/0ZqnmiOtVcPS89r3un3VpmQKgKvduJXqVlY6T5lb15++eV+TPG1ksTAUvz6l8ateS991J44Rb+zafxGJ1kf3AMBCEAAAhCAAAQgAAEIhEsgOAMrQpWkvlKpgdW/f3+3yy67+Ayd6JJZMWHChJaMHW2Qdtttt5a/lxo5a665ps+2Kd38ffrppz6LSAaANlq6R0ZZdJVu9JS1o+yS0uM/ur80g6LcuEuNBm3wdJxQZkD8OJs23zfccIM3sXRkSEcSo6NfbRlYMmkuuugif1xHG2NlVejYTvyKmxUyX/bdd1/Xp0+fllva00ibWRmDyi7SVYmtYtVxIm3MFecOO+zgM3fKzQX9M2WEaSzR0cpql5c2/2PHjnUy0MoZFmpP80IZfZo75djqnvj807gHDRrkTcq45mIgs0wmlC6ZjzJjoivOqFIbMmzEUeOOrloysEr1KDfvSscbZQ1qbEnGqvEp+1AZhpo/5Y6zlc7/cvNChqaMJzGWFuUyhNqbfxqLTN6rrrqq5aip1mQ8m0n3KC4ZXMoEU1/6jdDvSGRQx/tJY/7FxyQ+6kvmcfyYpMZ05513eoNZY5JxPXr0aH+cObri67vWGljRHFbfe+yxhz/+Gb+UHXr77be3/CPdp/8T4Hvf+16r++Jmrn6DouOLSQwsNaTfF7Uro7z0Sus3utrfCe6HAAQgAAEIQAACEIAABMIiYMbAkqmhjZPqr5Re77zzjrvkkkt85kbpRi/+t7baUJvKFNGRG2WqlLYTN7BkYMgQUuZUuSu+gVdGgzamyraJXzLeZAJEx/sqHZHTJlY1w9R/VIspqj3UloFVWrNL5li5S5kw2kiL60477dRqg9megaCNuowXxdIeW2WB/OUvf/GmkliIidjoKjUQtOFXtkqtl+LRkTJtxnWEU1lf5a622Or++Oa8rfjirEvnTdxMa8uEkOGoTLYoO6oWAyuuRyXTUnFpfmuea74r4/HAAw/0cyuq3SY9ZWDI8Cg9ShtxjOspo1fH4CKDJsn8VzsyNC+88EIn87h0bpfOi3Ls4hlGlbLfovEqJh2LVEZjqemW5vzTmDTPp06d6nnEM8tK52B8TPqbzFHVoIquNAyseOZUqbkar3+l+oE6aqi5UVoHKx5T6dcQkxpYMvx1fLPcfErrN7rW3wuegwAEIAABCEAAAhCAAATCIGDGwGprQx+vz6LjUCoYHJkj8QyDHXfcsVXmT6lE2tBpk6sNuLKVVJsqqhEUNylK+yhtJ76BV8aDjIB49kV0v45QagOoa5tttvH1u9oaU+nGuy0D66233vKGiI7mKAtJhlupidbeFG3PwIqKOqud9kynuGGnTayOK0ZHPeP9lHJvb4ylf1c2lQpF64igjEbV2Ilqe5Xe214NsfjmXAag5mC5S5v+Cy64wJtPpVlykZmWhJHqX+nImK5aDKxq+rr55pt9rTYZF1oXOuIW6VmqT7mY4+Zf6XpIOv9lZupYmo72ypQ96KCDWmnV3vxLUuMpPnZlMyrLsnS9pTn/4mMqNXvKcYwbTKVZaGkYWPHfxlITUMcqlaWpI806mizTTf8qHUc8plJzK6mBVen3TUzS+o2u9reC+yEAAQhAAAIQgAAEIACBsAiYMbD0/96XHn+JULdlRERfwtKxPG2+2vtSoTb12oDrivfZVpZNqeTxDXxbRkRbm794m1EM1RhYcSZqS7WflJWjryTKOIoMvrama1sGQtx8SGo66QtxMpfaMhDKZeKkuaRk6GnDro26snH0hT4dZyvXb1J9Ks2/eOZKEkbxDKpqDaxq+yplGo9B80xfB6z0lcHoWX1xUsdDS+dl0vmvdirNbf2tPQMr3o9MFxXBb+tSlpvmoFjFv3Ya76fe+ac5pSON0VHF+HHmcmOLm5+lRmAaBpb6LPf1QP3zyDzTf5bBrQ9cKHOxtA5W9DXDcsZmUgOrrd/vtH6j0/ydoC0IQAACEIAABCAAAQhAIH8ChTawSk2cavHHTYS4gdVWVpX6SLqBT2qQ1GJgaRwas44zlfvynWqA6ViPaiCpIH65oz1tGQjtHb8rxzrOJX6cKd5PaQZTtZrF79eRKGViqfC4TCv996hoe2m7WRhY7WV4lY4h6bHPckyq7au0jdJjdNVyjxsUSed/vQZWuY88JB13PBspzfkXz/JKYkLGddMxXh2t1cchdKVlYEkPZZZq7sczJaPMJ9XfUoF3mZEy32T2RxmS8WOG0X3x2nRJDCwZnKppV1qbrDTGpNrF70vCuJZ2eQYCEIAABCAAAQhAAAIQyJ8ABtbll/uv4NVyVTKw4tkb7Rk1jcrAisal+kJ//etfvakWfc2wdMwys3SMTNlZ8aOObRlYtWStxI2NShkwtRarjsekjKqHH37Yf+VS2TblLpkFOh6qL+GpFlMIBpa+NqcjXcrKqXZjjoFV3QqvZGDVO//ihk4SDUsz3+IF0tMysOK1xqJ6ZVojUQ2+6J9FH36I18GKPxsv+B/RTmpgxeOKK5Xm/8lQ3QzgbghAAAIQgAAEIAABCEAgNAIYWP9rYJX7Wlo1YsWzY5rJwIpiVA2qGTNm+K/l6aiQDKj4pawLfdI+fgwrywyseE2p9o6KVaOT7v3b3/7m7r33Xp9xIkNONcCUbaYMENUl0pfeVB+rPdMnaYZcpXbaa780rnjdsiTmRyUjoJZjcLUYkpV0aUQGVrW84mNPc/7Vk4FVWgcsLQMrXn8uyqKSgRXVbYtqA8aPBUd1sHTMUB9q0P3lvmKYpoFV7290tb8T3A8BCEAAAhCAAAQgAAEIhEWg0AaWpIiO3yUpTN2WdM1uYJXGplpQqrmkmkAq0qyrtOh0I2pg1ZsBE2WRaOyq+yVTrjSzLGLRnsFUr4EVNw6SbM51hGvs2LHeWKvWkKmlJlklA6z0KFu1P2l5GViVjqRWO940DawQa2CJR3RcMPqCqv6ZCujrdzGeHRV9CCAy0/Sc6mLFv1YZ51uvgZXmb3S1unM/BCAAAQhAAAIQgAAEIBAWgcIbWPEN1pAhQ9wOO+xQ9ouA7cnWbAaWNp5PPfWU/wqhMifK1Z9RzKoLdckll/hi5qXGRXsb+2q+QhgvMt7WVwjrNbDiBoKyrlSbqVx9L8UeP7KXxRFC9RGff+19BVNGgQwEXdUaWHqmGj1k/kyYMMFr/uMf/9j179/fjR8/3imDSNewYcPcoEGD2lsWZf+el4EVX5P6OIO+OKl4qr3am+fVtFftVwjjhfuz+AphNPb4uPRFQJmrOmJbalpH60cZmSpA/+ijj/oj2JXWUhoGVlq/0dXoxL0QgAAEIAABCEAAAhCAQHgECm9gxTe5Kj68//77V/wSoTJfdFxGmz1lzKjg8SqrrOJVbUYD6/bbb/dj32yzzdy2225bdnbGi7GXHmFqb2Mf33xrI6xMjkoGwmuvveYLyitTqGfPnr5YdfQlxPb6qWZZxc2Ttort63ihNs4TJ070zWdlYL3xxhs+q0pxt8VIRuJll13m3n777ZoNrJdeesnXNZI50ZYRqL8rM1Ff3IybifFi3zpqJo103LLcpdpIGu/XX3/tddx99929rrryMrDiGXQ6KipzWiZ1pUtHS/Uv1Xxbb7313NZbb+1vTXP+xY1ajWn48OH+QwnlLumg4uoyjXRtv/32/kup0ZXWEUK1F29LRpmOBOp4YFT/Kqp9Fzd1dZ+OHevZePH3eCxpGFhp/UZX8zvBvRCAAAQgAAEIQAACEIBAeASawsCq9OW5eo9wSQ5tEm+88UZf+0mXNub6wla02Y4k08ZT2S9PPPGEr52kAt8yu3r06OFvaTYDK36UTht2ZVOsscYarWao4pw8ebLPxFGB99VWW83tvffevj5U6ca+nEZiJsPv1Vdf9fevueaabtddd/UGQfzS0TgZJjI9tFFWxs+PfvSjllvSNBDiOmkciqc0+0xzQtlOMq+iwvbljvhlMf9kqskMUH/RNWvWLD9H9cXE6KolAysyYGVMiLMyqGSKRHqqbWn+5JNPOpmbij1udJUW1F511VV9BlupnjKtrr/+el9LTdfaa6/tDawo0y0LA6vSb4QyxjQWaao4dWRUpkz8YwSKWWadGCvGrl27+q/i9enTZ6F5Xm8GoBqUsauv+YlvZISLUXxMpb83+j3S742M1OhK08BSm3fffbd74IEHWnQSs1JjKm7AReNo60hpGgZWWr/R4f3PLyOCAAQgAAEIQAACEIAABKohEKyBpU3wpZde6jNOdFxFm85+/fr5WivaROpKw0BQO5988onvS6aOLtVGUl86FqO+ZbBog/vll1/6v5czPprNwNKm/f777/cmjf6z4pQJIANFmWiKdcqUKT7DQn8Xk1GjRrUyuZJoVMpWG3Zt1mV+KOtIfegIkjI+dIm5TK7IGNQ/S9PAKjXVZGqoz9VXX30hrcVEWotFVgZWufkn/prvvXr18vxlwkRzL1rctRhYelZz+YorrvCZUbpkiOh4oLK/1MfTTz/tv7wozcvN89Ln43pKw6lTp3qDRuaKLhXIl/Gy1FJLtfwupWVgJZl/Mj9kwD777LO+f5lEyy23nNtwww39PNealzEYxay/Dx061G2xxRYthlKa809jKF17pWMq1VyMR4wY4ddN/ErbwJKxqbpX0Zc5KxlTUR2saCylRxvjY0zDwErrN7qa/2HkXghAAAIQgAAEIAABCEAgPALBGlja5Ckj4MEHH2xFLV5rJS0DSx3o0/Djxo1z//73v9tUSZteZSvJ8IhfzWZgaeza3N9xxx3u8ccf95vqSlelLJEkGqlNmQPKsIqKwZfrR2aRTAVlBHXr1q3VLWkbCKWmWrnxSGeZBjoypWwkmQylX1lLc/7JSNFxseiIYOmYZLR9//vfd88880xNRdzj7elrhupLHCpdlea57peOOor44YcftrlWlDWkDK3ll1++1X1pGVhJ55/mubTSBwkio7TSHNx8882dvoAZr4uW9vyL1p7GoyOLUZZfuTHJ+NMxQ5lEpVfaBpYMzIsuush98MEHvqvS+ldR//GjwfpnpUcb4+NMy8BK4zc6vP/5ZUQQgAAEIAABCEAAAhCAQDUEgjWwok2eDCwVCv7Pf/6z0KYqTQNBjWtzq2wgFThXbSLVHdIl80BZGzpyNWDAgIUMFt3TjAaWxi0TQIbEww8/7LNnZORFGVfKntEX+jbeeONWR9riE0zmQFsaRfeKrWowPfbYYz4LSFkeMoVUH0mb80033dQzLndlYSBo8y+dZQjp6KLGF+mseKWz/ntc19KjcGnPPzHRUVZpIeNMY1ImmrIBlRGko4SqK1XLVwhLuaovZb9JD+kvE0Um4jLLLOPrP7WlebQ2pafMT5lu+hiALo1XxsfgwYN9Zlu5AvlpGVhJfiPicX/66af+t0TZlJHmillZaNL2Bz/4gc/wLL2ymH9RH2pbeouJxqS1V24ellsXaRtY6jteqF+Gqcyz0iteB6u9r2emaWDV+xtdzf8wci8EIAABCEAAAhCAAAQgEB6BoA2s8HAxIghAAAIQgAAEIAABCEAAAhCAAAQgAIG8CWBg5U2c/iAAAQhAAAIQgAAEIAABCEAAAhCAAASqIoCBVRUuboYABCAAAQhAAAIQgAAEIAABCEAAAhDImwAGVt7E6Q8CEIAABCAAAQhAAAIQgAAEIAABCECgKgIYWFXh4mYIQAACEIAABCAAAQhAAAIQgAAEIACBvAlgYOVNnP4gAAEIQAACEIAABCAAAQhAAAIQgAAEqiKAgVUVLm6GAAQgAAEIQAACEIAABCAAAQhAAAIQyJsABlbexOkPAhCAAAQgAAEIQAACEIAABCAAAQhAoCoCGFhV4eJmCEAAAhCAAAQgAAEIQAACEIAABCAAgbwJYGDlTZz+IAABCEAAAhCAAAQgAAEIQAACEIAABKoigIFVFS5uhgAEIAABCEAAAhCAAAQgAAEIQAACEMibAAZW3sTpDwIQgAAEIAABCEAAAhCAAAQgAAEIQKAqAhhYVeHiZghAAAIQgAAEIAABCEAAAhCAAAQgAIG8CWBg5U2c/iAAAQhAAAIQgAAEIAABCEAAAhCAAASqIoCBVRUuboYABCAAAQhAAAIQgAAEIAABCEAAAhDImwAGVt7E6Q8CEIAABCAAAQhAAAIQgAAEIAABCECgKgIYWFXh4mYIQAACEIAABCAAAQhAAAIQgAAEIACBvAlgYOVNnP4gAAEIQAACEIAABCAAAQhAAAIQgAAEqiKAgVUVLm6GAAQgAAEIQAACEIAABCAAAQhAAAIQyJsABlbexOkPAhCAAAQgAAEIQAACEIAABCAAAQhAoCoCGFhV4eJmCEAAAhCAAAQgAAEIQAACEIAABCAAgbwJYGDlTZz+IAABCEAAAhCAAAQgAAEIQAACEIAABKoigIFVFS5uhgAEIAABCEAAAhCAAAQgAAEIQAACEMibAAZW3sTpDwIQgAAEIAABCEAAAhCAAAQgAAEIQKAqAhhYVeHiZghAAAIQgAAEIAABCEAAAhCAAAQgAIG8CWBg5U2c/iAAAQhAAAIQgAAEIAABCEAAAhCAAASqIoCBVRUuboYABCAAAQhAAAIQgAAEIAABCEAAAhDImwAGVt7E6Q8CEIAABCAAAQhAAAIQgAAEIAABCECgKgIYWFXh4mYIQAACEIAABCAAAQhAAAIQgAAEIACBvAlgYOWtzbJvAAAgAElEQVRNnP4gAAEIQAACEIAABCAAAQhAAAIQgAAEqiKAgVUVLm6GAAQgAAEIQAACEIAABCCQPYHpH813r38w3334xQI3e65zi/dw7rtLdnRrrNDRLd69Q/YDoAcIQAACgRHAwApMEIYDAQhAAAIQgAAEIAABCBSTwBczF7hbnp7jJr04z73z6fyKEDZYpZPbdkBnt+manYsJiqghAIFCEsDAKqTsBA0BCEAAAhCAAAQgAAEIhETgtmfnuEv/PsfNnL0g8bAG9u7kfr5lV7fKsh0TP8ONEIAABJqVQFMZWF999ZU77LDD3FNPPeWuv/56169fv7Lcp02b5s4991x31113uVdeecUNHDjQjRgxwu27776uZ8+eZZ/58MMP3dixY90NN9zgJk+e7Nvebrvt3CGHHOJ69+7drPoybghAAAIQgAAEIAABCEAgcALn3DPL3Tl5bs2jPGF4NzekX7GysT7++GN3yy23uF122cV9+9vfrpldox788ssv3VVXXeWuu+469/rrr7sVV1zRnXHGGW6TTTbJdEg333yz3+Nqvzxs2LBM+6JxCKRNoGkMrAULFrg///nP7pe//KUbMGBARQPr+eefd2PGjHFPPvmkN6F69erlpk6d6qZPn+622mord95557m+ffu24vjWW2/5Z2R4rbzyyv7vM2bM8OaX+rrwwgvd4MGD02ZPexCAAAQgAAEIQAACEIBAwQmcedcsd8+U2s2rCN+Ju3R3G/ftVAian3/+uTdh5s2b5/d3Sy65ZFPFrXGfffbZ7o9//KNbYokl3FprreW6devmfvWrX7nvfe97mcaCgZUpXhrPmEDTGFgPPvig22uvvbwRVcnAUhbV6NGj3aRJk9w555zj7+/cubNT5pbc7BNOOMEdfPDB7vTTT3c9evTwaGfOnOmOOuoo/8P3u9/9zv9n/W3WrFnummuu8RlfW265pbv44osrZm9lrBHNQwACEIAABCAAAQhAAAIGCYx7bI4b+8DsVCJbpFsHd9E+3X2hd+vXp59+6vd1uprRwPrmm2/83vPee+91V1xxhVt33XWtS0Z8EEiFQFMYWO+//743pj777DPXsWNH98knn5TNwJKbPHz4cHfooYd6k0oudnR98cUX3qWfOHGiu/XWW91GG23k/6TjiDvttJMbNGiQP0IYd+/nzp3rjj/+eHfyySe7m266iRTLVKYcjUAAAhCAAAQgAAEIQAAC//5gvtv/spmpgvjB6p3c73funmqbITZmxcB69tln3UUXXeRWXXXVEDEzJggERyB4Aysyka699lp3ySWXOJlUTzzxxEIG1uzZs90xxxzjM6/uu+8+N3To0IVg64yxsrKUrqnMKl26//DDD/c/HDLJSq+HHnrIbbrppv7+U0891XXt2jU4ERkQBCAAAQhAAAIQgAAEINBcBE65fZab9EL9RwdLoz5jZHe3Xu/0jhJ+/fXXPlNI/4f+008/7bvbcMMN3U9/+lO/5yrdH2lfpqSB8ePHJ7pfx+h0WkZJBssvv7xPKrjnnnucyrwMGTLEjRo1qlU/0RG4eNw6gldqBKkkzOWXX+7uv/9+X2NKJtEWW2zh9tlnH19mJn5FbapkzaKLLurH895777mtt97aHXHEEW6FFVZoc3Kp3M1rr73mxo0b12Z/UebV1VdfvVB7Rx55pC+XU+7S/nbvvff2WVv7779/q1sUm8rhvPTSSz6bS2VzokvjuvTSS/1JpOhv5Y4QJo1fdcek6x133OFeeOEFX7frhz/8oWe65pprug4dOjTXImS0TUcgeAPrtttuc3vuuac766yz3MiRI/0PSDkDSy687nvzzTd9IfY11lhjITEeffRR/yMoo0rGlRaY2rvgggucjiiWK5inOli77rqr/zGVibb00ks3ncgMGAIQgAAEIAABCEAAAhAIh8BnXy9ww//4dSYDGrp2Z3fMjv93EqWeTlSi5Te/+Y2788473WKLLdZSn+nFF190KkKu5AD9fZFFFvHdyOD4/e9/7yZMmNByf6dOnby5otM0O++8szvuuONa7akiA0vmjYwRtSFDSmbPc88959vVcUHt22SWyUy77LLLfJu6dK/2aKofpXrGMm1kgMm0kQkm40pGi9qNTBedstlmm21aDJfIwNlhhx38B72WXXZZ16VLF7fccsv5JIa2isQr4UKGlO4Tk7XXXtuPR33LXFKNK53o2XHHHZ3MvT/96U8+rjfeeMMzUc2r7t27+7I1MoLKXZFJpVj/8Ic/eLbRFZlb+u9K6NCpo+j6z3/+47m98847fs+70kor+YSQ0iLuSeJXtpjaF3fx7NOnjy/Vo1g0Hv1N+3GV8OGCQFYEgjaw/vWvf3mnuX///t5w0vFBZUKVM7BUG0sGly453/rxKr1KzSgtrv3228/J2NKP5frrr7/QM/qh23333b0D39aXD7MSiHYhAAEIQAACEIAABCAAAVsElHmlDKwsrm/16OBuOey/hlI9l8wWmTKqBaz90NFHH91iPGlvdOyxx3oz6cwzz/TZWG3drz2VDBRlSanci0yVyOiIDCyNVSdjDjzwQG+IyYh67LHH/D9T21deeaXfF+pq6wjhlClT3AEHHODvk3G0+eab+33k/Pnz3SOPPOJOPPFEN2fOHP+hLmUN6YpndWk8KkujZ3SfjKy2LiVCqD+ZXTLG4v3dfffdvj9dqtWlzDVdUSZW0iOEyoL79a9/7Q24eKaZGOl0kf6lSwZh3ODSfloZW0riUPaWjLK2DCy1US5+ZbPJ9FJ7akd8ZCaqf43plFNOcYpFJ6Z0eokLAlkRCNbAkpurgupaCEp31I+LCq5XMrCSZEqV3iOo7ZlTGFhZTT3ahQAEIAABCEAAAhCAQDEJXDhptpvw1JzMgr9yTA+34lL1FXOPzI/vfOc77txzz/UnUuKXvv4eGTYHHXSQNzeUkbXOOut4U0tZTPHro48+cjomp8wjmWL6YnxkmOjInjKidOomnu2kr/Xpb+pfhpOymHRVMrBkOMnA0bE5HQccNmzYQsfaIgNHGV8yx5QhFv0zmU96bqmllkqkTWQs6QSQxqj+4pcMHiVXaF+77777+mw1GT/VGlhqUx8Yk4kYPyYYZVgpC0yxq+7z+eef7zOkdEVxRSZj/J/Fx9te/OIZffBMWpdmWSnBRMbjZptt5vlHGXmJIHITBKogEKSBpYWutFA583KY5ejruB8GVhXKcisEIAABCEAAAhCAAAQgECSBE26e5R56Of36V1GwZ+7e3Q1cub46WDoG+Itf/MKbL8qaaq++UWSwlKvTFI1LpomyuuJmVJSBVXr8rfSZuOFSycDSx79ksMjMiRs58Ukwbdo0b7b07NnTm04yzCIDRwacTLn4x8DamkCqe6XyNPoQmPpTFlbppaOEGpOuaEy1GFj/+Mc/vEGo8jYyAmW8Rf3vtttu3rxSBpR0UKZXZOZNmjTJG3ql2WblDKxy8etYpLK/VBs6ngUXj/Pzzz/3GVo6cipte/fuHeS6Y1DNTyBIA0tH+pQZFaVARj8gzWpgKYuMCwIQgAAEIAABCEAAAhDIh0C50iD59Jysl2Nv+MY9+dq8ZDfXcNfJI7q7769Wn4EVGUvlMotKhxTPlIpqQJUbdlSHKl6wvL1+yh15q2RgRVlj+rvqRZU7/idjR3WcVJg9Oo4X9dFWIfVy8aiovb5or9pP0RG90vuiLCndGxlAtRhYMomU4KFnoyyxqP6VCux/8MEH3pg77bTT3B577OFrcMk4k6mmzLbFF1/cD62tI4Tl4o9MwX/+858t9bpKY9TxTGXWqU8V44+OStYwdXkEAm0SCM7A0gKRiy0HWcXwvvvd77YE0JaBpcJ0Mr10qdh6uS9FREcIlVKptpX6qEWtlEf9PwzRmeo4segIoVJer7vuOrfaaqtVPaUwsKpGxgMQgAAEIAABCEAAAhComUDoBlYzZGC1ZyzFxWnr63rlRMzKwIoMpSQTJ/7lwiwNrDibyNypxcDSKSUZV3/5y1+8Eabi7zpe+fjjj/vMrk8++cRnaOkoprLInnzySX+SqTQjrloDK/6VwyRcMbCSUOKeWgkEZ2BFXwpMGpBSJGVc8RXCpMS4L04gMhdDf8lBtWQE0DMZp9DvQsfQFUo2PnRMxin0u9AxdIWqGx96Vscry7uboQZWNQZWvPZU/HhgEobt9VNNBlZ0zE51uKLjgUnGkKWBFWVgKesrOspXi4GlOFSEXrW0fvvb37r/+Z//8RlZqtclk0o1pKOjiioYr6QOFc6PjhRGHKo1sKJMLhXS53hgktnEPVkSCM7A0v+w6osW5S6lJk6dOtW7y+uuu67r0aOH+/nPf+4XrxaUzk3ra4VKpRw6dOhCTahY4JgxY/xXGlQMXpfuV/E+pY8q86v0mjhxottqq638/TqvraJ7XHYI8CJnR0tFgp429ERHdLRBwEYUrEcbOkZRoGc4ejbDVwijmlaVamDp5IwMlGWWWcYbKjJGokLfSWpmRWqkaWBFZouKq8e/1tee8rUaWFF2kupoVaqB9eabb/o9q2pW1VMDSzFEx/l0KmjEiBG+NpmyrvSlwchEvO2223ymlk4ciUNpUfpqDazIgNPXFkvNsPa48ncIpE0gOAOrrQDbOkKo57QY9UlPLeTTTz+9VfE9HUlUYTkZUkpr3GijjXxXTz31lD+3PGjQIDd27FhfgC+69DUHpV/q86s6V1z6VYm0xaC9/AnwIpc/8yx7RM8s6ebXNjrmxzrLntAxS7r5tY2O+bHOoyf0zINysj4++3qBG/7Hr5PdXOVdQ9fu7I7ZsVuVTy18e5TNJLOk3FcIZWgccMABvqi4vq6nDKO9997bl1wpd3+UdfTiiy/6pILtttvOd5qmgaWkhpNOOsnv67QfHDly5ELF51U+RgkTAwcO9MXJlcFUq4FVzVcI43Wyas3AikyqyZMnO30xURlRcVMpMh1/9rOfOemz/fbbtxR8jxSu1sDS0UVljp1wwgl+ny3TsvQrhDLy9Dd9qVJzoU+fPnXPPxqAQDkCpgwsffVAWVT60oIyq1S8TgXglU6p88FadPq7/qbsLV0yxfT/KijNUmaVzmMvuuiibtasWf7HQJlX+nHQoi39FCxTqvkJ8CLX/BrGI0BPG3qiIzraIGAjCtajDR2jKNAzLD1PuX2WUyZW2tcZI7u79XrXV8BdY5IZpBMoOsWiki1HH320W3rppf1w9fW74447zqloukwUJQPIlJF5dMUVV/gEAZ2O6dWrl79ff9PeSnsyfQ1PBlf0t3oMrPfee8+PL16nWHWwDj74YN+v9nk77LCDP0UjI0aneZQlJnNHe0Mdx9PXFWs1sNRHZOSpWLr2k9o7duzY0en00N133+1OPPFEPxbtN6Pi5rUaWGpHbSrjStcGG2zQ6muLzz33nK97pS8H6ho/frzbZJNNWk2xag0sPawC7UoGET/tj0eNGuUWWWQR3+67777r54lqSmuvLd05tZT2qqa9iIApA0tBqYidvr4wZcoU169fP//DqIU2ffp0fxRQPxx9+/ZtNQP0d/3I6ejhyiuv7P8+Y8YMp6LvAwYM8D/KgwcPZtYYJMCLnC1R0dOGnuiIjjYI2IiC9WhDxygK9AxLz39/MN/tf9nMVAf1g9U7ud/v3D21NpUgoIyaO++80y2xxBL+y3764qCyqHTJrFBmUZSRE79/scUW84XGZWZEX6hbddVVfWaUDK/oqsXAihdGV5vav2ks+ncZVbfffrvPsvrss8+c/q6PeOkonAweXfvtt5835CITph4DS6d2dFxPJo6Mo+grjDrOqMwkcdOJnh133LElG6weAyteVL3064fREUPtiUvNrYh3LQaWnlXmmgxB9S+eyrKSyam5oLiV7SUDs2fPnqnNPxqCQCkBcwaWApw2bZp39e+66y5vQik9VGeE5bBXWlD6sVWq6Q033OCUkinzS2mtcpp79+7NzDFKgBc5W8Kipw090REdbRCwEQXr0YaOGFjh6jjusTlu7AOzUxngIt06uIv26e6+u2THVNqLGtExuXvvvdd/kV1FxGXIbLbZZr72kkwSZRvFL5kzOhGj+5UNFZk6yoRSdlCUxVWPgaVnZYrJNHrggQd8H/FsI5lYqj2lL/bdf//9LUbSkCFD/LhloMXHXY+BpbGoP2WjKWaNRyaPjDOZOoo5yjaLYq7HwFKsOvqojKfSLwzGjT3tfWU+lmZD1WpgaewffPCB3y/fcccd7oUXXnAyKZVVphhVg5rMq1SXHo2VIdBUBhYKQiBtAryYp020se2hZ2P5p9U7OqZFsrHtoGNj+afVOzqmRTKMdtAzDB1KR3HmXbPcPVPqP0p44i7d3cZ96z86GCYlRgUBCEDAOQwsZkGhCfAiZ0t+9LShJzqiow0CNqJgPdrQMYoCPcPV85x7Zrk7J9duYp0wvJsb0q9zuAEyMghAAAIpEMDASgEiTTQvAV7kmle7ciNHTxt6oiM62iBgIwrWow0dMbCaQ8fbnp3jLv37HDdz9oLEA1ax9gO37OpWWTbdY4OJB8CNEIAABHIkgIGVI2y6Co8AL+bhaVLPiNCzHnrhPIuO4WhRz0jQsR564TyLjuFokcZI0DMNitm28cXMBe6Wp+e4SS/Oc+98Or9iZxus0sltO6Cz23RNsq6yVYTWIQCBkAhgYIWkBmPJnQAvcrkjz7RD9MwUb26No2NuqDPtCB0zxZtb4+iYG+pcOkLPXDCn1sn0j+a71z+Y7z78YoGbPde5xXs4X6B9jRU6usW7d0itHxqCAAQg0CwEMLCaRSnGmQkBXuQywdqwRtGzYehT7RgdU8XZsMbQsWHoU+0YHVPF2fDG0LPhEjAACEAAAhCogwAGVh3weLT5CfAi1/waxiNATxt6oiM62iBgIwrWow0doyjQ05aeRAMBCECgaAQwsIqmOPG2IsCLnK0JgZ429ERHdLRBwEYUrEcbOmJg2dIxz2hmz57t7rrrLrfqqqu6/v3759l1IfqyxPfee+91f/zjH915553n50vp9c0337gnn3zS3XLLLe7xxx93b731lltiiSXcBhts4IYOHeq22247t+SSSy70nNpVm2effbbr27dvIeYFQVYmgIHF7Cg0AV7MbcmPnjb0REd0tEHARhSsRxs6YmDZ0jHPaM4991x36qmnultvvdVtuOGGeXZdiL6s8H3jjTfcIYcc4n7605+6kSNHug4d/q9G24IFC9xjjz3mTj75ZPf88897Xddbbz23+OKLO5laL774ovvyyy+96fWrX/3Kbb311q2e1z2/+93v3Pz58/2/L7LIIoWYGwRZngAGFjOj0AR4MbclP3ra0BMd0dEGARtRsB5t6IiBZUvHPKNRRs0ZZ5yBgZURdAt8lUUmk/Oll15yf/7zn92yyy7bQkvm1e233+6OPfZY/89++ctfut12282bV9H1n//8x1177bXunHPO8RlZYjJ48OBWxKdMmeIOOOAAd/TRR7thw4ZlpAbNNgMBDKxmUIkxZkaAF/PM0DakYfRsCPbUO0XH1JE2pEF0bAj21DtFx9SRNrRB9Gwo/qbs3ILBEjJ4C3yVVbX33nu7o446ymdgxa9//etf7sADD3QzZ870RwA33njjVtlV0b3Krho7dqzPsPrhD3+4kBEmk+ykk05yak9Za8svv3zIsjK2DAlgYGUIl6bDJ8CLXPgaVTNC9KyGVrj3omO42lQzMnSshla496JjuNrUMjL0rIVaMZ95/fXX3ZgxY3xWTfySeRDPgPn444/d+PHj3R133OFeeOEFt+KKK3oDYp999nFrrrlmK7MianP99df3GTl/+9vf3GWXXeYmT57sj4+NGjXKHz/TEbGXX37ZXXLJJU71j3T9+Mc/9kfU+vTp0zKceHvHHHOMH8P111/v2xs4cKAbMWKE23nnnSseOZsxY4a7/PLL3f333+/UlsawxRZb+LH36tWrVdw333yz718ZRosuuqjPSnvvvff8cbcjjjjCrbDCCv6Im/q+7bbb3AMPPODb1KVsItV32mmnnVpqPLXHN+rvyCOP9FlLpVe5v8d57LXXXu6ss85y99xzjxsyZIg76KCD3CabbOKbkRk0ceJEr9vTTz/t/5mOh8p8Ui2qrl27Jp70kbH03HPPuQsuuMCttNJKLc/OmzfPm1Yy6Q499FDPqXPnzhXb/uCDD/wRwuWWW87tv//+rbTWQ4888ojbd999vclVapQlHjA3Nj0BDKyml5AA6iHAi1w99MJ7Fj3D06SWEaFjLdTCewYdw9OklhGhYy3Uwn0GPcPVJrSRTZ8+3Z1yyinewJIxEtUskjEiM0mX5pOMI90j40rm0ldffeVkZiy22GL+b3vuuWeLaREZLKussorr1q2bu+mmm3y7Xbp0aamDNHr0aG+06KiY7pExpPpKKvgtU0oGWmRiRe2psHePHj3cdddd59Zee233rW99y4/ps88+82M97bTTXM+ePVsQ61ibjJ0TTjjBtyvjSuOXGReZcMcff7zbZpttWgy4yDDaYYcdvEmlY3Iat8wWHZ+TqXXxxRf7Ok+6Il46HiceuuJjaY9vPQaWjuEpRhlC4vfhhx96I2nAgAE+xt///vduwoQJXqPvfe97rlOnTi28ZPgdd9xxbumll040JV955RUnzTbbbDP361//2jOJLrGVcSYz8pprrqm7htr777/v21N8Mue+/e1vJxojN9kigIFlS0+iqZIAL3JVAgv8dvQMXKCEw0PHhKACvw0dAxco4fDQMSGoJrkNPZtEqICGWemIm7KXlJGkI13KiBk+fLjP3JFxIhNI5pfmm7KoNt10Ux9RPOtIZpSOhMlUUcHvf/7zn769d99912dM6Tha1KYKfMtsGjdunDej9thjj4XakwEl82jzzTd3HTt29EaN7lVtJRksMtOizKKonpIaiT+jDCpl+Zx44oluzpw57sILL/RZZLoiQ0n/WUw0NvWj+2TaRNlB+qLeH/7wB9e7d+8WFadOneozzlTIXG3uuOOOLX+rxLceA0vmnTLZZMLJpJo7d64fq/5dZpuMtt13392bhJFRJV7KoLrooosSZUtFAciYUjulmXn6u4w7ZUqts8467vzzz/dmXz2XWIutMtyuvPJKvopZD8wmfhYDq4nFY+j1E+BFrn6GIbWAniGpUftY0LF2diE9iY4hqVH7WNCxdnYhPomeIaoS9pgqGSyXXnqpN65kNCkrpvRo2BNPPOFrHykzR6aDTKm4gaXnt91225bgZ82a5U0qGRM6Jvab3/ym1VG2++67z9dZ0tGyKNMn3t7pp5++0NfvdMQvMsXUn8yoyATRf9dxQB2HjH8xL25W6eje4Ycf7jOUIkNJBpmeW2qppVrGLuNL7emeX/ziF63iKjV6So8EZmFgvfnmm2Uznv7xj384ZdDJUDrzzDNbFVvXOD/66COn8SnjTSZXv3792pyckWbKpNNxRGWdxa9IMx2fVMZUvHB7rbM+MsziRmatbfFccxLAwGpO3Rh1SgR4kUsJZCDNoGcgQtQ5DHSsE2Agj6NjIELUOQx0rBNgYI+jZ2CCNMFwyhksyoiSifTQQw9VzIT5/PPPvXmk42vKOlJGUmQ4KWxl+ujoXvyK+iqXzaNaTaohpSOJMs66d+/e0p7MMWX4KAsrfikbTGaTzK0//elPvh5WdAxNRla5Z/T8tGnTvPmmY4cai46qRQaWDCBlNul4YzVXpYyqLAwsmYkR8/gYI/NH/GQElrsUr7K0SjPFyt376aefuoMPPth98sknZfuLYo5rVg2zcvfKGFX2W9zIrLdNnm8uAhhYzaUXo02ZAC9yKQNtcHPo2WABUuoeHVMC2eBm0LHBAqTUPTqmBDKQZtAzECGaaBjlDJbIBNKxP9VQkplUeikrKapddeutt/r6R5GBpfpR5513XktB8+jZWg2stdZay2d56bhc6VVqHOnIo8wPmS96Ll6zKXpW5paO4al+VGS0tXekL96vYlftK9Wgeu2119zDDz/sjxgq/jwysMrxVUF1FZ6XQaU6YZVqXEV1wCoVj4/H2Z6eMjh1hDDNDKzoWKKOYaqWl2qfcRWLAAZWsfQm2hICvMjZmhLoaUNPdERHGwRsRMF6tKFjFAV62tIzj2jKGViVvqBXaTxZG1j6qmGUldWegRVlciVhJ4MrqYGlbC+ZY/qqor6cqALy0SVjTYaRCrc3ysD65ptvPKOrr746SegLjbPcQ+0ZWNGRRWXapVEDS2Nor89EwXFTUxPAwGpq+Rh8vQR4kauXYFjPo2dYetQ6GnSslVxYz6FjWHrUOhp0rJVcmM+hZ5i6hDyqcgZW9HW52bNnlz06Vime9syHWjOw1l133YrZOKWZU/E6UNHxwCT828vAevzxx51qZsm4UrbZRhtt5LPTVlppJderVy939913+yOVjTKw4rW/khwPTMKkPT11tPDQQw91Mg2TfIVQJqDG9uqrr/oi8+JYerXXZ5Jxc09zE8DAam79GH2dBHiRqxNgYI+jZ2CC1DgcdKwRXGCPoWNggtQ4HHSsEVygj6FnoMIEPKxyBpaOxx1xxBHuwQcfTGRMROG1Zz7UamCpRlW5DJ94DazItInMt6+//rpsHa5KUrRlYMV5qH6UanWVFoafMGGCL/CeloEVFdGPt9ce33jhfRlLpWOsdhq215+OLZ599tn+q43qT3OmtNh/vM+o6L6+1njFFVe4rbbaaqEhcYSwWpXs3Y+BZU9TIqqCAC9yVcBqglvRswlESjBEdEwAqQluQccmECnBENExAaQmugU9m0isQIZazsCSMSQzRF8NrGRMyNzQ35Zffnn/RcE+ffq0e/yrVgNLX9275JJL3KabbtqKWmSIqJB89FU9ZY2ddNJJbuzYsb64+8iRIxcyclQo/Nhjj3UDBw70xer1xcG2DKz2itPL4BIDmVhJDayoWHm5AuiV2mvPUHr++ef9lxxXW201XwtL2sSv6Jjhiy++6MaMGTsGdhkAACAASURBVONrV7V1RUXcVeurXFF+PRuN6YsvvvBm1sYbb1zWOJs7d67X6OSTT3bbb7+910bGZOkV1dWiiHsgPxANGAYGVgOg02U4BHiRC0eLNEaCnmlQbHwb6Nh4DdIYATqmQbHxbaBj4zVIcwTomSbNYrQVmUrRV/yiqFWgXUfipk6d6g477DA3atQop68B6nr33Xf9l+xk2IwePdodc8wxrmvXrpkZWCq4LrNJxtSAAQO8QaJi5Keddpq79tprff8///nPXadOnfz4dKRNX8/TddRRR7kddtjBj0/GnOJRrShll8mg23fffX17bRlY0VG5v//979542XXXXVsyjWTuyJiRwaOrkoFVyjdu/Jxyyilu88039+NQ5piyyWQGlbbXnoElg0qMlN2kLDFx0fFGXfqbjvmp0Puaa67pDa7ob5Vm+qxZszyjm266yY0fP96tt956C90qpqqBpr6UfaVjlrvttptbfPHFW+6NM9KXJDXnBg8eXLbb6EuK0naPPfYoxiIkylYEMLCYEIUmwIucLfnR04ae6IiONgjYiIL1aEPHKAr0tKVnHtFExs0SSyzhv9qnr8oNGzbMd60sIRlAMk5kPCjLShlOyuD58ssvfSaNDJOePXv6+9szWGrNwFLb+mLgpEmTvImiryLK1FI9KtVSUjaVxh9dMlVuv/12/891j4qMa/zKbNIRNV377befO/roo1tMubYMrLhJo7hL29N/l0k2btw4t80227jjjz/edevWzfdTia+O3ymrTPx0xeNSrFGWUjVHCNWOstGUDXbnnXf6rzaqTpfMu+iLkRqrTLhBgwYlml4yrv7f//t/3iysZCjpq4yqAXbiiSc6HeGM4pGJFX31UP9Mtcx0TzkjTH+P6njddttt7sorr3T9+/dPNEZuskUAA8uWnkRTJQFe5KoEFvjt6Bm4QAmHh44JQQV+GzoGLlDC4aFjQlBNcht6NolQAQ0zqhV1/fXXe/MhKkQeZTMpe+aGG25wd9xxh3vhhRe8KaLi2zK6hg4d6s2R6MrKwFp22WW96XLPPfe4q666yhtlQ4YM8VlhpWOIxiLTSUcP//KXv7j777/fPyOTS8/ttdde3sDp2LFjy9jbK+Iuk0aGno4mPvLII97AUxaRjuEp20nG3kEHHeQznS644AJf3F1XW3x1rE5H5i6//HKfNabxyQBTVpiOR6rdag0s9akxyOy77rrrfLsa69prr+1NNummLyYmvV555RWfZSdelb4EGbX10Ucfub/+9a9u4sSJ7plnnvHmYcR822239VpFWXzl+o/qly233HLurLPOapXFlXS83Nf8BDCwml9DIqiDAC9ydcAL8FH0DFCUGoaEjjVAC/ARdAxQlBqGhI41QAv4EfQMWByGVjWB9gyxqhvkgaoJRDXFZLRFdcaqbiThA8riUu2rM8880xttXMUkgIFVTN2J+n8J8CJnayqgpw090REdbRCwEQXr0YaOURToaUvPokeDgRXGDIiKwyvDLKoZlvbIlKmmgvqqr/bnP//ZKeuOq5gEMLCKqTtRY2CZnAO8mNuQFR3R0QYBG1GwHm3oiIFlS0ei+S8BDKwwZoKysFS0X3XHsjKXIpPst7/9bUsNtjCiZxR5E8DAyps4/QVFgBfzoOSoezDoWTfCIBpAxyBkqHsQ6Fg3wiAaQMcgZEhtEOiZGkoaCoAABlYAIvzvEKKvUupo38iRI/0XE9O6VLNL9bVmzpzpi9rHv2CYVh+00zwEMLCaRytGmgEBXuQygNrAJtGzgfBT7BodU4TZwKbQsYHwU+waHVOEGUBT6BmACAwhNQIYWKmhTKUhfR3wsssu81lY+iJlWteDDz7o616dffbZrm/fvmk1SztNSgADq0mFY9jpEOBFLh2OobSCnqEoUd840LE+fqE8jY6hKFHfONCxPn6hPY2eoSnCeCAAAQhAoBoCGFjV0OJecwR4kbMlKXra0BMd0dEGARtRsB5t6BhFgZ629CQaCEAAAkUjgIFVNMWJtxUBXuRsTQj0tKEnOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxewK8mNuaCOhpQ090REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oWMzGljzFzj37Bvz3Kvvzneug3P9vtPRrd+nk/4jFwQgAAEIFJQABlZBhSfs/xLgxdzWTEBPG3qiIzraIGAjCtajDR2bycB648P57tZn5rg7J88tC3+H9Tq7n2zQxa28TEdb4hANBCAAAQi0SwADq11E3GCZAC/mttRFTxt6oiM62iBgIwrWow0dm8XAuvTvs911j89JBH3kxl3cvpt1TXQvN0EAAhCAgA0CGFg2dCSKGgnwYl4juEAfQ89AhalyWOhYJbBAb0fHQIWpcljoWCWwwG8PWc+Tbp3l/v5S+ayrSli3+F5nd+z/dAucOsODAAQgAIG0CGBgpUWSdpqSQMgvck0JtMGDRs8GC5BS9+iYEsgGN4OODRYgpe7RMSWQgTQTqp73vzjXnXzbrJoo/Xanbm6ztTrX9CwPQQACEIBAcxHAwGouvRhtygRCfZFLOczCNIeeNqRGR3S0QcBGFKxHGzpGUYSq5/6XzXT//mB+TbBXW66ju3jfHjU9y0MQgAAEINBcBDCwmksvRpsygVBf5FIOszDNoacNqdERHW0QsBEF69GGjiEbWE++Ps8de/03dYE+bbfuboNVOtXVBg9DAAIQgED4BDCwwteIEWZIgBfzDOE2oGn0bAD0DLpExwygNqBJdGwA9Ay6RMcMoDawyRD1POeeWRW/OJgU1f+s38Ud+mMKuiflxX0QgAAEmpUABlazKse4UyEQ4otcKoEVtBH0tCE8OqKjDQI2omA92tAxiiJEPXe/4Gv33mcL6gL93SU7uqsO5BhhXRB5GAIQgEATEMDAagKRGGJ2BEJ8kcsuWvsto6cNjdERHW0QsBEF69GGjqEaWAsWODf01K+c/r2eq3Mn5+49etF6muBZCEAAAhBoAgIYWE0gEkPMjgAv5tmxbUTL6NkI6un3iY7pM21Ei+jYCOrp94mO6TNtZIsh6jnqwpnu7U9rK+AesVxp6Y7uitFkYDVybtE3BCAAgTwIYGDlQZk+giUQ4otcsLCaYGDo2QQiJRgiOiaA1AS3oGMTiJRgiOiYAFIT3RKinudPnO1ufnpOXRR3+X4XN2YLamDVBZGHIQABCDQBgaANrK+++spdddVV7vrrr3cPPvigW3nlld2WW27pDjnkENe/f3/XoUOHsoinTZvmzj33XHfXXXe5V155xQ0cONCNGDHC7bvvvq5nz55ln/nwww/d2LFj3Q033OAmT57s+vXr57bbbjvfV+/evZtASoZYC4EQX+RqiYNn/ksAPW3MBHRERxsEbETBerShYxRFiHpOeXOeO/ya+r5C+Kc9u7u1e/EVQluzlWggAAEILEwgWAPr/fff9+bRjTfe6JZaaik3YMAAN3PmTPfEE0+4xRdf3J188sluzJgxrnPnzq2iev755/0/f/LJJ70J1atXLzd16lQ3ffp0t9VWW7nzzjvP9e3bt9Uzb731ln9GhpdMMv19xowZ3vxSvxdeeKEbPHgw88cggRBf5Axizi0k9MwNdaYdoWOmeHNrHB1zQ51pR+iYKd7cGw9Vz0Ov+sa9+Na8mnj0X6mTO2eP7jU9y0MQgAAEINBcBII0sObOneuOP/54b1IdeOCB7rTTTvOm1YIFC9wzzzzjja333nvPTZgwwW2wwQYtxJVFNXr0aDdp0iR3zjnnuL322ssbXMrkOuOMM9wJJ5zgDj74YHf66ae7Hj3+e05epthRRx3lja3f/e53/j/rb7NmzXLXXHONO+yww3zW18UXX1wxe6u5JGe0cQKhvsihUm0E0LM2bqE9hY6hKVLbeNCxNm6hPYWOoSlS33hC1fOJ1+a5X99QWxbWKbt2dxutSvZVfTODpyEAAQg0B4EgDSxlPu26666ue/fubvz48a5Pnz6taMpMUsaUDK5f/epXLX+7+eab3fDhw92hhx7qTapu3bq1/O2LL77wxtfEiRPdrbfe6jbaaCP/t6eeesrttNNObtCgQf4I4ZJLLtnyTNxIu+mmm9ywYcOaQ1VGmZhAqC9yiQPgxlYE0NPGhEBHdLRBwEYUrEcbOkZRhKznn++d7W57trpaWD/ZoIs7eCtqX9mapUQDAQhAoDKBIA2s5557zmdLrbXWWv7fu3Zt/T9M1157rdtjjz3ckUce6f7whz+4Ll26uNmzZ7tjjjnGZ17dd999bujQoQtFrXpayso6++yzfWaVLt1/+OGHu4suushnb5VeDz30kNt00039/aeeeupCY2FyNTeBkF/kmptsY0aPno3hnnav6Jg20ca0h46N4Z52r+iYNtHGthe6njc9NcddMGl2IkgHD+3qfrJhl0T3chMEIAABCNggEKSB1RbaeFbUZZdd5guz6/r000/dnnvu6d58801fiH2NNdZYqJlHH33UDRkyxBtVMq5UBP6II45wF1xwgS8Sv8kmmyz0TJQNtvzyyzsZZ0svvbQN5YnCEwj9RQ6ZqiOAntXxCvVudAxVmerGhY7V8Qr1bnQMVZnaxtUMev5n5gJ367Nz3f0vzHUzPpnfKtCVlu7otli7s9tp/c5use7lP+ZUGxmeggAEIACBZiDQNAaW6l+98847/uuCMpx+9KMf+bpUyy23nOesIu0jR470/3ncuHG+GHvpVWpGqT7Wfvvt52Rs3XHHHW799ddf6JmPP/7Y7b777r7mlr6GqMLwXHYINMOLnB3a2UeCntkzzqMHdMyDcvZ9oGP2jPPoAR3zoJxfH82m5/SP5rtX353vXAfnVl++o1t5mY75waInCEAAAhAIjkBTGFhR5lREb//993cnnnhii3mlf54kU6r0Hj3XnjmFgRXcnE11QM32Ipdq8AYbQ08boqIjOtogYCMK1qMNHaMo0NOWnkQDAQhAoGgEmsLAuvPOO33dKl1Tpkxxn3zyidt+++39P+vbt6//5yEbWNHLQtEmF/FCAAIQgAAEIAABCECgEQTKnaxoxDjoEwIQgAAE0iPQFAZWPNwPP/zQf2HwzDPPdD/5yU/8McKePXtiYKU3J2gJAhCAAAQgAAEIQAACTU0AA6up5WPwEIAABMoSaDoDS1GoYLuKt99yyy3utttuczvuuKOvj6XjgLpUbH2FFVZYKOAoS2vFFVd0V199tVMNrIMOOsg98cQTbsKECa5///4LPRMdIfzoo4/cdddd51ZbbTWmkiECpNIbEpOi/GbEZF3akBId0dEGAVtRsC5t6Uk0EIAABIpGoCkNLImkGljHHXecP0Z42GGH8RXCos3clOLlRS4lkIE0g56BCFHnMNCxToCBPI6OgQhR5zDQsU6AgT2OnoEJwnAgAAEIQKAqAkEaWBdeeKG76qqr3M9+9jM3evTohQLSFwlPOOEE/68rr7zSjRo1ys2ePdsdc8wx7pxzznH33XefGzp06ELP6bjhmDFjWkwv3aD7Dz/8cHfRRReV7WvixIluq6228ibZqaee6rp27VoVYG4OmwAvcmHrU+3o0LNaYmHej45h6lLtqNCxWmJh3o+OYepS66jQs1ZyPAcBCEAAAiEQCNLAikwj1bgaO3asW3LJJVuxevvtt92ee+7pXn75ZXfrrbe6jTbayP/95ptvdsOHD3eHHnqor5PVrVu3lue++OILd8ghhzi1HX/mqaeecjvttJMbNGjQQn3NnTvXHX/88e7kk092N910kxs2bFgImjGGFAnwIpcizACaQs8AREhhCOiYAsQAmkDHAERIYQjomALEgJpAz4DEYCgQgAAEIFA1gSANLNW4UubVjTfe6A2kI4880i266KI+uGnTprljjz3WjR8/3h188MHeqOrRo4f/mwq867lJkyb5zKo99tjDm1hfffWVO+OMM3zGlv6uv0XPzJw50x111FHuvPPOa9XXrFmz3DXXXOMzrzbffHN36aWXumWXXbZqwDwQNgFe5MLWp9rRoWe1xMK8Hx3D1KXaUaFjtcTCvB8dw9Sl1lGhZ63keA4CEIAABEIgEKSBJTAquK5C7Y8++qhbaqml3IABA5zMJhVc16UMrLPOOst/gTB+Pf744+7AAw90U6ZMcf369XO9evVyU6dOddOnT/dHAWVU9e3bt9Uz+rvMMB09XHnllf3fZ8yY4cegfnWkcfDgwSHoxRhSJsCLXMpAG9wcejZYgJS6R8eUQDa4GXRssAApdY+OKYEMpBn0DEQIhgEBCEAAAjURCNbAUjT6AqAyrfSFwAcffNAbWVtssYXbZ599fFZU/IhgPHplaZ177rnurrvu8ibUwIED3YgRI7whVmp4Rc8pe0vHFW+44QY3efJkb35tt912/thh7969a4LLQ+ET4EUufI2qGSF6VkMr3HvRMVxtqhkZOlZDK9x70TFcbWoZGXrWQo1nIAABCEAgFAJBG1ihQGIcdgnwImdLW/S0oSc6oqMNAjaiYD3a0DGKAj1t6Uk0EIAABIpGAAOraIoTbysCvMjZmhDoaUNPdERHGwRsRMF6tKEjBpYtHYkGAhCAQFEJYGAVVXni9gR4Mbc1EdDThp7oiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACA25qeAAAIABJREFUECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1mPYOs6e61zXzsnHiJ7JWXEnBCAAAQiERwADKzxNGFGOBHiRyxF2Dl2hZw6Qc+gCHXOAnEMX6JgD5By6QMccIFfZxT9nzHMPvTzPPfLKXPfBFwvcIt06uIErd3SDVuvshq7T2XXpVLlB9KwSNrdDAAIQgEBQBDCwgpKDweRNgBe5vIln2x96Zss3r9bRMS/S2faDjtnyzat1dMyLdPv9PD99nrvm0Tlu8rR5FW9erHsHt+ugLm7kxl3K3oOe7XPmDghAAAIQCJcABla42jCyHAjwIpcD5By7QM8cYWfYFTpmCDfHptExR9gZdoWOGcKtoumxD8x24x6bk/iJ1b/T0f1uWHe33Lc7tHoGPRMj5EYIQAACEAiQAAZWgKIwpPwI8CKXH+s8ekLPPChn3wc6Zs84jx7QMQ/K2feBjtkzbq+Hh16e6064eVZ7ty3098F9O7mTdumOgVU1OR6AAAQgAIFQCWBghaoM48qFAC/muWDOrRP0zA11ph2hY6Z4c2scHXNDnWlH6Jgp3kSN73PJTDf9o/mJ7i296Tc7dXObr/V/Vd7RsyaMPAQBCEAAAoEQwMAKRAiG0RgCvMg1hntWvaJnVmTzbRcd8+WdVW/omBXZfNtFx3x5l/Y26YW57pTbq8++itpZe8VO7k+j/i8LCz0bqye9QwACEIBAfQQwsOrjx9NNToAXuSYXsGT46GlDT3RERxsEbETBemysjsde/4178vXKRduTjO7S/Xq4VZbt6G9FzyTEuAcCEIAABEIlgIEVqjKMKxcCvMjlgjm3TtAzN9SZdoSOmeLNrXF0zA11ph2hY6Z422x83nzntjr1q7oHMGaLrm6X7//3q4ToWTdOGoAABCAAgQYSwMBqIHy6bjwBXuQar0GaI0DPNGk2ri10bBz7NHtGxzRpNq4tdGwc+5ffme8O+svMugew2Vqd3W936oaBVTdJGoAABCAAgUYTwMBqtAL031ACvJg3FH/qnaNn6kgb0iA6NgR76p2iY+pIG9IgOjYEu+906nvz3ZjL6zewtlqnszt6BwysxilJzxCAAAQgkBYBDKy0SNJOUxLgxbwpZas4aPS0oSc6oqMNAjaiYD02VsctTq7/COEhP+7qdlqfI4SNVZLeIQABCEAgDQIYWGlQpI2mJcCLedNKV3bg6GlDT3RERxsEbETBemysjifcPMs99PLcugZx1Zge7rtLUcS9Log8DAEIQAACQRDAwApCBgbRKAK8mDeKfDb9omc2XPNuFR3zJp5Nf+iYDde8W0XHvIm37u+RV+e54yd8U/MgNlylkzt1t+4tz6NnzSh5EAIQgAAEAiCAgRWACAyhcQR4kWsc+yx6Rs8sqObfJjrmzzyLHtExC6r5t4mO+TMv7fGQK2e6l96eX9NATtm1u9to1U4YWDXR4yEIQAACEAiNAAZWaIownlwJ8GKeK+7MO0PPzBHn0gE65oI5807QMXPEuXSAjrlgbrOT56bNc0eOqz4La+g6nd0x/1u8PeoAPRuvJyOAAAQgAIHaCWBg1c6OJw0Q4EXOgIixENDThp7oiI42CNiIgvUYho43Pz3HnT9xduLBDFqtk/v1Tt3cIl07tHoGPRMj5EYIQAACEAiQAAZWgKIwpPwI8CKXH+s8ekLPPChn3wc6Zs84jx7QMQ/K2feBjtkzTtrDmx/Pd9c+OsdNeqFyUffey3R0IwZ1cT/u37lss+iZlDb3QQACEIBAiAQwsEJUhTHlRoAXudxQ59IReuaCOfNO0DFzxLl0gI65YM68E3TMHHHVHbz72QL38Mtz3eTp89xr781331qkg1t3pU5uUN9OTkXb27rQs2rcPAABCEAAAgERwMAKSAyGkj8BXuTyZ55lj+iZJd382kbH/Fhn2RM6Zkk3v7bRMT/WefSEnnlQpg8IQAACEMiKAAZWVmRptykI8CLXFDIlHiR6JkYV9I3oGLQ8iQeHjolRBX0jOgYtT9WDQ8+qkfEABCAAAQgERAADKyAxGEr+BHiRy595lj2iZ5Z082sbHfNjnWVP6Jgl3fzaRsf8WOfRE3rmQZk+IAABCEAgKwIYWFmRpd2mIMCLXFPIlHiQ6JkYVdA3omPQ8iQeHDomRhX0jegYtDxVDw49q0bGAxCAAAQgEBABDKyAxGAo+RPgRS5/5ln2iJ5Z0s2vbXTMj3WWPaFjlnTzaxsd82OdR0/omQdl+oAABCAAgawIYGBlRZZ2m4IAL3JNIVPiQaJnYlRB34iOQcuTeHDomBhV0DeiY9DyVD049KwaGQ9AAAIQgEBABDCwAhKDoeRPgBe5/Jln2SN6Zkk3v7bRMT/WWfaEjlnSza9tdMyPdR49oWcelOkDAhCAAASyIoCBlRVZ2m0KArzINYVMiQeJnolRBX0jOgYtT+LBoWNiVEHfiI5By1P14NCzamQ8AAEIQAACARHAwApIDIaSPwFe5PJnnmWP6Jkl3fzaRsf8WGfZEzpmSTe/ttExP9Z59ISeeVCmDwhAAAIQyIoABlZWZGm3KQjwItcUMiUeJHomRhX0jegYtDyJB4eOiVEFfSM6Bi1P1YNDz6qR8QAEIAABCAREAAMrIDEYSv4EeJHLn3mWPaJnlnTzaxsd82OdZU/omCXd/NpGx/xY59ETeuZBmT4gAAEIQCArAhhYWZGl3aYgwItcU8iUeJDomRhV0DeiY9DyJB4cOiZGFfSN6Bi0PFUPDj2rRsYDEIAABCAQEAEMrIDEYCj5E+BFLn/mWfaInlnSza9tdMyPdZY9oWOWdPNrGx3zY51HT+iZB2X6gAAEIACBrAhgYGVFlnabggAvck0hU+JBomdiVEHfiI5By5N4cOiYGFXQN6Jj0PJUPTj0rBoZD0AAAhCAQEAEMLACEoOh5E+AF7n8mWfZI3pmSTe/ttExP9ZZ9oSOWdLNr210zI91Hj2hZx6U6QMCEIAABLIigIGVFVnabQoCvMg1hUyJB4meiVEFfSM6Bi1P4sGhY2JUQd+IjkHLU/Xg0LNqZDwAAQhAAAIBEcDACkgMhpI/AV7k8meeZY/omSXd/NpGx/xYZ9kTOmZJN7+20TE/1nn0hJ55UKYPCEAAAhDIigAGVlZkabcpCPAi1xQyJR4keiZGFfSN6Bi0PIkHh46JUQV9IzoGLU/Vg0PPqpHxAAQgAAEIBEQAAysgMRhK/gR4kcufeZY9omeWdPNrGx3zY51lT+iYJd382kbH/Fjn0RN65kGZPiAAAQhAICsCGFhZkaXdpiDAi1xTyJR4kOiZGFXQN6Jj0PIkHhw6JkYV9I3oGLQ8VQ8OPatGxgMQgAAEIBAQAQysgMRgKPkT4EUuf+ZZ9oieWdLNr210zI91lj2hY5Z082sbHfNjnUdP6JkHZfqAAAQgAIGsCGBgZUWWdpuCAC9yTSFT4kGiZ2JUQd+IjkHLk3hw6JgYVdA3omPQ8lQ9OPSsGhkPQAACEIBAQAQwsAISg6HkT4AXufyZZ9kjemZJN7+20TE/1ln2hI5Z0s2vbXTMj3UePaFnHpTpAwIQgAAEsiKAgZUVWdptCgK8yDWFTIkHiZ6JUQV9IzoGLU/iwaFjYlRB34iOQctT9eDQs2pkPAABCEAAAgERwMAKSAyGkj8BXuTyZ55lj+iZJd382kbH/Fhn2RM6Zkk3v7bRMT/WefSEnnlQpg8IQAACEMiKAAZWVmRptykI8CLXFDIlHiR6JkYV9I3oGLQ8iQeHjolRBX0jOgYtT9WDQ8+qkfEABCAAAQgERAADKyAxGEr+BHiRy595lj2iZ5Z082sbHfNjnWVP/7+9s4G3qqrz/p+3C0jaIEG+EVQSlgWShhAGOQpWaBE4aL5moGCAPeIDQ2YhzRORGlSQgMRMKr4REL4wJuAopKGUIjWlRCkKGoovCeHlXi7c57O2cxjg3svZ55x99ln7t77n8+kzU3fvtdf/+13rstbv7r0PHstJN7228Zge6zSuhM80KHMNCEAAAhAoFwECrHKRpd1MEGAhlwlNsTuJz9iovD4Qj17rid05PMZG5fWBePRaT8Gdw2fByDgBAhCAAAQ8IkCA5ZEMupI+ARZy6TMv5xXxWU666bWNx/RYl/NKeCwn3fTaxmN6rNO4Ej7ToMw1IAABCECgXAQIsMpFlnYzQYCFXCY0xe4kPmOj8vpAPHqtJ3bn8BgbldcH4tFrPQV3Dp8FI+MECEAAAhDwiAABlkcy6Er6BFjIpc+8nFfEZznpptc2HtNjXc4r4bGcdNNrG4/psU7jSvhMgzLXgAAEIACBchEgwCoXWdrNBAEWcpnQFLuT+IyNyusD8ei1ntidw2NsVF4fiEev9RTcOXwWjIwTIAABCEDAIwIEWB7JoCvpE2Ahlz7zcl4Rn+Wkm17beEyPdTmvhMdy0k2vbTymxzqNK+EzDcpcAwIQgAAEykWAAKtcZGk3EwRYyGVCU+xO4jM2Kq8PxKPXemJ3Do+xUXl9IB691lNw5/BZMDJOgAAEIAABjwgQYHkkg66kT4CFXPrMy3lFfJaTbnpt4zE91uW8Eh7fpbtrt9nq5+rs6Rf22J+37rXDqsw+0bmF9T6+hfXq0qKcChJpG4+JYPSmEXx6o4KOQAACEIBAEQQIsIqAxik6BFjI6bh0leBTwyce8ahAYGdNvS14fLctfGJ3k+V8qFNz+5dTW9mgT7T0tmTmo7dqiuoYPovCxkkQgAAEIOAJAQIsT0TQjcoQYCFXGe7luio+y0U23XbxmC7vcl0tZI/ujqubltWaC7HifHp/uIVNPLu1tW/XLM7hqR4TssdUQad0MXymBJrLQAACEIBAWQgQYJUFK41mhQALuayYitdPfMbj5PtRePTdULz+hepx8xt77bJbqq0+Xna1D+Zp3VvalGGt48FN8ahQPaaIONVL4TNV3FwMAhCAAAQSJkCAlTBQmssWARZy2fKVr7f4zEcoGz/HYzY85etlqB6/+8saW/VsXT48jf78uiGt7fSP+fU4YageixKYgZPwmQFJdBECEIAABJokQIDF4AiaAAs5Lf341PCJRzxmlcCGv+21r/9HddHd/+gxzW3WV9sWfX45TmQ+loNq5drEZ+XYc2UIQAACECidAAFW6QxpIcMEWMhlWF4jXcenhk884jGrBH66otaW/Lbpl7bHqcsFWC7I8uXDfPTFRDL9wGcyHGkFAhCAAAQqQ4AAqzLcuaonBFjIeSIioW7gMyGQFW4GjxUWkNDlQ/R49k3vWHVtgS+/Ooj3pZ+psks+0yohC6U3E6LH0qn52wI+/XVDzyAAAQhAID8BAqz8jDhCmAALOS25+NTwiUc8ZpHAWzvr7dwfv1Ny10/+YAu74SttSm4nqQaYj0mR9KMdfPrhgV5AAAIQgEBxBAiwiuPGWSIEWMiJiPyfMvCp4ROPeMwigb/9vd4uurn0AOsTnVvYjy4mwMriGMhCn/n9mgVL9BECEIAABJoi4HWA9cYbb9hdd91lixYtslWrVkU1DBgwwM477zy75JJLrF27do3WtWnTJps5c6YtW7bMNmzYYL169bLhw4fbiBEjrGPHjo2es23bNps/f74tXLjQ1q1bZ927d7fBgwfbuHHjrGvXrowgUQIs5LTE4lPDJx7xmFUCg6bttD17S+v9ub1b2ZVnVpXWSIJnMx8ThOlBU/j0QAJdgAAEIACBogl4G2C54MkFTo8//rgdeeSR1rNnz6jI9evX25tvvmmDBg2yWbNmWbdu3Q4o/plnnrHRo0fbk08+GYVQnTt3to0bN9qLL77Y5DlbtmyJznGBV5cuXaI2N2/eHIVf7rqzZ8+2vn37Fg2ZE/0lwELOXzfF9AyfxVDz7xw8+uekmB6F6PH799XYyv+uKwbXvnO+f14b6/3hFiW1keTJIXpMkp9vbeHTNyP0BwIQgAAECiHgZYC1ffv26M6n2267zSZPnmwTJkzYd7eVu1PqW9/6ls2bN89GjRplM2bMsLZt3/3Kafcz97+tXLky+t8vvfRSa9mype3cudNuvPFGmzJlio0dO9ZuuOGGfedUV1fbxIkTozDs+uuvj/5/115NTY0tWLDArr76ajvzzDNt7ty5Td69VQhwjvWLAAs5v3yU2ht8lkrQj/Px6IeHUnsRoscn/rLHvrVwV9Ho3v/eZnbnmMOKPr8cJ4bosRwcfWkTn76YoB8QgAAEIFAMAS8DLPeP6znnnGN9+vSJHutr3779AbW9/PLLdvHFF5u7c8o9XtijR4/o50uWLLFhw4bZVVddFYVUrVu33ndeLhRbsWKFLV261Hr37h39bO3atTZkyJBGr1VXVxcFaFOnTrXFixfb0KFDi2HMOR4TYCHnsZwiuobPIqB5eAoePZRSRJdC9Tju1mr708vFPUc46owqG36qP99A6LSH6rGIIZ+JU/CZCU10EgIQgAAEmiDgZYB177332rRp0+wLX/iCffvb327QdXfXlLszyt0V9dhjj1m/fv2strbWJk2aFN15tXz5chs4cGCD89wdXe6urOnTp0fnu487fvz48TZnzpzo7q2DP6tXr47eu+WOd32qqvLnvRSM6tIJsJArnaFPLeDTJxvF9wWPxbPz6cxQPf72+T026e7C78Lq3KG5/XzUu3eU+/QJ1aNPDpLsCz6TpElbEIAABCCQNgEvA6x8EHbs2GFjxoyx22+/fV+A9dZbb0V3Zb300kvRi9hPOOGEBs2492mddtpp+x49bNasmV1zzTV28803Ry+J79+/f4Nz3Huw3EvjjzrqKLvjjjusQ4cO+brHzzNEgIVchmTF6Co+Y0DKwCF4zICkGF0M2eN/rKq1BY/vjkHp3UM6vKeZfefLre3jnf1591Wu8yF7jC0wQwfiM0Oy6CoEIAABCDQgkMkAK/fY34knnhi9J+voo4+OXtJ+wQUXRAXeeeed0cvYD/4cHEa592ONHDkyelH8/fffbyeffHKDc9w3IV544YW2detWu+eee6IXw/PRIcBCTselqwSfGj7xiEcFAs+8uMdue2y3rX9xzyHLGXJKK/vagFbWrnUzL8tmPnqppehO4bNodJwIAQhAAAIeEMhcgPXqq69Gd1C5xwxvueWWKIByd1LFuVPq4GMc/3zhFAGWB6O0jF1gIVdGuBVoGp8VgF6GS+KxDFAr0CQe34XugqxHn62zR5/dYzuq66P/7cTjWlif41vYmR9vaZ2O8DO4yg0ZPFZg8pTxkvgsI1yahgAEIACBshPIVIDlvmXQPfLnHh38+te/Hr2ovV27dhEkAqyyjxXJC7CQ09KKTw2feMSjBoGGVWyvro/utGrRPDsVMh+z4ypOT/EZhxLHQAACEICArwQyE2C5RwTdi9R/+ctf2uWXXx69UP3II4/cx9XnACu3WPB1ENAvCGSZwPaalvbn19vZlu1tojKOO2KXdeuw097bpi7LZdF3CEAAAhCAAARKINDYq0FKaI5TIQABCEDAAwKZCLCefvppu+qqq6J3VY0bN86+973v2eGHH34AvldeeSV6HNB93MvWjznmmAZ4cyHXcccdF93F5d6B5V4G/8QTT9iiRYusR48eDc7JPUL4+uuv2913323HH398wdoIsApGxgkQyEvgr28eZo+92N7++NqBvwtyJ36s0z+s3wfeisIsPhAolMDuPc3s5R1trGXz+igU5QMBCEAAAtkiQICVLV/0FgIQgEAcAl4HWPX19dEdV+PHj7c333zTrrvuOvvGN75hrVu3blAb30IYRzfHHEyAW+mzNyZq6sxmPlRjD66Pd4fVWT1a2rhBVda2yu/3zGTPRPl6XMl5+av1dfZff6qzp1448MXb/U9oGb2vqN9H/PuWuPKZKK3lSnosreecvT8BPGqNB3xq+aQaCEAAAqER8DbA2rt3b/Rtgu5dV+5RwRtvvNGGDRtmzZs3/uKI2tpamzRpks2YMcOWL19uAwcObOBy7ty5Nnr0aJs+fXr0OKL7uONdQDZnzpzo5fAHf1asWGGDBg2KjnePLVZVVYU2RqTrZSGXPb3XLtxlT/7l0N/qdXBVn/pQC5t2/ruPGPLxn0Al5uXDf6yzW1fvtpff2ntIQCce19wu619lvboSZOUbSZXwmK9P/LxwAngsnJnPZ+DTZzv0DQIQgAAE8hHwMsByd17dddddUdjkHgV04dKAAQOibxs81GfJkiVRyOUeN3QveN//Tq3t27dHjx+6QGrp0qXWu3fvqKm1a9fakCFDrE+fPjZ//nxr3779vkvU1dXZ5MmTberUqbZ48WIbOnRoPp78PGMEWMhlS9h/PlNnP/zPmqI6ffXnW9vZvVoWdS4npUsg7Xk5e2WtLVq7u6Aiv3FWlX3x5FYFnRPawWl7DI1vWvXiMS3S6VwHn+lw5ioQgAAEIFAeAl4GWBs3brSLL77Ytm7dareSYtnJAAAgAElEQVTeemsUXsX5uG8pdHdRrVy5Mrqz6qKLLopCrJ07d0Z3cE2ZMiX6uftZ27Ztoyarq6tt4sSJNmvWrCismjBhQvTNhjU1NbZgwYLozqvTTz/d5s2bZ506dYrTDY7JEAEWchmSZWaXzqm2LW8e+g6Zpio6pn0zu/3Kw7JVcKC9TXNerv3rHvvmPcW948qNJzeu+DROIE2POCgfATyWj20lWsZnJahzTQhAAAIQSIqAdwGWu/vKvaT929/+dqwaH3vsMevXr9++Y9esWWNXXnmlrV+/3rp3726dO3c2F4i5bzF0jwK6oKpbt24HtO1+Pnbs2OjRwy5dukQ/37x5s7mXvvfs2dNmz55tffv2jdUfDsoWARZy2fH1+J/32HcWFRc05Kq8flhr+0x37sLy3Xqa8/Kq23bZH7cU9khqjt/ne7a0/zu44TsZfeebVv/S9JhWTSFeB49a1vGp5ZNqIAABCIRGwLsA6+2337aRI0dG3woY53NwgOXO2bRpk82cOdOWLVsWhVC9evWy4cOH24gRI6xjx46NNuvu3nKPEC5cuNDWrVsXhV+DBw+OHjvs2rVrnK5wTAYJsJDLjrSblsV/cXtTVbkXuk88m8DBd+tpzUv3ovaJd5UWit4z7jB73+HchdXYmErLo+/jOev9w2PWDR7Yf3xq+aQaCEAAAqER8C7ACk0A9VaWAAu5yvIv5OoX3vyObf17fSGnNDi24xHN7O6xPEZYEsQUTk5rXs54sMYeWBfv2yybKnvsoCr78im8C4sAK4WJUaFLpDUfK1RecJfFZ3DKKRgCEICAFAECLCmdFFMoARZyhRKr3PFfuGGn1ZSWNVjL5mYPTWpXuSK4ciwCac3LYT96x/7+TmmhaL+PtLDvnss3XBJgxRramTworfmYSTgZ7DQ+MyiNLkMAAhCAwD4CBFgMhqAJsJDLjv6R86rthW3FvcA9V+UHOjS3/xj17hc48PGXQBrz8h+76u1L098pGcL739vM7hzDXX0EWCUPJW8bSGM+elu8YMfwKSiVkiAAAQgERIAAKyDZlNqQAAu57IyK+Y/W2p2/2V1Sh8/v28ouP72qpDY4ufwE0pqXn/vBTttd3Pvb90H4yNHNbfZl2QtFXYDnvoHx2Vf22o5d9faRo5pbr64t7IMdmycmOC2PiXWYhholgEetgYFPLZ9UAwEIQCA0AgRYoRmn3gMIsJDLzoDYuHWvjf736pI6/NOvtrUTjklug15SZzi5SQJpzctJd++y3z5fWoI1/NRWNuqM7ISif3l1ry1eu9uW/6Hx53E/dmxz+9LJrezMj5f+bZ1peWQqlZcAHsvLN+3W8Zk2ca4HAQhAAAJJEiDASpImbWWOAAu5bCm79p5d9uRfiwscTvlQC/vB+byrKAvG05qX9z61237yUG1JSKZf2MZ6dmlRUhtpnfyzR2rtrjXx7mI8+YMtbMzAKuvyvuID37Q8psUv1OvgUcs8PrV8Ug0EIACB0AgQYIVmnHoPIMBCLlsD4o9b9thVt+0qqtMzLmpjPT6QjaChqAKFTkprXlbX1tvZNxX/Hiz32N3sr2Xj8cGfrqi1Jb+NF17lhtLR/9TMfnb5YdamyC9ZTMuj0ND3shQ8eqml6E7hs2h0nAgBCEAAAh4QIMDyQAJdqBwBFnKVY1/slX++utZuf6ywjfiF/VrZ1wZk5zGvYtmonJfmvLzt17V2668LG085ztcNaW2nf6z0R+3K7W39S3ts/ILigt+hn2oV3YlVzCdNj8X0j3PiEcBjPE5ZOQqfWTFFPyEAAQhAoDECBFiMi6AJsJDLpv5H/lRn/7F6t7385qG/lfCY9s3tsv6t7J9P9D9kyKaJ8vQ67Xl5xfxq++urhX3D5WdOaGnXD21dHgAJt3rdL3bZmo3FPXrruuK+ZdF922Khn7Q9Fto/jo9HAI/xOGXlKHxmxRT9hAAEIAABAizGAAQOIsBCLttD4j+fqbOH/1hnz7x44Oa85wda2Bkfb2mDTyK4yqLhtOfl3/5ebzOX19iTf4kX8nzhpJZ21VmtrVUGnkjd8uZeu3ROaV9+8NX+VXbxaYU/R5i2xyyO9Sz0GY9ZsBS/j/iMz4ojIQABCEDAPwLcgeWfE3qUIgEWcinCLuOl/rGr3v68da/9+c8b7bgjdtlpfU4q49VoutwEKjUv/+tPdbb0d3Xm3rXW2KdvtxbmHqn7ZNcMJFf/U8Citbtt9srSXlT/kaOb2+zLCn/XV6U8lnt8htY+HrWM41PLJ9VAAAIQCI0AAVZoxqn3AAIs5LQGBD41fFba4/Ov7bWnN+2xDa/stdatzE44poW5b7E8qojH6Cpt5PolNfbr5+pK7sb91xxmh7Uu7DHCSnssuWgaiAjgUWsg4FPLJ9VAAAIQCI0AAVZoxqmXAEt4DLAw15CLx+Q8jvl5tT33SmHv92rs6v9+RVvr8r7mBXUMjwXh8vZgPHqrpqiO4bMobJwEAQhAAAKeECDA8kQE3agMARZyleFerqvis1xk020Xj8nxnv5gjS1bV/odWA9f267gTuGxYGRenoBHL7UU3Sl8Fo2OEyEAAQhAwAMCBFgeSKALlSPAQq5y7MtxZXyWg2r6beIxOebuvV7fW1pTUoPu3V//71/aFNwGHgtG5uUJePRSS9GdwmfR6DgRAhCAAAQ8IECA5YEEulA5AizkKse+HFfGZzmopt8mHpNjvnuP2ZDpO23X7uLb/NdzWtugTxT+jZ54LJ65T2fi0ScbpfcFn6UzpAUIQAACEKgcAQKsyrHnyh4QYCHngYQEu4DPBGFWsCk8Jgt/7sO1tvDJ4hKso/6pmd3x9cOK6hAei8Lm3Ul49E5JSR3CZ0n4OBkCEIAABCpMgACrwgK4fGUJsJCrLP+kr47PpIlWpj08Jst9x656+5cfv2PubqxCP/93cGv7fM/C775y18FjobT9PB6Pfnoptlf4LJYc50EAAhCAgA8ECLB8sEAfKkaAhVzF0JflwvgsC9bUG8Vj8sgf/u86m3pfYe/C+uePtbRvDWlddGfwWDQ6r07Eo1c6Su4MPktGSAMQgAAEIFBBAgRYFYTPpStPgIVc5R0k2QN8JkmzMm3V1pk9+Os/Wsd2tfbp3r0q0wnRq/735j02f9Vu+/1L+W/FGjOwyoZ+qlVJJJiPJeHz5mQ8eqMikY7gMxGMNAIBCEAAAhUiQIBVIfBc1g8CLOT88JBUL/CZFMl026murbcH19fZrzfsOSBc+eixze20j7S0s3q0tPbtmqXbKeGr/WbjHlvxhzpb/VzdAVWecExz++xHW9o5n2xlbUrLrqJ2mY8agwiPGh5zVeBTyyfVQAACEAiNAAFWaMap9wACLOS0BgQ+s+fz7jW7bd4jtXk7fmG/Vva1AVV5j+OA+ATq682e+9te27mr3j78/uaJh4TMx/gufD4Sjz7bKbxv+CycGWdAAAIQgIA/BAiw/HFBTypAgIVcBaCX8ZL4LCPcMjR9zR277JkX8z/Olrt0t6Oa241faWOHt+VurDLoSLxJ5mPiSCvSIB4rgr1sF8Vn2dDSMAQgAAEIpECAACsFyFzCXwIs5Px1U0zP8FkMtcqcM+fhWvvFk7sLvvjAT7S0SecU/2Lxgi/ICUUTYD4Wjc6rE/HolY6SO4PPkhHSAAQgAAEIVJAAAVYF4XPpyhNgIVd5B0n2AJ9J0ixfWy++vte+dkt10Rf44YVt7KQuLYo+nxPTIcB8TIdzua+Cx3ITTrd9fKbLm6tBAAIQgECyBAiwkuVJaxkjwEIuY8LydBef2fA5c3mtLf1d4Xdf5aob8NGW9p0vcxeW77aZj74bitc/PMbjlJWj8JkVU/QTAhCAAAQaI0CAxbgImgALOS39+MyGzzOm7iy5o/ddc5i1a827sEoGWcYGmI9lhJti03hMEXYKl8JnCpC5BAQgAAEIlI0AAVbZ0NJwFgiwkMuCpfh9xGd8VpU68k8v77Vxtxb/+GCu3989t431+wiPEVbKY5zrMh/jUPL/GDz676iQHuKzEFocCwEIQAACvhEgwPLNCP1JlQALuVRxl/1i+Cw74pIvcP/Tu+1Hv6otuZ1LPtPKLv1MVcnt0ED5CDAfy8c2zZbxmCbt8l8Ln+VnzBUgAAEIQKB8BAiwyseWljNAgIVcBiQV0EV8FgCrQoc++qc6+7elNSVffczAKhv6qVYlt0MD5SPAfCwf2zRbxmOatMt/LXyWnzFXgAAEIACB8hEgwCofW1rOAAEWchmQVEAX8VkArAoduvXtervwp++UfPVZl7a1jx7bvOR2aKB8BJiP5WObZst4TJN2+a+Fz/Iz5goQgAAEIFA+AgRY5WNLyxkgwEIuA5IK6CI+C4BVwUPH/Lzanntlb9E9eP97m9mdYw4r+nxOTIcA8zEdzuW+Ch7LTTjd9vGZLm+uBgEIQAACyRIgwEqWJ61ljAALuYwJy9NdfGbD571P7bafPFT8e7AuPq2VfbU/77/y3Tbz0XdD8fqHx3icsnIUPrNiin5CAAIQgEBjBAiwGBdBE2Ahp6Ufn9nxedYPdlrdnuL6u3T8YXZ4m2bFncxZqRFgPqaGuqwXwmNZ8abeOD5TR84FIQABCEAgQQIEWAnCpKnsEWAhlz1nh+oxPrPjc/VzdTZlSeEvc//G56rsi5/k5e1ZMM18zIKl/H3EY35GWToCn1myRV8hAAEIQOBgAgRYjImgCbCQ09KPz2z5LPRRwhGfrbILPk14lRXLzMesmDp0P/Go4TFXBT61fFINBCAAgdAIEGCFZpx6DyDAQk5rQOAzez5f215vd63Zbfc9tbvJzg/6REs7v28r6/I+vnUwS4aZj1my1XRf8ajhkQBLyyPVQAACEAiVAAFWqOapOyLAwlxrIOAzuz7fqam3x/+8x36/eY/94YV/WKd2NfbZkzpZ324trH073neVRbPMxyxaa9hnPGp4JMDS8kg1EIAABEIlQIAVqnnqJsASHANstDSk4hGPGgQ0qmA+angkwNLySDUQgAAEQiVAgBWqeeomwBIcA2y0NKTiEY8aBDSqYD5qeCTA0vJINRCAAARCJUCAFap56ibAEhwDbLQ0pOIRjxoENKpgPmp4JMDS8kg1EIAABEIlQIAVqnnqJsASHANstDSk4hGPGgQ0qmA+angkwNLySDUQgAAEQiVAgBWqeeomwBIcA2y0NKTiEY8aBDSqYD5qeCTA0vJINRCAAARCJUCAFap56ibAEhwDbLQ0pOIRjxoENKpgPmp4JMDS8kg1EIAABEIlQIAVqvkE69612+z3L+2x51/ba53e28w+flwL63RENr72noV5ggPBg6bw6YGEBLqAxwQgetAEHj2QkEAX8JgARI+awKdHMugKBCAAAQgUTIAAq2BknJAj8PSmPfbAujpb9WxdAyguxPpcz5b2+Z4tvQbGQs5rPQV3Dp8FI/PyBDx6qaXgTuGxYGRenoBHL7UU3Sl8Fo2OEyEAAQhAwAMCBFgeSMhaF17fUW+zV9bao40EVwfX8uH3N7crTq+yUz7UwssyWch5qaXoTuGzaHRenYhHr3QU3Rk8Fo3OqxPx6JWOkjuDz5IR0gAEIAABCFSQAAFWBeFn8dLbq+tt1Pxqe217fUHdnzKsjZ3W3b8Qi4VcQRq9Pxif3iuK1UE8xsLk/UF49F5RrA7iMRamzByEz8yooqMQgAAEINAIAQIshkVBBG5aVmMPrm/4yGC+Rtq1bmb3jj/Mmnn2aiwWcvnMZevn+MyWr6Z6i0c8ahDQqIL5qOExVwU+tXxSDQQgAIHQCBBghWa8hHo3bt1ro/+9uugWLj+9ys7v26ro88txIgu5clCtXJv4rBz7JK+MxyRpVq4tPFaOfZJXxmOSNCvfFj4r74AeQAACEIBA8QQIsIpnF9yZP/5Vrd339O6i6z6mfXO7/cq2RZ9fjhNZyJWDauXaxGfl2Cd5ZTwmSbNybeGxcuyTvDIek6RZ+bbwWXkH9AACEIAABIonQIBVPLvgzjxj6s6Sa/7xJW3MfUOhLx8Wcr6YSKYf+EyGY6VbwWOlDSRzfTwmw7HSreCx0gaSvT4+k+VJaxCAAAQgkC4BAqx0eWf2as+/ttcu/1nxjw/mCh/52Sr7yqf9eYyQhVxmh2SjHcenhk884lGDgEYVzEcNj7kq8Knlk2ogAAEIhEaAACs040XW+19/rLPv3VtT5Nn/e9oZJ7a0a7/UuuR2kmqAhVxSJP1oB59+eCi1F3gslaAf5+PRDw+l9gKPpRL063x8+uWD3kAAAhCAQGEECLAK4xXs0X99da9dMb/0O7BGfLbKLuAOrGDHUbkLZ2FebsLptI/HdDiX+yp4LDfhdNrHYzqc07oKPtMizXUgAAEIQKAcBAiwykFVtM0k3oH1o4vb2Cc68w4s0SFS8bJYmFdcQSIdwGMiGCveCB4rriCRDuAxEYzeNIJPb1TQEQhAAAIQKIIAAVYR0EI9ZcaDNfbAurqiyz/qn5rZHV8/rOjzy3EiC7lyUK1cm/isHPskr4zHJGlWri08Vo59klfGY5I0K98WPivvgB5AAAIQgEDxBAiwimcX3JnPvbLXxvy8+McIfXt80AlkIac1jPGp4ROPeNQgoFEF81HDY64KfGr5pBoIQAACoREgwArNeIn1/uD+Glv+h8LvwmrTyuy+a9pZi+YldiDh01nIJQy0ws3hs8ICEro8HhMCWeFm8FhhAQldHo8JgfSkGXx6IoJuQAACEIBAUQQIsIrCFu5Jb+2st1Hzq+2Nf9QXBGHy0NbW/4SWBZ2TxsEs5NKgnN418Jke63JeCY/lpJte23hMj3U5r4THctJNv218ps+cK0IAAhCAQHIECLCSYxlMS1vfrrfZK2vtsQ3578Q6vE0zm/TF1tbneH9e3L6/KBZyWsMWnxo+8YhHDQIaVTAfNTzmqsCnlk+qgQAEIBAaAQKs0IwnWO/av+6xB9bttsf/vKdBq92Pbm6f69nSvvjJVgleMfmmWMglz7SSLeKzkvSTuzYek2NZyZbwWEn6yV0bj8mx9KElfPpggT5AAAIQgECxBAiwiiXHefsI/GNXva1/aa89/9pee/97m9mJxza3Y4/07GVXTfhiIac1kPGp4ROPeNQgoFEF81HDY64KfGr5pBoIQAACoREgwArNOPUeQICFnNaAwKeGTzziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dEQEW5loDAZ8aPvGIRw0CGlUwHzU8EmBpeaQaCEAAAqESIMAK1Tx1E2AJjgE2WhpS8YhHDQIaVTAfNTwSYGl5pBoIQAACoRIgwArVPHUTYAmOATZaGlLxiEcNAhpVMB81PBJgaXmkGghAAAKhEiDACtU8dRNgCY4BNloaUvGIRw0CGlUwHzU8EmBpeaQaCEAAAqESIMAK1Tx1E2AJjgE2WhpS8YhHDQIaVTAfNTwSYGl5pBoIQAACoRIgwArVPHUTYAmOATZaGlLxiEcNAhpVMB81PBJgaXmkGghAAAKhEiDACtU8dRNgCY4BNloaUvGIRw0CGlUwHzU8EmBpeaQaCEAAAqESIMAK1Tx1E2AJjgE2WhpS8YhHDQIaVTAfNTwSYGl5pBoIQAACoRIgwArVPHUTYAmOATZaGlLxiEcNAhpVMB81PBJgaXmkGghAAAKhEiDACtU8dRNgCY4BNloaUvGIRw0CGlUwHzU8EmBpeaQaCEAAAqESIMAK1Tx1E2AJjgE2WhpS8YhHDQIaVTAfNTwSYGl5pBoIQAACoRIgwArVPHUTYAmOATZaGlLxiEcNAhpVMB81PBJgaXmkGghAAAKhEiDACtU8dRNgCY4BNloaUvGIRw0CGlUwHzU8EmBpeaQaCEAAAqESIMAK1Tx1E2AJjgE2WhpS8YhHDQIaVTAfNTwSYGl5pBoIQAACoRIgwPLQ/Ktv11u71mbvadPMw95pdYmFOT61CGhUw7zEowYBjSqYjxoeCbC0PFINBCAAgVAJEGB5Yv6Jv+yxR5+ts0f/VGe797zbqQ91am6nHt/CBn68pXV5X3NPeqrVDRbm+NQioFEN8xKPGgQ0qmA+angkwNLySDUQgAAEQiVAgFVh80/+dY/d/utae/aVvYfsyVk9WtrXBlTZ+w7nrqwklbEwT5Jm5dvCZ+UdJNEDPCZBsfJt4LHyDpLoAR6ToOhPG/j0xwU9gQAEIACBwgkQYBXOLLEz5v5XrS18Ynfs9g6ramaTh7W2Uz7YIvY5HHhoAizktEYIPjV84hGPGgQ0qmA+anjMVYFPLZ9UAwEIQCA0AgRYFTL+5F/22LULdxV89Y5HNLO7xh5m3IdVMLpGT2AhlwxHX1rBpy8mSusHHkvj58vZePTFRGn9wGNp/Hw7G5++GaE/EIAABCBQCAECrEJoJXjsmJ9X23N5Hhts6nKXDaiyi/q1SrA34TbFQk7LPT41fOIRjxoENKpgPmp4zFWBTy2fVAMBCEAgNAIEWBUwvmbjHrvuF4XffZXravt2zWzRNw6rQM/1LslCTsspPjV84hGPGgQ0qmA+angkwNLySDUQgAAEQiVAgFUB89+/r8ZW/nddSVeeMqyNndadd2GVBNHMWJiXStCv8/Hpl49ie4PHYsn5dR4e/fJRbG/wWCw5P8/Dp59e6BUEIAABCMQjQIAVj1OiR531g51Wt6e0Jr90ciu76qyq0hrhbAIssTHAwlxDKB7xqEFAowrmo4bHXBX41PJJNRCAAARCI0CAlbLxV9+utwt++k7JV/3osc1t1qVtS24n9AZYyGmNAHxq+MQjHjUIaFTBfNTwSICl5ZFqIAABCIRKgAArZfM7dtXbkOmlB1if7NrCbrygTcq917scC3Mtp/jU8IlHPGoQ0KiC+ajhkQBLyyPVQAACEAiVAAFWBcyPnFdtL2zbW9KVL/lMK7v0MzxCWBJE3oFVKj7vzmej5Z2SojqEx6KweXcSHr1TUlSH8FgUNm9Pwqe3augYBCAAAQjEIECAFQNS0ofMe6TW7l6zu6RmZ321rX30mOYltcHJvMRdbQywMNcwikc8ahDQqIL5qOExVwU+tXxSDQQgAIHQCBBgVcC4u/vK3YVV7Odjxza3mbz/qlh8B5zHQi4RjN40gk9vVJTUETyWhM+bk/HojYqSOoLHkvB5dzI+vVNChyAAAQhAoAACBFgFwEry0B/cX2PL/1BXVJPf+XJrG/DRlkWdy0kHEmAhpzUi8KnhE4941CCgUQXzUcNjrgp8avmkGghAAAKhESDAqpDx17bX22Vz37FdBT5J6IIrF2DxSYYAC7lkOPrSCj59MVFaP/BYGj9fzsajLyZK6wceS+Pn29n49M0I/YEABCAAgUIIEGAVQivhY3/7/B67aVmNvb6jPlbLLrz6P5+rsiPaNot1PAflJ8BCLj+jLB2BzyzZarqveMSjBgGNKpiPGh5zVeBTyyfVQAACEAiNAAFWhY3vrTdb8PhuW/q73fb2O40HWR89trmd27uVfZbHBhO3xUIucaQVbRCfFcWf2MXxmBjKijaEx4riT+zieEwMpRcN4dMLDXQCAhCAAASKJECAVSS4cpz26w119vQLe+3PW/dY26pm9onjmlvvD7c0F2DxKQ8BFnLl4VqpVvFZKfLJXhePyfKsVGt4rBT5ZK+Lx2R5Vro1fFbaANeHAAQgAIFSCBBglUKPczNPgIVc5hUeUAA+NXziEY8aBDSqYD5qeMxVgU8tn1QDAQhAIDQCBFihGadeAg/hMcDCXEMuHvGoQUCjCuajhkcCLC2PVAMBCEAgVAIEWKGap+6IAAtzrYGATw2feMSjBgGNKpiPGh4JsLQ8Ug0EIACBUAkQYIVqnroJsATHABstDal4xKMGAY0qmI8aHgmwtDxSDQQgAIFQCRBghWqeugmwBMcAGy0NqXjEowYBjSqYjxoeCbC0PFINBCAAgVAJEGCFap66CbAExwAbLQ2peMSjBgGNKpiPGh4JsLQ8Ug0EIACBUAkQYIVqnroJsATHABstDal4xKMGAY0qmI8aHgmwtDxSDQQgAIFQCRBghWqeugmwBMcAGy0NqXjEowYBjSqYjxoeCbC0PFINBCAAgVAJEGCFap66CbAExwAbLQ2peMSjBgGNKpiPGh4JsLQ8Ug0EIACBUAkQYIVqnroJsATHABstDal4xKMGAY0qmI8aHgmwtDxSDQQgAIFQCRBghWqeugmwBMcAGy0NqXjEowYBjSqYjxoeCbC0PFINBCAAgVAJEGCFap66CbAExwAbLQ2peMSjBgGNKpiPGh4JsLQ8Ug0EIACBUAkQYIVqnroJsATHABstDal4xKMGAY0qmI8aHgmwtDxSDQQgAIFQCRBghWqeugmwBMcAGy0NqXjEowYBjSqYjxoeCbC0PFINBCAAgVAJEGCFap66CbAExwAbLQ2peMSjBgGNKpiPGh4JsLQ8Ug0EIACBUAkQYIVqnroJsATHABstDal4xKMGAY0qmI8aHgmwtDxSDQQgAIFQCRBghWqeugmwBMcAGy0NqXjEowYBjSqYjxoeCbC0PFINBCAAgVAJEGCFap66CbAExwAbLQ2peMSjBgGNKpiPGh4JsLQ8Ug0EIACBUAkQYIVqnroJsATHABstDal4xKMGAY0qmI8aHgmwtDxSDQQgAIFQCRBghWqeugmwBMcAGy0NqXjEowYBjSqYjxoeCbC0PFINBCAAgVAJEGCFap66CbAExwAbLQ2peMSjBgGNKpiPGh4JsLQ8Ug0EIACBUAkQYIVqnroJsATHABstDal4xKMGAY0qmI8aHgmwtDxSDQQgAIFQCRBghWqeugmwBMcAGy0NqXjEowYBjSqYjxoeCbC0PFINBCAAgVAJEGCFap66CbAExwAbLQ2peMSjBgGNKpiPGh4JsLQ8Ug0EIACBUAlkKsBavny5nXvuufbggw9av379mnS2adMmmzlzpi1btsw2bNhgvXr1suHDh9uIESOsY8eOjZ63bds2mz9/vi1cuNDWrWsKONkAACAASURBVFtn3bt3t8GDB9u4ceOsa9euoY4P+bpZmGspxqeGTzziUYOARhXMRw2PBFhaHqkGAhCAQKgEMhNgrVmzxq688kpbv369PfbYY00GWM8884yNHj3annzyySiE6ty5s23cuNFefPFFGzRokM2aNcu6det2gO8tW7ZE57jAq0uXLtHPN2/eHIVfPXv2tNmzZ1vfvn1DHSPSdbMw19KLTw2feMSjBgGNKpiPGh4JsLQ8Ug0EIACBUAl4H2Dt3bvXFi9ebBMmTIhCKPdpKsByd1GNGjXKVq5caTNmzLBLL73UWrZsaTt37rQbb7zRpkyZYmPHjrUbbrjB2rZtG7VVXV1tEydOjIKt66+/Pvr/3c9qampswYIFdvXVV9uZZ55pc+fObfLurVAHj0LdLMwVLP5vDfjU8IlHPGoQ0KiC+ajhkQBLyyPVQAACEAiVgLcBVn19vb3wwgtR6HTbbbfZ4YcfHgVLr732WpMB1pIlS2zYsGF21VVXRSFV69at93ndvn179DjgihUrbOnSpda7d+/oZ2vXrrUhQ4ZYnz59okcI27dvv++curo6mzx5sk2dOjUK0YYOHRrqOJGtm4W5llp8avjEIx41CGhUwXzU8EiApeWRaiAAAQiESsDbAOuNN96wCy+80B566CE7++yz7Zvf/GYUZLk7oRq7A6u2ttYmTZoU3Xnl3pU1cODABk7d+e6urOnTp0d3VrmPO378+PE2Z86c6O6tgz+rV6+2AQMGRMdPmzbNqqqqQh0rknWzMNfSik8Nn3jEowYBjSqYjxoeCbC0PFINBCAAgVAJeBtgvfXWW3bTTTdF4dWpp54aPdLnQqSmAix3/MUXX2wvvfRS9CL2E044oYHTxx9/3E477bQoqHLBVbNmzeyaa66xm2++2VatWmX9+/dvcI57D9Z5551nRx11lN1xxx3WoUOHUMeKZN0szLW04lPDJx7xqEFAowrmo4ZHAiwtj1QDAQhAIFQC3gZYBwtx76o6VIDl3o91wQUXRKfdeeed0cvYD/4cHEa592ONHDnSXLB1//3328knn9zgnNydYFu3brV77rknejE8Hx0CLMx1XLpK8KnhE4941CCgUQXzUcMjAZaWR6qBAAQgECoBmQArzp1SBx/jpLvHFA8VThFgaU8NFuZafvGp4ROPeNQgoFEF81HDIwGWlkeqgQAEIBAqAQIsAqxQx35UNwtzLf341PCJRzxqENCogvmo4ZEAS8sj1UAAAhAIlQABVgoBVm7xF+ogo24IQAACEIAABCAAAQikSaCxV4OkeX2uBQEIQAACyROQCbBeeeWV6HFA93EvWz/mmGMa0Mo9QnjcccfZ7bffbu4dWGPGjLEnnnjCFi1aZD169GhwTu4Rwtdff93uvvtuO/744wu2QIBVMDJOgAAEIAABCEAAAhCAQNEECLCKRseJEIAABLwlIBNg8S2E3o4xrzvGoxFe6ym4c/gsGJmXJ+DRSy0FdwqPBSPz8gQ8eqml6E7hs2h0nAgBCEAAAh4QkAmwamtrbdKkSTZjxgxbvny5DRw4sAHeuXPn2ujRo2369OnRNxq6jzt+/PjxNmfOHBs1alSDc1asWGGDBg2Kjp82bZpVVVV5oI0uJEWAhVxSJP1oB59+eCi1F3gslaAf5+PRDw+l9gKPpRL063x8+uWD3kAAAhCAQGEEZAIsV/aSJUts2LBhdtVVV9kNN9xgrVu33kdj+/btNm7cOHOB1NKlS613797Rz9auXWtDhgyxPn362Pz58619+/b7zqmrq7PJkyfb1KlTbfHixTZ06NDC6HK09wRYyHmvqKAO4rMgXN4ejEdv1RTUMTwWhMvbg/HorZqiOobPorBxEgQgAAEIeEJAKsDatm1bdBfVypUrozurLrrooijE2rlzp9144402ZcqU6OfuZ23bto0UVFdX28SJE23WrFlRWDVhwgRr166d1dTU2IIFC6I7r04//XSbN2+ederUyRNtdCMpAizkkiLpRzv49MNDqb3AY6kE/Tgfj354KLUXeCyVoF/n49MvH/QGAhCAAAQKIyAVYLnS16xZY1deeaWtX7/eunfvbp07d7aNGzfaiy++GD0K6IKqbt26HUDJ/Xzs2LHRo4ddunSJfr5582ZzL33v2bOnzZ492/r27VsYWY7OBAEWcpnQFLuT+IyNyusD8ei1ntidw2NsVF4fiEev9RTcOXwWjIwTIAABCEDAIwJyAZZju2nTJps5c6YtW7YsCqF69eplw4cPtxEjRljHjh0bxe/u3nKPEC5cuNDWrVsXhV+DBw+OHjvs2rWrR8roSpIEWMglSbPybeGz8g6S6AEek6BY+TbwWHkHSfQAj0lQ9KcNfPrjgp5AAAIQgEDhBDITYBVeGmdAID8BFnL5GWXpCHxmyVbTfcUjHjUIaFTBfNTwmKsCn1o+qQYCEIBAaAQIsEIzTr0HEGAhpzUg8KnhE4941CCgUQXzUcMjAZaWR6qBAAQgECoBAqxQzVN3RICFudZAwKeGTzziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLD+x/y2bdts/vz5tnDhQlu3bp11797dBg8ebOPGjbOuXbuGOj7k62ZhrqUYnxo+8YhHDQIaVTAfNTwSYGl5pBoIQAACoRIgwDKzLVu22OjRo23ZsmXWpUsX69atm23evNk2bNhgPXv2tNmzZ1vfvn1DHSPSdbMw19KLTw2feMSjBgGNKpiPGh4JsLQ8Ug0EIACBUAkEH2BVV1fbxIkTbdasWXb99ddH/3/btm2tpqbGFixYYFdffbWdeeaZNnfuXOvYsWOo40S2bhbmWmrxqeETj3jUIKBRBfNRwyMBlpZHqoEABCAQKoHgA6y1a9fakCFDrE+fPtEjhO3bt983Furq6mzy5Mk2depUW7x4sQ0dOjTUcSJbNwtzLbX41PCJRzxqENCogvmo4ZEAS8sj1UAAAhAIlUDwAdaMGTNs/PjxNmfOHBs1alSDcbB69WobMGBAdCfWtGnTrKqqKtSxIlk3C3MtrfjU8IlHPGoQ0KiC+ajhkQBLyyPVQAACEAiVQNAB1q5du+yaa66xm2++2VatWmX9+/dvMA7ce7DOO+88O+qoo+yOO+6wDh06hDpWJOtmYa6lFZ8aPvGIRw0CGlUwHzU8EmBpeaQaCEAAAqESCDrAevvtt23kyJH2+OOP2/33328nn3xyg3Hwxhtv2IUXXmhbt261e+65J/p2Qj46BFiY67h0leBTwyce8ahBQKMK5qOGRwIsLY9UAwEIQCBUAkEHWHHCqTjHhDp4FOpmYa5g8X9rwKeGTzziUYOARhXMRw2PBFhaHqkGAhCAQKgECLDy3F2VRIB1yimnhDq+qBsCEIAABCAAAQhAAAKpE/jd736X+jW5IAQgAAEIlJcAARYBVnlHGK1DAAIQgAAEIAABCEAgZQIEWCkD53IQgAAEUiAQdIC1Y8cOGzNmjD3xxBO2aNEi69GjRwPkuTuwXn/9dbv77rvt+OOPT0ELl4AABCAAAQhAAAIQgAAEIAABCEAAAhDIEQg6wOJbCJkIEIAABCAAAQhAAAIQgAAEIAABCEDAfwJBB1hOz4wZM2z8+PE2Z84cGzVqVANjK1assEGDBtnVV19t06ZNs6qqKv+t0kMIQAACEIAABCAAAQhAAAIQgAAEICBEIPgAa+3atTZkyBDr06ePzZ8/39q3b79Pb11dnU2ePNmmTp1qixcvtqFDhwqppxQIQAACEIAABCAAAQhAAAIQgAAEIJANAsEHWNXV1TZx4kSbNWtWFFZNmDDB2rVrZzU1NbZgwYLozqvTTz/d5s2bZ506dcqGVXoJAQhAAAIQgAAEIAABCEAAAhCAAASECAQfYDmXGzdutLFjx9ry5cutS5cu1q1bN9u8ebNt2LDBevbsabNnz7a+ffsKaacUCEAAAhCAAAQgAAEIQAACEIAABCCQHQIEWP/jatu2bdEjhAsXLrR169ZZ9+7dbfDgwTZu3Djr2rVrdozSUwhAAAIQgAAEIAABCEAAAhCAAAQgIEaAAEtMKOVAAAIQgAAEIAABCEAAAhCAAAQgAAE1AgRYakapBwIQgAAEIAABCEAAAhCAAAQgAAEIiBEgwBITSjkQgAAEIAABCEAAAhCAAAQgAAEIQECNAAGWmlHqgQAEIAABCEAAAhCAAAQgAAEIQAACYgQIsMSEUg4EIAABCEAAAhCAAAQgAAEIQAACEFAjQIClZpR6IAABCEAAAhCAAAQgAAEIQAACEICAGAECLDGhlAMBCEAAAhCAAAQgAAEIQAACEIAABNQIEGCpGaUeW758uZ177rn24IMPWr9+/Q5JpK6uziZPnmxPPfWU3XHHHdahQ4dGj6+pqbEHHnjAfvazn9njjz9urVq1sjPOOMOuvPJKGzBggDVv3hzyCRKI6+WNN96wu+66yxYtWmSrVq2KeuB8nHfeeXbJJZdYu3btGu3Vpk2bbObMmbZs2TLbsGGD9erVy4YPH24jRoywjh07JlgJTf3+97+3888/3771rW/ZhRde2CSQYpwwL9MbX3Hn5ME9cudNmzbNvv3tb9tjjz3W5O/kYvynV73WleLMyVdeeSWar48++miTxS9YsKDBnGZOpjtW4q53Dp5fXbp0saFDh9qoUaOse/fu/DuZrjauBgEIQAACJRAgwCoBHqf6R2DNmjVRqLR+/fpDbpZcz93Gas6cOXbttdfapz/96SYDLLcgv+GGG+w73/mOHX744XbSSSfZ7t277Yknnoj++9SpU2306NHWsmVL/4BksEdxvbjgyQVOLlA88sgjrWfPnlG1zv2bb75pgwYNslmzZlm3bt0OoPDMM89Evp588slo4d65c2fbuHGjvfjii02ek0GMXnTZcR07dmwUKje22c11cvXq1XbFFVdEYaJz4jZXzof7787r7NmzrW/fvgfUxLxMT3HcOdlYj+699167+OKLbceOHU3+TmZOpucy7px0f9Q555xz7G9/+1vsAIs5mZ5Hd6W46x33x51LT0yMrgAAEs1JREFUL700+p168O9X97v21ltvjf7ws/+HOZmuS64GAQhAAALxCRBgxWfFkR4T2Lt3ry1evNgmTJgQLdLc51B/7XebKRc8uTsD3Oess85qMsC6++67o811//797ac//Wm0ua6vr7ff/e53Nm7cONu6dWt0br67vTzG503X4nrZvn17xP62226L7qBz3nN3W23bti2622fevHnRX5dnzJhhbdu2jWp0P3P/28qVK6P/3S3qXfC4c+dOu/HGG23KlClR4OICy9w53sDJUEfc/PjNb35jY8aMiQJF92kqwHr55ZejgMPNp5tvvtkuuOCC6I5Gtxl251x99dX2uc99zubOnWvt27ffR4F5mc6AiDsnG+vNs88+a5dddlkUFjf1O5k5mY7HQuak69F9991nX/rSl2z69OnRHIzzYU7GoVT6MYWsd3Jz0K1T3L9xw4YNa/D79dRTT43+LT366KP5d7J0PbQAAQhAAAJlJkCAVWbANF9eAm5R/sILL0TBg1uAuTuiXPDw2muvNRpguTsJHnnkkSjg+O1vf2udOnWy6urqJu/Aeuutt6K7fNzdVkuXLrXevXsfUFDu9n23SXOhR+vWrctbsGjrhXrJ3R3Qp08fmz9//gHBhkOUC0W2bNkSPV7Yo0ePiNySJUuiBfxVV13VwFcuFFuxYkWjrkXRJ16Wu2Pjxz/+cRRGuU9uPjYVYLnw96KLLmrUiQtPXAjm5p6ba863+zAvE9fWoMFC5+TBDbhQeOLEidHj2S54/NWvftXo72TmZPldFjonXY++//3vR3cnu3k3cODAvJ1kTuZFVPIBha539uzZE62N/u3f/s1uueUWGzlypDVr1mxfP9wfCdwcdXdJ/uIXv7BPfepT/DtZsiUagAAEIACBchMgwCo3YdovKwH3DiT3no6HHnrIzj77bPvmN78ZBVnubo3G7sByj5uddtppUdD19a9/3b74xS9G//eoo45q9A6sXFBy5plnRndfufP2/7i7B9wdI++8847deeed0d1ZfAonUKgXt+B2d8994QtfiN6tc/DHhZLuroH9x0Ftba1NmjQpuvOqqU2ZGzvurqxC7joovFrdM/bn7jZDzpGbh+4uucYCLLfBco+v/PznP4/uonOPLO3/2b899w66wYMHRz9mXpZ/DBU6J/fvkdtou/cFXnPNNdHG2T225h7BPvh3MnOy/B4LnZOuR7t27YrcuTB//z8AHKq3zMnyuyx0vZN7j5nrmftDwTHHHJO3k8zJvIg4AAIQgAAEKkyAAKvCArh8aQTcX31vuummKLxyt8G7vygeHFzsfwV315W7E8CFFB/4wAeid+y4F343FWDdc8890Quo3Qbc/Wf/v166dhsLSkqrKMyzC/WSj1Luzp3bb79936bZjRX3qNpLL71kCxcutBNOOKFBM7lN+8GPHua7Hj9/l4CbDz/60Y+il+Kffvrp0R2J7q//Lrw41DuwmuKXu5POPf7i7hA48cQTo0OZl+UfcaXMSfc4qPsiDffHBXcHiLubp7EAizlZfo/FzMncH2Zc79x8dl+U4eave7eg+/ISdwfrwV9ewpwsv8tC1zvuznH3Lkh355X7Y0JVVVXeTjIn8yLiAAhAAAIQqDABAqwKC+DyyRIoNFDKF2C5u3XGjx9/yDtyStmgJ1u9Tmv5vOSrdO3atTZkyJAo8Mi928O9G83dLec+Td0tV+p18/UrxJ8XMz/c42vr1q2z7373u9G3f7rNl7sjJPdFCczL9EdS3Lnx6quvRu+Zcw7dXVjujwO5MXDwHVjMyfQ9uivmm5PPPfdc9K2s7l10zqP7j7u72AVbbl66z/XXXx89fpZ7VyBzMn2X+dY7uVDR3VHs7jR3v0vdF2I8/PDD0cvc3eP07hHt/e/MYk6m75ErQgACEIBAYQQIsArjxdGeE8i3oDu4+/k2ZfkW+nE2A54j87J7+bwcqtO5DbR7zHD/937EaTPOMV4C87hTcebQ/t3PHe/+N/eOOhdiffWrXz3g/XJx2oxzjMfYvOtanLnhgo4f/vCH0SZ5/282ayrAitNmnGO8g+V5h/LNDffooLtzxz0y74Ip9446dzele3m4u0vVfYGG+3IGd4eru8vO3Zmcr03+rUx+UORb7+TeL+he3v773/8+8uXeI/ie97xn3zfvHvwtr3HmW5xjkq+WFiEAAQhAAALvEiDAYiRIEci3oCPAyobuYhfI7g4Bd6eOW6i7vzi7F+vnvp0wTptxjskGQX96GWdjm+ute/+Ke+TMPYLmXqrvHoFxm+hvfOMb0fvLci7jtBnnGH8o+d+TOHMj96UW7ksy9r9jjgDLL7/55ob7NkH3RQzuLtb9PeaqyHne/9vr8rVJgJX8GMi33sm9iN9d2QWS7r+7x7td4Oi+ZMHdmeXCrVNOOSX6N/PYY4/N+1oF11ac3wXJV0uLEIAABCAAAQIsxoAggXwLOgKsbEgvZoHsHn1w7z/75S9/aZdffnn02NmRRx65r+A4bcY5JhsE/ellnI1tY711LwJ3jyu5L2ZwG2YXRrrHeVu0aMHdHhXQm29uuBe1u3fMuXcLui9PcN88mPsQYFVA2CEuWeyczDX5+uuvR67d3Vi5bweN02acY/wi5Xdv8q13co91usc/3cv4XVC1/2f/8xcvXmxDhw6NFU7l+13gNzV6BwEIQAACWSfAHVhZN0j/m1yQNfYthIUGWG4jNnr0aJszZ070XpfGPrlFufurtXshPJ/SCRS6QH766aejFwvnHm/53ve+1+AbI+N8I1Puuscdd1z0F+n9N+GlVxVmC6VuWnPvM/vgBz+4791lzMv0x9Kh5qS7m8O9D+mRRx4x93uwR48eB3SwqQCLOZm+R3fFUudkY8EJczJ9l/kCrNwjhC5sbOxblF2Pc9+86x7Vdt/oy5xM3yNXhAAEIACBwggQYBXGi6M9J5BvQVdogMU3K1VGeNwAy92l4+64cnfmuG/Iuu6666LHzdz7Wg7+8O1KlXFZ6mY599Xx7h0u999/v5188sl8C2EFVB5qTuZ+5t6LFOeT2ywzJ+PQSv6YfHPS/V79xz/+Eb2gPffFCfv34p133ol+z7qX9Of+UMS/lcl7ytdivvVO7l1mh/pW3dWrV0ffKMmczEebn0MAAhCAgC8ECLB8MUE/EiGQb0FXaID11FNP2TnnnGNnnnlmo3/BzP210r27p6lvtkuksMAaiRNguRcKO+buXVfuUUH3Lg/3rUrum7Ma+zhH7j1K7rEK99jLwIEDGxyWu4vAvRvEPY7Ip3QCh9osv/322/av//qv0QuhHfuD79xxV3fvNXPfHulezr9w4UI74YQTjHlZupdCWzjUnHz++eejRz3//ve/N9qse7zXne9eIH3EEUfY2WefHb0InDlZqIVkjs83J0eOHBk9crZq1Srr379/g4vm/t1zAaQLrtw32jEnk3FTSCv51jsu9D/33HPtwx/+cHRH8fve974GzefuwJo6dWo0h5mThRjgWAhAAAIQqAQBAqxKUOeaZSOQb0FXaIDlFugjRoyIXia9dOlS69279wFN5F5me9lll0Xv6Gnszp+yFSvccL4Ay90hcNddd0WPd7qvAHePeLq/IruX0x7qs2TJkijkco8bHuzLvTTcbardX60bcy2Mu6ylHWqzvGfPnuixFfdyYfftdS40PNhhbo65EHn+/PnRY53My7Iqa7TxfHPyUD1q6hFCdw5zMn2X+eak+yIFd8y1114bfanC/ndhud+97tE091ia+3bQWbNmRV+uwJxM32O+9Y57tHfs2LHm3m/lAkn3Ivf9P7l/89xdzO4/Z5xxRvRj5mT6LrkiBCAAAQjEJ0CAFZ8VR2aAQL4FXaEBljvevdPliiuuiP4S/ZOf/MQ+9KEPmVvEu29Kc4HHSy+9FB3T2F+qM4DMyy7m2yznXhi9detWu/XWW6PwKs7H3c3jHqdYuXLlAV8P7xb67g4ut1k71OMWca7BMQcSyPe4kptH7i4B93Hvafn85z8f3UXn7rB7+OGHbcKECebu8Lnlllvs/PPP39c48zLdkZZvThYbYDEn0/XorpZvTro7d9xc27JlywG/J92cdGGIm5Pu44Ksfv36MSfTVxhdMc56J/cHALdumTlzZuTL/X7d/9+8Sy65JPqZuzvSfZiTFRLKZSEAAQhAIBYBAqxYmDgoKwTiLOj2ryXOpswt9Nzt9e4/hx9+uJ100km2e/fu6K4s99/d/+7uBGrsXSFZ4eZbPw/lxYWH7iXt7s6dOJ+DX+a/Zs0au/LKK6PH1tyjL507dzYXiLnHnNxfqN0dBd26dYvTNMfEIJBvs+x8useQxowZE73HzDlx35qVe+ysqTnGvIwBP8FD4vyubOpyh7oDy53DnExQVIym4szJ3LsF3Tw8eE66+ekes/7yl798wB2TzMkY8BM8JM56p66uLvojj7u7dceOHdarVy/r0KHDvn/zXKDl7mx1jvf/MCcTFEVTEIAABCCQKAECrERx0lilCcRZ0BUaYLnja2pq7IEHHoheWuu+6a5Vq1bR7fYuCHF3/zT13qVK88jq9Q+1WXbvTcq9oyVOfY19G+WmTZuivzgvW7YsejePW9QPHz48ely0Y8eOcZrlmJgE8m2WXTMuxHruueei+ZVz4jZUgwcPjly791419ngo8zKmhAQOK2eA5brHnExAUswm4szJxpzk5qS787hr166NXo05GVNCAofFXe+436/urjoXVN13333RHwdOPfVUu+iii+wrX/lKFGg19mFOJiCJJiAAAQhAIHECBFiJI6VBCEAAAhCAAAQgAAEIQAACEIAABCAAgSQJEGAlSZO2IAABCEAAAhCAAAQgAAEIQAACEIAABBInQICVOFIahAAEIAABCEAAAhCAAAQgAAEIQAACEEiSAAFWkjRpCwIQgAAEIAABCEAAAhCAAAQgAAEIQCBxAgRYiSOlQQhAAAIQgAAEIAABCEAAAhCAAAQgAIEkCRBgJUmTtiAAAQhAAAIQgAAEIAABCEAAAhCAAAQSJ0CAlThSGoQABCAAAQhAAAIQgAAEIAABCEAAAhBIkgABVpI0aQsCEIAABCAAAQhAAAIQgAAEIAABCEAgcQIEWIkjpUEIQAACEIAABCAAAQhAAAIQgAAEIACBJAkQYCVJk7YgAAEIQAACEIAABCAAAQhAAAIQgAAEEidAgJU4UhqEAAQgAAEIQAACEIAABCAAAQhAAAIQSJIAAVaSNGkLAhCAAAQgAAEIQAACEIAABCAAAQhAIHECBFiJI6VBCEAAAhCAAAQgAAEIQAACEIAABCAAgSQJEGAlSZO2IAABCEAAAhCAAAQgAAEIQAACEIAABBInQICVOFIahAAEIAABCEAAAhCAAAQgAAEIQAACEEiSAAFWkjRpCwIQgAAEIAABCEAAAhCAAAQgAAEIQCBxAgRYiSOlQQhAAAIQgAAEIAABCEAAAhCAAAQgAIEkCRBgJUmTtiAAAQhAAAIQgAAEIAABCEAAAhCAAAQSJ0CAlThSGoQABCAAAQhAAAIQgAAEIAABCEAAAhBIkgABVpI0aQsCEIAABCAAAQhAAAIQgAAEIAABCEAgcQIEWIkjpUEIQAACEIAABCAAAQhAAAIQgAAEIACBJAkQYCVJk7YgAAEIQAACEIAABCAAAQhAAAIQgAAEEidAgJU4UhqEAAQgAAEIQAACEIAABCAAAQhAAAIQSJIAAVaSNGkLAhCAAAQgAAEIQAACEIAABCAAAQhAIHECBFiJI6VBCEAAAhCAAAQgAAEIQAACEIAABCAAgSQJEGAlSZO2IAABCEAAAhCAAAQgAAEIQAACEIAABBInQICVOFIahAAEIAABCEAAAhCAAAQgAAEIQAACEEiSAAFWkjRpCwIQgAAEIAABCEAAAhCAAAQgAAEIQCBxAgRYiSOlQQhAAAIQgAAEIAABCEAAAhCAAAQgAIEkCRBgJUmTtiAAAQhAAAIQgAAEIAABCEAAAhCAAAQSJ0CAlThSGoQABCAAAQhAAAIQgAAEIAABCEAAAhBIkgABVpI0aQsCEIAABCAAAQhAAAIQgAAEIAABCEAgcQIEWIkjpUEIQAACEIAABCAAAQhAAAIQgAAEIACBJAkQYCVJk7YgAAEIQAACEIAABCAAAQhAAAIQgAAEEidAgJU4UhqEAAQgAAEIQAACEIAABCAAAQhAAAIQSJIAAVaSNGkLAhCAAAQgAAEIQAACEIAABCAAAQhAIHECBFiJI6VBCEAAAhCAAAQgAAEIQAACEIAABCAAgSQJEGAlSZO2IAABCEAAAhCAAAQgAAEIQAACEIAABBInQICVOFIahAAEIAABCEAAAhCAAAQgAAEIQAACEEiSAAFWkjRpCwIQgAAEIAABCEAAAhCAAAQgAAEIQCBxAgRYiSOlQQhAAAIQgAAEIAABCEAAAhCAAAQgAIEkCfx//KhxeKDnWmgAAAAASUVORK5CYII="/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21506" name="AutoShape 2" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAABLAAAALWCAYAAABWXGqyAAAAAXNSR0IArs4c6QAAIABJREFUeF7snQfYHUXZ/ic9oSgtgEggAUIAISE0E4wUIUj/MIGAAYLUBCkK/CmiggjSi0ovAWkJJfQmJCi9Q4gCAgFJCL2DQEj/X/f47fvte3LO++45Z3fPnGd/e11eKu/uzDy/e+a4c/vMsx0WLFiwwHFBAAIQgAAEIAABCEAAAhCAAAQgAAEIQCBQAh0wsAJVhmFBAAIQgAAEIAABCEAAAhCAAAQgAAEIeAIYWEwECEAAAhCAAAQgAAEIQAACEIAABCAAgaAJYGAFLQ+DgwAEIAABCEAAAhCAAAQgAAEIQAACEMDAYg5AAAIQgAAEIAABCEAAAhCAAAQgAAEIBE0AAytoeRgcBCAAAQhAAAIQgAAEIAABCEAAAhCAAAYWcwACEIAABCAAAQhAAAIQgAAEIAABCEAgaAIYWEHLw+AgAAEIQAACEIAABCAAAQhAAAIQgAAEMLCYAxCAAAQgAAEIQAACEIAABCAAAQhAAAJBE8DACloeBgcBCEAAAhCAAAQgAAEIQAACEIAABCCAgcUcgAAEIAABCEAAAhCAAAQgAAEIQAACEAiaAAZW0PIwOAhAAAIQgAAEIAABCEAAAhCAAAQgAAEMLOYABCAAAQhAAAIQgAAEIAABCEAAAhCAQNAEMLCClofBQQACEIAABCAAAQhAAAIQgAAEIAABCGBgMQcgAAEIQAACEIAABCAAAQhAAAIQgAAEgiaAgRW0PAwOAhCAAAQgAAEIQAACEIAABCAAAQhAAAOLOQABCEAAAhCAAAQgAAEIQAACEIAABCAQNAEMrKDlYXAQgAAEIAABCEAAAhCAAAQgAAEIQAACGFjMAQhAAAIQgAAEIAABCEAAAhCAAAQgAIGgCWBgBS0Pg4MABCAAAQhAAAIQgAAEIAABCEAAAhDAwGIOQAACEIAABCAAAQhAAAIQgAAEIAABCARNAAMraHkYHAQgAAEIQAACEIAABCAAAQhAAAIQgAAGFnMAAhCAAAQgAAEIQAACEIAABCAAAQhAIGgCGFhBy8PgIAABCEAAAhCAAAQgAAEIQAACEIAABDCwmAMQgAAEIAABCEAAAhCAAAQgAAEIQAACQRPAwApaHgYHAQhAAAIQgAAEIAABCEAAAhCAAAQggIHFHIAABCAAAQhAAAIQgAAEIAABCEAAAhAImgAGVtDyMDgIQAACEIAABCAAAQhAAAIQgAAEIAABDCzmAAQgAAEIQAACEIAABCAAAQhAAAIQgEDQBDCwgpaHwUEAAhCAAAQgAAEIQAACEIAABCAAAQhgYDEHIAABCEAAAhCAAAQgAAEIQAACEIAABIImgIEVtDwMDgIQgAAEIAABCEAAAhCAAAQgAAEIQAADizkAAQhAAAIQgAAEIAABCEAAAhCAAAQgEDQBDKyg5WFwEIAABCAAAQhAAAIQgAAEIAABCEAAAhhYzAEIQAACEIAABCAAAQhAAAIQgAAEIACBoAlgYAUtD4ODAAQgAAEIQAACEIAABCAAAQhAAAIQwMBiDkAAAhCAAAQgAAEIQAACEIAABCAAAQgETQADK2h5GBwEIAABCEAAAhCAAAQgAAEIQAACEIAABhZzAAIQgAAEIAABCEAAAhCAAAQgAAEIQCBoAsEbWO+++6578skn3dZbb+26d+/eCuakSZPcfffd5//Znnvu6dZZZ52gYec9uG+++cZdfvnlbtq0aW6JJZZwBx10kPv2t7+d+jDa0ij1zgrc4D//+U939dVXewJbbbWV23LLLQtM4/9CL/r8U/x33XWXe+ONN9ycOXM8mMUWW8zttttubvXVV2/oHOE3uqH46RwCEIAABCAAAQhAAAKmCARrYGkjdscdd7innnrKrbTSSm6fffbBwKpy6mVtYCXRqMohc3sbBDCwWsNh/jk3ffp0d8UVV7ivv/66FZxFF13UjR492i2//PINXVMYWA3FT+cQgAAEIAABCEAAAhAwRSBYA+vzzz93559/vvvss89c7969MbBqmHZZG1hJNKph2DxSgQAGVmswRZ9/CxYscOPHj3fPP/+8B7PMMsu4wYMH++yrmTNnuoEDB7oePXo0dD1hYDUUP51DAAIQgAAEIAABCEDAFAEMLFNy5htM0Q2EfGk7h4GFgRUnEDeoZVqNGTPGLbvssnlPS/qDAAQgAAEIQAACEIAABCCQCwEMrFww2+wEAytfXTGwMLAqGVjf/e533f777+8WWWSRfCclvUEAAhCAAAQgAAEIQAACEMiJAAZWTqAtdoOBla+qGFgYWJUMrErHrPOdofQGAQhAAAIQgAAEIAABCEAgOwLBGVhvvvmmu+yyy5yOx5S7BgwY4HbffXf/p9L6KmussYZ77rnn3MMPP+w++ugjN3/+fF8DZtVVV3VDhw513/nOd9okqZoyKoqsdmfMmOHryOhafPHFXb9+/dymm27qlltuubJtxMetL8RttNFG7pZbbnGvvPKKH4fq02y22Wa+Ls1LL73kvyanryrut99+bsUVV/R1bP72t7+1jFt96quK+tKcjgfpUtHqxx57zP9LtcF06euCG2+8sf9Xly5dWo0tSQ0sjU1fKXzkkUfc66+/3hKzuCmrQ+2utdZarmPHji1tV6NR9JD6Udwa+9tvv+376dChg/vWt77l+vbt2ybbuFEm/XfeeWd39913u2eeecbNnTvXM/j+97/vfvjDHy7EoL2l8+GHH7rHH3/cj01MNU5dKoKt+H/0ox/5Gmzx+KM2o/kXfeFR2S9PPPGE/2pmLfNPekmHp59+uqy+L7/8cmpfIZw3b56P+cEHH3T6ip3mlmLUPF1vvfW87qVf/YyzjPR84IEHWp6XnmKheSstKn3xMjLi4vP/H//4h3vooYfce++95zXVXF555ZU9f61ftR1dtcw/Pat59Pe//929+OKL7osvvnBa71E/5eZ51F+W809t6/fqhRdeaJl/GpN+ZzQmzffSdR03MsvN74irPn7R1qV5duONN/pbKn3VsrTO1iabbOK23377ss3edNNNfu7HC8i3VQPr2muvdVOmTPFz5uc//7n797//7e655x6vk35/9Jurr88utdRSLf3V8xvd3m8Bf4cABCAAAQhAAAIQgAAEwiZgxsDSpmry5MneHCl3aXOuTdrmm2/eajMc3auveF1//fXuX//6V0XF1IY2ldttt53r1KlTq/vim2pt3jUObcjil0yt4cOH+81qZGCNGDHCmxal90bPLb300v5okPq+8sorK8a3yiqruL322qtV0eb2DCyZSIpZRkZbl4wcta2Npq5qDYSPP/7YjRs3zpuClS7FpwLU22677UIb9riBsPbaa7tu3bq5Z599tlVTq622mtt7770TG1gybGSCybyKTKtKY5OBt+uuuy5UEDtuYP30pz912sB/8MEHNc2/V1991V133XXuyy+/LPu8ahttsMEGfsy6KhkOSX5uZNKq+Pcnn3xS8XZpPWrUKG+ull7S85prrqk4F3W/TBeZD0OGDFlovcUNLJnRMtFee+21smORcbX++uv7dROtuWrnn/SVOXbfffd5c6zS1atXL7fnnnu2zPPovizmn8Yk40pj0lysdMm80dySmRddaRlYMgsvvvhi99VXX3kT+Wc/+9lC60e/i5deemmL1vqd0Rdhu3bt2mrI8fviazGpgaXf1VJ9ZAgfcMABboUVVvB91fsbnWRtcA8EIAABCEAAAhCAAAQgEC6B4AwsbVK0mdVGXhsa/fcoe0mb4iWXXNJnxOiKb44ixMpWWnfddZ02o2pDGQGRqdC5c2e/KVemVvySkSNzKDKRlMEgo0SZH1GmiTKpos2vNtTKAoqbWPFNtf65Mlz0CXuZMnpOmQYy2TT2aAOq+7QRVP/xcWu8MlYUuy6NQ23IeJCRoWwjbe6UkaNskmhcyvCSARRdbRlYymRQhpgyhnSpf8UcbZTVl7JiojGsvvrq3sSSBtVoJJNEG2CZHrribGfPnu25KAMsMpHKsY0bCDK6NHZl9/zgBz/w/DTODTfc0GcOJbmkjcwmZXBFY9Kc0CZec0RjVZvvv/++70tXOcMomn+KSXoo1riOyu5SRmBkFGmsMgm0wY9fYn3FFVe0sJZpoVh69uzpTT+1IebRvKo0niSxl/YVH6+ykjTvovFG5mk8A6ZUz/jzmm9xPWU+KfNxiy22aGViRfNfc0lGmTjF54ViVXZQxF/tyMCSAayrmvkn/e6//343ceJEr6Xmj9agMpvUp/gq+zEyDsvFnPb8Kx2T4lPGleaweJaOSXNL5my0NpUp+MYbb3jjSxlwyvaL/0ZqnmiOtVcPS89r3un3VpmQKgKvduJXqVlY6T5lb15++eV+TPG1ksTAUvz6l8ateS991J44Rb+zafxGJ1kf3AMBCEAAAhCAAAQgAAEIhEsgOAMrQpWkvlKpgdW/f3+3yy67+Ayd6JJZMWHChJaMHW2Qdtttt5a/lxo5a665ps+2Kd38ffrppz6LSAaANlq6R0ZZdJVu9JS1o+yS0uM/ur80g6LcuEuNBm3wdJxQZkD8OJs23zfccIM3sXRkSEcSo6NfbRlYMmkuuugif1xHG2NlVejYTvyKmxUyX/bdd1/Xp0+fllva00ibWRmDyi7SVYmtYtVxIm3MFecOO+zgM3fKzQX9M2WEaSzR0cpql5c2/2PHjnUy0MoZFmpP80IZfZo75djqnvj807gHDRrkTcq45mIgs0wmlC6ZjzJjoivOqFIbMmzEUeOOrloysEr1KDfvSscbZQ1qbEnGqvEp+1AZhpo/5Y6zlc7/cvNChqaMJzGWFuUyhNqbfxqLTN6rrrqq5aip1mQ8m0n3KC4ZXMoEU1/6jdDvSGRQx/tJY/7FxyQ+6kvmcfyYpMZ05513eoNZY5JxPXr0aH+cObri67vWGljRHFbfe+yxhz/+Gb+UHXr77be3/CPdp/8T4Hvf+16r++Jmrn6DouOLSQwsNaTfF7Uro7z0Sus3utrfCe6HAAQgAAEIQAACEIAABMIiYMbAkqmhjZPqr5Re77zzjrvkkkt85kbpRi/+t7baUJvKFNGRG2WqlLYTN7BkYMgQUuZUuSu+gVdGgzamyraJXzLeZAJEx/sqHZHTJlY1w9R/VIspqj3UloFVWrNL5li5S5kw2kiL60477dRqg9megaCNuowXxdIeW2WB/OUvf/GmkliIidjoKjUQtOFXtkqtl+LRkTJtxnWEU1lf5a622Or++Oa8rfjirEvnTdxMa8uEkOGoTLYoO6oWAyuuRyXTUnFpfmuea74r4/HAAw/0cyuq3SY9ZWDI8Cg9ShtxjOspo1fH4CKDJsn8VzsyNC+88EIn87h0bpfOi3Ls4hlGlbLfovEqJh2LVEZjqemW5vzTmDTPp06d6nnEM8tK52B8TPqbzFHVoIquNAyseOZUqbkar3+l+oE6aqi5UVoHKx5T6dcQkxpYMvx1fLPcfErrN7rW3wuegwAEIAABCEAAAhCAAATCIGDGwGprQx+vz6LjUCoYHJkj8QyDHXfcsVXmT6lE2tBpk6sNuLKVVJsqqhEUNylK+yhtJ76BV8aDjIB49kV0v45QagOoa5tttvH1u9oaU+nGuy0D66233vKGiI7mKAtJhlupidbeFG3PwIqKOqud9kynuGGnTayOK0ZHPeP9lHJvb4ylf1c2lQpF64igjEbV2Ilqe5Xe214NsfjmXAag5mC5S5v+Cy64wJtPpVlykZmWhJHqX+nImK5aDKxq+rr55pt9rTYZF1oXOuIW6VmqT7mY4+Zf6XpIOv9lZupYmo72ypQ96KCDWmnV3vxLUuMpPnZlMyrLsnS9pTn/4mMqNXvKcYwbTKVZaGkYWPHfxlITUMcqlaWpI806mizTTf8qHUc8plJzK6mBVen3TUzS+o2u9reC+yEAAQhAAAIQgAAEIACBsAiYMbD0/96XHn+JULdlRERfwtKxPG2+2vtSoTb12oDrivfZVpZNqeTxDXxbRkRbm794m1EM1RhYcSZqS7WflJWjryTKOIoMvrama1sGQtx8SGo66QtxMpfaMhDKZeKkuaRk6GnDro26snH0hT4dZyvXb1J9Ks2/eOZKEkbxDKpqDaxq+yplGo9B80xfB6z0lcHoWX1xUsdDS+dl0vmvdirNbf2tPQMr3o9MFxXBb+tSlpvmoFjFv3Ya76fe+ac5pSON0VHF+HHmcmOLm5+lRmAaBpb6LPf1QP3zyDzTf5bBrQ9cKHOxtA5W9DXDcsZmUgOrrd/vtH6j0/ydoC0IQAACEIAABCAAAQhAIH8ChTawSk2cavHHTYS4gdVWVpX6SLqBT2qQ1GJgaRwas44zlfvynWqA6ViPaiCpIH65oz1tGQjtHb8rxzrOJX6cKd5PaQZTtZrF79eRKGViqfC4TCv996hoe2m7WRhY7WV4lY4h6bHPckyq7au0jdJjdNVyjxsUSed/vQZWuY88JB13PBspzfkXz/JKYkLGddMxXh2t1cchdKVlYEkPZZZq7sczJaPMJ9XfUoF3mZEy32T2RxmS8WOG0X3x2nRJDCwZnKppV1qbrDTGpNrF70vCuJZ2eQYCEIAABCAAAQhAAAIQyJ8ABtbll/uv4NVyVTKw4tkb7Rk1jcrAisal+kJ//etfvakWfc2wdMwys3SMTNlZ8aOObRlYtWStxI2NShkwtRarjsekjKqHH37Yf+VS2TblLpkFOh6qL+GpFlMIBpa+NqcjXcrKqXZjjoFV3QqvZGDVO//ihk4SDUsz3+IF0tMysOK1xqJ6ZVojUQ2+6J9FH36I18GKPxsv+B/RTmpgxeOKK5Xm/8lQ3QzgbghAAAIQgAAEIAABCEAgNAIYWP9rYJX7Wlo1YsWzY5rJwIpiVA2qGTNm+K/l6aiQDKj4pawLfdI+fgwrywyseE2p9o6KVaOT7v3b3/7m7r33Xp9xIkNONcCUbaYMENUl0pfeVB+rPdMnaYZcpXbaa780rnjdsiTmRyUjoJZjcLUYkpV0aUQGVrW84mNPc/7Vk4FVWgcsLQMrXn8uyqKSgRXVbYtqA8aPBUd1sHTMUB9q0P3lvmKYpoFV7290tb8T3A8BCEAAAhCAAAQgAAEIhEWg0AaWpIiO3yUpTN2WdM1uYJXGplpQqrmkmkAq0qyrtOh0I2pg1ZsBE2WRaOyq+yVTrjSzLGLRnsFUr4EVNw6SbM51hGvs2LHeWKvWkKmlJlklA6z0KFu1P2l5GViVjqRWO940DawQa2CJR3RcMPqCqv6ZCujrdzGeHRV9CCAy0/Sc6mLFv1YZ51uvgZXmb3S1unM/BCAAAQhAAAIQgAAEIBAWgcIbWPEN1pAhQ9wOO+xQ9ouA7cnWbAaWNp5PPfWU/wqhMifK1Z9RzKoLdckll/hi5qXGRXsb+2q+QhgvMt7WVwjrNbDiBoKyrlSbqVx9L8UeP7KXxRFC9RGff+19BVNGgQwEXdUaWHqmGj1k/kyYMMFr/uMf/9j179/fjR8/3imDSNewYcPcoEGD2lsWZf+el4EVX5P6OIO+OKl4qr3am+fVtFftVwjjhfuz+AphNPb4uPRFQJmrOmJbalpH60cZmSpA/+ijj/oj2JXWUhoGVlq/0dXoxL0QgAAEIAABCEAAAhCAQHgECm9gxTe5Kj68//77V/wSoTJfdFxGmz1lzKjg8SqrrOJVbUYD6/bbb/dj32yzzdy2225bdnbGi7GXHmFqb2Mf33xrI6xMjkoGwmuvveYLyitTqGfPnr5YdfQlxPb6qWZZxc2Ttort63ihNs4TJ070zWdlYL3xxhs+q0pxt8VIRuJll13m3n777ZoNrJdeesnXNZI50ZYRqL8rM1Ff3IybifFi3zpqJo103LLcpdpIGu/XX3/tddx99929rrryMrDiGXQ6KipzWiZ1pUtHS/Uv1Xxbb7313NZbb+1vTXP+xY1ajWn48OH+QwnlLumg4uoyjXRtv/32/kup0ZXWEUK1F29LRpmOBOp4YFT/Kqp9Fzd1dZ+OHevZePH3eCxpGFhp/UZX8zvBvRCAAAQgAAEIQAACEIBAeASawsCq9OW5eo9wSQ5tEm+88UZf+0mXNub6wla02Y4k08ZT2S9PPPGEr52kAt8yu3r06OFvaTYDK36UTht2ZVOsscYarWao4pw8ebLPxFGB99VWW83tvffevj5U6ca+nEZiJsPv1Vdf9fevueaabtddd/UGQfzS0TgZJjI9tFFWxs+PfvSjllvSNBDiOmkciqc0+0xzQtlOMq+iwvbljvhlMf9kqskMUH/RNWvWLD9H9cXE6KolAysyYGVMiLMyqGSKRHqqbWn+5JNPOpmbij1udJUW1F511VV9BlupnjKtrr/+el9LTdfaa6/tDawo0y0LA6vSb4QyxjQWaao4dWRUpkz8YwSKWWadGCvGrl27+q/i9enTZ6F5Xm8GoBqUsauv+YlvZISLUXxMpb83+j3S742M1OhK08BSm3fffbd74IEHWnQSs1JjKm7AReNo60hpGgZWWr/R4f3PLyOCAAQgAAEIQAACEIAABKohEKyBpU3wpZde6jNOdFxFm85+/fr5WivaROpKw0BQO5988onvS6aOLtVGUl86FqO+ZbBog/vll1/6v5czPprNwNKm/f777/cmjf6z4pQJIANFmWiKdcqUKT7DQn8Xk1GjRrUyuZJoVMpWG3Zt1mV+KOtIfegIkjI+dIm5TK7IGNQ/S9PAKjXVZGqoz9VXX30hrcVEWotFVgZWufkn/prvvXr18vxlwkRzL1rctRhYelZz+YorrvCZUbpkiOh4oLK/1MfTTz/tv7wozcvN89Ln43pKw6lTp3qDRuaKLhXIl/Gy1FJLtfwupWVgJZl/Mj9kwD777LO+f5lEyy23nNtwww39PNealzEYxay/Dx061G2xxRYthlKa809jKF17pWMq1VyMR4wY4ddN/ErbwJKxqbpX0Zc5KxlTUR2saCylRxvjY0zDwErrN7qa/2HkXghAAAIQgAAEIAABCEAgPALBGlja5Ckj4MEHH2xFLV5rJS0DSx3o0/Djxo1z//73v9tUSZteZSvJ8IhfzWZgaeza3N9xxx3u8ccf95vqSlelLJEkGqlNmQPKsIqKwZfrR2aRTAVlBHXr1q3VLWkbCKWmWrnxSGeZBjoypWwkmQylX1lLc/7JSNFxseiIYOmYZLR9//vfd88880xNRdzj7elrhupLHCpdlea57peOOor44YcftrlWlDWkDK3ll1++1X1pGVhJ55/mubTSBwkio7TSHNx8882dvoAZr4uW9vyL1p7GoyOLUZZfuTHJ+NMxQ5lEpVfaBpYMzIsuush98MEHvqvS+ldR//GjwfpnpUcb4+NMy8BK4zc6vP/5ZUQQgAAEIAABCEAAAhCAQDUEgjWwok2eDCwVCv7Pf/6z0KYqTQNBjWtzq2wgFThXbSLVHdIl80BZGzpyNWDAgIUMFt3TjAaWxi0TQIbEww8/7LNnZORFGVfKntEX+jbeeONWR9riE0zmQFsaRfeKrWowPfbYYz4LSFkeMoVUH0mb80033dQzLndlYSBo8y+dZQjp6KLGF+mseKWz/ntc19KjcGnPPzHRUVZpIeNMY1ImmrIBlRGko4SqK1XLVwhLuaovZb9JD+kvE0Um4jLLLOPrP7WlebQ2pafMT5lu+hiALo1XxsfgwYN9Zlu5AvlpGVhJfiPicX/66af+t0TZlJHmillZaNL2Bz/4gc/wLL2ymH9RH2pbeouJxqS1V24ellsXaRtY6jteqF+Gqcyz0iteB6u9r2emaWDV+xtdzf8wci8EIAABCEAAAhCAAAQgEB6BoA2s8HAxIghAAAIQgAAEIAABCEAAAhCAAAQgAIG8CWBg5U2c/iAAAQhAAAIQgAAEIAABCEAAAhCAAASqIoCBVRUuboYABCAAAQhAAAIQgAAEIAABCEAAAhDImwAGVt7E6Q8CEIAABCAAAQhAAAIQgAAEIAABCECgKgIYWFXh4mYIQAACEIAABCAAAQhAAAIQgAAEIACBvAlgYOVNnP4gAAEIQAACEIAABCAAAQhAAAIQgAAEqiKAgVUVLm6GAAQgAAEIQAACEIAABCAAAQhAAAIQyJsABlbexOkPAhCAAAQgAAEIQAACEIAABCAAAQhAoCoCGFhV4eJmCEAAAhCAAAQgAAEIQAACEIAABCAAgbwJYGDlTZz+IAABCEAAAhCAAAQgAAEIQAACEIAABKoigIFVFS5uhgAEIAABCEAAAhCAAAQgAAEIQAACEMibAAZW3sTpDwIQgAAEIAABCEAAAhCAAAQgAAEIQKAqAhhYVeHiZghAAAIQgAAEIAABCEAAAhCAAAQgAIG8CWBg5U2c/iAAAQhAAAIQgAAEIAABCEAAAhCAAASqIoCBVRUuboYABCAAAQhAAAIQgAAEIAABCEAAAhDImwAGVt7E6Q8CEIAABCAAAQhAAAIQgAAEIAABCECgKgIYWFXh4mYIQAACEIAABCAAAQhAAAIQgAAEIACBvAlgYOVNnP4gAAEIQAACEIAABCAAAQhAAAIQgAAEqiKAgVUVLm6GAAQgAAEIQAACEIAABCAAAQhAAAIQyJsABlbexOkPAhCAAAQgAAEIQAACEIAABCAAAQhAoCoCGFhV4eJmCEAAAhCAAAQgAAEIQAACEIAABCAAgbwJYGDlTZz+IAABCEAAAhCAAAQgAAEIQAACEIAABKoigIFVFS5uhgAEIAABCEAAAhCAAAQgAAEIQAACEMibAAZW3sTpDwIQgAAEIAABCEAAAhCAAAQgAAEIQKAqAhhYVeHiZghAAAIQgAAEIAABCEAAAhCAAAQgAIG8CWBg5U2c/iAAAQhAAAIQgAAEIAABCEAAAhCAAASqIoCBVRUuboYABCAAAQhAAAIQgAAEIAABCEAAAhDImwAGVt7E6Q8CEIAABCAAAQhAAAIQgAAEIAABCECgKgIYWFXh4mYIQAACEIAABCAAAQhAAAIQgAAEIACBvAlgYOWtzbJvAAAgAElEQVRNnP4gAAEIQAACEIAABCAAAQhAAAIQgAAEqiKAgVUVLm6GAAQgAAEIQAACEIAABCCQPYHpH813r38w3334xQI3e65zi/dw7rtLdnRrrNDRLd69Q/YDoAcIQAACgRHAwApMEIYDAQhAAAIQgAAEIAABCBSTwBczF7hbnp7jJr04z73z6fyKEDZYpZPbdkBnt+manYsJiqghAIFCEsDAKqTsBA0BCEAAAhCAAAQgAAEIhETgtmfnuEv/PsfNnL0g8bAG9u7kfr5lV7fKsh0TP8ONEIAABJqVQFMZWF999ZU77LDD3FNPPeWuv/56169fv7Lcp02b5s4991x31113uVdeecUNHDjQjRgxwu27776uZ8+eZZ/58MMP3dixY90NN9zgJk+e7Nvebrvt3CGHHOJ69+7drPoybghAAAIQgAAEIAABCEAgcALn3DPL3Tl5bs2jPGF4NzekX7GysT7++GN3yy23uF122cV9+9vfrpldox788ssv3VVXXeWuu+469/rrr7sVV1zRnXHGGW6TTTbJdEg333yz3+Nqvzxs2LBM+6JxCKRNoGkMrAULFrg///nP7pe//KUbMGBARQPr+eefd2PGjHFPPvmkN6F69erlpk6d6qZPn+622mord95557m+ffu24vjWW2/5Z2R4rbzyyv7vM2bM8OaX+rrwwgvd4MGD02ZPexCAAAQgAAEIQAACEIBAwQmcedcsd8+U2s2rCN+Ju3R3G/ftVAian3/+uTdh5s2b5/d3Sy65ZFPFrXGfffbZ7o9//KNbYokl3FprreW6devmfvWrX7nvfe97mcaCgZUpXhrPmEDTGFgPPvig22uvvbwRVcnAUhbV6NGj3aRJk9w555zj7+/cubNT5pbc7BNOOMEdfPDB7vTTT3c9evTwaGfOnOmOOuoo/8P3u9/9zv9n/W3WrFnummuu8RlfW265pbv44osrZm9lrBHNQwACEIAABCAAAQhAAAIGCYx7bI4b+8DsVCJbpFsHd9E+3X2hd+vXp59+6vd1uprRwPrmm2/83vPee+91V1xxhVt33XWtS0Z8EEiFQFMYWO+//743pj777DPXsWNH98knn5TNwJKbPHz4cHfooYd6k0oudnR98cUX3qWfOHGiu/XWW91GG23k/6TjiDvttJMbNGiQP0IYd+/nzp3rjj/+eHfyySe7m266iRTLVKYcjUAAAhCAAAQgAAEIQAAC//5gvtv/spmpgvjB6p3c73funmqbITZmxcB69tln3UUXXeRWXXXVEDEzJggERyB4Aysyka699lp3ySWXOJlUTzzxxEIG1uzZs90xxxzjM6/uu+8+N3To0IVg64yxsrKUrqnMKl26//DDD/c/HDLJSq+HHnrIbbrppv7+U0891XXt2jU4ERkQBCAAAQhAAAIQgAAEINBcBE65fZab9EL9RwdLoz5jZHe3Xu/0jhJ+/fXXPlNI/4f+008/7bvbcMMN3U9/+lO/5yrdH2lfpqSB8ePHJ7pfx+h0WkZJBssvv7xPKrjnnnucyrwMGTLEjRo1qlU/0RG4eNw6gldqBKkkzOWXX+7uv/9+X2NKJtEWW2zh9tlnH19mJn5FbapkzaKLLurH895777mtt97aHXHEEW6FFVZoc3Kp3M1rr73mxo0b12Z/UebV1VdfvVB7Rx55pC+XU+7S/nbvvff2WVv7779/q1sUm8rhvPTSSz6bS2VzokvjuvTSS/1JpOhv5Y4QJo1fdcek6x133OFeeOEFX7frhz/8oWe65pprug4dOjTXImS0TUcgeAPrtttuc3vuuac766yz3MiRI/0PSDkDSy687nvzzTd9IfY11lhjITEeffRR/yMoo0rGlRaY2rvgggucjiiWK5inOli77rqr/zGVibb00ks3ncgMGAIQgAAEIAABCEAAAhAIh8BnXy9ww//4dSYDGrp2Z3fMjv93EqWeTlSi5Te/+Y2788473WKLLdZSn+nFF190KkKu5AD9fZFFFvHdyOD4/e9/7yZMmNByf6dOnby5otM0O++8szvuuONa7akiA0vmjYwRtSFDSmbPc88959vVcUHt22SWyUy77LLLfJu6dK/2aKofpXrGMm1kgMm0kQkm40pGi9qNTBedstlmm21aDJfIwNlhhx38B72WXXZZ16VLF7fccsv5JIa2isQr4UKGlO4Tk7XXXtuPR33LXFKNK53o2XHHHZ3MvT/96U8+rjfeeMMzUc2r7t27+7I1MoLKXZFJpVj/8Ic/eLbRFZlb+u9K6NCpo+j6z3/+47m98847fs+70kor+YSQ0iLuSeJXtpjaF3fx7NOnjy/Vo1g0Hv1N+3GV8OGCQFYEgjaw/vWvf3mnuX///t5w0vFBZUKVM7BUG0sGly453/rxKr1KzSgtrv3228/J2NKP5frrr7/QM/qh23333b0D39aXD7MSiHYhAAEIQAACEIAABCAAAVsElHmlDKwsrm/16OBuOey/hlI9l8wWmTKqBaz90NFHH91iPGlvdOyxx3oz6cwzz/TZWG3drz2VDBRlSanci0yVyOiIDCyNVSdjDjzwQG+IyYh67LHH/D9T21deeaXfF+pq6wjhlClT3AEHHODvk3G0+eab+33k/Pnz3SOPPOJOPPFEN2fOHP+hLmUN6YpndWk8KkujZ3SfjKy2LiVCqD+ZXTLG4v3dfffdvj9dqtWlzDVdUSZW0iOEyoL79a9/7Q24eKaZGOl0kf6lSwZh3ODSfloZW0riUPaWjLK2DCy1US5+ZbPJ9FJ7akd8ZCaqf43plFNOcYpFJ6Z0eokLAlkRCNbAkpurgupaCEp31I+LCq5XMrCSZEqV3iOo7ZlTGFhZTT3ahQAEIAABCEAAAhCAQDEJXDhptpvw1JzMgr9yTA+34lL1FXOPzI/vfOc77txzz/UnUuKXvv4eGTYHHXSQNzeUkbXOOut4U0tZTPHro48+cjomp8wjmWL6YnxkmOjInjKidOomnu2kr/Xpb+pfhpOymHRVMrBkOMnA0bE5HQccNmzYQsfaIgNHGV8yx5QhFv0zmU96bqmllkqkTWQs6QSQxqj+4pcMHiVXaF+77777+mw1GT/VGlhqUx8Yk4kYPyYYZVgpC0yxq+7z+eef7zOkdEVxRSZj/J/Fx9te/OIZffBMWpdmWSnBRMbjZptt5vlHGXmJIHITBKogEKSBpYWutFA583KY5ejruB8GVhXKcisEIAABCEAAAhCAAAQgECSBE26e5R56Of36V1GwZ+7e3Q1cub46WDoG+Itf/MKbL8qaaq++UWSwlKvTFI1LpomyuuJmVJSBVXr8rfSZuOFSycDSx79ksMjMiRs58Ukwbdo0b7b07NnTm04yzCIDRwacTLn4x8DamkCqe6XyNPoQmPpTFlbppaOEGpOuaEy1GFj/+Mc/vEGo8jYyAmW8Rf3vtttu3rxSBpR0UKZXZOZNmjTJG3ql2WblDKxy8etYpLK/VBs6ngUXj/Pzzz/3GVo6cipte/fuHeS6Y1DNTyBIA0tH+pQZFaVARj8gzWpgKYuMCwIQgAAEIAABCEAAAhDIh0C50iD59Jysl2Nv+MY9+dq8ZDfXcNfJI7q7769Wn4EVGUvlMotKhxTPlIpqQJUbdlSHKl6wvL1+yh15q2RgRVlj+rvqRZU7/idjR3WcVJg9Oo4X9dFWIfVy8aiovb5or9pP0RG90vuiLCndGxlAtRhYMomU4KFnoyyxqP6VCux/8MEH3pg77bTT3B577OFrcMk4k6mmzLbFF1/cD62tI4Tl4o9MwX/+858t9bpKY9TxTGXWqU8V44+OStYwdXkEAm0SCM7A0gKRiy0HWcXwvvvd77YE0JaBpcJ0Mr10qdh6uS9FREcIlVKptpX6qEWtlEf9PwzRmeo4segIoVJer7vuOrfaaqtVPaUwsKpGxgMQgAAEIAABCEAAAhComUDoBlYzZGC1ZyzFxWnr63rlRMzKwIoMpSQTJ/7lwiwNrDibyNypxcDSKSUZV3/5y1+8Eabi7zpe+fjjj/vMrk8++cRnaOkoprLInnzySX+SqTQjrloDK/6VwyRcMbCSUOKeWgkEZ2BFXwpMGpBSJGVc8RXCpMS4L04gMhdDf8lBtWQE0DMZp9DvQsfQFUo2PnRMxin0u9AxdIWqGx96Vscry7uboQZWNQZWvPZU/HhgEobt9VNNBlZ0zE51uKLjgUnGkKWBFWVgKesrOspXi4GlOFSEXrW0fvvb37r/+Z//8RlZqtclk0o1pKOjiioYr6QOFc6PjhRGHKo1sKJMLhXS53hgktnEPVkSCM7A0v+w6osW5S6lJk6dOtW7y+uuu67r0aOH+/nPf+4XrxaUzk3ra4VKpRw6dOhCTahY4JgxY/xXGlQMXpfuV/E+pY8q86v0mjhxottqq638/TqvraJ7XHYI8CJnR0tFgp429ERHdLRBwEYUrEcbOkZRoGc4ejbDVwijmlaVamDp5IwMlGWWWcYbKjJGokLfSWpmRWqkaWBFZouKq8e/1tee8rUaWFF2kupoVaqB9eabb/o9q2pW1VMDSzFEx/l0KmjEiBG+NpmyrvSlwchEvO2223ymlk4ciUNpUfpqDazIgNPXFkvNsPa48ncIpE0gOAOrrQDbOkKo57QY9UlPLeTTTz+9VfE9HUlUYTkZUkpr3GijjXxXTz31lD+3PGjQIDd27FhfgC+69DUHpV/q86s6V1z6VYm0xaC9/AnwIpc/8yx7RM8s6ebXNjrmxzrLntAxS7r5tY2O+bHOoyf0zINysj4++3qBG/7Hr5PdXOVdQ9fu7I7ZsVuVTy18e5TNJLOk3FcIZWgccMABvqi4vq6nDKO9997bl1wpd3+UdfTiiy/6pILtttvOd5qmgaWkhpNOOsnv67QfHDly5ELF51U+RgkTAwcO9MXJlcFUq4FVzVcI43Wyas3AikyqyZMnO30xURlRcVMpMh1/9rOfOemz/fbbtxR8jxSu1sDS0UVljp1wwgl+ny3TsvQrhDLy9Dd9qVJzoU+fPnXPPxqAQDkCpgwsffVAWVT60oIyq1S8TgXglU6p88FadPq7/qbsLV0yxfT/KijNUmaVzmMvuuiibtasWf7HQJlX+nHQoi39FCxTqvkJ8CLX/BrGI0BPG3qiIzraIGAjCtajDR2jKNAzLD1PuX2WUyZW2tcZI7u79XrXV8BdY5IZpBMoOsWiki1HH320W3rppf1w9fW74447zqloukwUJQPIlJF5dMUVV/gEAZ2O6dWrl79ff9PeSnsyfQ1PBlf0t3oMrPfee8+PL16nWHWwDj74YN+v9nk77LCDP0UjI0aneZQlJnNHe0Mdx9PXFWs1sNRHZOSpWLr2k9o7duzY0en00N133+1OPPFEPxbtN6Pi5rUaWGpHbSrjStcGG2zQ6muLzz33nK97pS8H6ho/frzbZJNNWk2xag0sPawC7UoGET/tj0eNGuUWWWQR3+67777r54lqSmuvLd05tZT2qqa9iIApA0tBqYidvr4wZcoU169fP//DqIU2ffp0fxRQPxx9+/ZtNQP0d/3I6ejhyiuv7P8+Y8YMp6LvAwYM8D/KgwcPZtYYJMCLnC1R0dOGnuiIjjYI2IiC9WhDxygK9AxLz39/MN/tf9nMVAf1g9U7ud/v3D21NpUgoIyaO++80y2xxBL+y3764qCyqHTJrFBmUZSRE79/scUW84XGZWZEX6hbddVVfWaUDK/oqsXAihdGV5vav2ks+ncZVbfffrvPsvrss8+c/q6PeOkonAweXfvtt5835CITph4DS6d2dFxPJo6Mo+grjDrOqMwkcdOJnh133LElG6weAyteVL3064fREUPtiUvNrYh3LQaWnlXmmgxB9S+eyrKSyam5oLiV7SUDs2fPnqnNPxqCQCkBcwaWApw2bZp39e+66y5vQik9VGeE5bBXWlD6sVWq6Q033OCUkinzS2mtcpp79+7NzDFKgBc5W8Kipw090REdbRCwEQXr0YaOGFjh6jjusTlu7AOzUxngIt06uIv26e6+u2THVNqLGtExuXvvvdd/kV1FxGXIbLbZZr72kkwSZRvFL5kzOhGj+5UNFZk6yoRSdlCUxVWPgaVnZYrJNHrggQd8H/FsI5lYqj2lL/bdf//9LUbSkCFD/LhloMXHXY+BpbGoP2WjKWaNRyaPjDOZOoo5yjaLYq7HwFKsOvqojKfSLwzGjT3tfWU+lmZD1WpgaewffPCB3y/fcccd7oUXXnAyKZVVphhVg5rMq1SXHo2VIdBUBhYKQiBtAryYp020se2hZ2P5p9U7OqZFsrHtoGNj+afVOzqmRTKMdtAzDB1KR3HmXbPcPVPqP0p44i7d3cZ96z86GCYlRgUBCEDAOQwsZkGhCfAiZ0t+9LShJzqiow0CNqJgPdrQMYoCPcPV85x7Zrk7J9duYp0wvJsb0q9zuAEyMghAAAIpEMDASgEiTTQvAV7kmle7ciNHTxt6oiM62iBgIwrWow0dMbCaQ8fbnp3jLv37HDdz9oLEA1ax9gO37OpWWTbdY4OJB8CNEIAABHIkgIGVI2y6Co8AL+bhaVLPiNCzHnrhPIuO4WhRz0jQsR564TyLjuFokcZI0DMNitm28cXMBe6Wp+e4SS/Oc+98Or9iZxus0sltO6Cz23RNsq6yVYTWIQCBkAhgYIWkBmPJnQAvcrkjz7RD9MwUb26No2NuqDPtCB0zxZtb4+iYG+pcOkLPXDCn1sn0j+a71z+Y7z78YoGbPde5xXs4X6B9jRU6usW7d0itHxqCAAQg0CwEMLCaRSnGmQkBXuQywdqwRtGzYehT7RgdU8XZsMbQsWHoU+0YHVPF2fDG0LPhEjAACEAAAhCogwAGVh3weLT5CfAi1/waxiNATxt6oiM62iBgIwrWow0doyjQ05aeRAMBCECgaAQwsIqmOPG2IsCLnK0JgZ429ERHdLRBwEYUrEcbOmJg2dIxz2hmz57t7rrrLrfqqqu6/v3759l1IfqyxPfee+91f/zjH915553n50vp9c0337gnn3zS3XLLLe7xxx93b731lltiiSXcBhts4IYOHeq22247t+SSSy70nNpVm2effbbr27dvIeYFQVYmgIHF7Cg0AV7MbcmPnjb0REd0tEHARhSsRxs6YmDZ0jHPaM4991x36qmnultvvdVtuOGGeXZdiL6s8H3jjTfcIYcc4n7605+6kSNHug4d/q9G24IFC9xjjz3mTj75ZPf88897Xddbbz23+OKLO5laL774ovvyyy+96fWrX/3Kbb311q2e1z2/+93v3Pz58/2/L7LIIoWYGwRZngAGFjOj0AR4MbclP3ra0BMd0dEGARtRsB5t6IiBZUvHPKNRRs0ZZ5yBgZURdAt8lUUmk/Oll15yf/7zn92yyy7bQkvm1e233+6OPfZY/89++ctfut12282bV9H1n//8x1177bXunHPO8RlZYjJ48OBWxKdMmeIOOOAAd/TRR7thw4ZlpAbNNgMBDKxmUIkxZkaAF/PM0DakYfRsCPbUO0XH1JE2pEF0bAj21DtFx9SRNrRB9Gwo/qbs3ILBEjJ4C3yVVbX33nu7o446ymdgxa9//etf7sADD3QzZ870RwA33njjVtlV0b3Krho7dqzPsPrhD3+4kBEmk+ykk05yak9Za8svv3zIsjK2DAlgYGUIl6bDJ8CLXPgaVTNC9KyGVrj3omO42lQzMnSshla496JjuNrUMjL0rIVaMZ95/fXX3ZgxY3xWTfySeRDPgPn444/d+PHj3R133OFeeOEFt+KKK3oDYp999nFrrrlmK7MianP99df3GTl/+9vf3GWXXeYmT57sj4+NGjXKHz/TEbGXX37ZXXLJJU71j3T9+Mc/9kfU+vTp0zKceHvHHHOMH8P111/v2xs4cKAbMWKE23nnnSseOZsxY4a7/PLL3f333+/UlsawxRZb+LH36tWrVdw333yz718ZRosuuqjPSnvvvff8cbcjjjjCrbDCCv6Im/q+7bbb3AMPPODb1KVsItV32mmnnVpqPLXHN+rvyCOP9FlLpVe5v8d57LXXXu6ss85y99xzjxsyZIg76KCD3CabbOKbkRk0ceJEr9vTTz/t/5mOh8p8Ui2qrl27Jp70kbH03HPPuQsuuMCttNJKLc/OmzfPm1Yy6Q499FDPqXPnzhXb/uCDD/wRwuWWW87tv//+rbTWQ4888ojbd999vclVapQlHjA3Nj0BDKyml5AA6iHAi1w99MJ7Fj3D06SWEaFjLdTCewYdw9OklhGhYy3Uwn0GPcPVJrSRTZ8+3Z1yyinewJIxEtUskjEiM0mX5pOMI90j40rm0ldffeVkZiy22GL+b3vuuWeLaREZLKussorr1q2bu+mmm3y7Xbp0aamDNHr0aG+06KiY7pExpPpKKvgtU0oGWmRiRe2psHePHj3cdddd59Zee233rW99y4/ps88+82M97bTTXM+ePVsQ61ibjJ0TTjjBtyvjSuOXGReZcMcff7zbZpttWgy4yDDaYYcdvEmlY3Iat8wWHZ+TqXXxxRf7Ok+6Il46HiceuuJjaY9vPQaWjuEpRhlC4vfhhx96I2nAgAE+xt///vduwoQJXqPvfe97rlOnTi28ZPgdd9xxbumll040JV955RUnzTbbbDP361//2jOJLrGVcSYz8pprrqm7htr777/v21N8Mue+/e1vJxojN9kigIFlS0+iqZIAL3JVAgv8dvQMXKCEw0PHhKACvw0dAxco4fDQMSGoJrkNPZtEqICGWemIm7KXlJGkI13KiBk+fLjP3JFxIhNI5pfmm7KoNt10Ux9RPOtIZpSOhMlUUcHvf/7zn769d99912dM6Tha1KYKfMtsGjdunDej9thjj4XakwEl82jzzTd3HTt29EaN7lVtJRksMtOizKKonpIaiT+jDCpl+Zx44oluzpw57sILL/RZZLoiQ0n/WUw0NvWj+2TaRNlB+qLeH/7wB9e7d+8WFadOneozzlTIXG3uuOOOLX+rxLceA0vmnTLZZMLJpJo7d64fq/5dZpuMtt13392bhJFRJV7KoLrooosSZUtFAciYUjulmXn6u4w7ZUqts8467vzzz/dmXz2XWIutMtyuvPJKvopZD8wmfhYDq4nFY+j1E+BFrn6GIbWAniGpUftY0LF2diE9iY4hqVH7WNCxdnYhPomeIaoS9pgqGSyXXnqpN65kNCkrpvRo2BNPPOFrHykzR6aDTKm4gaXnt91225bgZ82a5U0qGRM6Jvab3/ym1VG2++67z9dZ0tGyKNMn3t7pp5++0NfvdMQvMsXUn8yoyATRf9dxQB2HjH8xL25W6eje4Ycf7jOUIkNJBpmeW2qppVrGLuNL7emeX/ziF63iKjV6So8EZmFgvfnmm2Uznv7xj384ZdDJUDrzzDNbFVvXOD/66COn8SnjTSZXv3792pyckWbKpNNxRGWdxa9IMx2fVMZUvHB7rbM+MsziRmatbfFccxLAwGpO3Rh1SgR4kUsJZCDNoGcgQtQ5DHSsE2Agj6NjIELUOQx0rBNgYI+jZ2CCNMFwyhksyoiSifTQQw9VzIT5/PPPvXmk42vKOlJGUmQ4KWxl+ujoXvyK+iqXzaNaTaohpSOJMs66d+/e0p7MMWX4KAsrfikbTGaTzK0//elPvh5WdAxNRla5Z/T8tGnTvPmmY4cai46qRQaWDCBlNul4YzVXpYyqLAwsmYkR8/gYI/NH/GQElrsUr7K0SjPFyt376aefuoMPPth98sknZfuLYo5rVg2zcvfKGFX2W9zIrLdNnm8uAhhYzaUXo02ZAC9yKQNtcHPo2WABUuoeHVMC2eBm0LHBAqTUPTqmBDKQZtAzECGaaBjlDJbIBNKxP9VQkplUeikrKapddeutt/r6R5GBpfpR5513XktB8+jZWg2stdZay2d56bhc6VVqHOnIo8wPmS96Ll6zKXpW5paO4al+VGS0tXekL96vYlftK9Wgeu2119zDDz/sjxgq/jwysMrxVUF1FZ6XQaU6YZVqXEV1wCoVj4/H2Z6eMjh1hDDNDKzoWKKOYaqWl2qfcRWLAAZWsfQm2hICvMjZmhLoaUNPdERHGwRsRMF6tKFjFAV62tIzj2jKGViVvqBXaTxZG1j6qmGUldWegRVlciVhJ4MrqYGlbC+ZY/qqor6cqALy0SVjTYaRCrc3ysD65ptvPKOrr746SegLjbPcQ+0ZWNGRRWXapVEDS2Nor89EwXFTUxPAwGpq+Rh8vQR4kauXYFjPo2dYetQ6GnSslVxYz6FjWHrUOhp0rJVcmM+hZ5i6hDyqcgZW9HW52bNnlz06Vime9syHWjOw1l133YrZOKWZU/E6UNHxwCT828vAevzxx51qZsm4UrbZRhtt5LPTVlppJderVy939913+yOVjTKw4rW/khwPTMKkPT11tPDQQw91Mg2TfIVQJqDG9uqrr/oi8+JYerXXZ5Jxc09zE8DAam79GH2dBHiRqxNgYI+jZ2CC1DgcdKwRXGCPoWNggtQ4HHSsEVygj6FnoMIEPKxyBpaOxx1xxBHuwQcfTGRMROG1Zz7UamCpRlW5DJ94DazItInMt6+//rpsHa5KUrRlYMV5qH6UanWVFoafMGGCL/CeloEVFdGPt9ce33jhfRlLpWOsdhq215+OLZ599tn+q43qT3OmtNh/vM+o6L6+1njFFVe4rbbaaqEhcYSwWpXs3Y+BZU9TIqqCAC9yVcBqglvRswlESjBEdEwAqQluQccmECnBENExAaQmugU9m0isQIZazsCSMSQzRF8NrGRMyNzQ35Zffnn/RcE+ffq0e/yrVgNLX9275JJL3KabbtqKWmSIqJB89FU9ZY2ddNJJbuzYsb64+8iRIxcyclQo/Nhjj3UDBw70xer1xcG2DKz2itPL4BIDmVhJDayoWHm5AuiV2mvPUHr++ef9lxxXW201XwtL2sSv6Jjhiy++6MaMGTsGdhkAACAASURBVONrV7V1RUXcVeurXFF+PRuN6YsvvvBm1sYbb1zWOJs7d67X6OSTT3bbb7+910bGZOkV1dWiiHsgPxANGAYGVgOg02U4BHiRC0eLNEaCnmlQbHwb6Nh4DdIYATqmQbHxbaBj4zVIcwTomSbNYrQVmUrRV/yiqFWgXUfipk6d6g477DA3atQop68B6nr33Xf9l+xk2IwePdodc8wxrmvXrpkZWCq4LrNJxtSAAQO8QaJi5Keddpq79tprff8///nPXadOnfz4dKRNX8/TddRRR7kddtjBj0/GnOJRrShll8mg23fffX17bRlY0VG5v//979542XXXXVsyjWTuyJiRwaOrkoFVyjdu/Jxyyilu88039+NQ5piyyWQGlbbXnoElg0qMlN2kLDFx0fFGXfqbjvmp0Puaa67pDa7ob5Vm+qxZszyjm266yY0fP96tt956C90qpqqBpr6UfaVjlrvttptbfPHFW+6NM9KXJDXnBg8eXLbb6EuK0naPPfYoxiIkylYEMLCYEIUmwIucLfnR04ae6IiONgjYiIL1aEPHKAr0tKVnHtFExs0SSyzhv9qnr8oNGzbMd60sIRlAMk5kPCjLShlOyuD58ssvfSaNDJOePXv6+9szWGrNwFLb+mLgpEmTvImiryLK1FI9KtVSUjaVxh9dMlVuv/12/891j4qMa/zKbNIRNV377befO/roo1tMubYMrLhJo7hL29N/l0k2btw4t80227jjjz/edevWzfdTia+O3ymrTPx0xeNSrFGWUjVHCNWOstGUDXbnnXf6rzaqTpfMu+iLkRqrTLhBgwYlml4yrv7f//t/3iysZCjpq4yqAXbiiSc6HeGM4pGJFX31UP9Mtcx0TzkjTH+P6njddttt7sorr3T9+/dPNEZuskUAA8uWnkRTJQFe5KoEFvjt6Bm4QAmHh44JQQV+GzoGLlDC4aFjQlBNcht6NolQAQ0zqhV1/fXXe/MhKkQeZTMpe+aGG25wd9xxh3vhhRe8KaLi2zK6hg4d6s2R6MrKwFp22WW96XLPPfe4q666yhtlQ4YM8VlhpWOIxiLTSUcP//KXv7j777/fPyOTS8/ttdde3sDp2LFjy9jbK+Iuk0aGno4mPvLII97AUxaRjuEp20nG3kEHHeQznS644AJf3F1XW3x1rE5H5i6//HKfNabxyQBTVpiOR6rdag0s9akxyOy77rrrfLsa69prr+1NNummLyYmvV555RWfZSdelb4EGbX10Ucfub/+9a9u4sSJ7plnnvHmYcR822239VpFWXzl+o/qly233HLurLPOapXFlXS83Nf8BDCwml9DIqiDAC9ydcAL8FH0DFCUGoaEjjVAC/ARdAxQlBqGhI41QAv4EfQMWByGVjWB9gyxqhvkgaoJRDXFZLRFdcaqbiThA8riUu2rM8880xttXMUkgIFVTN2J+n8J8CJnayqgpw090REdbRCwEQXr0YaOURToaUvPokeDgRXGDIiKwyvDLKoZlvbIlKmmgvqqr/bnP//ZKeuOq5gEMLCKqTtRY2CZnAO8mNuQFR3R0QYBG1GwHm3oiIFlS0ei+S8BDKwwZoKysFS0X3XHsjKXIpPst7/9bUsNtjCiZxR5E8DAyps4/QVFgBfzoOSoezDoWTfCIBpAxyBkqHsQ6Fg3wiAaQMcgZEhtEOiZGkoaCoAABlYAIvzvEKKvUupo38iRI/0XE9O6VLNL9bVmzpzpi9rHv2CYVh+00zwEMLCaRytGmgEBXuQygNrAJtGzgfBT7BodU4TZwKbQsYHwU+waHVOEGUBT6BmACAwhNQIYWKmhTKUhfR3wsssu81lY+iJlWteDDz7o616dffbZrm/fvmk1SztNSgADq0mFY9jpEOBFLh2OobSCnqEoUd840LE+fqE8jY6hKFHfONCxPn6hPY2eoSnCeCAAAQhAoBoCGFjV0OJecwR4kbMlKXra0BMd0dEGARtRsB5t6BhFgZ629CQaCEAAAkUjgIFVNMWJtxUBXuRsTQj0tKEnOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxewK8mNuaCOhpQ090REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oSMGli0diQYCEIBAUQlgYBVVeeLGwDI4B9ho2RAVHdHRBgEbUbAebeiIgWVLR6KBAAQgUFQCGFhFVZ64MbAMzgE2WjZERUd0tEHARhSsRxs6YmDZ0pFoIAABCBSVAAZWUZUnbgwsg3OAjZYNUdERHW0QsBEF69GGjhhYtnQkGghAAAJFJYCBVVTliRsDy+AcYKNlQ1R0REcbBGxEwXq0oWMzGljzFzj37Bvz3Kvvzneug3P9vtPRrd+nk/4jFwQgAAEIFJQABlZBhSfs/xLgxdzWTEBPG3qiIzraIGAjCtajDR2bycB648P57tZn5rg7J88tC3+H9Tq7n2zQxa28TEdb4hANBCAAAQi0SwADq11E3GCZAC/mttRFTxt6oiM62iBgIwrWow0dm8XAuvTvs911j89JBH3kxl3cvpt1TXQvN0EAAhCAgA0CGFg2dCSKGgnwYl4juEAfQ89AhalyWOhYJbBAb0fHQIWpcljoWCWwwG8PWc+Tbp3l/v5S+ayrSli3+F5nd+z/dAucOsODAAQgAIG0CGBgpUWSdpqSQMgvck0JtMGDRs8GC5BS9+iYEsgGN4OODRYgpe7RMSWQgTQTqp73vzjXnXzbrJoo/Xanbm6ztTrX9CwPQQACEIBAcxHAwGouvRhtygRCfZFLOczCNIeeNqRGR3S0QcBGFKxHGzpGUYSq5/6XzXT//mB+TbBXW66ju3jfHjU9y0MQgAAEINBcBDCwmksvRpsygVBf5FIOszDNoacNqdERHW0QsBEF69GGjiEbWE++Ps8de/03dYE+bbfuboNVOtXVBg9DAAIQgED4BDCwwteIEWZIgBfzDOE2oGn0bAD0DLpExwygNqBJdGwA9Ay6RMcMoDawyRD1POeeWRW/OJgU1f+s38Ud+mMKuiflxX0QgAAEmpUABlazKse4UyEQ4otcKoEVtBH0tCE8OqKjDQI2omA92tAxiiJEPXe/4Gv33mcL6gL93SU7uqsO5BhhXRB5GAIQgEATEMDAagKRGGJ2BEJ8kcsuWvsto6cNjdERHW0QsBEF69GGjqEaWAsWODf01K+c/r2eq3Mn5+49etF6muBZCEAAAhBoAgIYWE0gEkPMjgAv5tmxbUTL6NkI6un3iY7pM21Ei+jYCOrp94mO6TNtZIsh6jnqwpnu7U9rK+AesVxp6Y7uitFkYDVybtE3BCAAgTwIYGDlQZk+giUQ4otcsLCaYGDo2QQiJRgiOiaA1AS3oGMTiJRgiOiYAFIT3RKinudPnO1ufnpOXRR3+X4XN2YLamDVBZGHIQABCDQBgaANrK+++spdddVV7vrrr3cPPvigW3nlld2WW27pDjnkENe/f3/XoUOHsoinTZvmzj33XHfXXXe5V155xQ0cONCNGDHC7bvvvq5nz55ln/nwww/d2LFj3Q033OAmT57s+vXr57bbbjvfV+/evZtASoZYC4EQX+RqiYNn/ksAPW3MBHRERxsEbETBerShYxRFiHpOeXOeO/ya+r5C+Kc9u7u1e/EVQluzlWggAAEILEwgWAPr/fff9+bRjTfe6JZaaik3YMAAN3PmTPfEE0+4xRdf3J188sluzJgxrnPnzq2iev755/0/f/LJJ70J1atXLzd16lQ3ffp0t9VWW7nzzjvP9e3bt9Uzb731ln9GhpdMMv19xowZ3vxSvxdeeKEbPHgw88cggRBf5Axizi0k9MwNdaYdoWOmeHNrHB1zQ51pR+iYKd7cGw9Vz0Ov+sa9+Na8mnj0X6mTO2eP7jU9y0MQgAAEINBcBII0sObOneuOP/54b1IdeOCB7rTTTvOm1YIFC9wzzzzjja333nvPTZgwwW2wwQYtxJVFNXr0aDdp0iR3zjnnuL322ssbXMrkOuOMM9wJJ5zgDj74YHf66ae7Hj3+e05epthRRx3lja3f/e53/j/rb7NmzXLXXHONO+yww3zW18UXX1wxe6u5JGe0cQKhvsihUm0E0LM2bqE9hY6hKVLbeNCxNm6hPYWOoSlS33hC1fOJ1+a5X99QWxbWKbt2dxutSvZVfTODpyEAAQg0B4EgDSxlPu26666ue/fubvz48a5Pnz6taMpMUsaUDK5f/epXLX+7+eab3fDhw92hhx7qTapu3bq1/O2LL77wxtfEiRPdrbfe6jbaaCP/t6eeesrttNNObtCgQf4I4ZJLLtnyTNxIu+mmm9ywYcOaQ1VGmZhAqC9yiQPgxlYE0NPGhEBHdLRBwEYUrEcbOkZRhKznn++d7W57trpaWD/ZoIs7eCtqX9mapUQDAQhAoDKBIA2s5557zmdLrbXWWv7fu3Zt/T9M1157rdtjjz3ckUce6f7whz+4Ll26uNmzZ7tjjjnGZ17dd999bujQoQtFrXpayso6++yzfWaVLt1/+OGHu4suushnb5VeDz30kNt00039/aeeeupCY2FyNTeBkF/kmptsY0aPno3hnnav6Jg20ca0h46N4Z52r+iYNtHGthe6njc9NcddMGl2IkgHD+3qfrJhl0T3chMEIAABCNggEKSB1RbaeFbUZZdd5guz6/r000/dnnvu6d58801fiH2NNdZYqJlHH33UDRkyxBtVMq5UBP6II45wF1xwgS8Sv8kmmyz0TJQNtvzyyzsZZ0svvbQN5YnCEwj9RQ6ZqiOAntXxCvVudAxVmerGhY7V8Qr1bnQMVZnaxtUMev5n5gJ367Nz3f0vzHUzPpnfKtCVlu7otli7s9tp/c5use7lP+ZUGxmeggAEIACBZiDQNAaW6l+98847/uuCMpx+9KMf+bpUyy23nOesIu0jR470/3ncuHG+GHvpVWpGqT7Wfvvt52Rs3XHHHW799ddf6JmPP/7Y7b777r7mlr6GqMLwXHYINMOLnB3a2UeCntkzzqMHdMyDcvZ9oGP2jPPoAR3zoJxfH82m5/SP5rtX353vXAfnVl++o1t5mY75waInCEAAAhAIjkBTGFhR5lREb//993cnnnhii3mlf54kU6r0Hj3XnjmFgRXcnE11QM32Ipdq8AYbQ08boqIjOtogYCMK1qMNHaMo0NOWnkQDAQhAoGgEmsLAuvPOO33dKl1Tpkxxn3zyidt+++39P+vbt6//5yEbWNHLQtEmF/FCAAIQgAAEIAABCECgEQTKnaxoxDjoEwIQgAAE0iPQFAZWPNwPP/zQf2HwzDPPdD/5yU/8McKePXtiYKU3J2gJAhCAAAQgAAEIQAACTU0AA6up5WPwEIAABMoSaDoDS1GoYLuKt99yyy3utttuczvuuKOvj6XjgLpUbH2FFVZYKOAoS2vFFVd0V199tVMNrIMOOsg98cQTbsKECa5///4LPRMdIfzoo4/cdddd51ZbbTWmkiECpNIbEpOi/GbEZF3akBId0dEGAVtRsC5t6Uk0EIAABIpGoCkNLImkGljHHXecP0Z42GGH8RXCos3clOLlRS4lkIE0g56BCFHnMNCxToCBPI6OgQhR5zDQsU6AgT2OnoEJwnAgAAEIQKAqAkEaWBdeeKG76qqr3M9+9jM3evTohQLSFwlPOOEE/68rr7zSjRo1ys2ePdsdc8wx7pxzznH33XefGzp06ELP6bjhmDFjWkwv3aD7Dz/8cHfRRReV7WvixIluq6228ibZqaee6rp27VoVYG4OmwAvcmHrU+3o0LNaYmHej45h6lLtqNCxWmJh3o+OYepS66jQs1ZyPAcBCEAAAiEQCNLAikwj1bgaO3asW3LJJVuxevvtt92ee+7pXn75ZXfrrbe6jTbayP/95ptvdsOHD3eHHnqor5PVrVu3lue++OILd8ghhzi1HX/mqaeecjvttJMbNGjQQn3NnTvXHX/88e7kk092N910kxs2bFgImjGGFAnwIpcizACaQs8AREhhCOiYAsQAmkDHAERIYQjomALEgJpAz4DEYCgQgAAEIFA1gSANLNW4UubVjTfe6A2kI4880i266KI+uGnTprljjz3WjR8/3h188MHeqOrRo4f/mwq867lJkyb5zKo99tjDm1hfffWVO+OMM3zGlv6uv0XPzJw50x111FHuvPPOa9XXrFmz3DXXXOMzrzbffHN36aWXumWXXbZqwDwQNgFe5MLWp9rRoWe1xMK8Hx3D1KXaUaFjtcTCvB8dw9Sl1lGhZ63keA4CEIAABEIgEKSBJTAquK5C7Y8++qhbaqml3IABA5zMJhVc16UMrLPOOst/gTB+Pf744+7AAw90U6ZMcf369XO9evVyU6dOddOnT/dHAWVU9e3bt9Uz+rvMMB09XHnllf3fZ8yY4cegfnWkcfDgwSHoxRhSJsCLXMpAG9wcejZYgJS6R8eUQDa4GXRssAApdY+OKYEMpBn0DEQIhgEBCEAAAjURCNbAUjT6AqAyrfSFwAcffNAbWVtssYXbZ599fFZU/IhgPHplaZ177rnurrvu8ibUwIED3YgRI7whVmp4Rc8pe0vHFW+44QY3efJkb35tt912/thh7969a4LLQ+ET4EUufI2qGSF6VkMr3HvRMVxtqhkZOlZDK9x70TFcbWoZGXrWQo1nIAABCEAgFAJBG1ihQGIcdgnwImdLW/S0oSc6oqMNAjaiYD3a0DGKAj1t6Uk0EIAABIpGAAOraIoTbysCvMjZmhDoaUNPdERHGwRsRMF6tKEjBpYtHYkGAhCAQFEJYGAVVXni9gR4Mbc1EdDThp7oiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACA25qeAAAIABJREFUECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1qMNHTGwbOlINBCAAASKSgADq6jKEzcGlsE5wEbLhqjoiI42CNiIgvVoQ0cMLFs6Eg0EIACBohLAwCqq8sSNgWVwDrDRsiEqOqKjDQI2omA92tARA8uWjkQDAQhAoKgEMLCKqjxxY2AZnANstGyIio7oaIOAjShYjzZ0xMCypSPRQAACECgqAQysoipP3BhYBucAGy0boqIjOtogYCMK1mPYOs6e61zXzsnHiJ7JWXEnBCAAAQiERwADKzxNGFGOBHiRyxF2Dl2hZw6Qc+gCHXOAnEMX6JgD5By6QMccIFfZxT9nzHMPvTzPPfLKXPfBFwvcIt06uIErd3SDVuvshq7T2XXpVLlB9KwSNrdDAAIQgEBQBDCwgpKDweRNgBe5vIln2x96Zss3r9bRMS/S2faDjtnyzat1dMyLdPv9PD99nrvm0Tlu8rR5FW9erHsHt+ugLm7kxl3K3oOe7XPmDghAAAIQCJcABla42jCyHAjwIpcD5By7QM8cYWfYFTpmCDfHptExR9gZdoWOGcKtoumxD8x24x6bk/iJ1b/T0f1uWHe33Lc7tHoGPRMj5EYIQAACEAiQAAZWgKIwpPwI8CKXH+s8ekLPPChn3wc6Zs84jx7QMQ/K2feBjtkzbq+Hh16e6064eVZ7ty3098F9O7mTdumOgVU1OR6AAAQgAIFQCWBghaoM48qFAC/muWDOrRP0zA11ph2hY6Z4c2scHXNDnWlH6Jgp3kSN73PJTDf9o/mJ7i296Tc7dXObr/V/Vd7RsyaMPAQBCEAAAoEQwMAKRAiG0RgCvMg1hntWvaJnVmTzbRcd8+WdVW/omBXZfNtFx3x5l/Y26YW57pTbq8++itpZe8VO7k+j/i8LCz0bqye9QwACEIBAfQQwsOrjx9NNToAXuSYXsGT46GlDT3RERxsEbETBemysjsde/4178vXKRduTjO7S/Xq4VZbt6G9FzyTEuAcCEIAABEIlgIEVqjKMKxcCvMjlgjm3TtAzN9SZdoSOmeLNrXF0zA11ph2hY6Z422x83nzntjr1q7oHMGaLrm6X7//3q4ToWTdOGoAABCAAgQYSwMBqIHy6bjwBXuQar0GaI0DPNGk2ri10bBz7NHtGxzRpNq4tdGwc+5ffme8O+svMugew2Vqd3W936oaBVTdJGoAABCAAgUYTwMBqtAL031ACvJg3FH/qnaNn6kgb0iA6NgR76p2iY+pIG9IgOjYEu+906nvz3ZjL6zewtlqnszt6BwysxilJzxCAAAQgkBYBDKy0SNJOUxLgxbwpZas4aPS0oSc6oqMNAjaiYD02VsctTq7/COEhP+7qdlqfI4SNVZLeIQABCEAgDQIYWGlQpI2mJcCLedNKV3bg6GlDT3RERxsEbETBemysjifcPMs99PLcugZx1Zge7rtLUcS9Log8DAEIQAACQRDAwApCBgbRKAK8mDeKfDb9omc2XPNuFR3zJp5Nf+iYDde8W0XHvIm37u+RV+e54yd8U/MgNlylkzt1t+4tz6NnzSh5EAIQgAAEAiCAgRWACAyhcQR4kWsc+yx6Rs8sqObfJjrmzzyLHtExC6r5t4mO+TMv7fGQK2e6l96eX9NATtm1u9to1U4YWDXR4yEIQAACEAiNAAZWaIownlwJ8GKeK+7MO0PPzBHn0gE65oI5807QMXPEuXSAjrlgbrOT56bNc0eOqz4La+g6nd0x/1u8PeoAPRuvJyOAAAQgAIHaCWBg1c6OJw0Q4EXOgIixENDThp7oiI42CNiIgvUYho43Pz3HnT9xduLBDFqtk/v1Tt3cIl07tHoGPRMj5EYIQAACEAiQAAZWgKIwpPwI8CKXH+s8ekLPPChn3wc6Zs84jx7QMQ/K2feBjtkzTtrDmx/Pd9c+OsdNeqFyUffey3R0IwZ1cT/u37lss+iZlDb3QQACEIBAiAQwsEJUhTHlRoAXudxQ59IReuaCOfNO0DFzxLl0gI65YM68E3TMHHHVHbz72QL38Mtz3eTp89xr781331qkg1t3pU5uUN9OTkXb27rQs2rcPAABCEAAAgERwMAKSAyGkj8BXuTyZ55lj+iZJd382kbH/Fhn2RM6Zkk3v7bRMT/WefSEnnlQpg8IQAACEMiKAAZWVmRptykI8CLXFDIlHiR6JkYV9I3oGLQ8iQeHjolRBX0jOgYtT9WDQ8+qkfEABCAAAQgERAADKyAxGEr+BHiRy595lj2iZ5Z082sbHfNjnWVP6Jgl3fzaRsf8WOfRE3rmQZk+IAABCEAgKwIYWFmRpd2mIMCLXFPIlHiQ6JkYVdA3omPQ8iQeHDomRhX0jegYtDxVDw49q0bGAxCAAAQgEBABDKyAxGAo+RPgRS5/5ln2iJ5Z0s2vbXTMj3WWPaFjlnTzaxsd82OdR0/omQdl+oAABCAAgawIYGBlRZZ2m4IAL3JNIVPiQaJnYlRB34iOQcuTeHDomBhV0DeiY9DyVD049KwaGQ9AAAIQgEBABDCwAhKDoeRPgBe5/Jln2SN6Zkk3v7bRMT/WWfaEjlnSza9tdMyPdR49oWcelOkDAhCAAASyIoCBlRVZ2m0KArzINYVMiQeJnolRBX0jOgYtT+LBoWNiVEHfiI5By1P14NCzamQ8AAEIQAACARHAwApIDIaSPwFe5PJnnmWP6Jkl3fzaRsf8WGfZEzpmSTe/ttExP9Z59ISeeVCmDwhAAAIQyIoABlZWZGm3KQjwItcUMiUeJHomRhX0jegYtDyJB4eOiVEFfSM6Bi1P1YNDz6qR8QAEIAABCAREAAMrIDEYSv4EeJHLn3mWPaJnlnTzaxsd82OdZU/omCXd/NpGx/xY59ETeuZBmT4gAAEIQCArAhhYWZGl3aYgwItcU8iUeJDomRhV0DeiY9DyJB4cOiZGFfSN6Bi0PFUPDj2rRsYDEIAABCAQEAEMrIDEYCj5E+BFLn/mWfaInlnSza9tdMyPdZY9oWOWdPNrGx3zY51HT+iZB2X6gAAEIACBrAhgYGVFlnabggAvck0hU+JBomdiVEHfiI5By5N4cOiYGFXQN6Jj0PJUPTj0rBoZD0AAAhCAQEAEMLACEoOh5E+AF7n8mWfZI3pmSTe/ttExP9ZZ9oSOWdLNr210zI91Hj2hZx6U6QMCEIAABLIigIGVFVnabQoCvMg1hUyJB4meiVEFfSM6Bi1P4sGhY2JUQd+IjkHLU/Xg0LNqZDwAAQhAAAIBEcDACkgMhpI/AV7k8meeZY/omSXd/NpGx/xYZ9kTOmZJN7+20TE/1nn0hJ55UKYPCEAAAhDIigAGVlZkabcpCPAi1xQyJR4keiZGFfSN6Bi0PIkHh46JUQV9IzoGLU/Vg0PPqpHxAAQgAAEIBEQAAysgMRhK/gR4kcufeZY9omeWdPNrGx3zY51lT+iYJd382kbH/Fjn0RN65kGZPiAAAQhAICsCGFhZkaXdpiDAi1xTyJR4kOiZGFXQN6Jj0PIkHhw6JkYV9I3oGLQ8VQ8OPatGxgMQgAAEIBAQAQysgMRgKPkT4EUuf+ZZ9oieWdLNr210zI91lj2hY5Z082sbHfNjnUdP6JkHZfqAAAQgAIGsCGBgZUWWdpuCAC9yTSFT4kGiZ2JUQd+IjkHLk3hw6JgYVdA3omPQ8lQ9OPSsGhkPQAACEIBAQAQwsAISg6HkT4AXufyZZ9kjemZJN7+20TE/1ln2hI5Z0s2vbXTMj3UePaFnHpTpAwIQgAAEsiKAgZUVWdptCgK8yDWFTIkHiZ6JUQV9IzoGLU/iwaFjYlRB34iOQctT9eDQs2pkPAABCEAAAgERwMAKSAyGkj8BXuTyZ55lj+iZJd382kbH/Fhn2RM6Zkk3v7bRMT/WefSEnnlQpg8IQAACEMiKAAZWVmRptykI8CLXFDIlHiR6JkYV9I3oGLQ8iQeHjolRBX0jOgYtT9WDQ8+qkfEABCAAAQgERAADKyAxGEr+BHiRy595lj2iZ5Z082sbHfNjnWVP/7+9s4G3qqrz/p+3C0jaIEG+EVQSlgWShhAGOQpWaBE4aL5moGCAPeIDQ2YhzRORGlSQgMRMKr4REL4wJuAopKGUIjWlRCkKGoovCeHlXi7c57O2cxjg3svZ55x99ln7t77n8+kzU3fvtdf/+13rstbv7r0PHstJN7228Zge6zSuhM80KHMNCEAAAhAoFwECrHKRpd1MEGAhlwlNsTuJz9iovD4Qj17rid05PMZG5fWBePRaT8Gdw2fByDgBAhCAAAQ8IkCA5ZEMupI+ARZy6TMv5xXxWU666bWNx/RYl/NKeCwn3fTaxmN6rNO4Ej7ToMw1IAABCECgXAQIsMpFlnYzQYCFXCY0xe4kPmOj8vpAPHqtJ3bn8BgbldcH4tFrPQV3Dp8FI+MECEAAAhDwiAABlkcy6Er6BFjIpc+8nFfEZznpptc2HtNjXc4r4bGcdNNrG4/psU7jSvhMgzLXgAAEIACBchEgwCoXWdrNBAEWcpnQFLuT+IyNyusD8ei1ntidw2NsVF4fiEev9RTcOXwWjIwTIAABCEDAIwIEWB7JoCvpE2Ahlz7zcl4Rn+Wkm17beEyPdTmvhMdy0k2vbTymxzqNK+EzDcpcAwIQgAAEykWAAKtcZGk3EwRYyGVCU+xO4jM2Kq8PxKPXemJ3Do+xUXl9IB691lNw5/BZMDJOgAAEIAABjwgQYHkkg66kT4CFXPrMy3lFfJaTbnpt4zE91uW8Eh7fpbtrt9nq5+rs6Rf22J+37rXDqsw+0bmF9T6+hfXq0qKcChJpG4+JYPSmEXx6o4KOQAACEIBAEQQIsIqAxik6BFjI6bh0leBTwyce8ahAYGdNvS14fLctfGJ3k+V8qFNz+5dTW9mgT7T0tmTmo7dqiuoYPovCxkkQgAAEIOAJAQIsT0TQjcoQYCFXGe7luio+y0U23XbxmC7vcl0tZI/ujqubltWaC7HifHp/uIVNPLu1tW/XLM7hqR4TssdUQad0MXymBJrLQAACEIBAWQgQYJUFK41mhQALuayYitdPfMbj5PtRePTdULz+hepx8xt77bJbqq0+Xna1D+Zp3VvalGGt48FN8ahQPaaIONVL4TNV3FwMAhCAAAQSJkCAlTBQmssWARZy2fKVr7f4zEcoGz/HYzY85etlqB6/+8saW/VsXT48jf78uiGt7fSP+fU4YageixKYgZPwmQFJdBECEIAABJokQIDF4AiaAAs5Lf341PCJRzxmlcCGv+21r/9HddHd/+gxzW3WV9sWfX45TmQ+loNq5drEZ+XYc2UIQAACECidAAFW6QxpIcMEWMhlWF4jXcenhk884jGrBH66otaW/Lbpl7bHqcsFWC7I8uXDfPTFRDL9wGcyHGkFAhCAAAQqQ4AAqzLcuaonBFjIeSIioW7gMyGQFW4GjxUWkNDlQ/R49k3vWHVtgS+/Ooj3pZ+psks+0yohC6U3E6LH0qn52wI+/XVDzyAAAQhAID8BAqz8jDhCmAALOS25+NTwiUc8ZpHAWzvr7dwfv1Ny10/+YAu74SttSm4nqQaYj0mR9KMdfPrhgV5AAAIQgEBxBAiwiuPGWSIEWMiJiPyfMvCp4ROPeMwigb/9vd4uurn0AOsTnVvYjy4mwMriGMhCn/n9mgVL9BECEIAABJoi4HWA9cYbb9hdd91lixYtslWrVkU1DBgwwM477zy75JJLrF27do3WtWnTJps5c6YtW7bMNmzYYL169bLhw4fbiBEjrGPHjo2es23bNps/f74tXLjQ1q1bZ927d7fBgwfbuHHjrGvXrowgUQIs5LTE4lPDJx7xmFUCg6bttD17S+v9ub1b2ZVnVpXWSIJnMx8ThOlBU/j0QAJdgAAEIACBogl4G2C54MkFTo8//rgdeeSR1rNnz6jI9evX25tvvmmDBg2yWbNmWbdu3Q4o/plnnrHRo0fbk08+GYVQnTt3to0bN9qLL77Y5DlbtmyJznGBV5cuXaI2N2/eHIVf7rqzZ8+2vn37Fg2ZE/0lwELOXzfF9AyfxVDz7xw8+uekmB6F6PH799XYyv+uKwbXvnO+f14b6/3hFiW1keTJIXpMkp9vbeHTNyP0BwIQgAAECiHgZYC1ffv26M6n2267zSZPnmwTJkzYd7eVu1PqW9/6ls2bN89GjRplM2bMsLZt3/3Kafcz97+tXLky+t8vvfRSa9mype3cudNuvPFGmzJlio0dO9ZuuOGGfedUV1fbxIkTozDs+uuvj/5/115NTY0tWLDArr76ajvzzDNt7ty5Td69VQhwjvWLAAs5v3yU2ht8lkrQj/Px6IeHUnsRoscn/rLHvrVwV9Ho3v/eZnbnmMOKPr8cJ4bosRwcfWkTn76YoB8QgAAEIFAMAS8DLPeP6znnnGN9+vSJHutr3779AbW9/PLLdvHFF5u7c8o9XtijR4/o50uWLLFhw4bZVVddFYVUrVu33ndeLhRbsWKFLV261Hr37h39bO3atTZkyJBGr1VXVxcFaFOnTrXFixfb0KFDi2HMOR4TYCHnsZwiuobPIqB5eAoePZRSRJdC9Tju1mr708vFPUc46owqG36qP99A6LSH6rGIIZ+JU/CZCU10EgIQgAAEmiDgZYB177332rRp0+wLX/iCffvb327QdXfXlLszyt0V9dhjj1m/fv2strbWJk2aFN15tXz5chs4cGCD89wdXe6urOnTp0fnu487fvz48TZnzpzo7q2DP6tXr47eu+WOd32qqvLnvRSM6tIJsJArnaFPLeDTJxvF9wWPxbPz6cxQPf72+T026e7C78Lq3KG5/XzUu3eU+/QJ1aNPDpLsCz6TpElbEIAABCCQNgEvA6x8EHbs2GFjxoyx22+/fV+A9dZbb0V3Zb300kvRi9hPOOGEBs2492mddtpp+x49bNasmV1zzTV28803Ry+J79+/f4Nz3Huw3EvjjzrqKLvjjjusQ4cO+brHzzNEgIVchmTF6Co+Y0DKwCF4zICkGF0M2eN/rKq1BY/vjkHp3UM6vKeZfefLre3jnf1591Wu8yF7jC0wQwfiM0Oy6CoEIAABCDQgkMkAK/fY34knnhi9J+voo4+OXtJ+wQUXRAXeeeed0cvYD/4cHEa592ONHDkyelH8/fffbyeffHKDc9w3IV544YW2detWu+eee6IXw/PRIcBCTselqwSfGj7xiEcFAs+8uMdue2y3rX9xzyHLGXJKK/vagFbWrnUzL8tmPnqppehO4bNodJwIAQhAAAIeEMhcgPXqq69Gd1C5xwxvueWWKIByd1LFuVPq4GMc/3zhFAGWB6O0jF1gIVdGuBVoGp8VgF6GS+KxDFAr0CQe34XugqxHn62zR5/dYzuq66P/7cTjWlif41vYmR9vaZ2O8DO4yg0ZPFZg8pTxkvgsI1yahgAEIACBshPIVIDlvmXQPfLnHh38+te/Hr2ovV27dhEkAqyyjxXJC7CQ09KKTw2feMSjBoGGVWyvro/utGrRPDsVMh+z4ypOT/EZhxLHQAACEICArwQyE2C5RwTdi9R/+ctf2uWXXx69UP3II4/cx9XnACu3WPB1ENAvCGSZwPaalvbn19vZlu1tojKOO2KXdeuw097bpi7LZdF3CEAAAhCAAARKINDYq0FKaI5TIQABCEDAAwKZCLCefvppu+qqq6J3VY0bN86+973v2eGHH34AvldeeSV6HNB93MvWjznmmAZ4cyHXcccdF93F5d6B5V4G/8QTT9iiRYusR48eDc7JPUL4+uuv2913323HH398wdoIsApGxgkQyEvgr28eZo+92N7++NqBvwtyJ36s0z+s3wfeisIsPhAolMDuPc3s5R1trGXz+igU5QMBCEAAAtkiQICVLV/0FgIQgEAcAl4HWPX19dEdV+PHj7c333zTrrvuOvvGN75hrVu3blAb30IYRzfHHEyAW+mzNyZq6sxmPlRjD66Pd4fVWT1a2rhBVda2yu/3zGTPRPl6XMl5+av1dfZff6qzp1448MXb/U9oGb2vqN9H/PuWuPKZKK3lSnosreecvT8BPGqNB3xq+aQaCEAAAqER8DbA2rt3b/Rtgu5dV+5RwRtvvNGGDRtmzZs3/uKI2tpamzRpks2YMcOWL19uAwcObOBy7ty5Nnr0aJs+fXr0OKL7uONdQDZnzpzo5fAHf1asWGGDBg2KjnePLVZVVYU2RqTrZSGXPb3XLtxlT/7l0N/qdXBVn/pQC5t2/ruPGPLxn0Al5uXDf6yzW1fvtpff2ntIQCce19wu619lvboSZOUbSZXwmK9P/LxwAngsnJnPZ+DTZzv0DQIQgAAE8hHwMsByd17dddddUdjkHgV04dKAAQOibxs81GfJkiVRyOUeN3QveN//Tq3t27dHjx+6QGrp0qXWu3fvqKm1a9fakCFDrE+fPjZ//nxr3779vkvU1dXZ5MmTberUqbZ48WIbOnRoPp78PGMEWMhlS9h/PlNnP/zPmqI6ffXnW9vZvVoWdS4npUsg7Xk5e2WtLVq7u6Aiv3FWlX3x5FYFnRPawWl7DI1vWvXiMS3S6VwHn+lw5ioQgAAEIFAeAl4GWBs3brSLL77Ytm7dareSYtnJAAAgAElEQVTeemsUXsX5uG8pdHdRrVy5Mrqz6qKLLopCrJ07d0Z3cE2ZMiX6uftZ27Ztoyarq6tt4sSJNmvWrCismjBhQvTNhjU1NbZgwYLozqvTTz/d5s2bZ506dYrTDY7JEAEWchmSZWaXzqm2LW8e+g6Zpio6pn0zu/3Kw7JVcKC9TXNerv3rHvvmPcW948qNJzeu+DROIE2POCgfATyWj20lWsZnJahzTQhAAAIQSIqAdwGWu/vKvaT929/+dqwaH3vsMevXr9++Y9esWWNXXnmlrV+/3rp3726dO3c2F4i5bzF0jwK6oKpbt24HtO1+Pnbs2OjRwy5dukQ/37x5s7mXvvfs2dNmz55tffv2jdUfDsoWARZy2fH1+J/32HcWFRc05Kq8flhr+0x37sLy3Xqa8/Kq23bZH7cU9khqjt/ne7a0/zu44TsZfeebVv/S9JhWTSFeB49a1vGp5ZNqIAABCIRGwLsA6+2337aRI0dG3woY53NwgOXO2bRpk82cOdOWLVsWhVC9evWy4cOH24gRI6xjx46NNuvu3nKPEC5cuNDWrVsXhV+DBw+OHjvs2rVrnK5wTAYJsJDLjrSblsV/cXtTVbkXuk88m8DBd+tpzUv3ovaJd5UWit4z7jB73+HchdXYmErLo+/jOev9w2PWDR7Yf3xq+aQaCEAAAqER8C7ACk0A9VaWAAu5yvIv5OoX3vyObf17fSGnNDi24xHN7O6xPEZYEsQUTk5rXs54sMYeWBfv2yybKnvsoCr78im8C4sAK4WJUaFLpDUfK1RecJfFZ3DKKRgCEICAFAECLCmdFFMoARZyhRKr3PFfuGGn1ZSWNVjL5mYPTWpXuSK4ciwCac3LYT96x/7+TmmhaL+PtLDvnss3XBJgxRramTworfmYSTgZ7DQ+MyiNLkMAAhCAwD4CBFgMhqAJsJDLjv6R86rthW3FvcA9V+UHOjS3/xj17hc48PGXQBrz8h+76u1L098pGcL739vM7hzDXX0EWCUPJW8bSGM+elu8YMfwKSiVkiAAAQgERIAAKyDZlNqQAAu57IyK+Y/W2p2/2V1Sh8/v28ouP72qpDY4ufwE0pqXn/vBTttd3Pvb90H4yNHNbfZl2QtFXYDnvoHx2Vf22o5d9faRo5pbr64t7IMdmycmOC2PiXWYhholgEetgYFPLZ9UAwEIQCA0AgRYoRmn3gMIsJDLzoDYuHWvjf736pI6/NOvtrUTjklug15SZzi5SQJpzctJd++y3z5fWoI1/NRWNuqM7ISif3l1ry1eu9uW/6Hx53E/dmxz+9LJrezMj5f+bZ1peWQqlZcAHsvLN+3W8Zk2ca4HAQhAAAJJEiDASpImbWWOAAu5bCm79p5d9uRfiwscTvlQC/vB+byrKAvG05qX9z61237yUG1JSKZf2MZ6dmlRUhtpnfyzR2rtrjXx7mI8+YMtbMzAKuvyvuID37Q8psUv1OvgUcs8PrV8Ug0EIACB0AgQYIVmnHoPIMBCLlsD4o9b9thVt+0qqtMzLmpjPT6QjaChqAKFTkprXlbX1tvZNxX/Hiz32N3sr2Xj8cGfrqi1Jb+NF17lhtLR/9TMfnb5YdamyC9ZTMuj0ND3shQ8eqml6E7hs2h0nAgBCEAAAh4QIMDyQAJdqBwBFnKVY1/slX++utZuf6ywjfiF/VrZ1wZk5zGvYtmonJfmvLzt17V2668LG085ztcNaW2nf6z0R+3K7W39S3ts/ILigt+hn2oV3YlVzCdNj8X0j3PiEcBjPE5ZOQqfWTFFPyEAAQhAoDECBFiMi6AJsJDLpv5H/lRn/7F6t7385qG/lfCY9s3tsv6t7J9P9D9kyKaJ8vQ67Xl5xfxq++urhX3D5WdOaGnXD21dHgAJt3rdL3bZmo3FPXrruuK+ZdF922Khn7Q9Fto/jo9HAI/xOGXlKHxmxRT9hAAEIAABAizGAAQOIsBCLttD4j+fqbOH/1hnz7x44Oa85wda2Bkfb2mDTyK4yqLhtOfl3/5ebzOX19iTf4kX8nzhpJZ21VmtrVUGnkjd8uZeu3ROaV9+8NX+VXbxaYU/R5i2xyyO9Sz0GY9ZsBS/j/iMz4ojIQABCEDAPwLcgeWfE3qUIgEWcinCLuOl/rGr3v68da/9+c8b7bgjdtlpfU4q49VoutwEKjUv/+tPdbb0d3Xm3rXW2KdvtxbmHqn7ZNcMJFf/U8Citbtt9srSXlT/kaOb2+zLCn/XV6U8lnt8htY+HrWM41PLJ9VAAAIQCI0AAVZoxqn3AAIs5LQGBD41fFba4/Ov7bWnN+2xDa/stdatzE44poW5b7E8qojH6Cpt5PolNfbr5+pK7sb91xxmh7Uu7DHCSnssuWgaiAjgUWsg4FPLJ9VAAAIQCI0AAVZoxqmXAEt4DLAw15CLx+Q8jvl5tT33SmHv92rs6v9+RVvr8r7mBXUMjwXh8vZgPHqrpqiO4bMobJwEAQhAAAKeECDA8kQE3agMARZyleFerqvis1xk020Xj8nxnv5gjS1bV/odWA9f267gTuGxYGRenoBHL7UU3Sl8Fo2OEyEAAQhAwAMCBFgeSKALlSPAQq5y7MtxZXyWg2r6beIxOebuvV7fW1pTUoPu3V//71/aFNwGHgtG5uUJePRSS9GdwmfR6DgRAhCAAAQ8IECA5YEEulA5AizkKse+HFfGZzmopt8mHpNjvnuP2ZDpO23X7uLb/NdzWtugTxT+jZ54LJ65T2fi0ScbpfcFn6UzpAUIQAACEKgcAQKsyrHnyh4QYCHngYQEu4DPBGFWsCk8Jgt/7sO1tvDJ4hKso/6pmd3x9cOK6hAei8Lm3Ul49E5JSR3CZ0n4OBkCEIAABCpMgACrwgK4fGUJsJCrLP+kr47PpIlWpj08Jst9x656+5cfv2PubqxCP/93cGv7fM/C775y18FjobT9PB6Pfnoptlf4LJYc50EAAhCAgA8ECLB8sEAfKkaAhVzF0JflwvgsC9bUG8Vj8sgf/u86m3pfYe/C+uePtbRvDWlddGfwWDQ6r07Eo1c6Su4MPktGSAMQgAAEIFBBAgRYFYTPpStPgIVc5R0k2QN8JkmzMm3V1pk9+Os/Wsd2tfbp3r0q0wnRq/735j02f9Vu+/1L+W/FGjOwyoZ+qlVJJJiPJeHz5mQ8eqMikY7gMxGMNAIBCEAAAhUiQIBVIfBc1g8CLOT88JBUL/CZFMl026murbcH19fZrzfsOSBc+eixze20j7S0s3q0tPbtmqXbKeGr/WbjHlvxhzpb/VzdAVWecExz++xHW9o5n2xlbUrLrqJ2mY8agwiPGh5zVeBTyyfVQAACEAiNAAFWaMap9wACLOS0BgQ+s+fz7jW7bd4jtXk7fmG/Vva1AVV5j+OA+ATq682e+9te27mr3j78/uaJh4TMx/gufD4Sjz7bKbxv+CycGWdAAAIQgIA/BAiw/HFBTypAgIVcBaCX8ZL4LCPcMjR9zR277JkX8z/Olrt0t6Oa241faWOHt+VurDLoSLxJ5mPiSCvSIB4rgr1sF8Vn2dDSMAQgAAEIpECAACsFyFzCXwIs5Px1U0zP8FkMtcqcM+fhWvvFk7sLvvjAT7S0SecU/2Lxgi/ICUUTYD4Wjc6rE/HolY6SO4PPkhHSAAQgAAEIVJAAAVYF4XPpyhNgIVd5B0n2AJ9J0ixfWy++vte+dkt10Rf44YVt7KQuLYo+nxPTIcB8TIdzua+Cx3ITTrd9fKbLm6tBAAIQgECyBAiwkuVJaxkjwEIuY8LydBef2fA5c3mtLf1d4Xdf5aob8NGW9p0vcxeW77aZj74bitc/PMbjlJWj8JkVU/QTAhCAAAQaI0CAxbgImgALOS39+MyGzzOm7iy5o/ddc5i1a827sEoGWcYGmI9lhJti03hMEXYKl8JnCpC5BAQgAAEIlI0AAVbZ0NJwFgiwkMuCpfh9xGd8VpU68k8v77Vxtxb/+GCu3989t431+wiPEVbKY5zrMh/jUPL/GDz676iQHuKzEFocCwEIQAACvhEgwPLNCP1JlQALuVRxl/1i+Cw74pIvcP/Tu+1Hv6otuZ1LPtPKLv1MVcnt0ED5CDAfy8c2zZbxmCbt8l8Ln+VnzBUgAAEIQKB8BAiwyseWljNAgIVcBiQV0EV8FgCrQoc++qc6+7elNSVffczAKhv6qVYlt0MD5SPAfCwf2zRbxmOatMt/LXyWnzFXgAAEIACB8hEgwCofW1rOAAEWchmQVEAX8VkArAoduvXtervwp++UfPVZl7a1jx7bvOR2aKB8BJiP5WObZst4TJN2+a+Fz/Iz5goQgAAEIFA+AgRY5WNLyxkgwEIuA5IK6CI+C4BVwUPH/Lzanntlb9E9eP97m9mdYw4r+nxOTIcA8zEdzuW+Ch7LTTjd9vGZLm+uBgEIQAACyRIgwEqWJ61ljAALuYwJy9NdfGbD571P7bafPFT8e7AuPq2VfbU/77/y3Tbz0XdD8fqHx3icsnIUPrNiin5CAAIQgEBjBAiwGBdBE2Ahp6Ufn9nxedYPdlrdnuL6u3T8YXZ4m2bFncxZqRFgPqaGuqwXwmNZ8abeOD5TR84FIQABCEAgQQIEWAnCpKnsEWAhlz1nh+oxPrPjc/VzdTZlSeEvc//G56rsi5/k5e1ZMM18zIKl/H3EY35GWToCn1myRV8hAAEIQOBgAgRYjImgCbCQ09KPz2z5LPRRwhGfrbILPk14lRXLzMesmDp0P/Go4TFXBT61fFINBCAAgdAIEGCFZpx6DyDAQk5rQOAzez5f215vd63Zbfc9tbvJzg/6REs7v28r6/I+vnUwS4aZj1my1XRf8ajhkQBLyyPVQAACEAiVAAFWqOapOyLAwlxrIOAzuz7fqam3x/+8x36/eY/94YV/WKd2NfbZkzpZ324trH073neVRbPMxyxaa9hnPGp4JMDS8kg1EIAABEIlQIAVqnnqJsASHANstDSk4hGPGgQ0qmA+angkwNLySDUQgAAEQiVAgBWqeeomwBIcA2y0NKTiEY8aBDSqYD5qeCTA0vJINRCAAARCJUCAFap56ibAEhwDbLQ0pOIRjxoENKpgPmp4JMDS8kg1EIAABEIlQIAVqnnqJsASHANstDSk4hGPGgQ0qmA+angkwNLySDUQgAAEQiVAgBWqeeomwBIcA2y0NKTiEY8aBDSqYD5qeCTA0vJINRCAAARCJUCAFap56ibAEhwDbLQ0pOIRjxoENKpgPmp4JMDS8kg1EIAABEIlQIAVqvkE69612+z3L+2x51/ba53e28w+flwL63RENr72noV5ggPBg6bw6YGEBLqAxwQgetAEHj2QkEAX8JgARI+awKdHMugKBCAAAQgUTIAAq2BknJAj8PSmPfbAujpb9WxdAyguxPpcz5b2+Z4tvQbGQs5rPQV3Dp8FI/PyBDx6qaXgTuGxYGRenoBHL7UU3Sl8Fo2OEyEAAQhAwAMCBFgeSMhaF17fUW+zV9bao40EVwfX8uH3N7crTq+yUz7UwssyWch5qaXoTuGzaHRenYhHr3QU3Rk8Fo3OqxPx6JWOkjuDz5IR0gAEIAABCFSQAAFWBeFn8dLbq+tt1Pxqe217fUHdnzKsjZ3W3b8Qi4VcQRq9Pxif3iuK1UE8xsLk/UF49F5RrA7iMRamzByEz8yooqMQgAAEINAIAQIshkVBBG5aVmMPrm/4yGC+Rtq1bmb3jj/Mmnn2aiwWcvnMZevn+MyWr6Z6i0c8ahDQqIL5qOExVwU+tXxSDQQgAIHQCBBghWa8hHo3bt1ro/+9uugWLj+9ys7v26ro88txIgu5clCtXJv4rBz7JK+MxyRpVq4tPFaOfZJXxmOSNCvfFj4r74AeQAACEIBA8QQIsIpnF9yZP/5Vrd339O6i6z6mfXO7/cq2RZ9fjhNZyJWDauXaxGfl2Cd5ZTwmSbNybeGxcuyTvDIek6RZ+bbwWXkH9AACEIAABIonQIBVPLvgzjxj6s6Sa/7xJW3MfUOhLx8Wcr6YSKYf+EyGY6VbwWOlDSRzfTwmw7HSreCx0gaSvT4+k+VJaxCAAAQgkC4BAqx0eWf2as+/ttcu/1nxjw/mCh/52Sr7yqf9eYyQhVxmh2SjHcenhk884lGDgEYVzEcNj7kq8Knlk2ogAAEIhEaAACs040XW+19/rLPv3VtT5Nn/e9oZJ7a0a7/UuuR2kmqAhVxSJP1oB59+eCi1F3gslaAf5+PRDw+l9gKPpRL063x8+uWD3kAAAhCAQGEECLAK4xXs0X99da9dMb/0O7BGfLbKLuAOrGDHUbkLZ2FebsLptI/HdDiX+yp4LDfhdNrHYzqc07oKPtMizXUgAAEIQKAcBAiwykFVtM0k3oH1o4vb2Cc68w4s0SFS8bJYmFdcQSIdwGMiGCveCB4rriCRDuAxEYzeNIJPb1TQEQhAAAIQKIIAAVYR0EI9ZcaDNfbAurqiyz/qn5rZHV8/rOjzy3EiC7lyUK1cm/isHPskr4zHJGlWri08Vo59klfGY5I0K98WPivvgB5AAAIQgEDxBAiwimcX3JnPvbLXxvy8+McIfXt80AlkIac1jPGp4ROPeNQgoFEF81HDY64KfGr5pBoIQAACoREgwArNeIn1/uD+Glv+h8LvwmrTyuy+a9pZi+YldiDh01nIJQy0ws3hs8ICEro8HhMCWeFm8FhhAQldHo8JgfSkGXx6IoJuQAACEIBAUQQIsIrCFu5Jb+2st1Hzq+2Nf9QXBGHy0NbW/4SWBZ2TxsEs5NKgnN418Jke63JeCY/lpJte23hMj3U5r4THctJNv218ps+cK0IAAhCAQHIECLCSYxlMS1vfrrfZK2vtsQ3578Q6vE0zm/TF1tbneH9e3L6/KBZyWsMWnxo+8YhHDQIaVTAfNTzmqsCnlk+qgQAEIBAaAQKs0IwnWO/av+6xB9bttsf/vKdBq92Pbm6f69nSvvjJVgleMfmmWMglz7SSLeKzkvSTuzYek2NZyZbwWEn6yV0bj8mx9KElfPpggT5AAAIQgECxBAiwiiXHefsI/GNXva1/aa89/9pee/97m9mJxza3Y4/07GVXTfhiIac1kPGp4ROPeNQgoFEF81HDY64KfGr5pBoIQAACoREgwArNOPUeQICFnNaAwKeGTzziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dEQEW5loDAZ8aPvGIRw0CGlUwHzU8EmBpeaQaCEAAAqESIMAK1Tx1E2AJjgE2WhpS8YhHDQIaVTAfNTwSYGl5pBoIQAACoRIgwArVPHUTYAmOATZaGlLxiEcNAhpVMB81PBJgaXmkGghAAAKhEiDACtU8dRNgCY4BNloaUvGIRw0CGlUwHzU8EmBpeaQaCEAAAqESIMAK1Tx1E2AJjgE2WhpS8YhHDQIaVTAfNTwSYGl5pBoIQAACoRIgwArVPHUTYAmOATZaGlLxiEcNAhpVMB81PBJgaXmkGghAAAKhEiDACtU8dRNgCY4BNloaUvGIRw0CGlUwHzU8EmBpeaQaCEAAAqESIMAK1Tx1E2AJjgE2WhpS8YhHDQIaVTAfNTwSYGl5pBoIQAACoRIgwArVPHUTYAmOATZaGlLxiEcNAhpVMB81PBJgaXmkGghAAAKhEiDACtU8dRNgCY4BNloaUvGIRw0CGlUwHzU8EmBpeaQaCEAAAqESIMAK1Tx1E2AJjgE2WhpS8YhHDQIaVTAfNTwSYGl5pBoIQAACoRIgwArVPHUTYAmOATZaGlLxiEcNAhpVMB81PBJgaXmkGghAAAKhEiDACtU8dRNgCY4BNloaUvGIRw0CGlUwHzU8EmBpeaQaCEAAAqESIMAK1Tx1E2AJjgE2WhpS8YhHDQIaVTAfNTwSYGl5pBoIQAACoRIgwPLQ/Ktv11u71mbvadPMw95pdYmFOT61CGhUw7zEowYBjSqYjxoeCbC0PFINBCAAgVAJEGB5Yv6Jv+yxR5+ts0f/VGe797zbqQ91am6nHt/CBn68pXV5X3NPeqrVDRbm+NQioFEN8xKPGgQ0qmA+angkwNLySDUQgAAEQiVAgFVh80/+dY/d/utae/aVvYfsyVk9WtrXBlTZ+w7nrqwklbEwT5Jm5dvCZ+UdJNEDPCZBsfJt4LHyDpLoAR6ToOhPG/j0xwU9gQAEIACBwgkQYBXOLLEz5v5XrS18Ynfs9g6ramaTh7W2Uz7YIvY5HHhoAizktEYIPjV84hGPGgQ0qmA+anjMVYFPLZ9UAwEIQCA0AgRYFTL+5F/22LULdxV89Y5HNLO7xh5m3IdVMLpGT2AhlwxHX1rBpy8mSusHHkvj58vZePTFRGn9wGNp/Hw7G5++GaE/EIAABCBQCAECrEJoJXjsmJ9X23N5Hhts6nKXDaiyi/q1SrA34TbFQk7LPT41fOIRjxoENKpgPmp4zFWBTy2fVAMBCEAgNAIEWBUwvmbjHrvuF4XffZXravt2zWzRNw6rQM/1LslCTsspPjV84hGPGgQ0qmA+angkwNLySDUQgAAEQiVAgFUB89+/r8ZW/nddSVeeMqyNndadd2GVBNHMWJiXStCv8/Hpl49ie4PHYsn5dR4e/fJRbG/wWCw5P8/Dp59e6BUEIAABCMQjQIAVj1OiR531g51Wt6e0Jr90ciu76qyq0hrhbAIssTHAwlxDKB7xqEFAowrmo4bHXBX41PJJNRCAAARCI0CAlbLxV9+utwt++k7JV/3osc1t1qVtS24n9AZYyGmNAHxq+MQjHjUIaFTBfNTwSICl5ZFqIAABCIRKgAArZfM7dtXbkOmlB1if7NrCbrygTcq917scC3Mtp/jU8IlHPGoQ0KiC+ajhkQBLyyPVQAACEAiVAAFWBcyPnFdtL2zbW9KVL/lMK7v0MzxCWBJE3oFVKj7vzmej5Z2SojqEx6KweXcSHr1TUlSH8FgUNm9Pwqe3augYBCAAAQjEIECAFQNS0ofMe6TW7l6zu6RmZ321rX30mOYltcHJvMRdbQywMNcwikc8ahDQqIL5qOExVwU+tXxSDQQgAIHQCBBgVcC4u/vK3YVV7Odjxza3mbz/qlh8B5zHQi4RjN40gk9vVJTUETyWhM+bk/HojYqSOoLHkvB5dzI+vVNChyAAAQhAoAACBFgFwEry0B/cX2PL/1BXVJPf+XJrG/DRlkWdy0kHEmAhpzUi8KnhE4941CCgUQXzUcNjrgp8avmkGghAAAKhESDAqpDx17bX22Vz37FdBT5J6IIrF2DxSYYAC7lkOPrSCj59MVFaP/BYGj9fzsajLyZK6wceS+Pn29n49M0I/YEABCAAgUIIEGAVQivhY3/7/B67aVmNvb6jPlbLLrz6P5+rsiPaNot1PAflJ8BCLj+jLB2BzyzZarqveMSjBgGNKpiPGh5zVeBTyyfVQAACEAiNAAFWhY3vrTdb8PhuW/q73fb2O40HWR89trmd27uVfZbHBhO3xUIucaQVbRCfFcWf2MXxmBjKijaEx4riT+zieEwMpRcN4dMLDXQCAhCAAASKJECAVSS4cpz26w119vQLe+3PW/dY26pm9onjmlvvD7c0F2DxKQ8BFnLl4VqpVvFZKfLJXhePyfKsVGt4rBT5ZK+Lx2R5Vro1fFbaANeHAAQgAIFSCBBglUKPczNPgIVc5hUeUAA+NXziEY8aBDSqYD5qeMxVgU8tn1QDAQhAIDQCBFihGadeAg/hMcDCXEMuHvGoQUCjCuajhkcCLC2PVAMBCEAgVAIEWKGap+6IAAtzrYGATw2feMSjBgGNKpiPGh4JsLQ8Ug0EIACBUAkQYIVqnroJsATHABstDal4xKMGAY0qmI8aHgmwtDxSDQQgAIFQCRBghWqeugmwBMcAGy0NqXjEowYBjSqYjxoeCbC0PFINBCAAgVAJEGCFap66CbAExwAbLQ2peMSjBgGNKpiPGh4JsLQ8Ug0EIACBUAkQYIVqnroJsATHABstDal4xKMGAY0qmI8aHgmwtDxSDQQgAIFQCRBghWqeugmwBMcAGy0NqXjEowYBjSqYjxoeCbC0PFINBCAAgVAJEGCFap66CbAExwAbLQ2peMSjBgGNKpiPGh4JsLQ8Ug0EIACBUAkQYIVqnroJsATHABstDal4xKMGAY0qmI8aHgmwtDxSDQQgAIFQCRBghWqeugmwBMcAGy0NqXjEowYBjSqYjxoeCbC0PFINBCAAgVAJEGCFap66CbAExwAbLQ2peMSjBgGNKpiPGh4JsLQ8Ug0EIACBUAkQYIVqnroJsATHABstDal4xKMGAY0qmI8aHgmwtDxSDQQgAIFQCRBghWqeugmwBMcAGy0NqXjEowYBjSqYjxoeCbC0PFINBCAAgVAJEGCFap66CbAExwAbLQ2peMSjBgGNKpiPGh4JsLQ8Ug0EIACBUAkQYIVqnroJsATHABstDal4xKMGAY0qmI8aHgmwtDxSDQQgAIFQCRBghWqeugmwBMcAGy0NqXjEowYBjSqYjxoeCbC0PFINBCAAgVAJEGCFap66CbAExwAbLQ2peMSjBgGNKpiPGh4JsLQ8Ug0EIACBUAkQYIVqnroJsATHABstDal4xKMGAY0qmI8aHgmwtDxSDQQgAIFQCRBghWqeugmwBMcAGy0NqXjEowYBjSqYjxoeCbC0PFINBCAAgVAJEGCFap66CbAExwAbLQ2peMSjBgGNKpiPGh4JsLQ8Ug0EIACBUAkQYIVqnroJsATHABstDal4xKMGAY0qmI8aHgmwtDxSDQQgAIFQCRBghWqeugmwBMcAGy0NqXjEowYBjSqYjxoeCbC0PFINBCAAgVAJEGCFap66CbAExwAbLQ2peMSjBgGNKpiPGh4JsLQ8Ug0EIACBUAlkKsBavny5nXvuufbggw9av379mnS2adMmmzlzpi1btsw2bNhgvXr1suHDh9uIESOsY8eOjZ63bds2mz9/vi1cuNDWrWsKONkAACAASURBVFtn3bt3t8GDB9u4ceOsa9euoY4P+bpZmGspxqeGTzziUYOARhXMRw2PBFhaHqkGAhCAQKgEMhNgrVmzxq688kpbv369PfbYY00GWM8884yNHj3annzyySiE6ty5s23cuNFefPFFGzRokM2aNcu6det2gO8tW7ZE57jAq0uXLtHPN2/eHIVfPXv2tNmzZ1vfvn1DHSPSdbMw19KLTw2feMSjBgGNKpiPGh4JsLQ8Ug0EIACBUAl4H2Dt3bvXFi9ebBMmTIhCKPdpKsByd1GNGjXKVq5caTNmzLBLL73UWrZsaTt37rQbb7zRpkyZYmPHjrUbbrjB2rZtG7VVXV1tEydOjIKt66+/Pvr/3c9qampswYIFdvXVV9uZZ55pc+fObfLurVAHj0LdLMwVLP5vDfjU8IlHPGoQ0KiC+ajhkQBLyyPVQAACEAiVgLcBVn19vb3wwgtR6HTbbbfZ4YcfHgVLr732WpMB1pIlS2zYsGF21VVXRSFV69at93ndvn179DjgihUrbOnSpda7d+/oZ2vXrrUhQ4ZYnz59okcI27dvv++curo6mzx5sk2dOjUK0YYOHRrqOJGtm4W5llp8avjEIx41CGhUwXzU8EiApeWRaiAAAQiESsDbAOuNN96wCy+80B566CE7++yz7Zvf/GYUZLk7oRq7A6u2ttYmTZoU3Xnl3pU1cODABk7d+e6urOnTp0d3VrmPO378+PE2Z86c6O6tgz+rV6+2AQMGRMdPmzbNqqqqQh0rknWzMNfSik8Nn3jEowYBjSqYjxoeCbC0PFINBCAAgVAJeBtgvfXWW3bTTTdF4dWpp54aPdLnQqSmAix3/MUXX2wvvfRS9CL2E044oYHTxx9/3E477bQoqHLBVbNmzeyaa66xm2++2VatWmX9+/dvcI57D9Z5551nRx11lN1xxx3WoUOHUMeKZN0szLW04lPDJx7xqEFAowrmo4ZHAiwtj1QDAQhAIFQC3gZYBwtx76o6VIDl3o91wQUXRKfdeeed0cvYD/4cHEa592ONHDnSXLB1//3328knn9zgnNydYFu3brV77rknejE8Hx0CLMx1XLpK8KnhE4941CCgUQXzUcMjAZaWR6qBAAQgECoBmQArzp1SBx/jpLvHFA8VThFgaU8NFuZafvGp4ROPeNQgoFEF81HDIwGWlkeqgQAEIBAqAQIsAqxQx35UNwtzLf341PCJRzxqENCogvmo4ZEAS8sj1UAAAhAIlQABVgoBVm7xF+ogo24IQAACEIAABCAAAQikSaCxV4OkeX2uBQEIQAACyROQCbBeeeWV6HFA93EvWz/mmGMa0Mo9QnjcccfZ7bffbu4dWGPGjLEnnnjCFi1aZD169GhwTu4Rwtdff93uvvtuO/744wu2QIBVMDJOgAAEIAABCEAAAhCAQNEECLCKRseJEIAABLwlIBNg8S2E3o4xrzvGoxFe6ym4c/gsGJmXJ+DRSy0FdwqPBSPz8gQ8eqml6E7hs2h0nAgBCEAAAh4QkAmwamtrbdKkSTZjxgxbvny5DRw4sAHeuXPn2ujRo2369OnRNxq6jzt+/PjxNmfOHBs1alSDc1asWGGDBg2Kjp82bZpVVVV5oI0uJEWAhVxSJP1oB59+eCi1F3gslaAf5+PRDw+l9gKPpRL063x8+uWD3kAAAhCAQGEEZAIsV/aSJUts2LBhdtVVV9kNN9xgrVu33kdj+/btNm7cOHOB1NKlS613797Rz9auXWtDhgyxPn362Pz58619+/b7zqmrq7PJkyfb1KlTbfHixTZ06NDC6HK09wRYyHmvqKAO4rMgXN4ejEdv1RTUMTwWhMvbg/HorZqiOobPorBxEgQgAAEIeEJAKsDatm1bdBfVypUrozurLrrooijE2rlzp9144402ZcqU6OfuZ23bto0UVFdX28SJE23WrFlRWDVhwgRr166d1dTU2IIFC6I7r04//XSbN2+ederUyRNtdCMpAizkkiLpRzv49MNDqb3AY6kE/Tgfj354KLUXeCyVoF/n49MvH/QGAhCAAAQKIyAVYLnS16xZY1deeaWtX7/eunfvbp07d7aNGzfaiy++GD0K6IKqbt26HUDJ/Xzs2LHRo4ddunSJfr5582ZzL33v2bOnzZ492/r27VsYWY7OBAEWcpnQFLuT+IyNyusD8ei1ntidw2NsVF4fiEev9RTcOXwWjIwTIAABCEDAIwJyAZZju2nTJps5c6YtW7YsCqF69eplw4cPtxEjRljHjh0bxe/u3nKPEC5cuNDWrVsXhV+DBw+OHjvs2rWrR8roSpIEWMglSbPybeGz8g6S6AEek6BY+TbwWHkHSfQAj0lQ9KcNfPrjgp5AAAIQgEDhBDITYBVeGmdAID8BFnL5GWXpCHxmyVbTfcUjHjUIaFTBfNTwmKsCn1o+qQYCEIBAaAQIsEIzTr0HEGAhpzUg8KnhE4941CCgUQXzUcMjAZaWR6qBAAQgECoBAqxQzVN3RICFudZAwKeGTzziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLBCNU/dBFiCY4CNloZUPOJRg4BGFcxHDY8EWFoeqQYCEIBAqAQIsEI1T90EWIJjgI2WhlQ84lGDgEYVzEcNjwRYWh6pBgIQgECoBAiwQjVP3QRYgmOAjZaGVDziUYOARhXMRw2PBFhaHqkGAhCAQKgECLD+x/y2bdts/vz5tnDhQlu3bp11797dBg8ebOPGjbOuXbuGOj7k62ZhrqUYnxo+8YhHDQIaVTAfNTwSYGl5pBoIQAACoRIgwDKzLVu22OjRo23ZsmXWpUsX69atm23evNk2bNhgPXv2tNmzZ1vfvn1DHSPSdbMw19KLTw2feMSjBgGNKpiPGh4JsLQ8Ug0EIACBUAkEH2BVV1fbxIkTbdasWXb99ddH/3/btm2tpqbGFixYYFdffbWdeeaZNnfuXOvYsWOo40S2bhbmWmrxqeETj3jUIKBRBfNRwyMBlpZHqoEABCAQKoHgA6y1a9fakCFDrE+fPtEjhO3bt983Furq6mzy5Mk2depUW7x4sQ0dOjTUcSJbNwtzLbX41PCJRzxqENCogvmo4ZEAS8sj1UAAAhAIlUDwAdaMGTNs/PjxNmfOHBs1alSDcbB69WobMGBAdCfWtGnTrKqqKtSxIlk3C3MtrfjU8IlHPGoQ0KiC+ajhkQBLyyPVQAACEAiVQNAB1q5du+yaa66xm2++2VatWmX9+/dvMA7ce7DOO+88O+qoo+yOO+6wDh06hDpWJOtmYa6lFZ8aPvGIRw0CGlUwHzU8EmBpeaQaCEAAAqESCDrAevvtt23kyJH2+OOP2/33328nn3xyg3Hwxhtv2IUXXmhbt261e+65J/p2Qj46BFiY67h0leBTwyce8ahBQKMK5qOGRwIsLY9UAwEIQCBUAkEHWHHCqTjHhDp4FOpmYa5g8X9rwKeGTzziUYOARhXMRw2PBFhaHqkGAhCAQKgECLDy3F2VRIB1yimnhDq+qBsCEIAABCAAAQhAAAKpE/jd736X+jW5IAQgAAEIlJcAARYBVnlHGK1DAAIQgAAEIAABCEAgZQIEWCkD53IQgAAEUiAQdIC1Y8cOGzNmjD3xxBO2aNEi69GjRwPkuTuwXn/9dbv77rvt+OOPT0ELl4AABCAAAQhAAAIQgAAEIAABCEAAAhDIEQg6wOJbCJkIEIAABCAAAQhAAAIQgAAEIAABCEDAfwJBB1hOz4wZM2z8+PE2Z84cGzVqVANjK1assEGDBtnVV19t06ZNs6qqKv+t0kMIQAACEIAABCAAAQhAAAIQgAAEICBEIPgAa+3atTZkyBDr06ePzZ8/39q3b79Pb11dnU2ePNmmTp1qixcvtqFDhwqppxQIQAACEIAABCAAAQhAAAIQgAAEIJANAsEHWNXV1TZx4kSbNWtWFFZNmDDB2rVrZzU1NbZgwYLozqvTTz/d5s2bZ506dcqGVXoJAQhAAAIQgAAEIAABCEAAAhCAAASECAQfYDmXGzdutLFjx9ry5cutS5cu1q1bN9u8ebNt2LDBevbsabNnz7a+ffsKaacUCEAAAhCAAAQgAAEIQAACEIAABCCQHQIEWP/jatu2bdEjhAsXLrR169ZZ9+7dbfDgwTZu3Djr2rVrdozSUwhAAAIQgAAEIAABCEAAAhCAAAQgIEaAAEtMKOVAAAIQgAAEIAABCEAAAhCAAAQgAAE1AgRYakapBwIQgAAEIAABCEAAAhCAAAQgAAEIiBEgwBITSjkQgAAEIAABCEAAAhCAAAQgAAEIQECNAAGWmlHqgQAEIAABCEAAAhCAAAQgAAEIQAACYgQIsMSEUg4EIAABCEAAAhCAAAQgAAEIQAACEFAjQIClZpR6IAABCEAAAhCAAAQgAAEIQAACEICAGAECLDGhlAMBCEAAAhCAAAQgAAEIQAACEIAABNQIEGCpGaUeW758uZ177rn24IMPWr9+/Q5JpK6uziZPnmxPPfWU3XHHHdahQ4dGj6+pqbEHHnjAfvazn9njjz9urVq1sjPOOMOuvPJKGzBggDVv3hzyCRKI6+WNN96wu+66yxYtWmSrVq2KeuB8nHfeeXbJJZdYu3btGu3Vpk2bbObMmbZs2TLbsGGD9erVy4YPH24jRoywjh07JlgJTf3+97+3888/3771rW/ZhRde2CSQYpwwL9MbX3Hn5ME9cudNmzbNvv3tb9tjjz3W5O/kYvynV73WleLMyVdeeSWar48++miTxS9YsKDBnGZOpjtW4q53Dp5fXbp0saFDh9qoUaOse/fu/DuZrjauBgEIQAACJRAgwCoBHqf6R2DNmjVRqLR+/fpDbpZcz93Gas6cOXbttdfapz/96SYDLLcgv+GGG+w73/mOHX744XbSSSfZ7t277Yknnoj++9SpU2306NHWsmVL/4BksEdxvbjgyQVOLlA88sgjrWfPnlG1zv2bb75pgwYNslmzZlm3bt0OoPDMM89Evp588slo4d65c2fbuHGjvfjii02ek0GMXnTZcR07dmwUKje22c11cvXq1XbFFVdEYaJz4jZXzof7787r7NmzrW/fvgfUxLxMT3HcOdlYj+699167+OKLbceOHU3+TmZOpucy7px0f9Q555xz7G9/+1vsAIs5mZ5Hd6W46x33x51LT0yMrgAAEs1JREFUL700+p168O9X97v21ltvjf7ws/+HOZmuS64GAQhAAALxCRBgxWfFkR4T2Lt3ry1evNgmTJgQLdLc51B/7XebKRc8uTsD3Oess85qMsC6++67o811//797ac//Wm0ua6vr7ff/e53Nm7cONu6dWt0br67vTzG503X4nrZvn17xP62226L7qBz3nN3W23bti2622fevHnRX5dnzJhhbdu2jWp0P3P/28qVK6P/3S3qXfC4c+dOu/HGG23KlClR4OICy9w53sDJUEfc/PjNb35jY8aMiQJF92kqwHr55ZejgMPNp5tvvtkuuOCC6I5Gtxl251x99dX2uc99zubOnWvt27ffR4F5mc6AiDsnG+vNs88+a5dddlkUFjf1O5k5mY7HQuak69F9991nX/rSl2z69OnRHIzzYU7GoVT6MYWsd3Jz0K1T3L9xw4YNa/D79dRTT43+LT366KP5d7J0PbQAAQhAAAJlJkCAVWbANF9eAm5R/sILL0TBg1uAuTuiXPDw2muvNRpguTsJHnnkkSjg+O1vf2udOnWy6urqJu/Aeuutt6K7fNzdVkuXLrXevXsfUFDu9n23SXOhR+vWrctbsGjrhXrJ3R3Qp08fmz9//gHBhkOUC0W2bNkSPV7Yo0ePiNySJUuiBfxVV13VwFcuFFuxYkWjrkXRJ16Wu2Pjxz/+cRRGuU9uPjYVYLnw96KLLmrUiQtPXAjm5p6ba863+zAvE9fWoMFC5+TBDbhQeOLEidHj2S54/NWvftXo72TmZPldFjonXY++//3vR3cnu3k3cODAvJ1kTuZFVPIBha539uzZE62N/u3f/s1uueUWGzlypDVr1mxfP9wfCdwcdXdJ/uIXv7BPfepT/DtZsiUagAAEIACBchMgwCo3YdovKwH3DiT3no6HHnrIzj77bPvmN78ZBVnubo3G7sByj5uddtppUdD19a9/3b74xS9G//eoo45q9A6sXFBy5plnRndfufP2/7i7B9wdI++8847deeed0d1ZfAonUKgXt+B2d8994QtfiN6tc/DHhZLuroH9x0Ftba1NmjQpuvOqqU2ZGzvurqxC7joovFrdM/bn7jZDzpGbh+4uucYCLLfBco+v/PznP4/uonOPLO3/2b899w66wYMHRz9mXpZ/DBU6J/fvkdtou/cFXnPNNdHG2T225h7BPvh3MnOy/B4LnZOuR7t27YrcuTB//z8AHKq3zMnyuyx0vZN7j5nrmftDwTHHHJO3k8zJvIg4AAIQgAAEKkyAAKvCArh8aQTcX31vuummKLxyt8G7vygeHFzsfwV315W7E8CFFB/4wAeid+y4F343FWDdc8890Quo3Qbc/Wf/v166dhsLSkqrKMyzC/WSj1Luzp3bb79936bZjRX3qNpLL71kCxcutBNOOKFBM7lN+8GPHua7Hj9/l4CbDz/60Y+il+Kffvrp0R2J7q//Lrw41DuwmuKXu5POPf7i7hA48cQTo0OZl+UfcaXMSfc4qPsiDffHBXcHiLubp7EAizlZfo/FzMncH2Zc79x8dl+U4eave7eg+/ISdwfrwV9ewpwsv8tC1zvuznH3Lkh355X7Y0JVVVXeTjIn8yLiAAhAAAIQqDABAqwKC+DyyRIoNFDKF2C5u3XGjx9/yDtyStmgJ1u9Tmv5vOSrdO3atTZkyJAo8Mi928O9G83dLec+Td0tV+p18/UrxJ8XMz/c42vr1q2z7373u9G3f7rNl7sjJPdFCczL9EdS3Lnx6quvRu+Zcw7dXVjujwO5MXDwHVjMyfQ9uivmm5PPPfdc9K2s7l10zqP7j7u72AVbbl66z/XXXx89fpZ7VyBzMn2X+dY7uVDR3VHs7jR3v0vdF2I8/PDD0cvc3eP07hHt/e/MYk6m75ErQgACEIBAYQQIsArjxdGeE8i3oDu4+/k2ZfkW+nE2A54j87J7+bwcqtO5DbR7zHD/937EaTPOMV4C87hTcebQ/t3PHe/+N/eOOhdiffWrXz3g/XJx2oxzjMfYvOtanLnhgo4f/vCH0SZ5/282ayrAitNmnGO8g+V5h/LNDffooLtzxz0y74Ip9446dzele3m4u0vVfYGG+3IGd4eru8vO3Zmcr03+rUx+UORb7+TeL+he3v773/8+8uXeI/ie97xn3zfvHvwtr3HmW5xjkq+WFiEAAQhAAALvEiDAYiRIEci3oCPAyobuYhfI7g4Bd6eOW6i7vzi7F+vnvp0wTptxjskGQX96GWdjm+ute/+Ke+TMPYLmXqrvHoFxm+hvfOMb0fvLci7jtBnnGH8o+d+TOHMj96UW7ksy9r9jjgDLL7/55ob7NkH3RQzuLtb9PeaqyHne/9vr8rVJgJX8GMi33sm9iN9d2QWS7r+7x7td4Oi+ZMHdmeXCrVNOOSX6N/PYY4/N+1oF11ac3wXJV0uLEIAABCAAAQIsxoAggXwLOgKsbEgvZoHsHn1w7z/75S9/aZdffnn02NmRRx65r+A4bcY5JhsE/ellnI1tY711LwJ3jyu5L2ZwG2YXRrrHeVu0aMHdHhXQm29uuBe1u3fMuXcLui9PcN88mPsQYFVA2CEuWeyczDX5+uuvR67d3Vi5bweN02acY/wi5Xdv8q13co91usc/3cv4XVC1/2f/8xcvXmxDhw6NFU7l+13gNzV6BwEIQAACWSfAHVhZN0j/m1yQNfYthIUGWG4jNnr0aJszZ070XpfGPrlFufurtXshPJ/SCRS6QH766aejFwvnHm/53ve+1+AbI+N8I1Puuscdd1z0F+n9N+GlVxVmC6VuWnPvM/vgBz+4791lzMv0x9Kh5qS7m8O9D+mRRx4x93uwR48eB3SwqQCLOZm+R3fFUudkY8EJczJ9l/kCrNwjhC5sbOxblF2Pc9+86x7Vdt/oy5xM3yNXhAAEIACBwggQYBXGi6M9J5BvQVdogMU3K1VGeNwAy92l4+64cnfmuG/Iuu6666LHzdz7Wg7+8O1KlXFZ6mY599Xx7h0u999/v5188sl8C2EFVB5qTuZ+5t6LFOeT2ywzJ+PQSv6YfHPS/V79xz/+Eb2gPffFCfv34p133ol+z7qX9Of+UMS/lcl7ytdivvVO7l1mh/pW3dWrV0ffKMmczEebn0MAAhCAgC8ECLB8MUE/EiGQb0FXaID11FNP2TnnnGNnnnlmo3/BzP210r27p6lvtkuksMAaiRNguRcKO+buXVfuUUH3Lg/3rUrum7Ma+zhH7j1K7rEK99jLwIEDGxyWu4vAvRvEPY7Ip3QCh9osv/322/av//qv0QuhHfuD79xxV3fvNXPfHulezr9w4UI74YQTjHlZupdCWzjUnHz++eejRz3//ve/N9qse7zXne9eIH3EEUfY2WefHb0InDlZqIVkjs83J0eOHBk9crZq1Srr379/g4vm/t1zAaQLrtw32jEnk3FTSCv51jsu9D/33HPtwx/+cHRH8fve974GzefuwJo6dWo0h5mThRjgWAhAAAIQqAQBAqxKUOeaZSOQb0FXaIDlFugjRoyIXia9dOlS69279wFN5F5me9lll0Xv6Gnszp+yFSvccL4Ay90hcNddd0WPd7qvAHePeLq/IruX0x7qs2TJkijkco8bHuzLvTTcbardX60bcy2Mu6ylHWqzvGfPnuixFfdyYfftdS40PNhhbo65EHn+/PnRY53My7Iqa7TxfHPyUD1q6hFCdw5zMn2X+eak+yIFd8y1114bfanC/ndhud+97tE091ia+3bQWbNmRV+uwJxM32O+9Y57tHfs2LHm3m/lAkn3Ivf9P7l/89xdzO4/Z5xxRvRj5mT6LrkiBCAAAQjEJ0CAFZ8VR2aAQL4FXaEBljvevdPliiuuiP4S/ZOf/MQ+9KEPmVvEu29Kc4HHSy+9FB3T2F+qM4DMyy7m2yznXhi9detWu/XWW6PwKs7H3c3jHqdYuXLlAV8P7xb67g4ut1k71OMWca7BMQcSyPe4kptH7i4B93Hvafn85z8f3UXn7rB7+OGHbcKECebu8Lnlllvs/PPP39c48zLdkZZvThYbYDEn0/XorpZvTro7d9xc27JlywG/J92cdGGIm5Pu44Ksfv36MSfTVxhdMc56J/cHALdumTlzZuTL/X7d/9+8Sy65JPqZuzvSfZiTFRLKZSEAAQhAIBYBAqxYmDgoKwTiLOj2ryXOpswt9Nzt9e4/hx9+uJ100km2e/fu6K4s99/d/+7uBGrsXSFZ4eZbPw/lxYWH7iXt7s6dOJ+DX+a/Zs0au/LKK6PH1tyjL507dzYXiLnHnNxfqN0dBd26dYvTNMfEIJBvs+x8useQxowZE73HzDlx35qVe+ysqTnGvIwBP8FD4vyubOpyh7oDy53DnExQVIym4szJ3LsF3Tw8eE66+ekes/7yl798wB2TzMkY8BM8JM56p66uLvojj7u7dceOHdarVy/r0KHDvn/zXKDl7mx1jvf/MCcTFEVTEIAABCCQKAECrERx0lilCcRZ0BUaYLnja2pq7IEHHoheWuu+6a5Vq1bR7fYuCHF3/zT13qVK88jq9Q+1WXbvTcq9oyVOfY19G+WmTZuivzgvW7YsejePW9QPHz48ely0Y8eOcZrlmJgE8m2WXTMuxHruueei+ZVz4jZUgwcPjly791419ngo8zKmhAQOK2eA5brHnExAUswm4szJxpzk5qS787hr166NXo05GVNCAofFXe+436/urjoXVN13333RHwdOPfVUu+iii+wrX/lKFGg19mFOJiCJJiAAAQhAIHECBFiJI6VBCEAAAhCAAAQgAAEIQAACEIAABCAAgSQJEGAlSZO2IAABCEAAAhCAAAQgAAEIQAACEIAABBInQICVOFIahAAEIAABCEAAAhCAAAQgAAEIQAACEEiSAAFWkjRpCwIQgAAEIAABCEAAAhCAAAQgAAEIQCBxAgRYiSOlQQhAAAIQgAAEIAABCEAAAhCAAAQgAIEkCRBgJUmTtiAAAQhAAAIQgAAEIAABCEAAAhCAAAQSJ0CAlThSGoQABCAAAQhAAAIQgAAEIAABCEAAAhBIkgABVpI0aQsCEIAABCAAAQhAAAIQgAAEIAABCEAgcQIEWIkjpUEIQAACEIAABCAAAQhAAAIQgAAEIACBJAkQYCVJk7YgAAEIQAACEIAABCAAAQhAAAIQgAAEEidAgJU4UhqEAAQgAAEIQAACEIAABCAAAQhAAAIQSJIAAVaSNGkLAhCAAAQgAAEIQAACEIAABCAAAQhAIHECBFiJI6VBCEAAAhCAAAQgAAEIQAACEIAABCAAgSQJEGAlSZO2IAABCEAAAhCAAAQgAAEIQAACEIAABBInQICVOFIahAAEIAABCEAAAhCAAAQgAAEIQAACEEiSAAFWkjRpCwIQgAAEIAABCEAAAhCAAAQgAAEIQCBxAgRYiSOlQQhAAAIQgAAEIAABCEAAAhCAAAQgAIEkCRBgJUmTtiAAAQhAAAIQgAAEIAABCEAAAhCAAAQSJ0CAlThSGoQABCAAAQhAAAIQgAAEIAABCEAAAhBIkgABVpI0aQsCEIAABCAAAQhAAAIQgAAEIAABCEAgcQIEWIkjpUEIQAACEIAABCAAAQhAAAIQgAAEIACBJAkQYCVJk7YgAAEIQAACEIAABCAAAQhAAAIQgAAEEidAgJU4UhqEAAQgAAEIQAACEIAABCAAAQhAAAIQSJIAAVaSNGkLAhCAAAQgAAEIQAACEIAABCAAAQhAIHECBFiJI6VBCEAAAhCAAAQgAAEIQAACEIAABCAAgSQJEGAlSZO2IAABCEAAAhCAAAQgAAEIQAACEIAABBInQICVOFIahAAEIAABCEAAAhCAAAQgAAEIQAACEEiSAAFWkjRpCwIQgAAEIAABCEAAAhCAAAQgAAEIQCBxAgRYiSOlQQhAAAIQgAAEIAABCEAAAhCAAAQgAIEkCRBgJUmTtiAAAQhAAAIQgAAEIAABCEAAAhCAAAQSJ0CAlThSGoQABCAAAQhAAAIQgAAEIAABCEAAAhBIkgABVpI0aQsCEIAABCAAAQhAAAIQgAAEIAABCEAgcQIEWIkjpUEIQAACEIAABCAAAQhAAAIQgAAEIACBJAkQYCVJk7YgAAEIQAACEIAABCAAAQhAAAIQgAAEEidAgJU4UhqEAAQgAAEIQAACEIAABCAAAQhAAAIQSJIAAVaSNGkLAhCAAAQgAAEIQAACEIAABCAAAQhAIHECBFiJI6VBCEAAAhCAAAQgAAEIQAACEIAABCAAgSQJEGAlSZO2IAABCEAAAhCAAAQgAAEIQAACEIAABBInQICVOFIahAAEIAABCEAAAhCAAAQgAAEIQAACEEiSAAFWkjRpCwIQgAAEIAABCEAAAhCAAAQgAAEIQCBxAgRYiSOlQQhAAAIQgAAEIAABCEAAAhCAAAQgAIEkCfx//KhxeKDnWmgAAAAASUVORK5CYII="/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3041650"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10832,14 +11024,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.81640625" customWidth="1"/>
-    <col min="2" max="2" width="4.90625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="4.81640625" style="47" customWidth="1"/>
     <col min="3" max="3" width="25.1796875" customWidth="1"/>
     <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.54296875" bestFit="1" customWidth="1"/>
@@ -10851,59 +11043,59 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.35">
-      <c r="B2" s="45"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="44"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="45"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="46"/>
+      <c r="B5" s="45"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="46"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:11" s="17" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A7" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" s="44" t="s">
+      <c r="A7" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="44" t="s">
-        <v>237</v>
-      </c>
-      <c r="G7" s="44" t="s">
+      <c r="F7" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="G7" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44" t="s">
+      <c r="H7" s="43"/>
+      <c r="I7" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="K7" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -10935,7 +11127,7 @@
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="8"/>
@@ -10947,7 +11139,7 @@
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="8"/>
@@ -11031,7 +11223,7 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C14">
@@ -11067,7 +11259,7 @@
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C15">
@@ -11102,7 +11294,7 @@
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C16">
@@ -11137,7 +11329,7 @@
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C17">
@@ -11173,7 +11365,7 @@
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C18">
@@ -11209,7 +11401,7 @@
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C19">
@@ -11243,7 +11435,7 @@
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C20">
@@ -11275,7 +11467,7 @@
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="47" t="s">
         <v>31</v>
       </c>
       <c r="C21">
@@ -11320,7 +11512,7 @@
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C23">
@@ -11359,7 +11551,7 @@
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="47" t="s">
         <v>18</v>
       </c>
       <c r="C24">
@@ -11857,7 +12049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -34283,7 +34475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1149"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -34587,17 +34779,17 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
@@ -37903,6 +38095,3586 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1135"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.54296875" style="25" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="17" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="19">
+        <v>1.83</v>
+      </c>
+      <c r="B9" s="19">
+        <v>1.58</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="D9" s="25">
+        <f>(1.75/2)^2*PI()*K9/1000</f>
+        <v>0.31749720755341843</v>
+      </c>
+      <c r="E9" s="25">
+        <f>D9*1.38</f>
+        <v>0.43814614642371741</v>
+      </c>
+      <c r="F9" s="18">
+        <f>A9/2*B9/2*PI()</f>
+        <v>2.2709002496473825</v>
+      </c>
+      <c r="G9" s="18">
+        <f>F9*K10/1000*1.38</f>
+        <v>0.54528856794532943</v>
+      </c>
+      <c r="H9" s="20">
+        <f>C9/G9</f>
+        <v>0.66570256803255468</v>
+      </c>
+      <c r="I9" s="20">
+        <f>C9/E9</f>
+        <v>0.828490682761715</v>
+      </c>
+      <c r="K9" s="25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="19">
+        <v>1.82</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1.53</v>
+      </c>
+      <c r="C10" s="19">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="D10" s="25">
+        <f>(1.75/2)^2*PI()*K10/1000</f>
+        <v>0.4185190463204152</v>
+      </c>
+      <c r="E10" s="25">
+        <f t="shared" ref="E10" si="0">D10*1.38</f>
+        <v>0.57755628392217295</v>
+      </c>
+      <c r="F10" s="18">
+        <f>A10/2*B10/2*PI()</f>
+        <v>2.1870197257965347</v>
+      </c>
+      <c r="G10" s="18">
+        <f>F10*K10/1000*1.38</f>
+        <v>0.52514717655826393</v>
+      </c>
+      <c r="H10" s="20">
+        <f>C10/G10</f>
+        <v>0.90831679440073665</v>
+      </c>
+      <c r="I10" s="20">
+        <f>C10/E10</f>
+        <v>0.82589353328597293</v>
+      </c>
+      <c r="K10" s="25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="B11" s="19">
+        <v>1.57</v>
+      </c>
+      <c r="C11" s="19">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="D11" s="25">
+        <f>(1.75/2)^2*PI()*K11/1000</f>
+        <v>0.46421940195310424</v>
+      </c>
+      <c r="E11" s="25">
+        <f>D11*1.38</f>
+        <v>0.64062277469528384</v>
+      </c>
+      <c r="F11" s="18">
+        <f>A11/2*B11/2*PI()</f>
+        <v>2.2195352097611889</v>
+      </c>
+      <c r="G11" s="18">
+        <f>F11*K11/1000*1.38</f>
+        <v>0.59115100776779494</v>
+      </c>
+      <c r="H11" s="20">
+        <f>C11/G11</f>
+        <v>0.85595726531985816</v>
+      </c>
+      <c r="I11" s="20">
+        <f>C11/E11</f>
+        <v>0.78985640221842257</v>
+      </c>
+      <c r="K11" s="25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="25">
+        <v>1.8324238875878136</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="5">
+        <f>AVERAGE(I9:I11)</f>
+        <v>0.81474687275537017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="25">
+        <v>3.0264224324542812E-2</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="25">
+        <f>1/I12</f>
+        <v>1.2273750700240522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="22"/>
+    </row>
+    <row r="45" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="22"/>
+    </row>
+    <row r="46" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="22"/>
+    </row>
+    <row r="47" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="22"/>
+    </row>
+    <row r="48" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="22"/>
+    </row>
+    <row r="49" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="22"/>
+    </row>
+    <row r="50" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="22"/>
+    </row>
+    <row r="51" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="22"/>
+    </row>
+    <row r="52" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="22"/>
+    </row>
+    <row r="53" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="22"/>
+    </row>
+    <row r="54" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="22"/>
+    </row>
+    <row r="55" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="22"/>
+    </row>
+    <row r="56" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="22"/>
+    </row>
+    <row r="57" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="22"/>
+    </row>
+    <row r="58" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="22"/>
+    </row>
+    <row r="59" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="22"/>
+    </row>
+    <row r="60" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="22"/>
+    </row>
+    <row r="61" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="22"/>
+    </row>
+    <row r="62" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="22"/>
+    </row>
+    <row r="63" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="22"/>
+    </row>
+    <row r="64" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="22"/>
+    </row>
+    <row r="65" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="22"/>
+    </row>
+    <row r="66" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="22"/>
+    </row>
+    <row r="67" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="22"/>
+    </row>
+    <row r="68" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="22"/>
+    </row>
+    <row r="69" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="22"/>
+    </row>
+    <row r="70" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="22"/>
+    </row>
+    <row r="71" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="22"/>
+    </row>
+    <row r="72" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="22"/>
+    </row>
+    <row r="73" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="22"/>
+    </row>
+    <row r="74" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="22"/>
+    </row>
+    <row r="75" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="22"/>
+    </row>
+    <row r="76" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="22"/>
+    </row>
+    <row r="77" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="22"/>
+    </row>
+    <row r="78" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="22"/>
+    </row>
+    <row r="79" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="22"/>
+    </row>
+    <row r="80" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="22"/>
+    </row>
+    <row r="81" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="22"/>
+    </row>
+    <row r="82" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="22"/>
+    </row>
+    <row r="83" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="22"/>
+    </row>
+    <row r="84" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="22"/>
+    </row>
+    <row r="85" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="22"/>
+    </row>
+    <row r="86" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="22"/>
+    </row>
+    <row r="87" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="22"/>
+    </row>
+    <row r="88" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="22"/>
+    </row>
+    <row r="89" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="22"/>
+    </row>
+    <row r="90" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="22"/>
+    </row>
+    <row r="91" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="22"/>
+    </row>
+    <row r="92" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="22"/>
+    </row>
+    <row r="93" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="22"/>
+    </row>
+    <row r="94" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="22"/>
+    </row>
+    <row r="95" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="22"/>
+    </row>
+    <row r="96" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="22"/>
+    </row>
+    <row r="97" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="22"/>
+    </row>
+    <row r="98" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="22"/>
+    </row>
+    <row r="99" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="22"/>
+    </row>
+    <row r="100" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="22"/>
+    </row>
+    <row r="101" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="22"/>
+    </row>
+    <row r="102" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="22"/>
+    </row>
+    <row r="103" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="22"/>
+    </row>
+    <row r="104" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="22"/>
+    </row>
+    <row r="105" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="22"/>
+    </row>
+    <row r="106" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="22"/>
+    </row>
+    <row r="107" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="22"/>
+    </row>
+    <row r="108" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="22"/>
+    </row>
+    <row r="109" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="22"/>
+    </row>
+    <row r="110" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="22"/>
+    </row>
+    <row r="111" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="22"/>
+    </row>
+    <row r="112" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="22"/>
+    </row>
+    <row r="113" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="22"/>
+    </row>
+    <row r="114" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="22"/>
+    </row>
+    <row r="115" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="22"/>
+    </row>
+    <row r="116" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="22"/>
+    </row>
+    <row r="117" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="22"/>
+    </row>
+    <row r="118" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="22"/>
+    </row>
+    <row r="119" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="22"/>
+    </row>
+    <row r="120" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="22"/>
+    </row>
+    <row r="121" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="22"/>
+    </row>
+    <row r="122" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="22"/>
+    </row>
+    <row r="123" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="22"/>
+    </row>
+    <row r="124" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="22"/>
+    </row>
+    <row r="125" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="22"/>
+    </row>
+    <row r="126" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="22"/>
+    </row>
+    <row r="127" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="22"/>
+    </row>
+    <row r="128" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="22"/>
+    </row>
+    <row r="129" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="22"/>
+    </row>
+    <row r="130" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="22"/>
+    </row>
+    <row r="131" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="22"/>
+    </row>
+    <row r="132" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="22"/>
+    </row>
+    <row r="133" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="22"/>
+    </row>
+    <row r="134" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="22"/>
+    </row>
+    <row r="135" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="22"/>
+    </row>
+    <row r="136" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="22"/>
+    </row>
+    <row r="137" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="22"/>
+    </row>
+    <row r="138" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="22"/>
+    </row>
+    <row r="139" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="22"/>
+    </row>
+    <row r="140" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="22"/>
+    </row>
+    <row r="141" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="22"/>
+    </row>
+    <row r="142" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="22"/>
+    </row>
+    <row r="143" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="22"/>
+    </row>
+    <row r="144" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="22"/>
+    </row>
+    <row r="145" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="22"/>
+    </row>
+    <row r="146" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="22"/>
+    </row>
+    <row r="147" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="22"/>
+    </row>
+    <row r="148" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="22"/>
+    </row>
+    <row r="149" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="22"/>
+    </row>
+    <row r="150" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="22"/>
+    </row>
+    <row r="151" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="22"/>
+    </row>
+    <row r="152" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="22"/>
+    </row>
+    <row r="153" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="22"/>
+    </row>
+    <row r="154" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="22"/>
+    </row>
+    <row r="155" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="22"/>
+    </row>
+    <row r="156" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="22"/>
+    </row>
+    <row r="157" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="22"/>
+    </row>
+    <row r="158" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="22"/>
+    </row>
+    <row r="159" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="22"/>
+    </row>
+    <row r="160" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="22"/>
+    </row>
+    <row r="161" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="22"/>
+    </row>
+    <row r="162" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="22"/>
+    </row>
+    <row r="163" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="22"/>
+    </row>
+    <row r="164" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="22"/>
+    </row>
+    <row r="165" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="22"/>
+    </row>
+    <row r="166" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="22"/>
+    </row>
+    <row r="167" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="22"/>
+    </row>
+    <row r="168" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="22"/>
+    </row>
+    <row r="169" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="22"/>
+    </row>
+    <row r="170" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="22"/>
+    </row>
+    <row r="171" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="22"/>
+    </row>
+    <row r="172" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="22"/>
+    </row>
+    <row r="173" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="22"/>
+    </row>
+    <row r="174" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="22"/>
+    </row>
+    <row r="175" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="22"/>
+    </row>
+    <row r="176" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="22"/>
+    </row>
+    <row r="177" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="22"/>
+    </row>
+    <row r="178" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="22"/>
+    </row>
+    <row r="179" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="22"/>
+    </row>
+    <row r="180" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="22"/>
+    </row>
+    <row r="181" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="22"/>
+    </row>
+    <row r="182" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="22"/>
+    </row>
+    <row r="183" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="22"/>
+    </row>
+    <row r="184" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="22"/>
+    </row>
+    <row r="185" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="22"/>
+    </row>
+    <row r="186" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="22"/>
+    </row>
+    <row r="187" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="22"/>
+    </row>
+    <row r="188" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="22"/>
+    </row>
+    <row r="189" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="22"/>
+    </row>
+    <row r="190" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="22"/>
+    </row>
+    <row r="191" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="22"/>
+    </row>
+    <row r="192" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="22"/>
+    </row>
+    <row r="193" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="22"/>
+    </row>
+    <row r="194" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="22"/>
+    </row>
+    <row r="195" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="22"/>
+    </row>
+    <row r="196" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="22"/>
+    </row>
+    <row r="197" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="22"/>
+    </row>
+    <row r="198" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="22"/>
+    </row>
+    <row r="199" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="22"/>
+    </row>
+    <row r="200" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="22"/>
+    </row>
+    <row r="201" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="22"/>
+    </row>
+    <row r="202" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="22"/>
+    </row>
+    <row r="203" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="22"/>
+    </row>
+    <row r="204" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="22"/>
+    </row>
+    <row r="205" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="22"/>
+    </row>
+    <row r="206" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="22"/>
+    </row>
+    <row r="207" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="22"/>
+    </row>
+    <row r="208" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="22"/>
+    </row>
+    <row r="209" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="22"/>
+    </row>
+    <row r="210" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="22"/>
+    </row>
+    <row r="211" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="22"/>
+    </row>
+    <row r="212" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="22"/>
+    </row>
+    <row r="213" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="22"/>
+    </row>
+    <row r="214" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="22"/>
+    </row>
+    <row r="215" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="22"/>
+    </row>
+    <row r="216" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="22"/>
+    </row>
+    <row r="217" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="22"/>
+    </row>
+    <row r="218" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="22"/>
+    </row>
+    <row r="219" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="22"/>
+    </row>
+    <row r="220" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="22"/>
+    </row>
+    <row r="221" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="22"/>
+    </row>
+    <row r="222" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="22"/>
+    </row>
+    <row r="223" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="22"/>
+    </row>
+    <row r="224" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="22"/>
+    </row>
+    <row r="225" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="22"/>
+    </row>
+    <row r="226" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="22"/>
+    </row>
+    <row r="227" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="22"/>
+    </row>
+    <row r="228" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="22"/>
+    </row>
+    <row r="229" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="22"/>
+    </row>
+    <row r="230" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="22"/>
+    </row>
+    <row r="231" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="22"/>
+    </row>
+    <row r="232" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="22"/>
+    </row>
+    <row r="233" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="22"/>
+    </row>
+    <row r="234" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="22"/>
+    </row>
+    <row r="235" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="22"/>
+    </row>
+    <row r="236" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="22"/>
+    </row>
+    <row r="237" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="22"/>
+    </row>
+    <row r="238" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="22"/>
+    </row>
+    <row r="239" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="22"/>
+    </row>
+    <row r="240" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="22"/>
+    </row>
+    <row r="241" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="22"/>
+    </row>
+    <row r="242" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="22"/>
+    </row>
+    <row r="243" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="22"/>
+    </row>
+    <row r="244" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="22"/>
+    </row>
+    <row r="245" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="22"/>
+    </row>
+    <row r="246" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="22"/>
+    </row>
+    <row r="247" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="22"/>
+    </row>
+    <row r="248" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="22"/>
+    </row>
+    <row r="249" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="22"/>
+    </row>
+    <row r="250" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="22"/>
+    </row>
+    <row r="251" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="22"/>
+    </row>
+    <row r="252" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="22"/>
+    </row>
+    <row r="253" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="22"/>
+    </row>
+    <row r="254" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="22"/>
+    </row>
+    <row r="255" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="22"/>
+    </row>
+    <row r="256" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="22"/>
+    </row>
+    <row r="257" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="22"/>
+    </row>
+    <row r="258" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="22"/>
+    </row>
+    <row r="259" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A259" s="22"/>
+    </row>
+    <row r="260" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="22"/>
+    </row>
+    <row r="261" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A261" s="22"/>
+    </row>
+    <row r="262" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="22"/>
+    </row>
+    <row r="263" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A263" s="22"/>
+    </row>
+    <row r="264" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A264" s="22"/>
+    </row>
+    <row r="265" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="22"/>
+    </row>
+    <row r="266" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="22"/>
+    </row>
+    <row r="267" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="22"/>
+    </row>
+    <row r="268" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="22"/>
+    </row>
+    <row r="269" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="22"/>
+    </row>
+    <row r="270" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="22"/>
+    </row>
+    <row r="271" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="22"/>
+    </row>
+    <row r="272" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="22"/>
+    </row>
+    <row r="273" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="22"/>
+    </row>
+    <row r="274" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="22"/>
+    </row>
+    <row r="275" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="22"/>
+    </row>
+    <row r="276" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="22"/>
+    </row>
+    <row r="277" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="22"/>
+    </row>
+    <row r="278" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="22"/>
+    </row>
+    <row r="279" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="22"/>
+    </row>
+    <row r="280" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="22"/>
+    </row>
+    <row r="281" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="22"/>
+    </row>
+    <row r="282" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="22"/>
+    </row>
+    <row r="283" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="22"/>
+    </row>
+    <row r="284" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="22"/>
+    </row>
+    <row r="285" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="22"/>
+    </row>
+    <row r="286" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="22"/>
+    </row>
+    <row r="287" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="22"/>
+    </row>
+    <row r="288" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="22"/>
+    </row>
+    <row r="289" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="22"/>
+    </row>
+    <row r="290" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="22"/>
+    </row>
+    <row r="291" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="22"/>
+    </row>
+    <row r="292" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="22"/>
+    </row>
+    <row r="293" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="22"/>
+    </row>
+    <row r="294" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="22"/>
+    </row>
+    <row r="295" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="22"/>
+    </row>
+    <row r="296" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="22"/>
+    </row>
+    <row r="297" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="22"/>
+    </row>
+    <row r="298" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="22"/>
+    </row>
+    <row r="299" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="22"/>
+    </row>
+    <row r="300" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="22"/>
+    </row>
+    <row r="301" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="22"/>
+    </row>
+    <row r="302" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="22"/>
+    </row>
+    <row r="303" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="22"/>
+    </row>
+    <row r="304" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="22"/>
+    </row>
+    <row r="305" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="22"/>
+    </row>
+    <row r="306" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A306" s="22"/>
+    </row>
+    <row r="307" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="22"/>
+    </row>
+    <row r="308" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="22"/>
+    </row>
+    <row r="309" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A309" s="22"/>
+    </row>
+    <row r="310" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A310" s="22"/>
+    </row>
+    <row r="311" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="22"/>
+    </row>
+    <row r="312" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="22"/>
+    </row>
+    <row r="313" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="22"/>
+    </row>
+    <row r="314" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A314" s="22"/>
+    </row>
+    <row r="315" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A315" s="22"/>
+    </row>
+    <row r="316" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="22"/>
+    </row>
+    <row r="317" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A317" s="22"/>
+    </row>
+    <row r="318" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A318" s="22"/>
+    </row>
+    <row r="319" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A319" s="22"/>
+    </row>
+    <row r="320" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="22"/>
+    </row>
+    <row r="321" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="22"/>
+    </row>
+    <row r="322" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="22"/>
+    </row>
+    <row r="323" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A323" s="22"/>
+    </row>
+    <row r="324" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A324" s="22"/>
+    </row>
+    <row r="325" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A325" s="22"/>
+    </row>
+    <row r="326" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A326" s="22"/>
+    </row>
+    <row r="327" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="22"/>
+    </row>
+    <row r="328" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A328" s="22"/>
+    </row>
+    <row r="329" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A329" s="22"/>
+    </row>
+    <row r="330" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A330" s="22"/>
+    </row>
+    <row r="331" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A331" s="22"/>
+    </row>
+    <row r="332" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="22"/>
+    </row>
+    <row r="333" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A333" s="22"/>
+    </row>
+    <row r="334" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A334" s="22"/>
+    </row>
+    <row r="335" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A335" s="22"/>
+    </row>
+    <row r="336" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A336" s="22"/>
+    </row>
+    <row r="337" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A337" s="22"/>
+    </row>
+    <row r="338" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A338" s="22"/>
+    </row>
+    <row r="339" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="22"/>
+    </row>
+    <row r="340" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A340" s="22"/>
+    </row>
+    <row r="341" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A341" s="22"/>
+    </row>
+    <row r="342" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A342" s="22"/>
+    </row>
+    <row r="343" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="22"/>
+    </row>
+    <row r="344" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="22"/>
+    </row>
+    <row r="345" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="22"/>
+    </row>
+    <row r="346" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A346" s="22"/>
+    </row>
+    <row r="347" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A347" s="22"/>
+    </row>
+    <row r="348" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="22"/>
+    </row>
+    <row r="349" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A349" s="22"/>
+    </row>
+    <row r="350" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="22"/>
+    </row>
+    <row r="351" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A351" s="22"/>
+    </row>
+    <row r="352" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="22"/>
+    </row>
+    <row r="353" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A353" s="22"/>
+    </row>
+    <row r="354" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="22"/>
+    </row>
+    <row r="355" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A355" s="22"/>
+    </row>
+    <row r="356" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="22"/>
+    </row>
+    <row r="357" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A357" s="22"/>
+    </row>
+    <row r="358" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A358" s="22"/>
+    </row>
+    <row r="359" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A359" s="22"/>
+    </row>
+    <row r="360" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A360" s="22"/>
+    </row>
+    <row r="361" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A361" s="22"/>
+    </row>
+    <row r="362" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A362" s="22"/>
+    </row>
+    <row r="363" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A363" s="22"/>
+    </row>
+    <row r="364" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A364" s="22"/>
+    </row>
+    <row r="365" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A365" s="22"/>
+    </row>
+    <row r="366" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A366" s="22"/>
+    </row>
+    <row r="367" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A367" s="22"/>
+    </row>
+    <row r="368" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="22"/>
+    </row>
+    <row r="369" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A369" s="22"/>
+    </row>
+    <row r="370" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A370" s="22"/>
+    </row>
+    <row r="371" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A371" s="22"/>
+    </row>
+    <row r="372" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A372" s="22"/>
+    </row>
+    <row r="373" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A373" s="22"/>
+    </row>
+    <row r="374" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A374" s="22"/>
+    </row>
+    <row r="375" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A375" s="22"/>
+    </row>
+    <row r="376" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A376" s="22"/>
+    </row>
+    <row r="377" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A377" s="22"/>
+    </row>
+    <row r="378" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A378" s="22"/>
+    </row>
+    <row r="379" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A379" s="22"/>
+    </row>
+    <row r="380" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A380" s="22"/>
+    </row>
+    <row r="381" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A381" s="22"/>
+    </row>
+    <row r="382" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A382" s="22"/>
+    </row>
+    <row r="383" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A383" s="22"/>
+    </row>
+    <row r="384" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A384" s="22"/>
+    </row>
+    <row r="385" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A385" s="22"/>
+    </row>
+    <row r="386" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A386" s="22"/>
+    </row>
+    <row r="387" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="22"/>
+    </row>
+    <row r="388" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A388" s="22"/>
+    </row>
+    <row r="389" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A389" s="22"/>
+    </row>
+    <row r="390" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A390" s="22"/>
+    </row>
+    <row r="391" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A391" s="22"/>
+    </row>
+    <row r="392" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A392" s="22"/>
+    </row>
+    <row r="393" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A393" s="22"/>
+    </row>
+    <row r="394" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A394" s="22"/>
+    </row>
+    <row r="395" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A395" s="22"/>
+    </row>
+    <row r="396" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A396" s="22"/>
+    </row>
+    <row r="397" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A397" s="22"/>
+    </row>
+    <row r="398" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A398" s="22"/>
+    </row>
+    <row r="399" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A399" s="22"/>
+    </row>
+    <row r="400" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A400" s="22"/>
+    </row>
+    <row r="401" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A401" s="22"/>
+    </row>
+    <row r="402" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A402" s="22"/>
+    </row>
+    <row r="403" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A403" s="22"/>
+    </row>
+    <row r="404" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A404" s="22"/>
+    </row>
+    <row r="405" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A405" s="22"/>
+    </row>
+    <row r="406" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A406" s="22"/>
+    </row>
+    <row r="407" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A407" s="22"/>
+    </row>
+    <row r="408" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A408" s="22"/>
+    </row>
+    <row r="409" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A409" s="22"/>
+    </row>
+    <row r="410" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A410" s="22"/>
+    </row>
+    <row r="411" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A411" s="22"/>
+    </row>
+    <row r="412" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A412" s="22"/>
+    </row>
+    <row r="413" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A413" s="22"/>
+    </row>
+    <row r="414" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A414" s="22"/>
+    </row>
+    <row r="415" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A415" s="22"/>
+    </row>
+    <row r="416" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A416" s="22"/>
+    </row>
+    <row r="417" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A417" s="22"/>
+    </row>
+    <row r="418" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A418" s="22"/>
+    </row>
+    <row r="419" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A419" s="22"/>
+    </row>
+    <row r="420" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A420" s="22"/>
+    </row>
+    <row r="421" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A421" s="22"/>
+    </row>
+    <row r="422" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A422" s="22"/>
+    </row>
+    <row r="423" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A423" s="22"/>
+    </row>
+    <row r="424" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A424" s="22"/>
+    </row>
+    <row r="425" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A425" s="22"/>
+    </row>
+    <row r="426" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A426" s="22"/>
+    </row>
+    <row r="427" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A427" s="22"/>
+    </row>
+    <row r="428" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A428" s="22"/>
+    </row>
+    <row r="429" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A429" s="22"/>
+    </row>
+    <row r="430" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A430" s="22"/>
+    </row>
+    <row r="431" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A431" s="22"/>
+    </row>
+    <row r="432" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A432" s="22"/>
+    </row>
+    <row r="433" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A433" s="22"/>
+    </row>
+    <row r="434" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A434" s="22"/>
+    </row>
+    <row r="435" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A435" s="22"/>
+    </row>
+    <row r="436" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A436" s="22"/>
+    </row>
+    <row r="437" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A437" s="22"/>
+    </row>
+    <row r="438" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A438" s="22"/>
+    </row>
+    <row r="439" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A439" s="22"/>
+    </row>
+    <row r="440" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A440" s="22"/>
+    </row>
+    <row r="441" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A441" s="22"/>
+    </row>
+    <row r="442" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A442" s="22"/>
+    </row>
+    <row r="443" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A443" s="22"/>
+    </row>
+    <row r="444" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A444" s="22"/>
+    </row>
+    <row r="445" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A445" s="22"/>
+    </row>
+    <row r="446" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A446" s="22"/>
+    </row>
+    <row r="447" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A447" s="22"/>
+    </row>
+    <row r="448" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A448" s="22"/>
+    </row>
+    <row r="449" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A449" s="22"/>
+    </row>
+    <row r="450" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A450" s="22"/>
+    </row>
+    <row r="451" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A451" s="22"/>
+    </row>
+    <row r="452" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A452" s="22"/>
+    </row>
+    <row r="453" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A453" s="22"/>
+    </row>
+    <row r="454" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A454" s="22"/>
+    </row>
+    <row r="455" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A455" s="22"/>
+    </row>
+    <row r="456" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A456" s="22"/>
+    </row>
+    <row r="457" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A457" s="22"/>
+    </row>
+    <row r="458" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A458" s="22"/>
+    </row>
+    <row r="459" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A459" s="22"/>
+    </row>
+    <row r="460" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A460" s="22"/>
+    </row>
+    <row r="461" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A461" s="22"/>
+    </row>
+    <row r="462" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A462" s="22"/>
+    </row>
+    <row r="463" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A463" s="22"/>
+    </row>
+    <row r="464" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A464" s="22"/>
+    </row>
+    <row r="465" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A465" s="22"/>
+    </row>
+    <row r="466" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A466" s="22"/>
+    </row>
+    <row r="467" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A467" s="22"/>
+    </row>
+    <row r="468" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A468" s="22"/>
+    </row>
+    <row r="469" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A469" s="22"/>
+    </row>
+    <row r="470" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A470" s="22"/>
+    </row>
+    <row r="471" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A471" s="22"/>
+    </row>
+    <row r="472" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A472" s="22"/>
+    </row>
+    <row r="473" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A473" s="22"/>
+    </row>
+    <row r="474" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A474" s="22"/>
+    </row>
+    <row r="475" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A475" s="22"/>
+    </row>
+    <row r="476" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A476" s="22"/>
+    </row>
+    <row r="477" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A477" s="22"/>
+    </row>
+    <row r="478" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A478" s="22"/>
+    </row>
+    <row r="479" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A479" s="22"/>
+    </row>
+    <row r="480" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A480" s="22"/>
+    </row>
+    <row r="481" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A481" s="22"/>
+    </row>
+    <row r="482" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A482" s="22"/>
+    </row>
+    <row r="483" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A483" s="22"/>
+    </row>
+    <row r="484" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A484" s="22"/>
+    </row>
+    <row r="485" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A485" s="22"/>
+    </row>
+    <row r="486" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A486" s="22"/>
+    </row>
+    <row r="487" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A487" s="22"/>
+    </row>
+    <row r="488" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A488" s="22"/>
+    </row>
+    <row r="489" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A489" s="22"/>
+    </row>
+    <row r="490" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A490" s="22"/>
+    </row>
+    <row r="491" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A491" s="22"/>
+    </row>
+    <row r="492" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A492" s="22"/>
+    </row>
+    <row r="493" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A493" s="22"/>
+    </row>
+    <row r="494" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A494" s="22"/>
+    </row>
+    <row r="495" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A495" s="22"/>
+    </row>
+    <row r="496" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A496" s="22"/>
+    </row>
+    <row r="497" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A497" s="22"/>
+    </row>
+    <row r="498" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A498" s="22"/>
+    </row>
+    <row r="499" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A499" s="22"/>
+    </row>
+    <row r="500" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A500" s="22"/>
+    </row>
+    <row r="501" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A501" s="22"/>
+    </row>
+    <row r="502" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A502" s="22"/>
+    </row>
+    <row r="503" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A503" s="22"/>
+    </row>
+    <row r="504" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A504" s="22"/>
+    </row>
+    <row r="505" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A505" s="22"/>
+    </row>
+    <row r="506" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A506" s="22"/>
+    </row>
+    <row r="507" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A507" s="22"/>
+    </row>
+    <row r="508" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A508" s="22"/>
+    </row>
+    <row r="509" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A509" s="22"/>
+    </row>
+    <row r="510" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A510" s="22"/>
+    </row>
+    <row r="511" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A511" s="22"/>
+    </row>
+    <row r="512" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A512" s="22"/>
+    </row>
+    <row r="513" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A513" s="22"/>
+    </row>
+    <row r="514" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A514" s="22"/>
+    </row>
+    <row r="515" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A515" s="22"/>
+    </row>
+    <row r="516" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A516" s="22"/>
+    </row>
+    <row r="517" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A517" s="22"/>
+    </row>
+    <row r="518" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A518" s="22"/>
+    </row>
+    <row r="519" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A519" s="22"/>
+    </row>
+    <row r="520" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A520" s="22"/>
+    </row>
+    <row r="521" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A521" s="22"/>
+    </row>
+    <row r="522" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A522" s="22"/>
+    </row>
+    <row r="523" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A523" s="22"/>
+    </row>
+    <row r="524" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A524" s="22"/>
+    </row>
+    <row r="525" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A525" s="22"/>
+    </row>
+    <row r="526" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A526" s="22"/>
+    </row>
+    <row r="527" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A527" s="22"/>
+    </row>
+    <row r="528" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A528" s="22"/>
+    </row>
+    <row r="529" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A529" s="22"/>
+    </row>
+    <row r="530" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A530" s="22"/>
+    </row>
+    <row r="531" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A531" s="22"/>
+    </row>
+    <row r="532" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A532" s="22"/>
+    </row>
+    <row r="533" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A533" s="22"/>
+    </row>
+    <row r="534" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A534" s="22"/>
+    </row>
+    <row r="535" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A535" s="22"/>
+    </row>
+    <row r="536" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A536" s="22"/>
+    </row>
+    <row r="537" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A537" s="22"/>
+    </row>
+    <row r="538" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A538" s="22"/>
+    </row>
+    <row r="539" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A539" s="22"/>
+    </row>
+    <row r="540" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A540" s="22"/>
+    </row>
+    <row r="541" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A541" s="22"/>
+    </row>
+    <row r="542" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A542" s="22"/>
+    </row>
+    <row r="543" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A543" s="22"/>
+    </row>
+    <row r="544" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A544" s="22"/>
+    </row>
+    <row r="545" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A545" s="22"/>
+    </row>
+    <row r="546" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A546" s="22"/>
+    </row>
+    <row r="547" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A547" s="22"/>
+    </row>
+    <row r="548" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A548" s="22"/>
+    </row>
+    <row r="549" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A549" s="22"/>
+    </row>
+    <row r="550" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A550" s="22"/>
+    </row>
+    <row r="551" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A551" s="22"/>
+    </row>
+    <row r="552" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A552" s="22"/>
+    </row>
+    <row r="553" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A553" s="22"/>
+    </row>
+    <row r="554" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A554" s="22"/>
+    </row>
+    <row r="555" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A555" s="22"/>
+    </row>
+    <row r="556" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A556" s="22"/>
+    </row>
+    <row r="557" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A557" s="22"/>
+    </row>
+    <row r="558" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A558" s="22"/>
+    </row>
+    <row r="559" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A559" s="22"/>
+    </row>
+    <row r="560" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A560" s="22"/>
+    </row>
+    <row r="561" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A561" s="22"/>
+    </row>
+    <row r="562" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A562" s="22"/>
+    </row>
+    <row r="563" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A563" s="22"/>
+    </row>
+    <row r="564" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A564" s="22"/>
+    </row>
+    <row r="565" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A565" s="22"/>
+    </row>
+    <row r="566" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A566" s="22"/>
+    </row>
+    <row r="567" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A567" s="22"/>
+    </row>
+    <row r="568" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A568" s="22"/>
+    </row>
+    <row r="569" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A569" s="22"/>
+    </row>
+    <row r="570" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A570" s="22"/>
+    </row>
+    <row r="571" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A571" s="22"/>
+    </row>
+    <row r="572" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A572" s="22"/>
+    </row>
+    <row r="573" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A573" s="22"/>
+    </row>
+    <row r="574" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A574" s="22"/>
+    </row>
+    <row r="575" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A575" s="22"/>
+    </row>
+    <row r="576" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A576" s="22"/>
+    </row>
+    <row r="577" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A577" s="22"/>
+    </row>
+    <row r="578" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A578" s="22"/>
+    </row>
+    <row r="579" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A579" s="22"/>
+    </row>
+    <row r="580" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A580" s="22"/>
+    </row>
+    <row r="581" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A581" s="22"/>
+    </row>
+    <row r="582" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A582" s="22"/>
+    </row>
+    <row r="583" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A583" s="22"/>
+    </row>
+    <row r="584" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A584" s="22"/>
+    </row>
+    <row r="585" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A585" s="22"/>
+    </row>
+    <row r="586" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A586" s="22"/>
+    </row>
+    <row r="587" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A587" s="22"/>
+    </row>
+    <row r="588" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A588" s="22"/>
+    </row>
+    <row r="589" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A589" s="22"/>
+    </row>
+    <row r="590" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A590" s="22"/>
+    </row>
+    <row r="591" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A591" s="22"/>
+    </row>
+    <row r="592" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A592" s="22"/>
+    </row>
+    <row r="593" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A593" s="22"/>
+    </row>
+    <row r="594" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A594" s="22"/>
+    </row>
+    <row r="595" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A595" s="22"/>
+    </row>
+    <row r="596" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A596" s="22"/>
+    </row>
+    <row r="597" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A597" s="22"/>
+    </row>
+    <row r="598" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A598" s="22"/>
+    </row>
+    <row r="599" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A599" s="22"/>
+    </row>
+    <row r="600" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A600" s="22"/>
+    </row>
+    <row r="601" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A601" s="22"/>
+    </row>
+    <row r="602" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A602" s="22"/>
+    </row>
+    <row r="603" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A603" s="22"/>
+    </row>
+    <row r="604" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A604" s="22"/>
+    </row>
+    <row r="605" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A605" s="22"/>
+    </row>
+    <row r="606" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A606" s="22"/>
+    </row>
+    <row r="607" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A607" s="22"/>
+    </row>
+    <row r="608" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A608" s="22"/>
+    </row>
+    <row r="609" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A609" s="22"/>
+    </row>
+    <row r="610" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A610" s="22"/>
+    </row>
+    <row r="611" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A611" s="22"/>
+    </row>
+    <row r="612" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A612" s="22"/>
+    </row>
+    <row r="613" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A613" s="22"/>
+    </row>
+    <row r="614" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A614" s="22"/>
+    </row>
+    <row r="615" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A615" s="22"/>
+    </row>
+    <row r="616" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A616" s="22"/>
+    </row>
+    <row r="617" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A617" s="22"/>
+    </row>
+    <row r="618" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A618" s="22"/>
+    </row>
+    <row r="619" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A619" s="22"/>
+    </row>
+    <row r="620" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A620" s="22"/>
+    </row>
+    <row r="621" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A621" s="22"/>
+    </row>
+    <row r="622" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A622" s="22"/>
+    </row>
+    <row r="623" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A623" s="22"/>
+    </row>
+    <row r="624" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A624" s="22"/>
+    </row>
+    <row r="625" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A625" s="22"/>
+    </row>
+    <row r="626" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A626" s="22"/>
+    </row>
+    <row r="627" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A627" s="22"/>
+    </row>
+    <row r="628" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A628" s="22"/>
+    </row>
+    <row r="629" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A629" s="22"/>
+    </row>
+    <row r="630" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A630" s="22"/>
+    </row>
+    <row r="631" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A631" s="22"/>
+    </row>
+    <row r="632" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A632" s="22"/>
+    </row>
+    <row r="633" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A633" s="22"/>
+    </row>
+    <row r="634" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A634" s="22"/>
+    </row>
+    <row r="635" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A635" s="22"/>
+    </row>
+    <row r="636" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A636" s="22"/>
+    </row>
+    <row r="637" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A637" s="22"/>
+    </row>
+    <row r="638" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A638" s="22"/>
+    </row>
+    <row r="639" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A639" s="22"/>
+    </row>
+    <row r="640" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A640" s="22"/>
+    </row>
+    <row r="641" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A641" s="22"/>
+    </row>
+    <row r="642" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A642" s="22"/>
+    </row>
+    <row r="643" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A643" s="22"/>
+    </row>
+    <row r="644" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A644" s="22"/>
+    </row>
+    <row r="645" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A645" s="22"/>
+    </row>
+    <row r="646" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A646" s="22"/>
+    </row>
+    <row r="647" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A647" s="22"/>
+    </row>
+    <row r="648" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A648" s="22"/>
+    </row>
+    <row r="649" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A649" s="22"/>
+    </row>
+    <row r="650" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A650" s="22"/>
+    </row>
+    <row r="651" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A651" s="22"/>
+    </row>
+    <row r="652" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A652" s="22"/>
+    </row>
+    <row r="653" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A653" s="22"/>
+    </row>
+    <row r="654" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A654" s="22"/>
+    </row>
+    <row r="655" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A655" s="22"/>
+    </row>
+    <row r="656" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A656" s="22"/>
+    </row>
+    <row r="657" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A657" s="22"/>
+    </row>
+    <row r="658" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A658" s="22"/>
+    </row>
+    <row r="659" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A659" s="22"/>
+    </row>
+    <row r="660" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A660" s="22"/>
+    </row>
+    <row r="661" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A661" s="22"/>
+    </row>
+    <row r="662" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A662" s="22"/>
+    </row>
+    <row r="663" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A663" s="22"/>
+    </row>
+    <row r="664" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A664" s="22"/>
+    </row>
+    <row r="665" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A665" s="22"/>
+    </row>
+    <row r="666" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A666" s="22"/>
+    </row>
+    <row r="667" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A667" s="22"/>
+    </row>
+    <row r="668" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A668" s="22"/>
+    </row>
+    <row r="669" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A669" s="22"/>
+    </row>
+    <row r="670" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A670" s="22"/>
+    </row>
+    <row r="671" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A671" s="22"/>
+    </row>
+    <row r="672" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A672" s="22"/>
+    </row>
+    <row r="673" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A673" s="22"/>
+    </row>
+    <row r="674" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A674" s="22"/>
+    </row>
+    <row r="675" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A675" s="22"/>
+    </row>
+    <row r="676" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A676" s="22"/>
+    </row>
+    <row r="677" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A677" s="22"/>
+    </row>
+    <row r="678" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A678" s="22"/>
+    </row>
+    <row r="679" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A679" s="22"/>
+    </row>
+    <row r="680" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A680" s="22"/>
+    </row>
+    <row r="681" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A681" s="22"/>
+    </row>
+    <row r="682" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A682" s="22"/>
+    </row>
+    <row r="683" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A683" s="22"/>
+    </row>
+    <row r="684" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A684" s="22"/>
+    </row>
+    <row r="685" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A685" s="22"/>
+    </row>
+    <row r="686" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A686" s="22"/>
+    </row>
+    <row r="687" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A687" s="22"/>
+    </row>
+    <row r="688" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A688" s="22"/>
+    </row>
+    <row r="689" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A689" s="22"/>
+    </row>
+    <row r="690" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A690" s="22"/>
+    </row>
+    <row r="691" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A691" s="22"/>
+    </row>
+    <row r="692" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A692" s="22"/>
+    </row>
+    <row r="693" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A693" s="22"/>
+    </row>
+    <row r="694" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A694" s="22"/>
+    </row>
+    <row r="695" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A695" s="22"/>
+    </row>
+    <row r="696" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A696" s="22"/>
+    </row>
+    <row r="697" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A697" s="22"/>
+    </row>
+    <row r="698" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A698" s="22"/>
+    </row>
+    <row r="699" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A699" s="22"/>
+    </row>
+    <row r="700" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A700" s="22"/>
+    </row>
+    <row r="701" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A701" s="22"/>
+    </row>
+    <row r="702" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A702" s="22"/>
+    </row>
+    <row r="703" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A703" s="22"/>
+    </row>
+    <row r="704" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A704" s="22"/>
+    </row>
+    <row r="705" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A705" s="22"/>
+    </row>
+    <row r="706" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A706" s="22"/>
+    </row>
+    <row r="707" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A707" s="22"/>
+    </row>
+    <row r="708" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A708" s="22"/>
+    </row>
+    <row r="709" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A709" s="22"/>
+    </row>
+    <row r="710" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A710" s="22"/>
+    </row>
+    <row r="711" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A711" s="22"/>
+    </row>
+    <row r="712" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A712" s="22"/>
+    </row>
+    <row r="713" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A713" s="22"/>
+    </row>
+    <row r="714" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A714" s="22"/>
+    </row>
+    <row r="715" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A715" s="22"/>
+    </row>
+    <row r="716" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A716" s="22"/>
+    </row>
+    <row r="717" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A717" s="22"/>
+    </row>
+    <row r="718" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A718" s="22"/>
+    </row>
+    <row r="719" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A719" s="22"/>
+    </row>
+    <row r="720" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A720" s="22"/>
+    </row>
+    <row r="721" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A721" s="22"/>
+    </row>
+    <row r="722" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A722" s="22"/>
+    </row>
+    <row r="723" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A723" s="22"/>
+    </row>
+    <row r="724" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A724" s="22"/>
+    </row>
+    <row r="725" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A725" s="22"/>
+    </row>
+    <row r="726" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A726" s="22"/>
+    </row>
+    <row r="727" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A727" s="22"/>
+    </row>
+    <row r="728" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A728" s="22"/>
+    </row>
+    <row r="729" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A729" s="22"/>
+    </row>
+    <row r="730" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A730" s="22"/>
+    </row>
+    <row r="731" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A731" s="22"/>
+    </row>
+    <row r="732" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A732" s="22"/>
+    </row>
+    <row r="733" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A733" s="22"/>
+    </row>
+    <row r="734" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A734" s="22"/>
+    </row>
+    <row r="735" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A735" s="22"/>
+    </row>
+    <row r="736" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A736" s="22"/>
+    </row>
+    <row r="737" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A737" s="22"/>
+    </row>
+    <row r="738" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A738" s="22"/>
+    </row>
+    <row r="739" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A739" s="22"/>
+    </row>
+    <row r="740" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A740" s="22"/>
+    </row>
+    <row r="741" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A741" s="22"/>
+    </row>
+    <row r="742" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A742" s="22"/>
+    </row>
+    <row r="743" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A743" s="22"/>
+    </row>
+    <row r="744" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A744" s="22"/>
+    </row>
+    <row r="745" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A745" s="22"/>
+    </row>
+    <row r="746" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A746" s="22"/>
+    </row>
+    <row r="747" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A747" s="22"/>
+    </row>
+    <row r="748" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A748" s="22"/>
+    </row>
+    <row r="749" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A749" s="22"/>
+    </row>
+    <row r="750" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A750" s="22"/>
+    </row>
+    <row r="751" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A751" s="22"/>
+    </row>
+    <row r="752" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A752" s="22"/>
+    </row>
+    <row r="753" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A753" s="22"/>
+    </row>
+    <row r="754" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A754" s="22"/>
+    </row>
+    <row r="755" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A755" s="22"/>
+    </row>
+    <row r="756" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A756" s="22"/>
+    </row>
+    <row r="757" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A757" s="22"/>
+    </row>
+    <row r="758" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A758" s="22"/>
+    </row>
+    <row r="759" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A759" s="22"/>
+    </row>
+    <row r="760" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A760" s="22"/>
+    </row>
+    <row r="761" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A761" s="22"/>
+    </row>
+    <row r="762" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A762" s="22"/>
+    </row>
+    <row r="763" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A763" s="22"/>
+    </row>
+    <row r="764" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A764" s="22"/>
+    </row>
+    <row r="765" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A765" s="22"/>
+    </row>
+    <row r="766" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A766" s="22"/>
+    </row>
+    <row r="767" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A767" s="22"/>
+    </row>
+    <row r="768" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A768" s="22"/>
+    </row>
+    <row r="769" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A769" s="22"/>
+    </row>
+    <row r="770" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A770" s="22"/>
+    </row>
+    <row r="771" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A771" s="22"/>
+    </row>
+    <row r="772" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A772" s="22"/>
+    </row>
+    <row r="773" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A773" s="22"/>
+    </row>
+    <row r="774" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A774" s="22"/>
+    </row>
+    <row r="775" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A775" s="22"/>
+    </row>
+    <row r="776" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A776" s="22"/>
+    </row>
+    <row r="777" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A777" s="22"/>
+    </row>
+    <row r="778" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A778" s="22"/>
+    </row>
+    <row r="779" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A779" s="22"/>
+    </row>
+    <row r="780" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A780" s="22"/>
+    </row>
+    <row r="781" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A781" s="22"/>
+    </row>
+    <row r="782" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A782" s="22"/>
+    </row>
+    <row r="783" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A783" s="22"/>
+    </row>
+    <row r="784" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A784" s="22"/>
+    </row>
+    <row r="785" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A785" s="22"/>
+    </row>
+    <row r="786" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A786" s="22"/>
+    </row>
+    <row r="787" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A787" s="22"/>
+    </row>
+    <row r="788" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A788" s="22"/>
+    </row>
+    <row r="789" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A789" s="22"/>
+    </row>
+    <row r="790" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A790" s="22"/>
+    </row>
+    <row r="791" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A791" s="22"/>
+    </row>
+    <row r="792" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A792" s="22"/>
+    </row>
+    <row r="793" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A793" s="22"/>
+    </row>
+    <row r="794" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A794" s="22"/>
+    </row>
+    <row r="795" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A795" s="22"/>
+    </row>
+    <row r="796" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A796" s="22"/>
+    </row>
+    <row r="797" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A797" s="22"/>
+    </row>
+    <row r="798" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A798" s="22"/>
+    </row>
+    <row r="799" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A799" s="22"/>
+    </row>
+    <row r="800" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A800" s="22"/>
+    </row>
+    <row r="801" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A801" s="22"/>
+    </row>
+    <row r="802" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A802" s="22"/>
+    </row>
+    <row r="803" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A803" s="22"/>
+    </row>
+    <row r="804" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A804" s="22"/>
+    </row>
+    <row r="805" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A805" s="22"/>
+    </row>
+    <row r="806" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A806" s="22"/>
+    </row>
+    <row r="807" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A807" s="22"/>
+    </row>
+    <row r="808" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A808" s="22"/>
+    </row>
+    <row r="809" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A809" s="22"/>
+    </row>
+    <row r="810" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A810" s="22"/>
+    </row>
+    <row r="811" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A811" s="22"/>
+    </row>
+    <row r="812" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A812" s="22"/>
+    </row>
+    <row r="813" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A813" s="22"/>
+    </row>
+    <row r="814" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A814" s="22"/>
+    </row>
+    <row r="815" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A815" s="22"/>
+    </row>
+    <row r="816" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A816" s="22"/>
+    </row>
+    <row r="817" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A817" s="22"/>
+    </row>
+    <row r="818" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A818" s="22"/>
+    </row>
+    <row r="819" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A819" s="22"/>
+    </row>
+    <row r="820" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A820" s="22"/>
+    </row>
+    <row r="821" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A821" s="22"/>
+    </row>
+    <row r="822" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A822" s="22"/>
+    </row>
+    <row r="823" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A823" s="22"/>
+    </row>
+    <row r="824" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A824" s="22"/>
+    </row>
+    <row r="825" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A825" s="22"/>
+    </row>
+    <row r="826" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A826" s="22"/>
+    </row>
+    <row r="827" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A827" s="22"/>
+    </row>
+    <row r="828" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A828" s="22"/>
+    </row>
+    <row r="829" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A829" s="22"/>
+    </row>
+    <row r="830" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A830" s="22"/>
+    </row>
+    <row r="831" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A831" s="22"/>
+    </row>
+    <row r="832" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A832" s="22"/>
+    </row>
+    <row r="833" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A833" s="22"/>
+    </row>
+    <row r="834" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A834" s="22"/>
+    </row>
+    <row r="835" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A835" s="22"/>
+    </row>
+    <row r="836" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A836" s="22"/>
+    </row>
+    <row r="837" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A837" s="22"/>
+    </row>
+    <row r="838" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A838" s="22"/>
+    </row>
+    <row r="839" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A839" s="22"/>
+    </row>
+    <row r="840" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A840" s="22"/>
+    </row>
+    <row r="841" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A841" s="22"/>
+    </row>
+    <row r="842" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A842" s="22"/>
+    </row>
+    <row r="843" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A843" s="22"/>
+    </row>
+    <row r="844" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A844" s="22"/>
+    </row>
+    <row r="845" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A845" s="22"/>
+    </row>
+    <row r="846" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A846" s="22"/>
+    </row>
+    <row r="847" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A847" s="22"/>
+    </row>
+    <row r="848" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A848" s="22"/>
+    </row>
+    <row r="849" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A849" s="22"/>
+    </row>
+    <row r="850" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A850" s="22"/>
+    </row>
+    <row r="851" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A851" s="22"/>
+    </row>
+    <row r="852" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A852" s="22"/>
+    </row>
+    <row r="853" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A853" s="22"/>
+    </row>
+    <row r="854" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A854" s="22"/>
+    </row>
+    <row r="855" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A855" s="22"/>
+    </row>
+    <row r="856" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A856" s="22"/>
+    </row>
+    <row r="857" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A857" s="22"/>
+    </row>
+    <row r="858" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A858" s="22"/>
+    </row>
+    <row r="859" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A859" s="22"/>
+    </row>
+    <row r="860" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A860" s="22"/>
+    </row>
+    <row r="861" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A861" s="22"/>
+    </row>
+    <row r="862" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A862" s="22"/>
+    </row>
+    <row r="863" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A863" s="22"/>
+    </row>
+    <row r="864" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A864" s="22"/>
+    </row>
+    <row r="865" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A865" s="22"/>
+    </row>
+    <row r="866" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A866" s="22"/>
+    </row>
+    <row r="867" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A867" s="22"/>
+    </row>
+    <row r="868" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A868" s="22"/>
+    </row>
+    <row r="869" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A869" s="22"/>
+    </row>
+    <row r="870" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A870" s="22"/>
+    </row>
+    <row r="871" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A871" s="22"/>
+    </row>
+    <row r="872" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A872" s="22"/>
+    </row>
+    <row r="873" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A873" s="22"/>
+    </row>
+    <row r="874" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A874" s="22"/>
+    </row>
+    <row r="875" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A875" s="22"/>
+    </row>
+    <row r="876" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A876" s="22"/>
+    </row>
+    <row r="877" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A877" s="22"/>
+    </row>
+    <row r="878" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A878" s="22"/>
+    </row>
+    <row r="879" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A879" s="22"/>
+    </row>
+    <row r="880" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A880" s="22"/>
+    </row>
+    <row r="881" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A881" s="22"/>
+    </row>
+    <row r="882" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A882" s="22"/>
+    </row>
+    <row r="883" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A883" s="22"/>
+    </row>
+    <row r="884" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A884" s="22"/>
+    </row>
+    <row r="885" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A885" s="22"/>
+    </row>
+    <row r="886" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A886" s="22"/>
+    </row>
+    <row r="887" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A887" s="22"/>
+    </row>
+    <row r="888" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A888" s="22"/>
+    </row>
+    <row r="889" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A889" s="22"/>
+    </row>
+    <row r="890" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A890" s="22"/>
+    </row>
+    <row r="891" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A891" s="22"/>
+    </row>
+    <row r="892" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A892" s="22"/>
+    </row>
+    <row r="893" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A893" s="22"/>
+    </row>
+    <row r="894" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A894" s="22"/>
+    </row>
+    <row r="895" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A895" s="22"/>
+    </row>
+    <row r="896" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A896" s="22"/>
+    </row>
+    <row r="897" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A897" s="22"/>
+    </row>
+    <row r="898" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A898" s="22"/>
+    </row>
+    <row r="899" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A899" s="22"/>
+    </row>
+    <row r="900" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A900" s="22"/>
+    </row>
+    <row r="901" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A901" s="22"/>
+    </row>
+    <row r="902" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A902" s="22"/>
+    </row>
+    <row r="903" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A903" s="22"/>
+    </row>
+    <row r="904" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A904" s="22"/>
+    </row>
+    <row r="905" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A905" s="22"/>
+    </row>
+    <row r="906" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A906" s="22"/>
+    </row>
+    <row r="907" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A907" s="22"/>
+    </row>
+    <row r="908" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A908" s="22"/>
+    </row>
+    <row r="909" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A909" s="22"/>
+    </row>
+    <row r="910" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A910" s="22"/>
+    </row>
+    <row r="911" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A911" s="22"/>
+    </row>
+    <row r="912" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A912" s="22"/>
+    </row>
+    <row r="913" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A913" s="22"/>
+    </row>
+    <row r="914" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A914" s="22"/>
+    </row>
+    <row r="915" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A915" s="22"/>
+    </row>
+    <row r="916" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A916" s="22"/>
+    </row>
+    <row r="917" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A917" s="22"/>
+    </row>
+    <row r="918" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A918" s="22"/>
+    </row>
+    <row r="919" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A919" s="22"/>
+    </row>
+    <row r="920" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A920" s="22"/>
+    </row>
+    <row r="921" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A921" s="22"/>
+    </row>
+    <row r="922" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A922" s="22"/>
+    </row>
+    <row r="923" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A923" s="22"/>
+    </row>
+    <row r="924" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A924" s="22"/>
+    </row>
+    <row r="925" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A925" s="22"/>
+    </row>
+    <row r="926" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A926" s="22"/>
+    </row>
+    <row r="927" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A927" s="22"/>
+    </row>
+    <row r="928" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A928" s="22"/>
+    </row>
+    <row r="929" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A929" s="22"/>
+    </row>
+    <row r="930" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A930" s="22"/>
+    </row>
+    <row r="931" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A931" s="22"/>
+    </row>
+    <row r="932" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A932" s="22"/>
+    </row>
+    <row r="933" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A933" s="22"/>
+    </row>
+    <row r="934" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A934" s="22"/>
+    </row>
+    <row r="935" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A935" s="22"/>
+    </row>
+    <row r="936" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A936" s="22"/>
+    </row>
+    <row r="937" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A937" s="22"/>
+    </row>
+    <row r="938" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A938" s="22"/>
+    </row>
+    <row r="939" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A939" s="22"/>
+    </row>
+    <row r="940" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A940" s="22"/>
+    </row>
+    <row r="941" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A941" s="22"/>
+    </row>
+    <row r="942" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A942" s="22"/>
+    </row>
+    <row r="943" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A943" s="22"/>
+    </row>
+    <row r="944" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A944" s="22"/>
+    </row>
+    <row r="945" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A945" s="22"/>
+    </row>
+    <row r="946" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A946" s="22"/>
+    </row>
+    <row r="947" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A947" s="22"/>
+    </row>
+    <row r="948" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A948" s="22"/>
+    </row>
+    <row r="949" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A949" s="22"/>
+    </row>
+    <row r="950" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A950" s="22"/>
+    </row>
+    <row r="951" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A951" s="22"/>
+    </row>
+    <row r="952" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A952" s="22"/>
+    </row>
+    <row r="953" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A953" s="22"/>
+    </row>
+    <row r="954" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A954" s="22"/>
+    </row>
+    <row r="955" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A955" s="22"/>
+    </row>
+    <row r="956" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A956" s="22"/>
+    </row>
+    <row r="957" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A957" s="22"/>
+    </row>
+    <row r="958" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A958" s="22"/>
+    </row>
+    <row r="959" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A959" s="22"/>
+    </row>
+    <row r="960" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A960" s="22"/>
+    </row>
+    <row r="961" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A961" s="22"/>
+    </row>
+    <row r="962" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A962" s="22"/>
+    </row>
+    <row r="963" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A963" s="22"/>
+    </row>
+    <row r="964" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A964" s="22"/>
+    </row>
+    <row r="965" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A965" s="22"/>
+    </row>
+    <row r="966" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A966" s="22"/>
+    </row>
+    <row r="967" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A967" s="22"/>
+    </row>
+    <row r="968" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A968" s="22"/>
+    </row>
+    <row r="969" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A969" s="22"/>
+    </row>
+    <row r="970" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A970" s="22"/>
+    </row>
+    <row r="971" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A971" s="22"/>
+    </row>
+    <row r="972" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A972" s="22"/>
+    </row>
+    <row r="973" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A973" s="22"/>
+    </row>
+    <row r="974" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A974" s="22"/>
+    </row>
+    <row r="975" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A975" s="22"/>
+    </row>
+    <row r="976" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A976" s="22"/>
+    </row>
+    <row r="977" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A977" s="22"/>
+    </row>
+    <row r="978" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A978" s="22"/>
+    </row>
+    <row r="979" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A979" s="22"/>
+    </row>
+    <row r="980" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A980" s="22"/>
+    </row>
+    <row r="981" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A981" s="22"/>
+    </row>
+    <row r="982" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A982" s="22"/>
+    </row>
+    <row r="983" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A983" s="22"/>
+    </row>
+    <row r="984" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A984" s="22"/>
+    </row>
+    <row r="985" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A985" s="22"/>
+    </row>
+    <row r="986" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A986" s="22"/>
+    </row>
+    <row r="987" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A987" s="22"/>
+    </row>
+    <row r="988" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A988" s="22"/>
+    </row>
+    <row r="989" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A989" s="22"/>
+    </row>
+    <row r="990" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A990" s="22"/>
+    </row>
+    <row r="991" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A991" s="22"/>
+    </row>
+    <row r="992" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A992" s="22"/>
+    </row>
+    <row r="993" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A993" s="22"/>
+    </row>
+    <row r="994" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A994" s="22"/>
+    </row>
+    <row r="995" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A995" s="22"/>
+    </row>
+    <row r="996" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A996" s="22"/>
+    </row>
+    <row r="997" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A997" s="22"/>
+    </row>
+    <row r="998" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A998" s="22"/>
+    </row>
+    <row r="999" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A999" s="22"/>
+    </row>
+    <row r="1000" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1000" s="22"/>
+    </row>
+    <row r="1001" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1001" s="22"/>
+    </row>
+    <row r="1002" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1002" s="22"/>
+    </row>
+    <row r="1003" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1003" s="22"/>
+    </row>
+    <row r="1004" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1004" s="22"/>
+    </row>
+    <row r="1005" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1005" s="22"/>
+    </row>
+    <row r="1006" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1006" s="22"/>
+    </row>
+    <row r="1007" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1007" s="22"/>
+    </row>
+    <row r="1008" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1008" s="22"/>
+    </row>
+    <row r="1009" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1009" s="22"/>
+    </row>
+    <row r="1010" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1010" s="22"/>
+    </row>
+    <row r="1011" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1011" s="22"/>
+    </row>
+    <row r="1012" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1012" s="22"/>
+    </row>
+    <row r="1013" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1013" s="22"/>
+    </row>
+    <row r="1014" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1014" s="22"/>
+    </row>
+    <row r="1015" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1015" s="22"/>
+    </row>
+    <row r="1016" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1016" s="22"/>
+    </row>
+    <row r="1017" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1017" s="22"/>
+    </row>
+    <row r="1018" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1018" s="22"/>
+    </row>
+    <row r="1019" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1019" s="22"/>
+    </row>
+    <row r="1020" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1020" s="22"/>
+    </row>
+    <row r="1021" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1021" s="22"/>
+    </row>
+    <row r="1022" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1022" s="22"/>
+    </row>
+    <row r="1023" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1023" s="22"/>
+    </row>
+    <row r="1024" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1024" s="22"/>
+    </row>
+    <row r="1025" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1025" s="22"/>
+    </row>
+    <row r="1026" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1026" s="22"/>
+    </row>
+    <row r="1027" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1027" s="22"/>
+    </row>
+    <row r="1028" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1028" s="22"/>
+    </row>
+    <row r="1029" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1029" s="22"/>
+    </row>
+    <row r="1030" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1030" s="22"/>
+    </row>
+    <row r="1031" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1031" s="22"/>
+    </row>
+    <row r="1032" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1032" s="22"/>
+    </row>
+    <row r="1033" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1033" s="22"/>
+    </row>
+    <row r="1034" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1034" s="22"/>
+    </row>
+    <row r="1035" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1035" s="22"/>
+    </row>
+    <row r="1036" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1036" s="22"/>
+    </row>
+    <row r="1037" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1037" s="22"/>
+    </row>
+    <row r="1038" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1038" s="22"/>
+    </row>
+    <row r="1039" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1039" s="22"/>
+    </row>
+    <row r="1040" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1040" s="22"/>
+    </row>
+    <row r="1041" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1041" s="22"/>
+    </row>
+    <row r="1042" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1042" s="22"/>
+    </row>
+    <row r="1043" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1043" s="22"/>
+    </row>
+    <row r="1044" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1044" s="22"/>
+    </row>
+    <row r="1045" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1045" s="22"/>
+    </row>
+    <row r="1046" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1046" s="22"/>
+    </row>
+    <row r="1047" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1047" s="22"/>
+    </row>
+    <row r="1048" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1048" s="22"/>
+    </row>
+    <row r="1049" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1049" s="22"/>
+    </row>
+    <row r="1050" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1050" s="22"/>
+    </row>
+    <row r="1051" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1051" s="22"/>
+    </row>
+    <row r="1052" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1052" s="22"/>
+    </row>
+    <row r="1053" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1053" s="22"/>
+    </row>
+    <row r="1054" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1054" s="22"/>
+    </row>
+    <row r="1055" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1055" s="22"/>
+    </row>
+    <row r="1056" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1056" s="22"/>
+    </row>
+    <row r="1057" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1057" s="22"/>
+    </row>
+    <row r="1058" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1058" s="22"/>
+    </row>
+    <row r="1059" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1059" s="22"/>
+    </row>
+    <row r="1060" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1060" s="22"/>
+    </row>
+    <row r="1061" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1061" s="22"/>
+    </row>
+    <row r="1062" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1062" s="22"/>
+    </row>
+    <row r="1063" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1063" s="22"/>
+    </row>
+    <row r="1064" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1064" s="22"/>
+    </row>
+    <row r="1065" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1065" s="22"/>
+    </row>
+    <row r="1066" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1066" s="22"/>
+    </row>
+    <row r="1067" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1067" s="22"/>
+    </row>
+    <row r="1068" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1068" s="22"/>
+    </row>
+    <row r="1069" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1069" s="22"/>
+    </row>
+    <row r="1070" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1070" s="22"/>
+    </row>
+    <row r="1071" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1071" s="22"/>
+    </row>
+    <row r="1072" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1072" s="22"/>
+    </row>
+    <row r="1073" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1073" s="22"/>
+    </row>
+    <row r="1074" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1074" s="22"/>
+    </row>
+    <row r="1075" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1075" s="22"/>
+    </row>
+    <row r="1076" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1076" s="22"/>
+    </row>
+    <row r="1077" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1077" s="22"/>
+    </row>
+    <row r="1078" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1078" s="22"/>
+    </row>
+    <row r="1079" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1079" s="22"/>
+    </row>
+    <row r="1080" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1080" s="22"/>
+    </row>
+    <row r="1081" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1081" s="22"/>
+    </row>
+    <row r="1082" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1082" s="22"/>
+    </row>
+    <row r="1083" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1083" s="22"/>
+    </row>
+    <row r="1084" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1084" s="22"/>
+    </row>
+    <row r="1085" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1085" s="22"/>
+    </row>
+    <row r="1086" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1086" s="22"/>
+    </row>
+    <row r="1087" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1087" s="22"/>
+    </row>
+    <row r="1088" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1088" s="22"/>
+    </row>
+    <row r="1089" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1089" s="22"/>
+    </row>
+    <row r="1090" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1090" s="22"/>
+    </row>
+    <row r="1091" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1091" s="22"/>
+    </row>
+    <row r="1092" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1092" s="22"/>
+    </row>
+    <row r="1093" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1093" s="22"/>
+    </row>
+    <row r="1094" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1094" s="22"/>
+    </row>
+    <row r="1095" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1095" s="22"/>
+    </row>
+    <row r="1096" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1096" s="22"/>
+    </row>
+    <row r="1097" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1097" s="22"/>
+    </row>
+    <row r="1098" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1098" s="22"/>
+    </row>
+    <row r="1099" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1099" s="22"/>
+    </row>
+    <row r="1100" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1100" s="22"/>
+    </row>
+    <row r="1101" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1101" s="22"/>
+    </row>
+    <row r="1102" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1102" s="22"/>
+    </row>
+    <row r="1103" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1103" s="22"/>
+    </row>
+    <row r="1104" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1104" s="22"/>
+    </row>
+    <row r="1105" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1105" s="22"/>
+    </row>
+    <row r="1106" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1106" s="22"/>
+    </row>
+    <row r="1107" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1107" s="22"/>
+    </row>
+    <row r="1108" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1108" s="22"/>
+    </row>
+    <row r="1109" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1109" s="22"/>
+    </row>
+    <row r="1110" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1110" s="22"/>
+    </row>
+    <row r="1111" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1111" s="22"/>
+    </row>
+    <row r="1112" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1112" s="22"/>
+    </row>
+    <row r="1113" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1113" s="22"/>
+    </row>
+    <row r="1114" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1114" s="22"/>
+    </row>
+    <row r="1115" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1115" s="22"/>
+    </row>
+    <row r="1116" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1116" s="22"/>
+    </row>
+    <row r="1117" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1117" s="22"/>
+    </row>
+    <row r="1118" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1118" s="22"/>
+    </row>
+    <row r="1119" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1119" s="22"/>
+    </row>
+    <row r="1120" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1120" s="22"/>
+    </row>
+    <row r="1121" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1121" s="22"/>
+    </row>
+    <row r="1122" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1122" s="22"/>
+    </row>
+    <row r="1123" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1123" s="22"/>
+    </row>
+    <row r="1124" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1124" s="22"/>
+    </row>
+    <row r="1125" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1125" s="22"/>
+    </row>
+    <row r="1126" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1126" s="22"/>
+    </row>
+    <row r="1127" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1127" s="22"/>
+    </row>
+    <row r="1128" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1128" s="22"/>
+    </row>
+    <row r="1129" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1129" s="22"/>
+    </row>
+    <row r="1130" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1130" s="22"/>
+    </row>
+    <row r="1131" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1131" s="22"/>
+    </row>
+    <row r="1132" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1132" s="22"/>
+    </row>
+    <row r="1133" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1133" s="22"/>
+    </row>
+    <row r="1134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F1134" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1134" s="25" t="e">
+        <f>AVERAGE(G45:G1133)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F1135" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1135" s="25" t="e">
+        <f>STDEV(G45:G1133)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A27:I27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
@@ -38429,7 +42201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
@@ -38497,7 +42269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -38507,10 +42279,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
     <col min="3" max="3" width="16.453125" customWidth="1"/>
     <col min="4" max="4" width="15.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
     <col min="6" max="6" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -38713,47 +42485,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="8" width="7.1796875" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" customWidth="1"/>
+    <col min="4" max="8" width="7.1796875" customWidth="1"/>
     <col min="9" max="9" width="7.453125" customWidth="1"/>
     <col min="10" max="10" width="8.54296875" customWidth="1"/>
   </cols>
@@ -38855,6 +42598,15 @@
       <c r="E11">
         <v>16.623999999999999</v>
       </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -38876,11 +42628,11 @@
         <v>18.026</v>
       </c>
       <c r="G12" s="33">
-        <f>(C12-C$11)/C$11</f>
+        <f t="shared" ref="G12:J14" si="0">(C12-C$11)/C$11</f>
         <v>-1.8038018593034412E-3</v>
       </c>
       <c r="H12" s="33">
-        <f t="shared" ref="H12:J12" si="0">(D12-D$11)/D$11</f>
+        <f t="shared" si="0"/>
         <v>-1.6871535309712397E-3</v>
       </c>
       <c r="I12" s="33">
@@ -38924,19 +42676,19 @@
         <v>18.015999999999998</v>
       </c>
       <c r="G13" s="33">
-        <f>(C13-C$11)/C$11</f>
+        <f t="shared" si="0"/>
         <v>-3.8851116969612297E-3</v>
       </c>
       <c r="H13" s="33">
-        <f t="shared" ref="H13" si="1">(D13-D$11)/D$11</f>
+        <f t="shared" si="0"/>
         <v>-2.3499638467101396E-3</v>
       </c>
       <c r="I13" s="33">
-        <f t="shared" ref="I13" si="2">(E13-E$11)/E$11</f>
+        <f t="shared" si="0"/>
         <v>-2.5866217516842677E-3</v>
       </c>
       <c r="J13" s="33" t="e">
-        <f t="shared" ref="J13" si="3">(F13-F$11)/F$11</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K13" s="33">
@@ -38972,19 +42724,19 @@
         <v>18.021000000000001</v>
       </c>
       <c r="G14" s="33">
-        <f>(C14-C$11)/C$11</f>
+        <f t="shared" si="0"/>
         <v>-2.913833772720953E-3</v>
       </c>
       <c r="H14" s="33">
-        <f t="shared" ref="H14" si="4">(D14-D$11)/D$11</f>
+        <f t="shared" si="0"/>
         <v>-2.832007712701892E-3</v>
       </c>
       <c r="I14" s="33">
-        <f t="shared" ref="I14" si="5">(E14-E$11)/E$11</f>
+        <f t="shared" si="0"/>
         <v>-2.8272377285850003E-3</v>
       </c>
       <c r="J14" s="33" t="e">
-        <f t="shared" ref="J14" si="6">(F14-F$11)/F$11</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K14" s="33">
@@ -38998,12 +42750,1032 @@
       <c r="M14" s="35">
         <f>K14+STDEV(G14:I14)</f>
         <v>-2.8090153356540269E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="32">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="C17">
+        <v>18.454000000000001</v>
+      </c>
+      <c r="D17">
+        <v>10.347</v>
+      </c>
+      <c r="E17">
+        <v>12.529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" s="32">
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="C18">
+        <v>18.454999999999998</v>
+      </c>
+      <c r="D18">
+        <v>10.333</v>
+      </c>
+      <c r="E18">
+        <v>12.521000000000001</v>
+      </c>
+      <c r="G18" s="33">
+        <f>(C18-C$17)/C$17</f>
+        <v>5.4188793757324663E-5</v>
+      </c>
+      <c r="H18" s="33">
+        <f t="shared" ref="H18:H20" si="1">(D18-D$17)/D$17</f>
+        <v>-1.3530491930027397E-3</v>
+      </c>
+      <c r="I18" s="33">
+        <f t="shared" ref="I18:I20" si="2">(E18-E$17)/E$17</f>
+        <v>-6.3851863676264015E-4</v>
+      </c>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33">
+        <f>AVERAGE(G18:I18)</f>
+        <v>-6.4579301200268517E-4</v>
+      </c>
+      <c r="L18" s="33">
+        <f>K18-STDEV(G18:I18)</f>
+        <v>-1.34944020715554E-3</v>
+      </c>
+      <c r="M18" s="35">
+        <f>K18+STDEV(G18:I18)</f>
+        <v>5.7854183150169596E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" s="32">
+        <v>0.71388888888888891</v>
+      </c>
+      <c r="C19">
+        <v>18.398</v>
+      </c>
+      <c r="D19">
+        <v>10.31</v>
+      </c>
+      <c r="E19">
+        <v>12.5</v>
+      </c>
+      <c r="G19" s="33">
+        <f t="shared" ref="G19:G20" si="3">(C19-C$17)/C$17</f>
+        <v>-3.0345724504173043E-3</v>
+      </c>
+      <c r="H19" s="33">
+        <f t="shared" si="1"/>
+        <v>-3.5759157243644567E-3</v>
+      </c>
+      <c r="I19" s="33">
+        <f t="shared" si="2"/>
+        <v>-2.314630058264819E-3</v>
+      </c>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33">
+        <f>AVERAGE(G19:I19)</f>
+        <v>-2.9750394110155272E-3</v>
+      </c>
+      <c r="L19" s="33">
+        <f>K19-STDEV(G19:I19)</f>
+        <v>-3.6077862165881922E-3</v>
+      </c>
+      <c r="M19" s="35">
+        <f>K19+STDEV(G19:I19)</f>
+        <v>-2.3422926054428622E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="32">
+        <v>0.79583333333333339</v>
+      </c>
+      <c r="C20">
+        <v>18.399000000000001</v>
+      </c>
+      <c r="D20">
+        <v>10.313000000000001</v>
+      </c>
+      <c r="E20">
+        <v>12.51</v>
+      </c>
+      <c r="G20" s="33">
+        <f t="shared" si="3"/>
+        <v>-2.9803836566597874E-3</v>
+      </c>
+      <c r="H20" s="33">
+        <f t="shared" si="1"/>
+        <v>-3.2859766115781309E-3</v>
+      </c>
+      <c r="I20" s="33">
+        <f t="shared" si="2"/>
+        <v>-1.5164817623114478E-3</v>
+      </c>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33">
+        <f>AVERAGE(G20:I20)</f>
+        <v>-2.5942806768497885E-3</v>
+      </c>
+      <c r="L20" s="33">
+        <f>K20-STDEV(G20:I20)</f>
+        <v>-3.5401055225051299E-3</v>
+      </c>
+      <c r="M20" s="35">
+        <f>K20+STDEV(G20:I20)</f>
+        <v>-1.6484558311944471E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="B24" s="32">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="C24" s="25">
+        <v>16.344000000000001</v>
+      </c>
+      <c r="D24" s="25">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="E24" s="25">
+        <v>17.387</v>
+      </c>
+      <c r="F24" s="25">
+        <v>17.276</v>
+      </c>
+      <c r="G24" s="25">
+        <v>16.449000000000002</v>
+      </c>
+      <c r="H24" s="25">
+        <v>12.02</v>
+      </c>
+      <c r="I24" s="25">
+        <v>3.8849999999999998</v>
+      </c>
+      <c r="J24" s="25">
+        <v>15.76</v>
+      </c>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" s="32">
+        <v>0.58958333333333335</v>
+      </c>
+      <c r="C25" s="25">
+        <v>16.323</v>
+      </c>
+      <c r="D25" s="25">
+        <v>16.13</v>
+      </c>
+      <c r="E25" s="25">
+        <v>17.39</v>
+      </c>
+      <c r="F25" s="25">
+        <v>17.263000000000002</v>
+      </c>
+      <c r="G25" s="25">
+        <v>16.422999999999998</v>
+      </c>
+      <c r="H25" s="25">
+        <v>11.996</v>
+      </c>
+      <c r="I25">
+        <v>3.8820000000000001</v>
+      </c>
+      <c r="J25">
+        <v>15.736000000000001</v>
+      </c>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="35"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="B26" s="32">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="C26" s="25">
+        <v>16.324000000000002</v>
+      </c>
+      <c r="D26" s="25">
+        <v>16.13</v>
+      </c>
+      <c r="E26" s="25">
+        <v>17.353000000000002</v>
+      </c>
+      <c r="F26" s="25">
+        <v>17.21</v>
+      </c>
+      <c r="G26" s="25">
+        <v>16.417999999999999</v>
+      </c>
+      <c r="H26">
+        <v>11.996</v>
+      </c>
+      <c r="I26">
+        <v>3.88</v>
+      </c>
+      <c r="J26">
+        <v>15.734</v>
+      </c>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="35"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" s="32">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="C27" s="25">
+        <v>16.28</v>
+      </c>
+      <c r="D27" s="25">
+        <v>16.094000000000001</v>
+      </c>
+      <c r="E27" s="25">
+        <v>17.324000000000002</v>
+      </c>
+      <c r="F27" s="25">
+        <v>17.204999999999998</v>
+      </c>
+      <c r="G27" s="25">
+        <v>16.263000000000002</v>
+      </c>
+      <c r="H27" s="25">
+        <v>11.968999999999999</v>
+      </c>
+      <c r="I27">
+        <v>3.875</v>
+      </c>
+      <c r="J27">
+        <v>15.709</v>
+      </c>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="35"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="32">
+        <v>0.8354166666666667</v>
+      </c>
+      <c r="C28" s="25">
+        <v>16.268000000000001</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="F28" s="25">
+        <v>17.196000000000002</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25">
+        <v>11.97</v>
+      </c>
+      <c r="I28" s="25">
+        <v>3.87</v>
+      </c>
+      <c r="J28" s="25">
+        <v>15.686999999999999</v>
+      </c>
+      <c r="K28" s="25"/>
+    </row>
+    <row r="29" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" t="s">
+        <v>250</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" t="s">
+        <v>251</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="M29" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" s="32">
+        <f>B25-B$24</f>
+        <v>1.1111111111111183E-2</v>
+      </c>
+      <c r="C30" s="33">
+        <f>(C25-C$24)/C$24</f>
+        <v>-1.2848751835536462E-3</v>
+      </c>
+      <c r="D30" s="33">
+        <f t="shared" ref="D30:J30" si="4">(D25-D$24)/D$24</f>
+        <v>-1.2383900928792306E-3</v>
+      </c>
+      <c r="E30" s="33">
+        <f t="shared" si="4"/>
+        <v>1.7254270431932557E-4</v>
+      </c>
+      <c r="F30" s="33">
+        <f t="shared" si="4"/>
+        <v>-7.5248900208370708E-4</v>
+      </c>
+      <c r="G30" s="33">
+        <f t="shared" si="4"/>
+        <v>-1.5806432001947445E-3</v>
+      </c>
+      <c r="H30" s="33">
+        <f t="shared" si="4"/>
+        <v>-1.9966722129782974E-3</v>
+      </c>
+      <c r="I30" s="33">
+        <f t="shared" si="4"/>
+        <v>-7.722007722006872E-4</v>
+      </c>
+      <c r="J30" s="33">
+        <f t="shared" si="4"/>
+        <v>-1.5228426395938537E-3</v>
+      </c>
+      <c r="K30" s="35">
+        <f>AVERAGE(C30:J30)</f>
+        <v>-1.1219462998956053E-3</v>
+      </c>
+      <c r="L30" s="33">
+        <f>K30-STDEV(G30:I30)</f>
+        <v>-1.7445737444318733E-3</v>
+      </c>
+      <c r="M30" s="35">
+        <f>K30+STDEV(G30:I30)</f>
+        <v>-4.9931885535933729E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="B31" s="32">
+        <f t="shared" ref="B31:B33" si="5">B26-B$24</f>
+        <v>4.3750000000000067E-2</v>
+      </c>
+      <c r="C31" s="33">
+        <f t="shared" ref="C31:J31" si="6">(C26-C$24)/C$24</f>
+        <v>-1.2236906510034002E-3</v>
+      </c>
+      <c r="D31" s="33">
+        <f t="shared" si="6"/>
+        <v>-1.2383900928792306E-3</v>
+      </c>
+      <c r="E31" s="33">
+        <f t="shared" si="6"/>
+        <v>-1.9554839822855537E-3</v>
+      </c>
+      <c r="F31" s="33">
+        <f t="shared" si="6"/>
+        <v>-3.8203287798100802E-3</v>
+      </c>
+      <c r="G31" s="33">
+        <f t="shared" si="6"/>
+        <v>-1.8846130463859418E-3</v>
+      </c>
+      <c r="H31" s="33">
+        <f t="shared" si="6"/>
+        <v>-1.9966722129782974E-3</v>
+      </c>
+      <c r="I31" s="33">
+        <f t="shared" si="6"/>
+        <v>-1.2870012870012596E-3</v>
+      </c>
+      <c r="J31" s="33">
+        <f t="shared" si="6"/>
+        <v>-1.6497461928933884E-3</v>
+      </c>
+      <c r="K31" s="35">
+        <f t="shared" ref="K31:K33" si="7">AVERAGE(C31:J31)</f>
+        <v>-1.8819907806546443E-3</v>
+      </c>
+      <c r="L31" s="33">
+        <f t="shared" ref="L31:L33" si="8">K31-STDEV(G31:I31)</f>
+        <v>-2.2635074676967131E-3</v>
+      </c>
+      <c r="M31" s="35">
+        <f t="shared" ref="M31:M33" si="9">K31+STDEV(G31:I31)</f>
+        <v>-1.5004740936125755E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A32" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="B32" s="32">
+        <f t="shared" si="5"/>
+        <v>0.14375000000000004</v>
+      </c>
+      <c r="C32" s="33">
+        <f t="shared" ref="C32:J32" si="10">(C27-C$24)/C$24</f>
+        <v>-3.9158100832109672E-3</v>
+      </c>
+      <c r="D32" s="33">
+        <f t="shared" si="10"/>
+        <v>-3.4674922600617577E-3</v>
+      </c>
+      <c r="E32" s="33">
+        <f t="shared" si="10"/>
+        <v>-3.6233967907056326E-3</v>
+      </c>
+      <c r="F32" s="33">
+        <f t="shared" si="10"/>
+        <v>-4.1097476267655418E-3</v>
+      </c>
+      <c r="G32" s="33">
+        <f t="shared" si="10"/>
+        <v>-1.1307678278314786E-2</v>
+      </c>
+      <c r="H32" s="33">
+        <f t="shared" si="10"/>
+        <v>-4.242928452579048E-3</v>
+      </c>
+      <c r="I32" s="33">
+        <f t="shared" si="10"/>
+        <v>-2.5740025740025193E-3</v>
+      </c>
+      <c r="J32" s="33">
+        <f t="shared" si="10"/>
+        <v>-3.2360406091370658E-3</v>
+      </c>
+      <c r="K32" s="35">
+        <f t="shared" si="7"/>
+        <v>-4.5596370843471647E-3</v>
+      </c>
+      <c r="L32" s="33">
+        <f t="shared" si="8"/>
+        <v>-9.1959627666899912E-3</v>
+      </c>
+      <c r="M32" s="35">
+        <f t="shared" si="9"/>
+        <v>7.6688597995660905E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" s="32">
+        <f t="shared" si="5"/>
+        <v>0.25694444444444453</v>
+      </c>
+      <c r="C33" s="33">
+        <f t="shared" ref="C33:J33" si="11">(C28-C$24)/C$24</f>
+        <v>-4.6500244738130513E-3</v>
+      </c>
+      <c r="D33" s="33">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="E33" s="33">
+        <f t="shared" si="11"/>
+        <v>-4.4285960775292885E-3</v>
+      </c>
+      <c r="F33" s="33">
+        <f t="shared" si="11"/>
+        <v>-4.6307015512849214E-3</v>
+      </c>
+      <c r="G33" s="33">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="H33" s="33">
+        <f t="shared" si="11"/>
+        <v>-4.1597337770381809E-3</v>
+      </c>
+      <c r="I33" s="33">
+        <f t="shared" si="11"/>
+        <v>-3.8610038610037791E-3</v>
+      </c>
+      <c r="J33" s="33">
+        <f t="shared" si="11"/>
+        <v>-4.6319796954314976E-3</v>
+      </c>
+      <c r="K33" s="35">
+        <f t="shared" si="7"/>
+        <v>-0.25329525492951255</v>
+      </c>
+      <c r="L33" s="33">
+        <f t="shared" si="8"/>
+        <v>-0.82833015600065474</v>
+      </c>
+      <c r="M33" s="35">
+        <f t="shared" si="9"/>
+        <v>0.32173964614162964</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="300" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="50">
+        <v>102</v>
+      </c>
+      <c r="B2" s="50">
+        <v>131</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="50">
+        <v>106</v>
+      </c>
+      <c r="B3" s="50">
+        <v>156</v>
+      </c>
+      <c r="C3" s="50">
+        <v>1.4</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+    </row>
+    <row r="4" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="50">
+        <v>120</v>
+      </c>
+      <c r="B4" s="50">
+        <v>194</v>
+      </c>
+      <c r="C4" s="50">
+        <v>1.6</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+    </row>
+    <row r="5" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="50">
+        <v>146</v>
+      </c>
+      <c r="B5" s="50">
+        <v>208</v>
+      </c>
+      <c r="C5" s="50">
+        <v>1.8</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="50">
+        <v>138</v>
+      </c>
+      <c r="B6" s="50">
+        <v>186</v>
+      </c>
+      <c r="C6" s="50">
+        <v>1.7</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="50">
+        <v>133</v>
+      </c>
+      <c r="B7" s="50">
+        <v>193</v>
+      </c>
+      <c r="C7" s="50">
+        <v>1.65</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="50">
+        <v>130</v>
+      </c>
+      <c r="B8" s="50">
+        <v>174</v>
+      </c>
+      <c r="C8" s="50">
+        <v>1.6</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="50">
+        <v>164</v>
+      </c>
+      <c r="B9" s="50">
+        <v>309</v>
+      </c>
+      <c r="C9" s="50">
+        <v>2</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="50">
+        <v>159</v>
+      </c>
+      <c r="B10" s="50">
+        <v>246</v>
+      </c>
+      <c r="C10" s="50">
+        <v>2</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -39277,7 +44049,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="D4:F4"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39863,7 +44635,7 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>139</xdr:row>
                 <xdr:rowOff>44450</xdr:rowOff>
               </to>
@@ -39888,7 +44660,7 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>136</xdr:row>
                 <xdr:rowOff>44450</xdr:rowOff>
               </to>
@@ -39913,7 +44685,7 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>273050</xdr:colOff>
+                <xdr:colOff>63500</xdr:colOff>
                 <xdr:row>137</xdr:row>
                 <xdr:rowOff>177800</xdr:rowOff>
               </to>
@@ -40598,8 +45370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="XEN68" workbookViewId="0">
-      <selection activeCell="XFD74" sqref="XFD74"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Tests/Autotrude.xlsx
+++ b/Tests/Autotrude.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="10040" firstSheet="3" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="10040" firstSheet="3" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <author>brian</author>
   </authors>
   <commentList>
-    <comment ref="B31" authorId="0" shapeId="0">
+    <comment ref="B45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3849" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3871" uniqueCount="276">
   <si>
     <t>Let’s recycle those plastic bottles!</t>
   </si>
@@ -935,6 +935,42 @@
   <si>
     <t>smoke maybe less bad</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>delta T (hrs)</t>
+  </si>
+  <si>
+    <t>Temp 75 C</t>
+  </si>
+  <si>
+    <t>StDev</t>
+  </si>
+  <si>
+    <t>-1 Sigma</t>
+  </si>
+  <si>
+    <t>+1 Sigma</t>
+  </si>
+  <si>
+    <t>% loss</t>
+  </si>
 </sst>
 </file>
 
@@ -1508,7 +1544,7 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1583,9 +1619,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1594,6 +1627,13 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -1690,7 +1730,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D110-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1698,7 +1738,7 @@
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1706,7 +1746,7 @@
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1714,7 +1754,7 @@
 </file>
 
 <file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D110-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1888,11 +1928,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="460587808"/>
-        <c:axId val="460592512"/>
+        <c:axId val="532558128"/>
+        <c:axId val="532558912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="460587808"/>
+        <c:axId val="532558128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,12 +1989,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460592512"/>
+        <c:crossAx val="532558912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="460592512"/>
+        <c:axId val="532558912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,7 +2051,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460587808"/>
+        <c:crossAx val="532558128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5412,11 +5452,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="460593688"/>
-        <c:axId val="455754456"/>
+        <c:axId val="451524832"/>
+        <c:axId val="451527184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="460593688"/>
+        <c:axId val="451524832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5458,7 +5498,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455754456"/>
+        <c:crossAx val="451527184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5466,7 +5506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455754456"/>
+        <c:axId val="451527184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5517,7 +5557,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460593688"/>
+        <c:crossAx val="451524832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6070,8 +6110,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="533891792"/>
-        <c:axId val="533892184"/>
+        <c:axId val="451526792"/>
+        <c:axId val="451524048"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -6528,7 +6568,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="533891792"/>
+        <c:axId val="451526792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6648,12 +6688,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533892184"/>
+        <c:crossAx val="451524048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="533892184"/>
+        <c:axId val="451524048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6772,7 +6812,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533891792"/>
+        <c:crossAx val="451526792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6786,7 +6826,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27656058874169359"/>
+          <c:y val="0.78681520115451808"/>
+          <c:w val="0.46744437937865702"/>
+          <c:h val="0.21318479884548194"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6816,6 +6865,498 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11210870516185477"/>
+          <c:y val="6.9414316702819959E-2"/>
+          <c:w val="0.8648912948381452"/>
+          <c:h val="0.85163441337728663"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Drying!$M$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Drying!$B$50:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2666666666666675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4666666666666659</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7500000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Drying!$M$50:$M$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9276847356881717E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9274543734246804E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8180260908085972E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2047128508672432E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7951037469308039E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Drying!$O$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-1 Sigma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Drying!$B$50:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2666666666666675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4666666666666659</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7500000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Drying!$O$50:$O$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5731596600880434E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8084441310475853E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8448236799812803E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6862127554201504E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6617995704113391E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Drying!$P$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>+1 Sigma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Drying!$B$50:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2666666666666675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4666666666666659</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7500000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Drying!$P$50:$P$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2822098112882999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0464646158017755E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.791228501635914E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.723212946314336E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9284079234502686E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="523199528"/>
+        <c:axId val="523208152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="523199528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523208152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="523208152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523199528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6934,6 +7475,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8006,6 +8587,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10654,6 +11751,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -34779,17 +35906,17 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
@@ -38360,17 +39487,17 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="25" t="s">
@@ -42487,16 +43614,17 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="7.453125" customWidth="1"/>
-    <col min="4" max="8" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" customWidth="1"/>
+    <col min="5" max="8" width="7.1796875" customWidth="1"/>
     <col min="9" max="9" width="7.453125" customWidth="1"/>
     <col min="10" max="10" width="8.54296875" customWidth="1"/>
   </cols>
@@ -42775,7 +43903,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="25" t="s">
         <v>212</v>
       </c>
@@ -42792,7 +43920,7 @@
         <v>12.529</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="25" t="s">
         <v>238</v>
       </c>
@@ -42834,7 +43962,7 @@
         <v>5.7854183150169596E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
         <v>216</v>
       </c>
@@ -42876,7 +44004,7 @@
         <v>-2.3422926054428622E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
         <v>217</v>
       </c>
@@ -42918,12 +44046,12 @@
         <v>-1.6484558311944471E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="25" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="25" t="s">
         <v>239</v>
       </c>
@@ -42932,31 +44060,32 @@
         <v>240</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="N23" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="G23" s="17" t="s">
+      <c r="O23" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="H23" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="25" t="s">
         <v>212</v>
       </c>
@@ -42967,31 +44096,32 @@
         <v>16.344000000000001</v>
       </c>
       <c r="D24" s="25">
+        <v>17.387</v>
+      </c>
+      <c r="E24" s="25">
+        <v>17.276</v>
+      </c>
+      <c r="F24" s="25">
+        <v>12.02</v>
+      </c>
+      <c r="G24" s="25">
+        <v>3.8849999999999998</v>
+      </c>
+      <c r="H24" s="25">
+        <v>15.76</v>
+      </c>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="N24" s="25">
         <v>16.149999999999999</v>
       </c>
-      <c r="E24" s="25">
-        <v>17.387</v>
-      </c>
-      <c r="F24" s="25">
-        <v>17.276</v>
-      </c>
-      <c r="G24" s="25">
+      <c r="O24" s="25">
         <v>16.449000000000002</v>
       </c>
-      <c r="H24" s="25">
-        <v>12.02</v>
-      </c>
-      <c r="I24" s="25">
-        <v>3.8849999999999998</v>
-      </c>
-      <c r="J24" s="25">
-        <v>15.76</v>
-      </c>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="25" t="s">
         <v>238</v>
       </c>
@@ -43002,35 +44132,31 @@
         <v>16.323</v>
       </c>
       <c r="D25" s="25">
+        <v>17.39</v>
+      </c>
+      <c r="E25" s="25">
+        <v>17.263000000000002</v>
+      </c>
+      <c r="F25" s="25">
+        <v>11.996</v>
+      </c>
+      <c r="G25">
+        <v>3.8820000000000001</v>
+      </c>
+      <c r="H25">
+        <v>15.736000000000001</v>
+      </c>
+      <c r="I25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="N25" s="25">
         <v>16.13</v>
       </c>
-      <c r="E25" s="25">
-        <v>17.39</v>
-      </c>
-      <c r="F25" s="25">
-        <v>17.263000000000002</v>
-      </c>
-      <c r="G25" s="25">
+      <c r="O25" s="25">
         <v>16.422999999999998</v>
       </c>
-      <c r="H25" s="25">
-        <v>11.996</v>
-      </c>
-      <c r="I25">
-        <v>3.8820000000000001</v>
-      </c>
-      <c r="J25">
-        <v>15.736000000000001</v>
-      </c>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="35"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="25" t="s">
         <v>216</v>
       </c>
@@ -43041,35 +44167,32 @@
         <v>16.324000000000002</v>
       </c>
       <c r="D26" s="25">
+        <v>17.353000000000002</v>
+      </c>
+      <c r="E26" s="25">
+        <v>17.21</v>
+      </c>
+      <c r="F26">
+        <v>11.996</v>
+      </c>
+      <c r="G26">
+        <v>3.88</v>
+      </c>
+      <c r="H26">
+        <v>15.734</v>
+      </c>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="N26" s="25">
         <v>16.13</v>
       </c>
-      <c r="E26" s="25">
-        <v>17.353000000000002</v>
-      </c>
-      <c r="F26" s="25">
-        <v>17.21</v>
-      </c>
-      <c r="G26" s="25">
+      <c r="O26" s="25">
         <v>16.417999999999999</v>
       </c>
-      <c r="H26">
-        <v>11.996</v>
-      </c>
-      <c r="I26">
-        <v>3.88</v>
-      </c>
-      <c r="J26">
-        <v>15.734</v>
-      </c>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="35"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="25" t="s">
         <v>217</v>
       </c>
@@ -43080,35 +44203,32 @@
         <v>16.28</v>
       </c>
       <c r="D27" s="25">
+        <v>17.324000000000002</v>
+      </c>
+      <c r="E27" s="25">
+        <v>17.204999999999998</v>
+      </c>
+      <c r="F27" s="25">
+        <v>11.968999999999999</v>
+      </c>
+      <c r="G27">
+        <v>3.875</v>
+      </c>
+      <c r="H27">
+        <v>15.709</v>
+      </c>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="N27" s="25">
         <v>16.094000000000001</v>
       </c>
-      <c r="E27" s="25">
-        <v>17.324000000000002</v>
-      </c>
-      <c r="F27" s="25">
-        <v>17.204999999999998</v>
-      </c>
-      <c r="G27" s="25">
+      <c r="O27" s="25">
         <v>16.263000000000002</v>
       </c>
-      <c r="H27" s="25">
-        <v>11.968999999999999</v>
-      </c>
-      <c r="I27">
-        <v>3.875</v>
-      </c>
-      <c r="J27">
-        <v>15.709</v>
-      </c>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="35"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="25" t="s">
         <v>230</v>
       </c>
@@ -43118,273 +44238,1075 @@
       <c r="C28" s="25">
         <v>16.268000000000001</v>
       </c>
-      <c r="D28" s="25"/>
+      <c r="D28" s="25">
+        <v>17.309999999999999</v>
+      </c>
       <c r="E28" s="25">
-        <v>17.309999999999999</v>
+        <v>17.196000000000002</v>
       </c>
       <c r="F28" s="25">
-        <v>17.196000000000002</v>
-      </c>
-      <c r="G28" s="25"/>
+        <v>11.97</v>
+      </c>
+      <c r="G28" s="25">
+        <v>3.87</v>
+      </c>
       <c r="H28" s="25">
-        <v>11.97</v>
-      </c>
-      <c r="I28" s="25">
-        <v>3.87</v>
-      </c>
-      <c r="J28" s="25">
         <v>15.686999999999999</v>
       </c>
-      <c r="K28" s="25"/>
-    </row>
-    <row r="29" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
+      <c r="I28" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="J28" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="K28" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="L28" s="53" t="s">
+        <v>274</v>
+      </c>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+    </row>
+    <row r="29" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="B29" s="52">
+        <f>(B24-B$24)*24</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="25">
+        <f>(C$24-C24)/C$24</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="25">
+        <f t="shared" ref="D29:H29" si="4">(D$24-D24)/D$24</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="47">
+        <v>0</v>
+      </c>
+      <c r="J29" s="47">
+        <v>0</v>
+      </c>
+      <c r="K29" s="47">
+        <v>0</v>
+      </c>
+      <c r="L29" s="47">
+        <v>0</v>
+      </c>
+      <c r="N29" s="25">
+        <f>(N$24-N24)/N$24</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="25">
+        <f>(O$24-O24)/O$24</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+    </row>
+    <row r="30" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="52">
+        <f t="shared" ref="B30:B33" si="5">(B25-B$24)*24</f>
+        <v>0.26666666666666838</v>
+      </c>
+      <c r="C30" s="33">
+        <f t="shared" ref="C30:H30" si="6">(C$24-C25)/C$24</f>
+        <v>1.2848751835536462E-3</v>
+      </c>
+      <c r="D30" s="33">
+        <f t="shared" si="6"/>
+        <v>-1.7254270431932557E-4</v>
+      </c>
+      <c r="E30" s="33">
+        <f t="shared" si="6"/>
+        <v>7.5248900208370708E-4</v>
+      </c>
+      <c r="F30" s="33">
+        <f t="shared" si="6"/>
+        <v>1.9966722129782974E-3</v>
+      </c>
+      <c r="G30" s="33">
+        <f t="shared" si="6"/>
+        <v>7.722007722006872E-4</v>
+      </c>
+      <c r="H30" s="33">
+        <f t="shared" si="6"/>
+        <v>1.5228426395938537E-3</v>
+      </c>
+      <c r="I30" s="33">
+        <f>AVERAGE(C30:H30)</f>
+        <v>1.0260895176818108E-3</v>
+      </c>
+      <c r="J30" s="33">
+        <f>STDEV(C30:H30)</f>
+        <v>7.5256898610506025E-4</v>
+      </c>
+      <c r="K30" s="35">
+        <f>I30-J30</f>
+        <v>2.7352053157675058E-4</v>
+      </c>
+      <c r="L30" s="35">
+        <f>I30+J30</f>
+        <v>1.778658503786871E-3</v>
+      </c>
+      <c r="N30" s="33">
+        <f>(N$24-N25)/N$24</f>
+        <v>1.2383900928792306E-3</v>
+      </c>
+      <c r="O30" s="33">
+        <f>(O$24-O25)/O$24</f>
+        <v>1.5806432001947445E-3</v>
+      </c>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+    </row>
+    <row r="31" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="52">
+        <f t="shared" si="5"/>
+        <v>1.0500000000000016</v>
+      </c>
+      <c r="C31" s="33">
+        <f t="shared" ref="C31:H31" si="7">(C$24-C26)/C$24</f>
+        <v>1.2236906510034002E-3</v>
+      </c>
+      <c r="D31" s="33">
+        <f t="shared" si="7"/>
+        <v>1.9554839822855537E-3</v>
+      </c>
+      <c r="E31" s="33">
+        <f t="shared" si="7"/>
+        <v>3.8203287798100802E-3</v>
+      </c>
+      <c r="F31" s="33">
+        <f t="shared" si="7"/>
+        <v>1.9966722129782974E-3</v>
+      </c>
+      <c r="G31" s="33">
+        <f t="shared" si="7"/>
+        <v>1.2870012870012596E-3</v>
+      </c>
+      <c r="H31" s="33">
+        <f t="shared" si="7"/>
+        <v>1.6497461928933884E-3</v>
+      </c>
+      <c r="I31" s="33">
+        <f>AVERAGE(C31:H31)</f>
+        <v>1.9888205176619967E-3</v>
+      </c>
+      <c r="J31" s="33">
+        <f>STDEV(C31:H31)</f>
+        <v>9.5378622669049448E-4</v>
+      </c>
+      <c r="K31" s="35">
+        <f t="shared" ref="K31:K33" si="8">I31-J31</f>
+        <v>1.0350342909715023E-3</v>
+      </c>
+      <c r="L31" s="35">
+        <f t="shared" ref="L31:L33" si="9">I31+J31</f>
+        <v>2.9426067443524911E-3</v>
+      </c>
+      <c r="N31" s="33">
+        <f>(N$24-N26)/N$24</f>
+        <v>1.2383900928792306E-3</v>
+      </c>
+      <c r="O31" s="33">
+        <f>(O$24-O26)/O$24</f>
+        <v>1.8846130463859418E-3</v>
+      </c>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+    </row>
+    <row r="32" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="52">
+        <f t="shared" si="5"/>
+        <v>3.4500000000000011</v>
+      </c>
+      <c r="C32" s="33">
+        <f t="shared" ref="C32:H32" si="10">(C$24-C27)/C$24</f>
+        <v>3.9158100832109672E-3</v>
+      </c>
+      <c r="D32" s="33">
+        <f t="shared" si="10"/>
+        <v>3.6233967907056326E-3</v>
+      </c>
+      <c r="E32" s="33">
+        <f t="shared" si="10"/>
+        <v>4.1097476267655418E-3</v>
+      </c>
+      <c r="F32" s="33">
+        <f t="shared" si="10"/>
+        <v>4.242928452579048E-3</v>
+      </c>
+      <c r="G32" s="33">
+        <f t="shared" si="10"/>
+        <v>2.5740025740025193E-3</v>
+      </c>
+      <c r="H32" s="33">
+        <f t="shared" si="10"/>
+        <v>3.2360406091370658E-3</v>
+      </c>
+      <c r="I32" s="33">
+        <f>AVERAGE(C32:H32)</f>
+        <v>3.6169876894001289E-3</v>
+      </c>
+      <c r="J32" s="33">
+        <f>STDEV(C32:H32)</f>
+        <v>6.2560190591232621E-4</v>
+      </c>
+      <c r="K32" s="35">
+        <f t="shared" si="8"/>
+        <v>2.9913857834878025E-3</v>
+      </c>
+      <c r="L32" s="35">
+        <f t="shared" si="9"/>
+        <v>4.2425895953124553E-3</v>
+      </c>
+      <c r="N32" s="33">
+        <f>(N$24-N27)/N$24</f>
+        <v>3.4674922600617577E-3</v>
+      </c>
+      <c r="O32" s="33">
+        <f>(O$24-O27)/O$24</f>
+        <v>1.1307678278314786E-2</v>
+      </c>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+    </row>
+    <row r="33" spans="1:21" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="52">
+        <f t="shared" si="5"/>
+        <v>6.1666666666666687</v>
+      </c>
+      <c r="C33" s="33">
+        <f t="shared" ref="C33:H33" si="11">(C$24-C28)/C$24</f>
+        <v>4.6500244738130513E-3</v>
+      </c>
+      <c r="D33" s="33">
+        <f t="shared" si="11"/>
+        <v>4.4285960775292885E-3</v>
+      </c>
+      <c r="E33" s="33">
+        <f t="shared" si="11"/>
+        <v>4.6307015512849214E-3</v>
+      </c>
+      <c r="F33" s="33">
+        <f t="shared" si="11"/>
+        <v>4.1597337770381809E-3</v>
+      </c>
+      <c r="G33" s="33">
+        <f t="shared" si="11"/>
+        <v>3.8610038610037791E-3</v>
+      </c>
+      <c r="H33" s="33">
+        <f t="shared" si="11"/>
+        <v>4.6319796954314976E-3</v>
+      </c>
+      <c r="I33" s="33">
+        <f>AVERAGE(C33:H33)</f>
+        <v>4.3936732393501194E-3</v>
+      </c>
+      <c r="J33" s="33">
+        <f>STDEV(C33:H33)</f>
+        <v>3.2198518175858984E-4</v>
+      </c>
+      <c r="K33" s="35">
+        <f t="shared" si="8"/>
+        <v>4.0716880575915292E-3</v>
+      </c>
+      <c r="L33" s="35">
+        <f t="shared" si="9"/>
+        <v>4.7156584211087097E-3</v>
+      </c>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+    </row>
+    <row r="34" spans="1:21" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="32"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+    </row>
+    <row r="35" spans="1:21" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="32"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+    </row>
+    <row r="36" spans="1:21" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="32"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+    </row>
+    <row r="37" spans="1:21" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="32"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+    </row>
+    <row r="38" spans="1:21" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="32"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+    </row>
+    <row r="39" spans="1:21" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="32"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+    </row>
+    <row r="40" spans="1:21" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="32"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+    </row>
+    <row r="41" spans="1:21" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="32"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+    </row>
+    <row r="42" spans="1:21" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="32"/>
+    </row>
+    <row r="43" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
         <v>249</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C43" t="s">
         <v>250</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D43" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E43" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F43" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G43" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H43" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="I29" s="25" t="s">
+      <c r="I43" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="J29" s="25" t="s">
+      <c r="J43" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K43" t="s">
         <v>251</v>
       </c>
-      <c r="L29" s="17" t="s">
+      <c r="L43" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="M29" s="17" t="s">
+      <c r="M43" s="17" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>245</v>
       </c>
-      <c r="B30" s="32">
+      <c r="B44" s="32">
         <f>B25-B$24</f>
         <v>1.1111111111111183E-2</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C44" s="33">
         <f>(C25-C$24)/C$24</f>
         <v>-1.2848751835536462E-3</v>
       </c>
-      <c r="D30" s="33">
-        <f t="shared" ref="D30:J30" si="4">(D25-D$24)/D$24</f>
+      <c r="D44" s="33">
+        <f>(N25-N$24)/N$24</f>
         <v>-1.2383900928792306E-3</v>
       </c>
-      <c r="E30" s="33">
-        <f t="shared" si="4"/>
+      <c r="E44" s="33">
+        <f>(D25-D$24)/D$24</f>
         <v>1.7254270431932557E-4</v>
       </c>
-      <c r="F30" s="33">
-        <f t="shared" si="4"/>
+      <c r="F44" s="33">
+        <f>(E25-E$24)/E$24</f>
         <v>-7.5248900208370708E-4</v>
       </c>
-      <c r="G30" s="33">
-        <f t="shared" si="4"/>
+      <c r="G44" s="33">
+        <f>(O25-O$24)/O$24</f>
         <v>-1.5806432001947445E-3</v>
       </c>
-      <c r="H30" s="33">
-        <f t="shared" si="4"/>
+      <c r="H44" s="33">
+        <f>(F25-F$24)/F$24</f>
         <v>-1.9966722129782974E-3</v>
       </c>
-      <c r="I30" s="33">
-        <f t="shared" si="4"/>
+      <c r="I44" s="33">
+        <f>(G25-G$24)/G$24</f>
         <v>-7.722007722006872E-4</v>
       </c>
-      <c r="J30" s="33">
-        <f t="shared" si="4"/>
+      <c r="J44" s="33">
+        <f>(H25-H$24)/H$24</f>
         <v>-1.5228426395938537E-3</v>
       </c>
-      <c r="K30" s="35">
-        <f>AVERAGE(C30:J30)</f>
+      <c r="K44" s="35">
+        <f>AVERAGE(C44:J44)</f>
         <v>-1.1219462998956053E-3</v>
       </c>
-      <c r="L30" s="33">
-        <f>K30-STDEV(G30:I30)</f>
+      <c r="L44" s="33">
+        <f>K44-STDEV(G44:I44)</f>
         <v>-1.7445737444318733E-3</v>
       </c>
-      <c r="M30" s="35">
-        <f>K30+STDEV(G30:I30)</f>
+      <c r="M44" s="35">
+        <f>K44+STDEV(G44:I44)</f>
         <v>-4.9931885535933729E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A31" s="25" t="s">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A45" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="B31" s="32">
-        <f t="shared" ref="B31:B33" si="5">B26-B$24</f>
+      <c r="B45" s="32">
+        <f>B26-B$24</f>
         <v>4.3750000000000067E-2</v>
       </c>
-      <c r="C31" s="33">
-        <f t="shared" ref="C31:J31" si="6">(C26-C$24)/C$24</f>
+      <c r="C45" s="33">
+        <f t="shared" ref="C45" si="12">(C26-C$24)/C$24</f>
         <v>-1.2236906510034002E-3</v>
       </c>
-      <c r="D31" s="33">
-        <f t="shared" si="6"/>
+      <c r="D45" s="33">
+        <f>(N26-N$24)/N$24</f>
         <v>-1.2383900928792306E-3</v>
       </c>
-      <c r="E31" s="33">
-        <f t="shared" si="6"/>
+      <c r="E45" s="33">
+        <f>(D26-D$24)/D$24</f>
         <v>-1.9554839822855537E-3</v>
       </c>
-      <c r="F31" s="33">
-        <f t="shared" si="6"/>
+      <c r="F45" s="33">
+        <f>(E26-E$24)/E$24</f>
         <v>-3.8203287798100802E-3</v>
       </c>
-      <c r="G31" s="33">
-        <f t="shared" si="6"/>
+      <c r="G45" s="33">
+        <f>(O26-O$24)/O$24</f>
         <v>-1.8846130463859418E-3</v>
       </c>
-      <c r="H31" s="33">
-        <f t="shared" si="6"/>
+      <c r="H45" s="33">
+        <f>(F26-F$24)/F$24</f>
         <v>-1.9966722129782974E-3</v>
       </c>
-      <c r="I31" s="33">
-        <f t="shared" si="6"/>
+      <c r="I45" s="33">
+        <f>(G26-G$24)/G$24</f>
         <v>-1.2870012870012596E-3</v>
       </c>
-      <c r="J31" s="33">
-        <f t="shared" si="6"/>
+      <c r="J45" s="33">
+        <f>(H26-H$24)/H$24</f>
         <v>-1.6497461928933884E-3</v>
       </c>
-      <c r="K31" s="35">
-        <f t="shared" ref="K31:K33" si="7">AVERAGE(C31:J31)</f>
+      <c r="K45" s="35">
+        <f t="shared" ref="K45:K47" si="13">AVERAGE(C45:J45)</f>
         <v>-1.8819907806546443E-3</v>
       </c>
-      <c r="L31" s="33">
-        <f t="shared" ref="L31:L33" si="8">K31-STDEV(G31:I31)</f>
+      <c r="L45" s="33">
+        <f t="shared" ref="L45:L47" si="14">K45-STDEV(G45:I45)</f>
         <v>-2.2635074676967131E-3</v>
       </c>
-      <c r="M31" s="35">
-        <f t="shared" ref="M31:M33" si="9">K31+STDEV(G31:I31)</f>
+      <c r="M45" s="35">
+        <f t="shared" ref="M45:M47" si="15">K45+STDEV(G45:I45)</f>
         <v>-1.5004740936125755E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A32" s="25" t="s">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A46" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="B32" s="32">
-        <f t="shared" si="5"/>
+      <c r="B46" s="32">
+        <f>B27-B$24</f>
         <v>0.14375000000000004</v>
       </c>
-      <c r="C32" s="33">
-        <f t="shared" ref="C32:J32" si="10">(C27-C$24)/C$24</f>
+      <c r="C46" s="33">
+        <f t="shared" ref="C46" si="16">(C27-C$24)/C$24</f>
         <v>-3.9158100832109672E-3</v>
       </c>
-      <c r="D32" s="33">
-        <f t="shared" si="10"/>
+      <c r="D46" s="33">
+        <f>(N27-N$24)/N$24</f>
         <v>-3.4674922600617577E-3</v>
       </c>
-      <c r="E32" s="33">
-        <f t="shared" si="10"/>
+      <c r="E46" s="33">
+        <f>(D27-D$24)/D$24</f>
         <v>-3.6233967907056326E-3</v>
       </c>
-      <c r="F32" s="33">
-        <f t="shared" si="10"/>
+      <c r="F46" s="33">
+        <f>(E27-E$24)/E$24</f>
         <v>-4.1097476267655418E-3</v>
       </c>
-      <c r="G32" s="33">
-        <f t="shared" si="10"/>
+      <c r="G46" s="33">
+        <f>(O27-O$24)/O$24</f>
         <v>-1.1307678278314786E-2</v>
       </c>
-      <c r="H32" s="33">
-        <f t="shared" si="10"/>
+      <c r="H46" s="33">
+        <f>(F27-F$24)/F$24</f>
         <v>-4.242928452579048E-3</v>
       </c>
-      <c r="I32" s="33">
-        <f t="shared" si="10"/>
+      <c r="I46" s="33">
+        <f>(G27-G$24)/G$24</f>
         <v>-2.5740025740025193E-3</v>
       </c>
-      <c r="J32" s="33">
-        <f t="shared" si="10"/>
+      <c r="J46" s="33">
+        <f>(H27-H$24)/H$24</f>
         <v>-3.2360406091370658E-3</v>
       </c>
-      <c r="K32" s="35">
-        <f t="shared" si="7"/>
+      <c r="K46" s="35">
+        <f t="shared" si="13"/>
         <v>-4.5596370843471647E-3</v>
       </c>
-      <c r="L32" s="33">
-        <f t="shared" si="8"/>
+      <c r="L46" s="33">
+        <f t="shared" si="14"/>
         <v>-9.1959627666899912E-3</v>
       </c>
-      <c r="M32" s="35">
-        <f t="shared" si="9"/>
+      <c r="M46" s="35">
+        <f t="shared" si="15"/>
         <v>7.6688597995660905E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="25" t="s">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A47" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="B33" s="32">
-        <f t="shared" si="5"/>
+      <c r="B47" s="32">
+        <f>B28-B$24</f>
         <v>0.25694444444444453</v>
       </c>
-      <c r="C33" s="33">
-        <f t="shared" ref="C33:J33" si="11">(C28-C$24)/C$24</f>
+      <c r="C47" s="33">
+        <f>(C28-C$24)/C$24</f>
         <v>-4.6500244738130513E-3</v>
       </c>
-      <c r="D33" s="33">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-      <c r="E33" s="33">
-        <f t="shared" si="11"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33">
+        <f>(D28-D$24)/D$24</f>
         <v>-4.4285960775292885E-3</v>
       </c>
-      <c r="F33" s="33">
-        <f t="shared" si="11"/>
+      <c r="F47" s="33">
+        <f>(E28-E$24)/E$24</f>
         <v>-4.6307015512849214E-3</v>
       </c>
-      <c r="G33" s="33">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-      <c r="H33" s="33">
-        <f t="shared" si="11"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33">
+        <f>(F28-F$24)/F$24</f>
         <v>-4.1597337770381809E-3</v>
       </c>
-      <c r="I33" s="33">
-        <f t="shared" si="11"/>
+      <c r="I47" s="33">
+        <f>(G28-G$24)/G$24</f>
         <v>-3.8610038610037791E-3</v>
       </c>
-      <c r="J33" s="33">
-        <f t="shared" si="11"/>
+      <c r="J47" s="33">
+        <f>(H28-H$24)/H$24</f>
         <v>-4.6319796954314976E-3</v>
       </c>
-      <c r="K33" s="35">
-        <f t="shared" si="7"/>
-        <v>-0.25329525492951255</v>
-      </c>
-      <c r="L33" s="33">
-        <f t="shared" si="8"/>
-        <v>-0.82833015600065474</v>
-      </c>
-      <c r="M33" s="35">
-        <f t="shared" si="9"/>
-        <v>0.32173964614162964</v>
+      <c r="K47" s="35">
+        <f t="shared" si="13"/>
+        <v>-4.3936732393501194E-3</v>
+      </c>
+      <c r="L47" s="33">
+        <f t="shared" si="14"/>
+        <v>-4.6049071887213329E-3</v>
+      </c>
+      <c r="M47" s="35">
+        <f t="shared" si="15"/>
+        <v>-4.1824392899789059E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>269</v>
+      </c>
+      <c r="B49" t="s">
+        <v>270</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="D49" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="E49" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="F49" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="G49" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="H49" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="I49" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="J49" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="K49" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="L49" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="M49" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="N49" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="O49" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="P49" s="53" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A50" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>17.952999999999999</v>
+      </c>
+      <c r="E50">
+        <v>20.675999999999998</v>
+      </c>
+      <c r="F50">
+        <v>16.07</v>
+      </c>
+      <c r="G50">
+        <v>8.5760000000000005</v>
+      </c>
+      <c r="H50" s="47">
+        <v>0</v>
+      </c>
+      <c r="I50" s="47">
+        <v>0</v>
+      </c>
+      <c r="J50" s="47">
+        <v>0</v>
+      </c>
+      <c r="K50" s="47">
+        <v>0</v>
+      </c>
+      <c r="L50" s="47">
+        <v>0</v>
+      </c>
+      <c r="M50" s="47">
+        <v>0</v>
+      </c>
+      <c r="N50" s="47">
+        <v>0</v>
+      </c>
+      <c r="O50" s="47">
+        <v>0</v>
+      </c>
+      <c r="P50" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A51" s="32">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="B51" s="52">
+        <f>(A51-A$50)*24</f>
+        <v>1.2666666666666675</v>
+      </c>
+      <c r="C51">
+        <v>18.495999999999999</v>
+      </c>
+      <c r="D51">
+        <v>17.919</v>
+      </c>
+      <c r="E51">
+        <v>20.641999999999999</v>
+      </c>
+      <c r="F51">
+        <v>16.007999999999999</v>
+      </c>
+      <c r="G51">
+        <v>8.5389999999999997</v>
+      </c>
+      <c r="H51" s="33">
+        <f>(C$51-C51)/C$51</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="33">
+        <f>(D$50-D51)/D$50</f>
+        <v>1.8938338996267433E-3</v>
+      </c>
+      <c r="J51" s="33">
+        <f t="shared" ref="J51:J55" si="17">(E$50-E51)/E$50</f>
+        <v>1.6444186496420449E-3</v>
+      </c>
+      <c r="K51" s="33">
+        <f t="shared" ref="K51:K55" si="18">(F$50-F51)/F$50</f>
+        <v>3.8581207218420142E-3</v>
+      </c>
+      <c r="L51" s="33">
+        <f t="shared" ref="L51:L55" si="19">(G$50-G51)/G$50</f>
+        <v>4.314365671641885E-3</v>
+      </c>
+      <c r="M51" s="33">
+        <f>AVERAGE(I51:L51)</f>
+        <v>2.9276847356881717E-3</v>
+      </c>
+      <c r="N51" s="33">
+        <f>STDEV(I51:L51)</f>
+        <v>1.3545250756001282E-3</v>
+      </c>
+      <c r="O51" s="35">
+        <f>M51-N51</f>
+        <v>1.5731596600880434E-3</v>
+      </c>
+      <c r="P51" s="35">
+        <f>M51+N51</f>
+        <v>4.2822098112882999E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A52" s="32">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="B52" s="52">
+        <f t="shared" ref="B52:B55" si="20">(A52-A$50)*24</f>
+        <v>2.4666666666666659</v>
+      </c>
+      <c r="C52">
+        <v>18.483000000000001</v>
+      </c>
+      <c r="D52">
+        <v>17.908000000000001</v>
+      </c>
+      <c r="E52">
+        <v>20.585000000000001</v>
+      </c>
+      <c r="F52">
+        <v>16.010999999999999</v>
+      </c>
+      <c r="G52">
+        <v>8.532</v>
+      </c>
+      <c r="H52" s="33">
+        <f t="shared" ref="H52:H55" si="21">(C$51-C52)/C$51</f>
+        <v>7.0285467128017548E-4</v>
+      </c>
+      <c r="I52" s="33">
+        <f t="shared" ref="I52:I55" si="22">(D$50-D52)/D$50</f>
+        <v>2.5065448671530194E-3</v>
+      </c>
+      <c r="J52" s="33">
+        <f t="shared" si="17"/>
+        <v>4.4012381505125521E-3</v>
+      </c>
+      <c r="K52" s="33">
+        <f t="shared" si="18"/>
+        <v>3.6714374611077193E-3</v>
+      </c>
+      <c r="L52" s="33">
+        <f t="shared" si="19"/>
+        <v>5.1305970149254296E-3</v>
+      </c>
+      <c r="M52" s="33">
+        <f t="shared" ref="M52:M55" si="23">AVERAGE(I52:L52)</f>
+        <v>3.9274543734246804E-3</v>
+      </c>
+      <c r="N52" s="33">
+        <f t="shared" ref="N52:N55" si="24">STDEV(I52:L52)</f>
+        <v>1.1190102423770951E-3</v>
+      </c>
+      <c r="O52" s="35">
+        <f t="shared" ref="O52:O55" si="25">M52-N52</f>
+        <v>2.8084441310475853E-3</v>
+      </c>
+      <c r="P52" s="35">
+        <f t="shared" ref="P52:P55" si="26">M52+N52</f>
+        <v>5.0464646158017755E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A53" s="32">
+        <v>0.65486111111111112</v>
+      </c>
+      <c r="B53" s="52">
+        <f t="shared" si="20"/>
+        <v>3.7166666666666668</v>
+      </c>
+      <c r="C53">
+        <v>18.472000000000001</v>
+      </c>
+      <c r="D53">
+        <v>17.898</v>
+      </c>
+      <c r="E53">
+        <v>20.611999999999998</v>
+      </c>
+      <c r="F53">
+        <v>16.006</v>
+      </c>
+      <c r="G53">
+        <v>8.532</v>
+      </c>
+      <c r="H53" s="33">
+        <f t="shared" si="21"/>
+        <v>1.2975778546711375E-3</v>
+      </c>
+      <c r="I53" s="33">
+        <f t="shared" si="22"/>
+        <v>3.0635548376315778E-3</v>
+      </c>
+      <c r="J53" s="33">
+        <f t="shared" si="17"/>
+        <v>3.0953762816792445E-3</v>
+      </c>
+      <c r="K53" s="33">
+        <f t="shared" si="18"/>
+        <v>3.9825762289981363E-3</v>
+      </c>
+      <c r="L53" s="33">
+        <f t="shared" si="19"/>
+        <v>5.1305970149254296E-3</v>
+      </c>
+      <c r="M53" s="33">
+        <f t="shared" si="23"/>
+        <v>3.8180260908085972E-3</v>
+      </c>
+      <c r="N53" s="33">
+        <f t="shared" si="24"/>
+        <v>9.7320241082731666E-4</v>
+      </c>
+      <c r="O53" s="35">
+        <f t="shared" si="25"/>
+        <v>2.8448236799812803E-3</v>
+      </c>
+      <c r="P53" s="35">
+        <f t="shared" si="26"/>
+        <v>4.791228501635914E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A54" s="32">
+        <v>0.6958333333333333</v>
+      </c>
+      <c r="B54" s="52">
+        <f t="shared" si="20"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="C54">
+        <v>18.463999999999999</v>
+      </c>
+      <c r="D54">
+        <v>17.896999999999998</v>
+      </c>
+      <c r="E54">
+        <v>20.613</v>
+      </c>
+      <c r="F54">
+        <v>16</v>
+      </c>
+      <c r="G54">
+        <v>8.5220000000000002</v>
+      </c>
+      <c r="H54" s="33">
+        <f t="shared" si="21"/>
+        <v>1.7301038062283753E-3</v>
+      </c>
+      <c r="I54" s="33">
+        <f t="shared" si="22"/>
+        <v>3.1192558346794931E-3</v>
+      </c>
+      <c r="J54" s="33">
+        <f t="shared" si="17"/>
+        <v>3.0470110272779473E-3</v>
+      </c>
+      <c r="K54" s="33">
+        <f t="shared" si="18"/>
+        <v>4.3559427504667259E-3</v>
+      </c>
+      <c r="L54" s="33">
+        <f t="shared" si="19"/>
+        <v>6.2966417910448073E-3</v>
+      </c>
+      <c r="M54" s="33">
+        <f t="shared" si="23"/>
+        <v>4.2047128508672432E-3</v>
+      </c>
+      <c r="N54" s="33">
+        <f t="shared" si="24"/>
+        <v>1.518500095447093E-3</v>
+      </c>
+      <c r="O54" s="35">
+        <f t="shared" si="25"/>
+        <v>2.6862127554201504E-3</v>
+      </c>
+      <c r="P54" s="35">
+        <f t="shared" si="26"/>
+        <v>5.723212946314336E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A55" s="32">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="B55" s="52">
+        <f t="shared" si="20"/>
+        <v>5.7500000000000009</v>
+      </c>
+      <c r="C55">
+        <v>18.472000000000001</v>
+      </c>
+      <c r="D55">
+        <v>17.893999999999998</v>
+      </c>
+      <c r="E55">
+        <v>20.622199999999999</v>
+      </c>
+      <c r="F55">
+        <v>16.004999999999999</v>
+      </c>
+      <c r="G55">
+        <v>8.5310000000000006</v>
+      </c>
+      <c r="H55" s="33">
+        <f t="shared" si="21"/>
+        <v>1.2975778546711375E-3</v>
+      </c>
+      <c r="I55" s="33">
+        <f t="shared" si="22"/>
+        <v>3.2863588258230411E-3</v>
+      </c>
+      <c r="J55" s="33">
+        <f t="shared" si="17"/>
+        <v>2.6020506867865624E-3</v>
+      </c>
+      <c r="K55" s="33">
+        <f t="shared" si="18"/>
+        <v>4.0448039825763081E-3</v>
+      </c>
+      <c r="L55" s="33">
+        <f t="shared" si="19"/>
+        <v>5.2472014925373052E-3</v>
+      </c>
+      <c r="M55" s="33">
+        <f t="shared" si="23"/>
+        <v>3.7951037469308039E-3</v>
+      </c>
+      <c r="N55" s="33">
+        <f t="shared" si="24"/>
+        <v>1.1333041765194648E-3</v>
+      </c>
+      <c r="O55" s="35">
+        <f t="shared" si="25"/>
+        <v>2.6617995704113391E-3</v>
+      </c>
+      <c r="P55" s="35">
+        <f t="shared" si="26"/>
+        <v>4.9284079234502686E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -43399,379 +45321,379 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:7" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="50">
+      <c r="A2" s="49">
         <v>102</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B2" s="49">
         <v>131</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="50">
+      <c r="A3" s="49">
         <v>106</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="49">
         <v>156</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="49">
         <v>1.4</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="50">
+      <c r="A4" s="49">
         <v>120</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="49">
         <v>194</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="49">
         <v>1.6</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
     </row>
     <row r="5" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="50">
+      <c r="A5" s="49">
         <v>146</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="49">
         <v>208</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="49">
         <v>1.8</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="50">
+      <c r="A6" s="49">
         <v>138</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="49">
         <v>186</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="49">
         <v>1.7</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="50">
+      <c r="A7" s="49">
         <v>133</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="49">
         <v>193</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="49">
         <v>1.65</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="50">
+      <c r="A8" s="49">
         <v>130</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8" s="49">
         <v>174</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="49">
         <v>1.6</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="50">
+      <c r="A9" s="49">
         <v>164</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="49">
         <v>309</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="49">
         <v>2</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="50">
+      <c r="A10" s="49">
         <v>159</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10" s="49">
         <v>246</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="49">
         <v>2</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
     </row>
     <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44524,8 +46446,158 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="7189" r:id="rId4" name="Control 21">
+        <control shapeId="7183" r:id="rId4" name="Control 15">
           <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>132</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>63500</xdr:colOff>
+                <xdr:row>137</xdr:row>
+                <xdr:rowOff>177800</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7183" r:id="rId4" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7184" r:id="rId6" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>135</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>136</xdr:row>
+                <xdr:rowOff>44450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7184" r:id="rId6" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7185" r:id="rId8" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>138</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>139</xdr:row>
+                <xdr:rowOff>44450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7185" r:id="rId8" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7186" r:id="rId9" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>140</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>141</xdr:row>
+                <xdr:rowOff>101600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7186" r:id="rId9" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7187" r:id="rId11" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>142</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>143</xdr:row>
+                <xdr:rowOff>50800</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7187" r:id="rId11" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7188" r:id="rId13" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>146</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>147</xdr:row>
+                <xdr:rowOff>44450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7188" r:id="rId13" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7189" r:id="rId15" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId16">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -44544,157 +46616,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="7189" r:id="rId4" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7188" r:id="rId6" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>146</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>147</xdr:row>
-                <xdr:rowOff>44450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7188" r:id="rId6" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7187" r:id="rId8" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>142</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>143</xdr:row>
-                <xdr:rowOff>50800</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7187" r:id="rId8" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7186" r:id="rId10" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>140</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>141</xdr:row>
-                <xdr:rowOff>101600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7186" r:id="rId10" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7185" r:id="rId12" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>138</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>139</xdr:row>
-                <xdr:rowOff>44450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7185" r:id="rId12" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7184" r:id="rId14" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>135</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>136</xdr:row>
-                <xdr:rowOff>44450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7184" r:id="rId14" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7183" r:id="rId15" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>132</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>63500</xdr:colOff>
-                <xdr:row>137</xdr:row>
-                <xdr:rowOff>177800</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7183" r:id="rId15" name="Control 15"/>
+        <control shapeId="7189" r:id="rId15" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
